--- a/Jogos_da_Semana_FlashScore_2025-04-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-05.xlsx
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="H2" t="n">
         <v>3.25</v>
@@ -656,10 +656,10 @@
         <v>1.75</v>
       </c>
       <c r="J2" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L2" t="n">
         <v>1.44</v>
@@ -668,10 +668,10 @@
         <v>2.75</v>
       </c>
       <c r="N2" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="O2" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="P2" t="n">
         <v>1.5</v>
@@ -686,7 +686,7 @@
         <v>1.67</v>
       </c>
       <c r="T2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U2" t="n">
         <v>29</v>
@@ -1022,10 +1022,10 @@
         <v>2.3</v>
       </c>
       <c r="J5" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L5" t="n">
         <v>1.25</v>
@@ -1046,10 +1046,10 @@
         <v>3</v>
       </c>
       <c r="R5" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S5" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T5" t="n">
         <v>12</v>
@@ -1094,7 +1094,7 @@
         <v>10</v>
       </c>
       <c r="AH5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI5" t="n">
         <v>19</v>
@@ -1638,16 +1638,16 @@
         <v>10</v>
       </c>
       <c r="L10" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M10" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N10" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="O10" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="P10" t="n">
         <v>1.4</v>
@@ -1662,13 +1662,13 @@
         <v>1.8</v>
       </c>
       <c r="T10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="V10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="W10" t="n">
         <v>51</v>
@@ -1680,7 +1680,7 @@
         <v>41</v>
       </c>
       <c r="Z10" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA10" t="n">
         <v>7</v>
@@ -1826,7 +1826,7 @@
         <v>8.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI11" t="n">
         <v>12</v>
@@ -1876,10 +1876,10 @@
         <v>4.2</v>
       </c>
       <c r="J12" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L12" t="n">
         <v>1.22</v>
@@ -2477,13 +2477,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H17" t="n">
         <v>2.6</v>
       </c>
       <c r="I17" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="J17" t="n">
         <v>1.17</v>
@@ -2555,7 +2555,7 @@
         <v>12</v>
       </c>
       <c r="AG17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH17" t="n">
         <v>29</v>
@@ -2608,10 +2608,10 @@
         <v>4.5</v>
       </c>
       <c r="J18" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="K18" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="L18" t="n">
         <v>1.57</v>
@@ -2730,10 +2730,10 @@
         <v>5.75</v>
       </c>
       <c r="J19" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K19" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L19" t="n">
         <v>1.5</v>
@@ -3087,19 +3087,19 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H22" t="n">
         <v>3.6</v>
       </c>
       <c r="I22" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="J22" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="K22" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="L22" t="n">
         <v>1.53</v>
@@ -3114,10 +3114,10 @@
         <v>1.44</v>
       </c>
       <c r="P22" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R22" t="n">
         <v>2.75</v>
@@ -3165,7 +3165,7 @@
         <v>29</v>
       </c>
       <c r="AG22" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH22" t="n">
         <v>81</v>
@@ -3819,19 +3819,19 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H28" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="I28" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="K28" t="n">
         <v>5</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="K28" t="n">
-        <v>5.5</v>
       </c>
       <c r="L28" t="n">
         <v>1.62</v>
@@ -3858,7 +3858,7 @@
         <v>1.5</v>
       </c>
       <c r="T28" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="U28" t="n">
         <v>7.5</v>
@@ -3870,7 +3870,7 @@
         <v>17</v>
       </c>
       <c r="X28" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y28" t="n">
         <v>41</v>
@@ -3891,7 +3891,7 @@
         <v>101</v>
       </c>
       <c r="AE28" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF28" t="n">
         <v>21</v>
@@ -4438,22 +4438,22 @@
         <v>2</v>
       </c>
       <c r="J33" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K33" t="n">
         <v>11</v>
       </c>
       <c r="L33" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M33" t="n">
         <v>3.5</v>
       </c>
       <c r="N33" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="O33" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="P33" t="n">
         <v>1.4</v>
@@ -4551,13 +4551,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="H34" t="n">
         <v>5.5</v>
       </c>
       <c r="I34" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="J34" t="n">
         <v>1.01</v>
@@ -4566,7 +4566,7 @@
         <v>26</v>
       </c>
       <c r="L34" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="M34" t="n">
         <v>8</v>
@@ -4620,7 +4620,7 @@
         <v>41</v>
       </c>
       <c r="AD34" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AE34" t="n">
         <v>34</v>
@@ -4929,7 +4929,7 @@
         <v>1.06</v>
       </c>
       <c r="K37" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L37" t="n">
         <v>1.33</v>
@@ -4938,10 +4938,10 @@
         <v>3.4</v>
       </c>
       <c r="N37" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="O37" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="P37" t="n">
         <v>1.44</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H42" t="n">
         <v>3.5</v>
@@ -5536,10 +5536,10 @@
         <v>5.5</v>
       </c>
       <c r="J42" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K42" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L42" t="n">
         <v>1.36</v>
@@ -5575,7 +5575,7 @@
         <v>9</v>
       </c>
       <c r="W42" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X42" t="n">
         <v>15</v>
@@ -5605,7 +5605,7 @@
         <v>26</v>
       </c>
       <c r="AG42" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH42" t="n">
         <v>51</v>
@@ -5771,13 +5771,13 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="H44" t="n">
         <v>3.4</v>
       </c>
       <c r="I44" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="J44" t="n">
         <v>1.06</v>
@@ -5813,7 +5813,7 @@
         <v>8.5</v>
       </c>
       <c r="U44" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V44" t="n">
         <v>10</v>
@@ -5846,7 +5846,7 @@
         <v>8.5</v>
       </c>
       <c r="AF44" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG44" t="n">
         <v>10</v>
@@ -5893,90 +5893,90 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>3.55</v>
+        <v>4.45</v>
       </c>
       <c r="H45" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="I45" t="n">
-        <v>1.98</v>
+        <v>1.75</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="M45" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="N45" t="n">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
       <c r="O45" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="P45" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="Q45" t="n">
         <v>2.57</v>
       </c>
       <c r="R45" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="S45" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="T45" t="n">
         <v>11.25</v>
       </c>
       <c r="U45" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="V45" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="W45" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="X45" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="Y45" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="Z45" t="n">
-        <v>10.25</v>
+        <v>9</v>
       </c>
       <c r="AA45" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="AB45" t="n">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="AC45" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AD45" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="AE45" t="n">
-        <v>7.3</v>
+        <v>6.6</v>
       </c>
       <c r="AF45" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AG45" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AH45" t="n">
-        <v>17.5</v>
+        <v>14</v>
       </c>
       <c r="AI45" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AJ45" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46">
@@ -6011,87 +6011,87 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.37</v>
+        <v>2.62</v>
       </c>
       <c r="H46" t="n">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="I46" t="n">
-        <v>3.05</v>
+        <v>2.62</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M46" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="N46" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="O46" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="P46" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.27</v>
+        <v>2.37</v>
       </c>
       <c r="R46" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="S46" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="T46" t="n">
-        <v>6.9</v>
+        <v>7.3</v>
       </c>
       <c r="U46" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="V46" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="W46" t="n">
+        <v>30</v>
+      </c>
+      <c r="X46" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>37</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>90</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>800</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI46" t="n">
         <v>25</v>
-      </c>
-      <c r="X46" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y46" t="n">
-        <v>35</v>
-      </c>
-      <c r="Z46" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AA46" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AB46" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC46" t="n">
-        <v>80</v>
-      </c>
-      <c r="AD46" t="n">
-        <v>700</v>
-      </c>
-      <c r="AE46" t="n">
-        <v>8</v>
-      </c>
-      <c r="AF46" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG46" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH46" t="n">
-        <v>40</v>
-      </c>
-      <c r="AI46" t="n">
-        <v>29</v>
       </c>
       <c r="AJ46" t="n">
         <v>40</v>
@@ -6129,10 +6129,10 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="H47" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I47" t="n">
         <v>1.95</v>
@@ -6140,79 +6140,79 @@
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="M47" t="n">
-        <v>2.47</v>
+        <v>2.42</v>
       </c>
       <c r="N47" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="O47" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P47" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.22</v>
+        <v>2.32</v>
       </c>
       <c r="R47" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="S47" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="T47" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="U47" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V47" t="n">
         <v>14</v>
       </c>
       <c r="W47" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="X47" t="n">
         <v>45</v>
       </c>
       <c r="Y47" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="Z47" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="AA47" t="n">
         <v>6</v>
       </c>
       <c r="AB47" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AC47" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AD47" t="n">
         <v>101</v>
       </c>
       <c r="AE47" t="n">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="AF47" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AG47" t="n">
         <v>8.75</v>
       </c>
       <c r="AH47" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI47" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ47" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48">
@@ -6365,19 +6365,19 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="H49" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I49" t="n">
+        <v>9</v>
+      </c>
+      <c r="J49" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K49" t="n">
         <v>11</v>
-      </c>
-      <c r="J49" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="K49" t="n">
-        <v>13</v>
       </c>
       <c r="L49" t="n">
         <v>1.22</v>
@@ -6401,19 +6401,19 @@
         <v>2.1</v>
       </c>
       <c r="S49" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="T49" t="n">
         <v>7</v>
       </c>
       <c r="U49" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="V49" t="n">
         <v>9</v>
       </c>
       <c r="W49" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X49" t="n">
         <v>12</v>
@@ -6425,7 +6425,7 @@
         <v>11</v>
       </c>
       <c r="AA49" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB49" t="n">
         <v>21</v>
@@ -6434,7 +6434,7 @@
         <v>67</v>
       </c>
       <c r="AD49" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="AE49" t="n">
         <v>21</v>
@@ -6443,16 +6443,16 @@
         <v>41</v>
       </c>
       <c r="AG49" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AH49" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AI49" t="n">
         <v>67</v>
       </c>
       <c r="AJ49" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50">
@@ -6487,19 +6487,19 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="H50" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I50" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J50" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K50" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L50" t="n">
         <v>1.44</v>
@@ -6523,7 +6523,7 @@
         <v>2.25</v>
       </c>
       <c r="S50" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="T50" t="n">
         <v>5</v>
@@ -6532,7 +6532,7 @@
         <v>7</v>
       </c>
       <c r="V50" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W50" t="n">
         <v>13</v>
@@ -6568,7 +6568,7 @@
         <v>19</v>
       </c>
       <c r="AH50" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI50" t="n">
         <v>51</v>
@@ -6645,7 +6645,7 @@
         <v>2</v>
       </c>
       <c r="S51" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="T51" t="n">
         <v>7</v>
@@ -6731,13 +6731,13 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="H52" t="n">
         <v>3.6</v>
       </c>
       <c r="I52" t="n">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="J52" t="n">
         <v>1.1</v>
@@ -6746,10 +6746,10 @@
         <v>7</v>
       </c>
       <c r="L52" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="M52" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="N52" t="n">
         <v>2.4</v>
@@ -6764,22 +6764,22 @@
         <v>2.38</v>
       </c>
       <c r="R52" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="S52" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T52" t="n">
         <v>5</v>
       </c>
       <c r="U52" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="V52" t="n">
         <v>9.5</v>
       </c>
       <c r="W52" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X52" t="n">
         <v>17</v>
@@ -6791,31 +6791,31 @@
         <v>7</v>
       </c>
       <c r="AA52" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB52" t="n">
         <v>23</v>
       </c>
       <c r="AC52" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AD52" t="n">
         <v>101</v>
       </c>
       <c r="AE52" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF52" t="n">
         <v>23</v>
       </c>
       <c r="AG52" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH52" t="n">
         <v>51</v>
       </c>
       <c r="AI52" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ52" t="n">
         <v>51</v>
@@ -6886,10 +6886,10 @@
         <v>2.63</v>
       </c>
       <c r="R53" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S53" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T53" t="n">
         <v>7</v>
@@ -7011,7 +7011,7 @@
         <v>2</v>
       </c>
       <c r="S54" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="T54" t="n">
         <v>12</v>
@@ -7097,46 +7097,46 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H55" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I55" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J55" t="n">
         <v>1.06</v>
       </c>
       <c r="K55" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L55" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M55" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N55" t="n">
-        <v>1.92</v>
+        <v>2.03</v>
       </c>
       <c r="O55" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="P55" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R55" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="S55" t="n">
         <v>1.8</v>
       </c>
       <c r="T55" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U55" t="n">
         <v>7.5</v>
@@ -7148,13 +7148,13 @@
         <v>13</v>
       </c>
       <c r="X55" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y55" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z55" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA55" t="n">
         <v>7</v>
@@ -7166,13 +7166,13 @@
         <v>51</v>
       </c>
       <c r="AD55" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE55" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF55" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG55" t="n">
         <v>17</v>
@@ -7463,22 +7463,22 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="H58" t="n">
         <v>3.3</v>
       </c>
       <c r="I58" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="J58" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K58" t="n">
         <v>9</v>
       </c>
       <c r="L58" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M58" t="n">
         <v>3</v>
@@ -7496,22 +7496,22 @@
         <v>2.63</v>
       </c>
       <c r="R58" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S58" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T58" t="n">
         <v>8</v>
       </c>
       <c r="U58" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V58" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W58" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X58" t="n">
         <v>23</v>
@@ -7532,7 +7532,7 @@
         <v>51</v>
       </c>
       <c r="AD58" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE58" t="n">
         <v>7.5</v>
@@ -7547,7 +7547,7 @@
         <v>26</v>
       </c>
       <c r="AI58" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ58" t="n">
         <v>34</v>
@@ -7594,13 +7594,13 @@
         <v>3.5</v>
       </c>
       <c r="J59" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K59" t="n">
         <v>8.5</v>
       </c>
       <c r="L59" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M59" t="n">
         <v>3</v>
@@ -7618,10 +7618,10 @@
         <v>2.5</v>
       </c>
       <c r="R59" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="S59" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="T59" t="n">
         <v>6.5</v>
@@ -7716,13 +7716,13 @@
         <v>6.5</v>
       </c>
       <c r="J60" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K60" t="n">
         <v>10</v>
       </c>
       <c r="L60" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M60" t="n">
         <v>3.5</v>
@@ -7743,7 +7743,7 @@
         <v>2.1</v>
       </c>
       <c r="S60" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="T60" t="n">
         <v>6</v>
@@ -7838,13 +7838,13 @@
         <v>2.38</v>
       </c>
       <c r="J61" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="K61" t="n">
         <v>8</v>
       </c>
       <c r="L61" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="M61" t="n">
         <v>3</v>
@@ -7862,10 +7862,10 @@
         <v>2.5</v>
       </c>
       <c r="R61" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="S61" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="T61" t="n">
         <v>8.5</v>
@@ -8073,19 +8073,19 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H63" t="n">
         <v>3.25</v>
       </c>
       <c r="I63" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J63" t="n">
         <v>1.07</v>
       </c>
       <c r="K63" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L63" t="n">
         <v>1.36</v>
@@ -8094,10 +8094,10 @@
         <v>3.2</v>
       </c>
       <c r="N63" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O63" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="P63" t="n">
         <v>1.44</v>
@@ -8145,7 +8145,7 @@
         <v>301</v>
       </c>
       <c r="AE63" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF63" t="n">
         <v>13</v>
@@ -8157,7 +8157,7 @@
         <v>29</v>
       </c>
       <c r="AI63" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ63" t="n">
         <v>34</v>
@@ -8195,13 +8195,13 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H64" t="n">
         <v>3.5</v>
       </c>
       <c r="I64" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J64" t="n">
         <v>1.06</v>
@@ -8216,16 +8216,16 @@
         <v>3.4</v>
       </c>
       <c r="N64" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="O64" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="P64" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q64" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R64" t="n">
         <v>1.83</v>
@@ -8234,7 +8234,7 @@
         <v>1.83</v>
       </c>
       <c r="T64" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U64" t="n">
         <v>8</v>
@@ -8258,7 +8258,7 @@
         <v>6.5</v>
       </c>
       <c r="AB64" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC64" t="n">
         <v>51</v>
@@ -9058,10 +9058,10 @@
         <v>3.75</v>
       </c>
       <c r="J71" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K71" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="L71" t="n">
         <v>1.44</v>
@@ -9302,10 +9302,10 @@
         <v>5.75</v>
       </c>
       <c r="J73" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K73" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L73" t="n">
         <v>1.3</v>
@@ -9549,19 +9549,19 @@
         <v>1.03</v>
       </c>
       <c r="K75" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L75" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M75" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N75" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="O75" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="P75" t="n">
         <v>1.3</v>
@@ -9576,7 +9576,7 @@
         <v>1.91</v>
       </c>
       <c r="T75" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U75" t="n">
         <v>7</v>
@@ -9597,7 +9597,7 @@
         <v>15</v>
       </c>
       <c r="AA75" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB75" t="n">
         <v>19</v>
@@ -9606,7 +9606,7 @@
         <v>51</v>
       </c>
       <c r="AD75" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE75" t="n">
         <v>19</v>
@@ -9662,16 +9662,16 @@
         <v>1.8</v>
       </c>
       <c r="H76" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I76" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J76" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K76" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L76" t="n">
         <v>1.4</v>
@@ -9692,22 +9692,22 @@
         <v>2.5</v>
       </c>
       <c r="R76" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S76" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="T76" t="n">
         <v>6</v>
       </c>
       <c r="U76" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V76" t="n">
         <v>9</v>
       </c>
       <c r="W76" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X76" t="n">
         <v>17</v>
@@ -9722,7 +9722,7 @@
         <v>6.5</v>
       </c>
       <c r="AB76" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC76" t="n">
         <v>67</v>
@@ -9734,10 +9734,10 @@
         <v>11</v>
       </c>
       <c r="AF76" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG76" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH76" t="n">
         <v>51</v>
@@ -9746,7 +9746,7 @@
         <v>41</v>
       </c>
       <c r="AJ76" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="77">
@@ -10406,10 +10406,10 @@
         <v>7</v>
       </c>
       <c r="L82" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M82" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="N82" t="n">
         <v>2.5</v>
@@ -10644,10 +10644,10 @@
         <v>1.7</v>
       </c>
       <c r="J84" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K84" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L84" t="n">
         <v>1.29</v>
@@ -11016,10 +11016,10 @@
         <v>8</v>
       </c>
       <c r="L87" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M87" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N87" t="n">
         <v>2.25</v>
@@ -11132,22 +11132,22 @@
         <v>5.5</v>
       </c>
       <c r="J88" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K88" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L88" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M88" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N88" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O88" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="P88" t="n">
         <v>1.5</v>
@@ -11388,10 +11388,10 @@
         <v>3.75</v>
       </c>
       <c r="N90" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="O90" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="P90" t="n">
         <v>1.36</v>
@@ -11855,19 +11855,19 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H94" t="n">
         <v>3.3</v>
       </c>
       <c r="I94" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="J94" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K94" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L94" t="n">
         <v>1.33</v>
@@ -11876,10 +11876,10 @@
         <v>3.25</v>
       </c>
       <c r="N94" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="O94" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="P94" t="n">
         <v>1.44</v>
@@ -11900,7 +11900,7 @@
         <v>11</v>
       </c>
       <c r="V94" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W94" t="n">
         <v>23</v>
@@ -11930,7 +11930,7 @@
         <v>8.5</v>
       </c>
       <c r="AF94" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG94" t="n">
         <v>11</v>
@@ -12102,10 +12102,10 @@
         <v>1.28</v>
       </c>
       <c r="H96" t="n">
-        <v>4.85</v>
+        <v>4.9</v>
       </c>
       <c r="I96" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
@@ -12113,72 +12113,72 @@
         <v>1.18</v>
       </c>
       <c r="M96" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="N96" t="n">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="O96" t="n">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="P96" t="inlineStr"/>
       <c r="Q96" t="inlineStr"/>
       <c r="R96" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="S96" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="T96" t="n">
-        <v>6.2</v>
+        <v>6.7</v>
       </c>
       <c r="U96" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="V96" t="n">
         <v>7.5</v>
       </c>
       <c r="W96" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="X96" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="Y96" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z96" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AA96" t="n">
         <v>8.75</v>
       </c>
       <c r="AB96" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC96" t="n">
+        <v>70</v>
+      </c>
+      <c r="AD96" t="n">
+        <v>450</v>
+      </c>
+      <c r="AE96" t="n">
         <v>19</v>
-      </c>
-      <c r="AC96" t="n">
-        <v>80</v>
-      </c>
-      <c r="AD96" t="n">
-        <v>600</v>
-      </c>
-      <c r="AE96" t="n">
-        <v>18</v>
       </c>
       <c r="AF96" t="n">
         <v>45</v>
       </c>
       <c r="AG96" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH96" t="n">
         <v>150</v>
       </c>
       <c r="AI96" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ96" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="97">
@@ -12213,13 +12213,13 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="H97" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I97" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
@@ -12238,28 +12238,28 @@
       <c r="P97" t="inlineStr"/>
       <c r="Q97" t="inlineStr"/>
       <c r="R97" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="S97" t="n">
-        <v>2.32</v>
+        <v>2.33</v>
       </c>
       <c r="T97" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="U97" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="V97" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="W97" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="X97" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y97" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z97" t="n">
         <v>13</v>
@@ -12268,31 +12268,31 @@
         <v>6.2</v>
       </c>
       <c r="AB97" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AC97" t="n">
         <v>35</v>
       </c>
       <c r="AD97" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AE97" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AF97" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AG97" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AH97" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AI97" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AJ97" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="98">
@@ -12330,10 +12330,10 @@
         <v>5.1</v>
       </c>
       <c r="H98" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="I98" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
@@ -12341,7 +12341,7 @@
         <v>1.2</v>
       </c>
       <c r="M98" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="N98" t="n">
         <v>1.6</v>
@@ -12352,10 +12352,10 @@
       <c r="P98" t="inlineStr"/>
       <c r="Q98" t="inlineStr"/>
       <c r="R98" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S98" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="T98" t="n">
         <v>13.5</v>
@@ -12400,7 +12400,7 @@
         <v>6.9</v>
       </c>
       <c r="AH98" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AI98" t="n">
         <v>9.5</v>
@@ -12441,13 +12441,13 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.02</v>
+        <v>1.82</v>
       </c>
       <c r="H99" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I99" t="n">
-        <v>2.95</v>
+        <v>3.45</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
@@ -12455,72 +12455,72 @@
         <v>1.21</v>
       </c>
       <c r="M99" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="N99" t="n">
         <v>1.6</v>
       </c>
       <c r="O99" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="P99" t="inlineStr"/>
       <c r="Q99" t="inlineStr"/>
       <c r="R99" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S99" t="n">
-        <v>2.19</v>
+        <v>2.16</v>
       </c>
       <c r="T99" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="U99" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="V99" t="n">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="W99" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="X99" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="Y99" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Z99" t="n">
         <v>13.5</v>
       </c>
       <c r="AA99" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AB99" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC99" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AD99" t="n">
         <v>200</v>
       </c>
       <c r="AE99" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF99" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AG99" t="n">
-        <v>9.25</v>
+        <v>10.25</v>
       </c>
       <c r="AH99" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AI99" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="AJ99" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="100">
@@ -12555,13 +12555,13 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2.62</v>
+        <v>2.85</v>
       </c>
       <c r="H100" t="n">
         <v>3.25</v>
       </c>
       <c r="I100" t="n">
-        <v>2.37</v>
+        <v>2.22</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
@@ -12589,19 +12589,19 @@
         <v>9.25</v>
       </c>
       <c r="U100" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="V100" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="W100" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="X100" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="Y100" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Z100" t="n">
         <v>12</v>
@@ -12619,22 +12619,22 @@
         <v>175</v>
       </c>
       <c r="AE100" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AF100" t="n">
-        <v>11.5</v>
+        <v>10.75</v>
       </c>
       <c r="AG100" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="AH100" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI100" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AJ100" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="101">
@@ -12919,7 +12919,7 @@
         <v>3.6</v>
       </c>
       <c r="I103" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="J103" t="n">
         <v>1.03</v>
@@ -12928,16 +12928,16 @@
         <v>15</v>
       </c>
       <c r="L103" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M103" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N103" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="O103" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="P103" t="n">
         <v>1.3</v>
@@ -12964,7 +12964,7 @@
         <v>41</v>
       </c>
       <c r="X103" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y103" t="n">
         <v>29</v>
@@ -12979,13 +12979,13 @@
         <v>12</v>
       </c>
       <c r="AC103" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD103" t="n">
         <v>126</v>
       </c>
       <c r="AE103" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF103" t="n">
         <v>11</v>
@@ -13169,7 +13169,7 @@
         <v>1.04</v>
       </c>
       <c r="K105" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L105" t="n">
         <v>1.25</v>
@@ -13404,10 +13404,10 @@
         <v>4.1</v>
       </c>
       <c r="H107" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I107" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="J107" t="n">
         <v>1.06</v>
@@ -13422,10 +13422,10 @@
         <v>3.4</v>
       </c>
       <c r="N107" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="O107" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="P107" t="n">
         <v>1.4</v>
@@ -13446,7 +13446,7 @@
         <v>21</v>
       </c>
       <c r="V107" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="W107" t="n">
         <v>41</v>
@@ -13476,7 +13476,7 @@
         <v>7</v>
       </c>
       <c r="AF107" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AG107" t="n">
         <v>8.5</v>
@@ -13523,13 +13523,13 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="H108" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I108" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="J108" t="n">
         <v>1.03</v>
@@ -13565,13 +13565,13 @@
         <v>8</v>
       </c>
       <c r="U108" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="V108" t="n">
         <v>8.5</v>
       </c>
       <c r="W108" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X108" t="n">
         <v>11</v>
@@ -13595,22 +13595,22 @@
         <v>251</v>
       </c>
       <c r="AE108" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF108" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG108" t="n">
         <v>21</v>
       </c>
       <c r="AH108" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AI108" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ108" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="109">
@@ -13714,7 +13714,7 @@
         <v>51</v>
       </c>
       <c r="AD109" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AE109" t="n">
         <v>9.5</v>
@@ -14386,10 +14386,10 @@
         <v>2.3</v>
       </c>
       <c r="J115" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K115" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L115" t="n">
         <v>1.36</v>
@@ -14737,13 +14737,13 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="H118" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I118" t="n">
-        <v>2.27</v>
+        <v>2.92</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
@@ -14769,58 +14769,58 @@
         <v>1.75</v>
       </c>
       <c r="S118" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="T118" t="n">
-        <v>8.75</v>
+        <v>7.7</v>
       </c>
       <c r="U118" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="V118" t="n">
-        <v>11</v>
+        <v>9.25</v>
       </c>
       <c r="W118" t="n">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="X118" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="Y118" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="Z118" t="n">
         <v>8.25</v>
       </c>
       <c r="AA118" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AB118" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC118" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AD118" t="n">
         <v>600</v>
       </c>
       <c r="AE118" t="n">
-        <v>7.3</v>
+        <v>8.25</v>
       </c>
       <c r="AF118" t="n">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="AG118" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="AH118" t="n">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="AI118" t="n">
-        <v>19.5</v>
+        <v>28</v>
       </c>
       <c r="AJ118" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="119">
@@ -14982,22 +14982,22 @@
         <v>2.7</v>
       </c>
       <c r="J120" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K120" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L120" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M120" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N120" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="O120" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="P120" t="n">
         <v>1.4</v>
@@ -15844,10 +15844,10 @@
         <v>3.25</v>
       </c>
       <c r="N127" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="O127" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="P127" t="n">
         <v>1.4</v>
@@ -16216,10 +16216,10 @@
         <v>1.53</v>
       </c>
       <c r="P130" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q130" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="R130" t="n">
         <v>2.05</v>
@@ -16323,13 +16323,13 @@
         <v>1.08</v>
       </c>
       <c r="K131" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L131" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M131" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="N131" t="n">
         <v>2.35</v>
@@ -16338,10 +16338,10 @@
         <v>1.57</v>
       </c>
       <c r="P131" t="n">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="Q131" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R131" t="n">
         <v>2.1</v>
@@ -16460,10 +16460,10 @@
         <v>1.53</v>
       </c>
       <c r="P132" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q132" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="R132" t="n">
         <v>2</v>
@@ -16555,94 +16555,94 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2</v>
+        <v>2.27</v>
       </c>
       <c r="H133" t="n">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="I133" t="n">
-        <v>3.65</v>
+        <v>3.15</v>
       </c>
       <c r="J133" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K133" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="L133" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="M133" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="N133" t="n">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
       <c r="O133" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="P133" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="Q133" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R133" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S133" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="T133" t="n">
-        <v>5.6</v>
+        <v>6.1</v>
       </c>
       <c r="U133" t="n">
-        <v>8.25</v>
+        <v>10</v>
       </c>
       <c r="V133" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="W133" t="n">
-        <v>17.5</v>
+        <v>23</v>
       </c>
       <c r="X133" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="Y133" t="n">
         <v>40</v>
       </c>
       <c r="Z133" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="AA133" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="AB133" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AC133" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AD133" t="n">
         <v>101</v>
       </c>
       <c r="AE133" t="n">
-        <v>8.5</v>
+        <v>7.3</v>
       </c>
       <c r="AF133" t="n">
-        <v>18</v>
+        <v>14.5</v>
       </c>
       <c r="AG133" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AH133" t="n">
+        <v>45</v>
+      </c>
+      <c r="AI133" t="n">
+        <v>35</v>
+      </c>
+      <c r="AJ133" t="n">
         <v>55</v>
-      </c>
-      <c r="AI133" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ133" t="n">
-        <v>60</v>
       </c>
     </row>
     <row r="134">
@@ -16799,13 +16799,13 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2.27</v>
+        <v>2.4</v>
       </c>
       <c r="H135" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="I135" t="n">
         <v>2.95</v>
-      </c>
-      <c r="I135" t="n">
-        <v>3.15</v>
       </c>
       <c r="J135" t="n">
         <v>1.13</v>
@@ -16829,7 +16829,7 @@
         <v>1.62</v>
       </c>
       <c r="Q135" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="R135" t="n">
         <v>2.3</v>
@@ -16838,19 +16838,19 @@
         <v>1.55</v>
       </c>
       <c r="T135" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="U135" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="V135" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="W135" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="X135" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Y135" t="n">
         <v>55</v>
@@ -16871,19 +16871,19 @@
         <v>1000</v>
       </c>
       <c r="AE135" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="AF135" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG135" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH135" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AI135" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AJ135" t="n">
         <v>65</v>
@@ -16930,7 +16930,7 @@
         <v>3.15</v>
       </c>
       <c r="J136" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="K136" t="n">
         <v>6</v>
@@ -16975,7 +16975,7 @@
         <v>21</v>
       </c>
       <c r="Y136" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Z136" t="n">
         <v>6</v>
@@ -16999,7 +16999,7 @@
         <v>15.5</v>
       </c>
       <c r="AG136" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AH136" t="n">
         <v>45</v>
@@ -17061,7 +17061,7 @@
         <v>1.44</v>
       </c>
       <c r="M137" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="N137" t="n">
         <v>2.27</v>
@@ -17076,10 +17076,10 @@
         <v>2.37</v>
       </c>
       <c r="R137" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S137" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="T137" t="n">
         <v>7.5</v>
@@ -17112,16 +17112,16 @@
         <v>100</v>
       </c>
       <c r="AD137" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AE137" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AF137" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AG137" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AH137" t="n">
         <v>23</v>
@@ -17130,7 +17130,7 @@
         <v>22</v>
       </c>
       <c r="AJ137" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="138">
@@ -17165,67 +17165,67 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="H138" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="I138" t="n">
-        <v>4.65</v>
+        <v>5</v>
       </c>
       <c r="J138" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K138" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="L138" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M138" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="N138" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="O138" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P138" t="n">
         <v>1.53</v>
       </c>
-      <c r="M138" t="n">
+      <c r="Q138" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R138" t="n">
         <v>2.35</v>
       </c>
-      <c r="N138" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="O138" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="P138" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Q138" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="R138" t="n">
-        <v>2.37</v>
-      </c>
       <c r="S138" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="T138" t="n">
-        <v>4.85</v>
+        <v>4.9</v>
       </c>
       <c r="U138" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="V138" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="W138" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X138" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="Y138" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Z138" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="AA138" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="AB138" t="n">
         <v>24</v>
@@ -17237,19 +17237,19 @@
         <v>101</v>
       </c>
       <c r="AE138" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="AF138" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AG138" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AH138" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AI138" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AJ138" t="n">
         <v>90</v>
@@ -17290,28 +17290,28 @@
         <v>2.35</v>
       </c>
       <c r="H139" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="I139" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="J139" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="K139" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="L139" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="M139" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="N139" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="O139" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="P139" t="n">
         <v>1.62</v>
@@ -17320,16 +17320,16 @@
         <v>2.15</v>
       </c>
       <c r="R139" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="S139" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="T139" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="U139" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="V139" t="n">
         <v>10.25</v>
@@ -17338,22 +17338,22 @@
         <v>25</v>
       </c>
       <c r="X139" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Y139" t="n">
         <v>50</v>
       </c>
       <c r="Z139" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AA139" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AB139" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AC139" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AD139" t="n">
         <v>101</v>
@@ -17374,7 +17374,7 @@
         <v>35</v>
       </c>
       <c r="AJ139" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="140">
@@ -17689,10 +17689,10 @@
         <v>1.9</v>
       </c>
       <c r="S142" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="T142" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="U142" t="n">
         <v>12</v>
@@ -17775,94 +17775,94 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="H143" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="I143" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="J143" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="K143" t="n">
-        <v>7.1</v>
+        <v>6.4</v>
       </c>
       <c r="L143" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="M143" t="n">
-        <v>3.05</v>
+        <v>2.75</v>
       </c>
       <c r="N143" t="n">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="O143" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="P143" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="Q143" t="n">
-        <v>2.65</v>
+        <v>2.42</v>
       </c>
       <c r="R143" t="n">
-        <v>1.8</v>
+        <v>1.93</v>
       </c>
       <c r="S143" t="n">
-        <v>1.9</v>
+        <v>1.78</v>
       </c>
       <c r="T143" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="U143" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="V143" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="W143" t="n">
         <v>37</v>
       </c>
       <c r="X143" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Y143" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="Z143" t="n">
-        <v>7.1</v>
+        <v>6.4</v>
       </c>
       <c r="AA143" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AB143" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC143" t="n">
+        <v>90</v>
+      </c>
+      <c r="AD143" t="n">
+        <v>900</v>
+      </c>
+      <c r="AE143" t="n">
         <v>6.6</v>
       </c>
-      <c r="AB143" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC143" t="n">
-        <v>70</v>
-      </c>
-      <c r="AD143" t="n">
-        <v>600</v>
-      </c>
-      <c r="AE143" t="n">
-        <v>7.4</v>
-      </c>
       <c r="AF143" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AG143" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AH143" t="n">
         <v>20</v>
       </c>
       <c r="AI143" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AJ143" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="144">
@@ -17897,22 +17897,22 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="H144" t="n">
         <v>3.25</v>
       </c>
       <c r="I144" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="J144" t="n">
         <v>1.08</v>
       </c>
       <c r="K144" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="L144" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M144" t="n">
         <v>2.87</v>
@@ -17939,7 +17939,7 @@
         <v>9.25</v>
       </c>
       <c r="U144" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="V144" t="n">
         <v>12.5</v>
@@ -17948,13 +17948,13 @@
         <v>50</v>
       </c>
       <c r="X144" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y144" t="n">
         <v>45</v>
       </c>
       <c r="Z144" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AA144" t="n">
         <v>6.4</v>
@@ -17975,16 +17975,16 @@
         <v>9</v>
       </c>
       <c r="AG144" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AH144" t="n">
         <v>17.5</v>
       </c>
       <c r="AI144" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AJ144" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="145">
@@ -18141,13 +18141,13 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H146" t="n">
         <v>3.1</v>
       </c>
       <c r="I146" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J146" t="n">
         <v>1.08</v>
@@ -18183,16 +18183,16 @@
         <v>6.5</v>
       </c>
       <c r="U146" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V146" t="n">
         <v>9.5</v>
       </c>
       <c r="W146" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X146" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y146" t="n">
         <v>34</v>
@@ -18400,16 +18400,16 @@
         <v>11</v>
       </c>
       <c r="L148" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M148" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N148" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="O148" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="P148" t="n">
         <v>1.4</v>
@@ -18507,19 +18507,19 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="H149" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I149" t="n">
         <v>3</v>
       </c>
       <c r="J149" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K149" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L149" t="n">
         <v>1.4</v>
@@ -18534,16 +18534,16 @@
         <v>1.62</v>
       </c>
       <c r="P149" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q149" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R149" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S149" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="T149" t="n">
         <v>7</v>
@@ -18564,7 +18564,7 @@
         <v>34</v>
       </c>
       <c r="Z149" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA149" t="n">
         <v>6</v>
@@ -18582,7 +18582,7 @@
         <v>8</v>
       </c>
       <c r="AF149" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG149" t="n">
         <v>12</v>
@@ -18591,7 +18591,7 @@
         <v>34</v>
       </c>
       <c r="AI149" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ149" t="n">
         <v>41</v>
@@ -18635,7 +18635,7 @@
         <v>3.6</v>
       </c>
       <c r="I150" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="J150" t="n">
         <v>1.04</v>
@@ -18650,10 +18650,10 @@
         <v>3.75</v>
       </c>
       <c r="N150" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="O150" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="P150" t="n">
         <v>1.36</v>
@@ -18686,7 +18686,7 @@
         <v>26</v>
       </c>
       <c r="Z150" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA150" t="n">
         <v>7</v>
@@ -18871,19 +18871,19 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H152" t="n">
         <v>3.6</v>
       </c>
       <c r="I152" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J152" t="n">
         <v>1.07</v>
       </c>
       <c r="K152" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L152" t="n">
         <v>1.4</v>
@@ -18904,10 +18904,10 @@
         <v>2.5</v>
       </c>
       <c r="R152" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S152" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T152" t="n">
         <v>6</v>
@@ -18943,19 +18943,19 @@
         <v>101</v>
       </c>
       <c r="AE152" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF152" t="n">
         <v>19</v>
       </c>
       <c r="AG152" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH152" t="n">
         <v>41</v>
       </c>
       <c r="AI152" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ152" t="n">
         <v>41</v>
@@ -19014,10 +19014,10 @@
         <v>3.25</v>
       </c>
       <c r="N153" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="O153" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="P153" t="n">
         <v>1.44</v>
@@ -19118,7 +19118,7 @@
         <v>2.32</v>
       </c>
       <c r="H154" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I154" t="n">
         <v>2.57</v>
@@ -19129,13 +19129,13 @@
         <v>1.21</v>
       </c>
       <c r="M154" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="N154" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="O154" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="P154" t="n">
         <v>1.38</v>
@@ -19144,16 +19144,16 @@
         <v>2.47</v>
       </c>
       <c r="R154" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="S154" t="n">
-        <v>2.25</v>
+        <v>2.23</v>
       </c>
       <c r="T154" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="U154" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="V154" t="n">
         <v>7.9</v>
@@ -19162,10 +19162,10 @@
         <v>19.5</v>
       </c>
       <c r="X154" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y154" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Z154" t="n">
         <v>12.5</v>
@@ -19174,7 +19174,7 @@
         <v>6.1</v>
       </c>
       <c r="AB154" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AC154" t="n">
         <v>35</v>
@@ -19183,7 +19183,7 @@
         <v>200</v>
       </c>
       <c r="AE154" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AF154" t="n">
         <v>12</v>
@@ -19236,10 +19236,10 @@
         <v>2.9</v>
       </c>
       <c r="H155" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I155" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
@@ -19268,7 +19268,7 @@
         <v>1.78</v>
       </c>
       <c r="T155" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="U155" t="n">
         <v>11.5</v>
@@ -19283,28 +19283,28 @@
         <v>22</v>
       </c>
       <c r="Y155" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z155" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AA155" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AB155" t="n">
         <v>13</v>
       </c>
       <c r="AC155" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AD155" t="n">
         <v>500</v>
       </c>
       <c r="AE155" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AF155" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AG155" t="n">
         <v>7.8</v>
@@ -19316,7 +19316,7 @@
         <v>16</v>
       </c>
       <c r="AJ155" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="156">
@@ -19475,49 +19475,49 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H158" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I158" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J158" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K158" t="n">
+        <v>21</v>
+      </c>
+      <c r="L158" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="M158" t="n">
+        <v>6</v>
+      </c>
+      <c r="N158" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="O158" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="P158" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q158" t="n">
         <v>3.75</v>
       </c>
-      <c r="I158" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="J158" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K158" t="n">
+      <c r="R158" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S158" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="T158" t="n">
+        <v>15</v>
+      </c>
+      <c r="U158" t="n">
         <v>17</v>
-      </c>
-      <c r="L158" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="M158" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="N158" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="O158" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="P158" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="Q158" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="R158" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S158" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="T158" t="n">
-        <v>13</v>
-      </c>
-      <c r="U158" t="n">
-        <v>15</v>
       </c>
       <c r="V158" t="n">
         <v>10</v>
@@ -19529,13 +19529,13 @@
         <v>17</v>
       </c>
       <c r="Y158" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z158" t="n">
         <v>21</v>
       </c>
-      <c r="Z158" t="n">
-        <v>19</v>
-      </c>
       <c r="AA158" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB158" t="n">
         <v>11</v>
@@ -19544,10 +19544,10 @@
         <v>29</v>
       </c>
       <c r="AD158" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AE158" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF158" t="n">
         <v>17</v>
@@ -19559,7 +19559,7 @@
         <v>29</v>
       </c>
       <c r="AI158" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ158" t="n">
         <v>21</v>
@@ -19597,31 +19597,31 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>4.33</v>
+        <v>3.6</v>
       </c>
       <c r="H159" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I159" t="n">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="J159" t="n">
         <v>1.06</v>
       </c>
       <c r="K159" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L159" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M159" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N159" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="O159" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="P159" t="n">
         <v>1.44</v>
@@ -19630,25 +19630,25 @@
         <v>2.63</v>
       </c>
       <c r="R159" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="S159" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="T159" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U159" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="V159" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="W159" t="n">
         <v>41</v>
       </c>
       <c r="X159" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Y159" t="n">
         <v>41</v>
@@ -19666,22 +19666,22 @@
         <v>51</v>
       </c>
       <c r="AD159" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE159" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AF159" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AG159" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH159" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AI159" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ159" t="n">
         <v>29</v>
@@ -19719,13 +19719,13 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="H160" t="n">
         <v>3.5</v>
       </c>
       <c r="I160" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="J160" t="n">
         <v>1.05</v>
@@ -19761,16 +19761,16 @@
         <v>8</v>
       </c>
       <c r="U160" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V160" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W160" t="n">
+        <v>19</v>
+      </c>
+      <c r="X160" t="n">
         <v>17</v>
-      </c>
-      <c r="X160" t="n">
-        <v>15</v>
       </c>
       <c r="Y160" t="n">
         <v>26</v>
@@ -19791,13 +19791,13 @@
         <v>201</v>
       </c>
       <c r="AE160" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF160" t="n">
         <v>19</v>
       </c>
       <c r="AG160" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH160" t="n">
         <v>41</v>
@@ -19841,13 +19841,13 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="H161" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I161" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="J161" t="n">
         <v>1.05</v>
@@ -19862,10 +19862,10 @@
         <v>3.75</v>
       </c>
       <c r="N161" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="O161" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="P161" t="n">
         <v>1.4</v>
@@ -19880,13 +19880,13 @@
         <v>2.05</v>
       </c>
       <c r="T161" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U161" t="n">
         <v>15</v>
       </c>
       <c r="V161" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W161" t="n">
         <v>29</v>
@@ -19910,7 +19910,7 @@
         <v>41</v>
       </c>
       <c r="AD161" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE161" t="n">
         <v>9</v>
@@ -19972,10 +19972,10 @@
         <v>3.4</v>
       </c>
       <c r="J162" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K162" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L162" t="n">
         <v>1.3</v>
@@ -20085,7 +20085,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="H163" t="n">
         <v>3.5</v>
@@ -20094,22 +20094,22 @@
         <v>4.1</v>
       </c>
       <c r="J163" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K163" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L163" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M163" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N163" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="O163" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="P163" t="n">
         <v>1.4</v>
@@ -20207,13 +20207,13 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="H164" t="n">
         <v>3.4</v>
       </c>
       <c r="I164" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
@@ -20224,21 +20224,21 @@
         <v>3.25</v>
       </c>
       <c r="N164" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="O164" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="P164" t="inlineStr"/>
       <c r="Q164" t="inlineStr"/>
       <c r="R164" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S164" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="T164" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="U164" t="n">
         <v>9.5</v>
@@ -20247,46 +20247,46 @@
         <v>8.25</v>
       </c>
       <c r="W164" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="X164" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Y164" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z164" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AA164" t="n">
         <v>6.7</v>
       </c>
       <c r="AB164" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC164" t="n">
         <v>55</v>
       </c>
       <c r="AD164" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AE164" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AF164" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG164" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH164" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AI164" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AJ164" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="165">
@@ -20321,27 +20321,27 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H165" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I165" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="M165" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="N165" t="n">
         <v>1.72</v>
       </c>
       <c r="O165" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="P165" t="inlineStr"/>
       <c r="Q165" t="inlineStr"/>
@@ -20349,7 +20349,7 @@
         <v>1.75</v>
       </c>
       <c r="S165" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="T165" t="n">
         <v>7.1</v>
@@ -20370,22 +20370,22 @@
         <v>24</v>
       </c>
       <c r="Z165" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AA165" t="n">
         <v>7.3</v>
       </c>
       <c r="AB165" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC165" t="n">
         <v>70</v>
       </c>
       <c r="AD165" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AE165" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AF165" t="n">
         <v>32</v>
@@ -20400,7 +20400,7 @@
         <v>55</v>
       </c>
       <c r="AJ165" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="166">
@@ -20435,13 +20435,13 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>4.15</v>
+        <v>4.35</v>
       </c>
       <c r="H166" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I166" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
@@ -20466,16 +20466,16 @@
         <v>1.98</v>
       </c>
       <c r="T166" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="U166" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="V166" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="W166" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="X166" t="n">
         <v>40</v>
@@ -20487,34 +20487,34 @@
         <v>11.75</v>
       </c>
       <c r="AA166" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AB166" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC166" t="n">
         <v>60</v>
       </c>
       <c r="AD166" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AE166" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AF166" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AG166" t="n">
         <v>8</v>
       </c>
       <c r="AH166" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AI166" t="n">
         <v>13</v>
       </c>
       <c r="AJ166" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="167">
@@ -20558,16 +20558,16 @@
         <v>9.5</v>
       </c>
       <c r="J167" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K167" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L167" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="M167" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="N167" t="n">
         <v>1.4</v>
@@ -20582,13 +20582,13 @@
         <v>4</v>
       </c>
       <c r="R167" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S167" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="T167" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U167" t="n">
         <v>7.5</v>
@@ -20606,7 +20606,7 @@
         <v>23</v>
       </c>
       <c r="Z167" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA167" t="n">
         <v>13</v>
@@ -20618,10 +20618,10 @@
         <v>51</v>
       </c>
       <c r="AD167" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE167" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF167" t="n">
         <v>51</v>
@@ -20633,7 +20633,7 @@
         <v>126</v>
       </c>
       <c r="AI167" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AJ167" t="n">
         <v>51</v>
@@ -20671,19 +20671,19 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H168" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I168" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J168" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K168" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L168" t="n">
         <v>1.25</v>
@@ -20692,10 +20692,10 @@
         <v>3.75</v>
       </c>
       <c r="N168" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="O168" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="P168" t="n">
         <v>1.36</v>
@@ -20725,7 +20725,7 @@
         <v>13</v>
       </c>
       <c r="Y168" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z168" t="n">
         <v>11</v>
@@ -20746,7 +20746,7 @@
         <v>13</v>
       </c>
       <c r="AF168" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG168" t="n">
         <v>15</v>
@@ -20793,10 +20793,10 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H169" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I169" t="n">
         <v>3.2</v>
@@ -20808,16 +20808,16 @@
         <v>17</v>
       </c>
       <c r="L169" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="M169" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="N169" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="O169" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="P169" t="n">
         <v>1.29</v>
@@ -20832,16 +20832,16 @@
         <v>2.5</v>
       </c>
       <c r="T169" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U169" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V169" t="n">
         <v>9</v>
       </c>
       <c r="W169" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X169" t="n">
         <v>15</v>
@@ -20856,7 +20856,7 @@
         <v>7.5</v>
       </c>
       <c r="AB169" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC169" t="n">
         <v>34</v>
@@ -20930,16 +20930,16 @@
         <v>13</v>
       </c>
       <c r="L170" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M170" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N170" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="O170" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="P170" t="n">
         <v>1.33</v>
@@ -21302,10 +21302,10 @@
         <v>4</v>
       </c>
       <c r="N173" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O173" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="P173" t="n">
         <v>1.36</v>
@@ -21656,16 +21656,16 @@
         <v>3.1</v>
       </c>
       <c r="J176" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K176" t="n">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="L176" t="n">
         <v>1.45</v>
       </c>
       <c r="M176" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="N176" t="n">
         <v>2.35</v>
@@ -21677,13 +21677,13 @@
         <v>1.5</v>
       </c>
       <c r="Q176" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="R176" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S176" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="T176" t="n">
         <v>6.5</v>
@@ -21692,7 +21692,7 @@
         <v>9.5</v>
       </c>
       <c r="V176" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W176" t="n">
         <v>21</v>
@@ -21716,10 +21716,10 @@
         <v>67</v>
       </c>
       <c r="AD176" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AE176" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF176" t="n">
         <v>15</v>
@@ -21790,10 +21790,10 @@
         <v>2.75</v>
       </c>
       <c r="N177" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O177" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="P177" t="n">
         <v>1.5</v>
@@ -22022,22 +22022,22 @@
         <v>6</v>
       </c>
       <c r="J179" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K179" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L179" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M179" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N179" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="O179" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="P179" t="n">
         <v>1.33</v>
@@ -22144,22 +22144,22 @@
         <v>3.75</v>
       </c>
       <c r="J180" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K180" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L180" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M180" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="N180" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="O180" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="P180" t="n">
         <v>1.5</v>
@@ -22379,13 +22379,13 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H182" t="n">
         <v>3.4</v>
       </c>
       <c r="I182" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J182" t="n">
         <v>1.04</v>
@@ -22394,16 +22394,16 @@
         <v>12</v>
       </c>
       <c r="L182" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M182" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N182" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="O182" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="P182" t="n">
         <v>1.36</v>
@@ -22421,7 +22421,7 @@
         <v>8.5</v>
       </c>
       <c r="U182" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V182" t="n">
         <v>9</v>
@@ -22466,7 +22466,7 @@
         <v>26</v>
       </c>
       <c r="AJ182" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="183">
@@ -22867,13 +22867,13 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="H186" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I186" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="J186" t="n">
         <v>1.05</v>
@@ -22888,10 +22888,10 @@
         <v>3.75</v>
       </c>
       <c r="N186" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="O186" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="P186" t="n">
         <v>1.36</v>
@@ -22906,13 +22906,13 @@
         <v>1.91</v>
       </c>
       <c r="T186" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="U186" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="V186" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="W186" t="n">
         <v>51</v>
@@ -22927,7 +22927,7 @@
         <v>11</v>
       </c>
       <c r="AA186" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB186" t="n">
         <v>15</v>
@@ -22948,7 +22948,7 @@
         <v>8.5</v>
       </c>
       <c r="AH186" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI186" t="n">
         <v>13</v>
@@ -22992,7 +22992,7 @@
         <v>2.5</v>
       </c>
       <c r="H187" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I187" t="n">
         <v>2.9</v>
@@ -23719,25 +23719,25 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H193" t="n">
         <v>3</v>
       </c>
       <c r="I193" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="J193" t="n">
         <v>1.08</v>
       </c>
       <c r="K193" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L193" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M193" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N193" t="n">
         <v>2.25</v>
@@ -23758,7 +23758,7 @@
         <v>1.8</v>
       </c>
       <c r="T193" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U193" t="n">
         <v>15</v>
@@ -23776,13 +23776,13 @@
         <v>41</v>
       </c>
       <c r="Z193" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA193" t="n">
         <v>6</v>
       </c>
       <c r="AB193" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC193" t="n">
         <v>51</v>
@@ -23841,13 +23841,13 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H194" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I194" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J194" t="n">
         <v>1.08</v>
@@ -23880,7 +23880,7 @@
         <v>1.57</v>
       </c>
       <c r="T194" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="U194" t="n">
         <v>6.5</v>
@@ -23901,10 +23901,10 @@
         <v>7.5</v>
       </c>
       <c r="AA194" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB194" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC194" t="n">
         <v>81</v>
@@ -23922,7 +23922,7 @@
         <v>19</v>
       </c>
       <c r="AH194" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI194" t="n">
         <v>51</v>
@@ -24939,13 +24939,13 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="H203" t="n">
         <v>3.75</v>
       </c>
       <c r="I203" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J203" t="n">
         <v>1.06</v>
@@ -24966,22 +24966,22 @@
         <v>1.67</v>
       </c>
       <c r="P203" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q203" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R203" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S203" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="T203" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U203" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V203" t="n">
         <v>9.5</v>
@@ -25002,13 +25002,13 @@
         <v>7.5</v>
       </c>
       <c r="AB203" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC203" t="n">
         <v>67</v>
       </c>
       <c r="AD203" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="AE203" t="n">
         <v>9</v>
@@ -25192,28 +25192,28 @@
         <v>7</v>
       </c>
       <c r="J205" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="K205" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="L205" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="M205" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="N205" t="n">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="O205" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="P205" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q205" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R205" t="n">
         <v>2</v>
@@ -25222,10 +25222,10 @@
         <v>1.73</v>
       </c>
       <c r="T205" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U205" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="V205" t="n">
         <v>9</v>
@@ -25234,28 +25234,28 @@
         <v>9.5</v>
       </c>
       <c r="X205" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y205" t="n">
         <v>29</v>
       </c>
       <c r="Z205" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA205" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB205" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC205" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD205" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AE205" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF205" t="n">
         <v>41</v>
@@ -25427,70 +25427,70 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="H207" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I207" t="n">
-        <v>2.05</v>
+        <v>2.18</v>
       </c>
       <c r="J207" t="n">
         <v>1.09</v>
       </c>
       <c r="K207" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="L207" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="M207" t="n">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="N207" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="O207" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="P207" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q207" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R207" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S207" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="T207" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="U207" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="V207" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="W207" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="X207" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="Y207" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Z207" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AA207" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AB207" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC207" t="n">
         <v>90</v>
@@ -25499,22 +25499,22 @@
         <v>800</v>
       </c>
       <c r="AE207" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="AF207" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AG207" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="AH207" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AI207" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AJ207" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="208">
@@ -25683,31 +25683,31 @@
         <v>1.06</v>
       </c>
       <c r="K209" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="L209" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="M209" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="N209" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="O209" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="P209" t="n">
         <v>1.42</v>
       </c>
       <c r="Q209" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="R209" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="S209" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="T209" t="n">
         <v>7.3</v>
@@ -25722,13 +25722,13 @@
         <v>17</v>
       </c>
       <c r="X209" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y209" t="n">
         <v>27</v>
       </c>
       <c r="Z209" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AA209" t="n">
         <v>7.1</v>
@@ -25737,19 +25737,19 @@
         <v>15.5</v>
       </c>
       <c r="AC209" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AD209" t="n">
         <v>600</v>
       </c>
       <c r="AE209" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AF209" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG209" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH209" t="n">
         <v>70</v>
@@ -25814,7 +25814,7 @@
         <v>3.6</v>
       </c>
       <c r="N210" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="O210" t="n">
         <v>1.95</v>
@@ -26778,22 +26778,22 @@
         <v>1.73</v>
       </c>
       <c r="J218" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K218" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L218" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M218" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N218" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="O218" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="P218" t="n">
         <v>1.4</v>
@@ -26906,10 +26906,10 @@
         <v>13</v>
       </c>
       <c r="L219" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M219" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N219" t="n">
         <v>1.75</v>
@@ -27022,10 +27022,10 @@
         <v>3</v>
       </c>
       <c r="J220" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K220" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="L220" t="n">
         <v>1.36</v>
@@ -27266,10 +27266,10 @@
         <v>1.75</v>
       </c>
       <c r="J222" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K222" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L222" t="n">
         <v>1.44</v>
@@ -27296,19 +27296,19 @@
         <v>1.57</v>
       </c>
       <c r="T222" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U222" t="n">
         <v>23</v>
       </c>
       <c r="V222" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="W222" t="n">
         <v>51</v>
       </c>
       <c r="X222" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="Y222" t="n">
         <v>51</v>
@@ -27379,13 +27379,13 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H223" t="n">
         <v>3.3</v>
       </c>
       <c r="I223" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="J223" t="n">
         <v>1.05</v>
@@ -27400,10 +27400,10 @@
         <v>3.75</v>
       </c>
       <c r="N223" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="O223" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="P223" t="n">
         <v>1.4</v>
@@ -27448,7 +27448,7 @@
         <v>41</v>
       </c>
       <c r="AD223" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE223" t="n">
         <v>10</v>
@@ -27463,7 +27463,7 @@
         <v>29</v>
       </c>
       <c r="AI223" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ223" t="n">
         <v>29</v>
@@ -27623,19 +27623,19 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H225" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I225" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J225" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K225" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="L225" t="n">
         <v>1.36</v>
@@ -27665,16 +27665,16 @@
         <v>6</v>
       </c>
       <c r="U225" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="V225" t="n">
         <v>9</v>
       </c>
       <c r="W225" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X225" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y225" t="n">
         <v>34</v>
@@ -27695,13 +27695,13 @@
         <v>800</v>
       </c>
       <c r="AE225" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF225" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG225" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH225" t="n">
         <v>51</v>
@@ -27745,13 +27745,13 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="H226" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I226" t="n">
         <v>2.63</v>
-      </c>
-      <c r="I226" t="n">
-        <v>2.55</v>
       </c>
       <c r="J226" t="n">
         <v>1.11</v>
@@ -27867,22 +27867,22 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="H227" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I227" t="n">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="J227" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K227" t="n">
         <v>7.5</v>
       </c>
       <c r="L227" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M227" t="n">
         <v>3</v>
@@ -27894,10 +27894,10 @@
         <v>1.67</v>
       </c>
       <c r="P227" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q227" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R227" t="n">
         <v>1.91</v>
@@ -27906,19 +27906,19 @@
         <v>1.8</v>
       </c>
       <c r="T227" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U227" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="V227" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="W227" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="X227" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Y227" t="n">
         <v>34</v>
@@ -27936,25 +27936,25 @@
         <v>51</v>
       </c>
       <c r="AD227" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AE227" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF227" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AG227" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH227" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI227" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ227" t="n">
         <v>34</v>
-      </c>
-      <c r="AI227" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ227" t="n">
-        <v>41</v>
       </c>
     </row>
     <row r="228">
@@ -27998,16 +27998,16 @@
         <v>3.4</v>
       </c>
       <c r="J228" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="K228" t="n">
         <v>5.5</v>
       </c>
       <c r="L228" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="M228" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="N228" t="n">
         <v>2.63</v>
@@ -28599,13 +28599,13 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="H233" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I233" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="J233" t="n">
         <v>1.04</v>
@@ -28632,22 +28632,22 @@
         <v>3.25</v>
       </c>
       <c r="R233" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S233" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T233" t="n">
         <v>15</v>
       </c>
       <c r="U233" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="V233" t="n">
         <v>15</v>
       </c>
       <c r="W233" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="X233" t="n">
         <v>34</v>
@@ -28671,10 +28671,10 @@
         <v>151</v>
       </c>
       <c r="AE233" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF233" t="n">
         <v>9</v>
-      </c>
-      <c r="AF233" t="n">
-        <v>9.5</v>
       </c>
       <c r="AG233" t="n">
         <v>8.5</v>
@@ -29399,7 +29399,7 @@
         <v>3.4</v>
       </c>
       <c r="I240" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J240" t="n">
         <v>1.07</v>
@@ -29435,7 +29435,7 @@
         <v>7</v>
       </c>
       <c r="U240" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V240" t="n">
         <v>8.5</v>
@@ -29648,34 +29648,34 @@
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="M242" t="n">
-        <v>2.47</v>
+        <v>2.52</v>
       </c>
       <c r="N242" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="O242" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="P242" t="n">
         <v>1.5</v>
       </c>
       <c r="Q242" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="R242" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="S242" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="T242" t="n">
         <v>7.2</v>
       </c>
       <c r="U242" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="V242" t="n">
         <v>10.25</v>
@@ -29690,13 +29690,13 @@
         <v>40</v>
       </c>
       <c r="Z242" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AA242" t="n">
         <v>5.9</v>
       </c>
       <c r="AB242" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AC242" t="n">
         <v>90</v>
@@ -29705,19 +29705,19 @@
         <v>900</v>
       </c>
       <c r="AE242" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="AF242" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AG242" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AH242" t="n">
         <v>29</v>
       </c>
       <c r="AI242" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ242" t="n">
         <v>40</v>
@@ -29766,25 +29766,25 @@
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="M243" t="n">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="N243" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="O243" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="P243" t="n">
         <v>1.47</v>
       </c>
       <c r="Q243" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="R243" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="S243" t="n">
         <v>1.75</v>
@@ -29793,10 +29793,10 @@
         <v>8.75</v>
       </c>
       <c r="U243" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="V243" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="W243" t="n">
         <v>45</v>
@@ -29808,7 +29808,7 @@
         <v>45</v>
       </c>
       <c r="Z243" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AA243" t="n">
         <v>6.1</v>
@@ -29823,7 +29823,7 @@
         <v>800</v>
       </c>
       <c r="AE243" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AF243" t="n">
         <v>9.25</v>
@@ -30117,19 +30117,19 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H246" t="n">
         <v>3.3</v>
       </c>
       <c r="I246" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="J246" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K246" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L246" t="n">
         <v>1.57</v>
@@ -30156,10 +30156,10 @@
         <v>1.53</v>
       </c>
       <c r="T246" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="U246" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V246" t="n">
         <v>11</v>
@@ -30168,7 +30168,7 @@
         <v>23</v>
       </c>
       <c r="X246" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y246" t="n">
         <v>41</v>
@@ -30183,16 +30183,16 @@
         <v>23</v>
       </c>
       <c r="AC246" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AD246" t="n">
         <v>101</v>
       </c>
       <c r="AE246" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AF246" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG246" t="n">
         <v>12</v>
@@ -30201,7 +30201,7 @@
         <v>34</v>
       </c>
       <c r="AI246" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ246" t="n">
         <v>41</v>
@@ -30260,10 +30260,10 @@
         <v>3.75</v>
       </c>
       <c r="N247" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="O247" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="P247" t="n">
         <v>1.36</v>
@@ -30483,13 +30483,13 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="H249" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I249" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J249" t="n">
         <v>1.03</v>
@@ -30504,10 +30504,10 @@
         <v>5</v>
       </c>
       <c r="N249" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="O249" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="P249" t="n">
         <v>1.29</v>
@@ -30531,7 +30531,7 @@
         <v>8.5</v>
       </c>
       <c r="W249" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X249" t="n">
         <v>12</v>
@@ -30742,10 +30742,10 @@
         <v>15</v>
       </c>
       <c r="L251" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M251" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N251" t="n">
         <v>1.7</v>
@@ -30852,10 +30852,10 @@
         <v>1.8</v>
       </c>
       <c r="H252" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I252" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J252" t="n">
         <v>1.05</v>
@@ -30870,10 +30870,10 @@
         <v>3.75</v>
       </c>
       <c r="N252" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="O252" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="P252" t="n">
         <v>1.36</v>
@@ -30903,7 +30903,7 @@
         <v>15</v>
       </c>
       <c r="Y252" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z252" t="n">
         <v>11</v>
@@ -30918,7 +30918,7 @@
         <v>51</v>
       </c>
       <c r="AD252" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE252" t="n">
         <v>13</v>
@@ -30930,7 +30930,7 @@
         <v>15</v>
       </c>
       <c r="AH252" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI252" t="n">
         <v>34</v>
@@ -31093,7 +31093,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H254" t="n">
         <v>3.6</v>
@@ -31114,10 +31114,10 @@
         <v>3.75</v>
       </c>
       <c r="N254" t="n">
-        <v>1.88</v>
+        <v>1.79</v>
       </c>
       <c r="O254" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="P254" t="n">
         <v>1.36</v>
@@ -31126,10 +31126,10 @@
         <v>3</v>
       </c>
       <c r="R254" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S254" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T254" t="n">
         <v>7.5</v>
@@ -31141,10 +31141,10 @@
         <v>8.5</v>
       </c>
       <c r="W254" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X254" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y254" t="n">
         <v>23</v>
@@ -31177,7 +31177,7 @@
         <v>51</v>
       </c>
       <c r="AI254" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ254" t="n">
         <v>41</v>
@@ -31215,7 +31215,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H255" t="n">
         <v>3.4</v>
@@ -31236,10 +31236,10 @@
         <v>3.5</v>
       </c>
       <c r="N255" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="O255" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="P255" t="n">
         <v>1.4</v>
@@ -31340,7 +31340,7 @@
         <v>2.25</v>
       </c>
       <c r="H256" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I256" t="n">
         <v>3.2</v>
@@ -31349,7 +31349,7 @@
         <v>1.04</v>
       </c>
       <c r="K256" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L256" t="n">
         <v>1.22</v>
@@ -31459,13 +31459,13 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H257" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I257" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J257" t="n">
         <v>1.04</v>
@@ -31474,10 +31474,10 @@
         <v>13</v>
       </c>
       <c r="L257" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M257" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N257" t="n">
         <v>1.7</v>
@@ -31507,7 +31507,7 @@
         <v>8.5</v>
       </c>
       <c r="W257" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X257" t="n">
         <v>13</v>
@@ -31534,13 +31534,13 @@
         <v>15</v>
       </c>
       <c r="AF257" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG257" t="n">
         <v>15</v>
       </c>
       <c r="AH257" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI257" t="n">
         <v>34</v>
@@ -31581,19 +31581,19 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H258" t="n">
         <v>3.3</v>
       </c>
       <c r="I258" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J258" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K258" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L258" t="n">
         <v>1.29</v>
@@ -31703,13 +31703,13 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="H259" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I259" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="J259" t="n">
         <v>1.05</v>
@@ -31730,10 +31730,10 @@
         <v>1.87</v>
       </c>
       <c r="P259" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="Q259" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="R259" t="n">
         <v>1.78</v>
@@ -31742,7 +31742,7 @@
         <v>1.93</v>
       </c>
       <c r="T259" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="U259" t="n">
         <v>8.5</v>
@@ -31754,7 +31754,7 @@
         <v>14.5</v>
       </c>
       <c r="X259" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y259" t="n">
         <v>26</v>
@@ -31763,10 +31763,10 @@
         <v>7.6</v>
       </c>
       <c r="AA259" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AB259" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC259" t="n">
         <v>70</v>
@@ -31775,19 +31775,19 @@
         <v>500</v>
       </c>
       <c r="AE259" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="AF259" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG259" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH259" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AI259" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AJ259" t="n">
         <v>40</v>
@@ -31825,7 +31825,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="H260" t="n">
         <v>3.55</v>
@@ -31843,19 +31843,19 @@
         <v>1.25</v>
       </c>
       <c r="M260" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="N260" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="O260" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="P260" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="Q260" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="R260" t="n">
         <v>1.65</v>
@@ -31867,7 +31867,7 @@
         <v>11</v>
       </c>
       <c r="U260" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="V260" t="n">
         <v>11</v>
@@ -31894,19 +31894,19 @@
         <v>55</v>
       </c>
       <c r="AD260" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AE260" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AF260" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AG260" t="n">
         <v>8.75</v>
       </c>
       <c r="AH260" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI260" t="n">
         <v>15.5</v>
@@ -31950,16 +31950,16 @@
         <v>1.78</v>
       </c>
       <c r="H261" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I261" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J261" t="n">
         <v>1.05</v>
       </c>
       <c r="K261" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="L261" t="n">
         <v>1.25</v>
@@ -31977,13 +31977,13 @@
         <v>1.37</v>
       </c>
       <c r="Q261" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="R261" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="S261" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T261" t="n">
         <v>8</v>
@@ -31992,28 +31992,28 @@
         <v>9.25</v>
       </c>
       <c r="V261" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="W261" t="n">
         <v>15</v>
       </c>
       <c r="X261" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y261" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z261" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AA261" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB261" t="n">
         <v>13.5</v>
       </c>
-      <c r="Y261" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z261" t="n">
-        <v>8</v>
-      </c>
-      <c r="AA261" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AB261" t="n">
-        <v>14</v>
-      </c>
       <c r="AC261" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AD261" t="n">
         <v>400</v>
@@ -32022,19 +32022,19 @@
         <v>12.5</v>
       </c>
       <c r="AF261" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG261" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH261" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AI261" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AJ261" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="262">
@@ -32090,16 +32090,16 @@
         <v>3.45</v>
       </c>
       <c r="N262" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="O262" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="P262" t="n">
         <v>1.39</v>
       </c>
       <c r="Q262" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="R262" t="n">
         <v>1.7</v>
@@ -32108,7 +32108,7 @@
         <v>2.05</v>
       </c>
       <c r="T262" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="U262" t="n">
         <v>9.5</v>
@@ -32117,7 +32117,7 @@
         <v>8.25</v>
       </c>
       <c r="W262" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="X262" t="n">
         <v>14</v>
@@ -32138,7 +32138,7 @@
         <v>60</v>
       </c>
       <c r="AD262" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AE262" t="n">
         <v>11.5</v>
@@ -32212,10 +32212,10 @@
         <v>3.35</v>
       </c>
       <c r="N263" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="O263" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="P263" t="n">
         <v>1.4</v>
@@ -32227,7 +32227,7 @@
         <v>1.7</v>
       </c>
       <c r="S263" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="T263" t="n">
         <v>8</v>
@@ -32236,16 +32236,16 @@
         <v>10.5</v>
       </c>
       <c r="V263" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="W263" t="n">
         <v>19.5</v>
       </c>
       <c r="X263" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y263" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z263" t="n">
         <v>7.5</v>
@@ -32257,16 +32257,16 @@
         <v>13.5</v>
       </c>
       <c r="AC263" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AD263" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AE263" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AF263" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AG263" t="n">
         <v>11.25</v>
@@ -32313,25 +32313,25 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="H264" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="I264" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J264" t="n">
         <v>1.05</v>
       </c>
       <c r="K264" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="L264" t="n">
         <v>1.25</v>
       </c>
       <c r="M264" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="N264" t="n">
         <v>1.75</v>
@@ -32340,10 +32340,10 @@
         <v>1.98</v>
       </c>
       <c r="P264" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="Q264" t="n">
-        <v>2.82</v>
+        <v>2.87</v>
       </c>
       <c r="R264" t="n">
         <v>1.65</v>
@@ -32361,7 +32361,7 @@
         <v>8.5</v>
       </c>
       <c r="W264" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="X264" t="n">
         <v>15</v>
@@ -32370,13 +32370,13 @@
         <v>23</v>
       </c>
       <c r="Z264" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AA264" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="AB264" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC264" t="n">
         <v>50</v>
@@ -32388,7 +32388,7 @@
         <v>11.25</v>
       </c>
       <c r="AF264" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AG264" t="n">
         <v>11.5</v>
@@ -32397,7 +32397,7 @@
         <v>45</v>
       </c>
       <c r="AI264" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ264" t="n">
         <v>32</v>
@@ -32459,7 +32459,7 @@
         <v>2.02</v>
       </c>
       <c r="O265" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="P265" t="n">
         <v>1.47</v>
@@ -32569,25 +32569,25 @@
         <v>1.05</v>
       </c>
       <c r="K266" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="L266" t="n">
         <v>1.25</v>
       </c>
       <c r="M266" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="N266" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="O266" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="P266" t="n">
         <v>1.37</v>
       </c>
       <c r="Q266" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="R266" t="n">
         <v>1.65</v>
@@ -32596,10 +32596,10 @@
         <v>2.1</v>
       </c>
       <c r="T266" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="U266" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="V266" t="n">
         <v>8.5</v>
@@ -32608,16 +32608,16 @@
         <v>17.5</v>
       </c>
       <c r="X266" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Y266" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z266" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AA266" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AB266" t="n">
         <v>13.5</v>
@@ -32626,13 +32626,13 @@
         <v>55</v>
       </c>
       <c r="AD266" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AE266" t="n">
         <v>11.25</v>
       </c>
       <c r="AF266" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AG266" t="n">
         <v>11.75</v>
@@ -32679,70 +32679,70 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>3.15</v>
+        <v>3.5</v>
       </c>
       <c r="H267" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="I267" t="n">
         <v>2.47</v>
       </c>
-      <c r="I267" t="n">
-        <v>2.7</v>
-      </c>
       <c r="J267" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="K267" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="L267" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="M267" t="n">
-        <v>2.22</v>
+        <v>2.27</v>
       </c>
       <c r="N267" t="n">
-        <v>2.47</v>
+        <v>2.42</v>
       </c>
       <c r="O267" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="P267" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="Q267" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="R267" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="S267" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="T267" t="n">
-        <v>7.2</v>
+        <v>7.9</v>
       </c>
       <c r="U267" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="V267" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="W267" t="n">
+        <v>60</v>
+      </c>
+      <c r="X267" t="n">
+        <v>40</v>
+      </c>
+      <c r="Y267" t="n">
         <v>50</v>
       </c>
-      <c r="X267" t="n">
-        <v>35</v>
-      </c>
-      <c r="Y267" t="n">
-        <v>45</v>
-      </c>
       <c r="Z267" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AA267" t="n">
         <v>5</v>
       </c>
       <c r="AB267" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC267" t="n">
         <v>90</v>
@@ -32751,22 +32751,22 @@
         <v>900</v>
       </c>
       <c r="AE267" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AF267" t="n">
-        <v>12.5</v>
+        <v>11.25</v>
       </c>
       <c r="AG267" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH267" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="AI267" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AJ267" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="268">
@@ -32804,10 +32804,10 @@
         <v>2.02</v>
       </c>
       <c r="H268" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I268" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="J268" t="n">
         <v>1.11</v>
@@ -32822,10 +32822,10 @@
         <v>2.6</v>
       </c>
       <c r="N268" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="O268" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="P268" t="n">
         <v>1.47</v>
@@ -32834,22 +32834,22 @@
         <v>2.32</v>
       </c>
       <c r="R268" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="S268" t="n">
         <v>1.75</v>
       </c>
       <c r="T268" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="U268" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="V268" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="W268" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="X268" t="n">
         <v>17.5</v>
@@ -32858,13 +32858,13 @@
         <v>32</v>
       </c>
       <c r="Z268" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AA268" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AB268" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC268" t="n">
         <v>90</v>
@@ -32879,13 +32879,13 @@
         <v>18.5</v>
       </c>
       <c r="AG268" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH268" t="n">
         <v>55</v>
       </c>
       <c r="AI268" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AJ268" t="n">
         <v>50</v>
@@ -32926,45 +32926,45 @@
         <v>1.95</v>
       </c>
       <c r="H269" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I269" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="M269" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="N269" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="O269" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="P269" t="n">
         <v>1.4</v>
       </c>
       <c r="Q269" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="R269" t="n">
         <v>1.7</v>
       </c>
       <c r="S269" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="T269" t="n">
         <v>7.2</v>
       </c>
       <c r="U269" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="V269" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="W269" t="n">
         <v>17.5</v>
@@ -32973,28 +32973,28 @@
         <v>16</v>
       </c>
       <c r="Y269" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Z269" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AA269" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="AB269" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC269" t="n">
         <v>60</v>
       </c>
       <c r="AD269" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AE269" t="n">
         <v>11</v>
       </c>
       <c r="AF269" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG269" t="n">
         <v>12</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-05.xlsx
@@ -647,13 +647,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>5.25</v>
+        <v>4.33</v>
       </c>
       <c r="H2" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I2" t="n">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="J2" t="n">
         <v>1.1</v>
@@ -674,31 +674,31 @@
         <v>1.57</v>
       </c>
       <c r="P2" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R2" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S2" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="T2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U2" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="V2" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="W2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="X2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="Y2" t="n">
         <v>51</v>
@@ -719,19 +719,19 @@
         <v>501</v>
       </c>
       <c r="AE2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AF2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG2" t="n">
         <v>10</v>
       </c>
       <c r="AH2" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AI2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ2" t="n">
         <v>41</v>
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="H3" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I3" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="J3" t="n">
         <v>1.04</v>
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="H4" t="n">
         <v>3.25</v>
       </c>
       <c r="I4" t="n">
-        <v>2.63</v>
+        <v>2.45</v>
       </c>
       <c r="J4" t="n">
         <v>1.07</v>
@@ -930,28 +930,28 @@
         <v>1.95</v>
       </c>
       <c r="T4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U4" t="n">
         <v>15</v>
       </c>
       <c r="V4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="X4" t="n">
         <v>26</v>
       </c>
       <c r="Y4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z4" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB4" t="n">
         <v>17</v>
@@ -963,7 +963,7 @@
         <v>351</v>
       </c>
       <c r="AE4" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF4" t="n">
         <v>13</v>
@@ -972,7 +972,7 @@
         <v>11</v>
       </c>
       <c r="AH4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI4" t="n">
         <v>23</v>
@@ -1022,10 +1022,10 @@
         <v>2.3</v>
       </c>
       <c r="J5" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L5" t="n">
         <v>1.25</v>
@@ -1034,10 +1034,10 @@
         <v>4</v>
       </c>
       <c r="N5" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="O5" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="P5" t="n">
         <v>1.36</v>
@@ -1046,10 +1046,10 @@
         <v>3</v>
       </c>
       <c r="R5" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S5" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T5" t="n">
         <v>12</v>
@@ -1076,7 +1076,7 @@
         <v>7</v>
       </c>
       <c r="AB5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC5" t="n">
         <v>41</v>
@@ -1097,7 +1097,7 @@
         <v>26</v>
       </c>
       <c r="AI5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ5" t="n">
         <v>29</v>
@@ -1138,16 +1138,16 @@
         <v>1.95</v>
       </c>
       <c r="H6" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I6" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="J6" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L6" t="n">
         <v>1.25</v>
@@ -1156,25 +1156,25 @@
         <v>4</v>
       </c>
       <c r="N6" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="O6" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="P6" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R6" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S6" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U6" t="n">
         <v>11</v>
@@ -1183,7 +1183,7 @@
         <v>9.5</v>
       </c>
       <c r="W6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X6" t="n">
         <v>17</v>
@@ -1192,28 +1192,28 @@
         <v>26</v>
       </c>
       <c r="Z6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA6" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB6" t="n">
         <v>15</v>
       </c>
       <c r="AC6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD6" t="n">
         <v>201</v>
       </c>
       <c r="AE6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH6" t="n">
         <v>41</v>
@@ -1222,7 +1222,7 @@
         <v>29</v>
       </c>
       <c r="AJ6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7">
@@ -1379,19 +1379,19 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="H8" t="n">
         <v>3.6</v>
       </c>
       <c r="I8" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="J8" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L8" t="n">
         <v>1.2</v>
@@ -1400,10 +1400,10 @@
         <v>4.5</v>
       </c>
       <c r="N8" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="O8" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="P8" t="n">
         <v>1.3</v>
@@ -1445,13 +1445,13 @@
         <v>12</v>
       </c>
       <c r="AC8" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD8" t="n">
         <v>126</v>
       </c>
       <c r="AE8" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF8" t="n">
         <v>11</v>
@@ -1867,19 +1867,19 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="H12" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I12" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="J12" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K12" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L12" t="n">
         <v>1.22</v>
@@ -2010,10 +2010,10 @@
         <v>3.2</v>
       </c>
       <c r="N13" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O13" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="P13" t="n">
         <v>1.44</v>
@@ -2233,52 +2233,52 @@
         </is>
       </c>
       <c r="G15" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>7</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M15" t="n">
         <v>2.63</v>
       </c>
-      <c r="H15" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="K15" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M15" t="n">
-        <v>2.75</v>
-      </c>
       <c r="N15" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="O15" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="P15" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R15" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S15" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="T15" t="n">
         <v>7</v>
       </c>
       <c r="U15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W15" t="n">
         <v>26</v>
@@ -2287,10 +2287,10 @@
         <v>23</v>
       </c>
       <c r="Y15" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z15" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA15" t="n">
         <v>6</v>
@@ -2299,13 +2299,13 @@
         <v>17</v>
       </c>
       <c r="AC15" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD15" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AE15" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF15" t="n">
         <v>13</v>
@@ -2483,13 +2483,13 @@
         <v>2.6</v>
       </c>
       <c r="I17" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="J17" t="n">
         <v>1.17</v>
       </c>
       <c r="K17" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="L17" t="n">
         <v>1.67</v>
@@ -2608,10 +2608,10 @@
         <v>4.5</v>
       </c>
       <c r="J18" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="K18" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="L18" t="n">
         <v>1.57</v>
@@ -2632,16 +2632,16 @@
         <v>2.2</v>
       </c>
       <c r="R18" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="S18" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T18" t="n">
         <v>5</v>
       </c>
       <c r="U18" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V18" t="n">
         <v>10</v>
@@ -2671,7 +2671,7 @@
         <v>101</v>
       </c>
       <c r="AE18" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF18" t="n">
         <v>21</v>
@@ -2852,10 +2852,10 @@
         <v>5.25</v>
       </c>
       <c r="J20" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="K20" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="L20" t="n">
         <v>1.5</v>
@@ -2921,13 +2921,13 @@
         <v>23</v>
       </c>
       <c r="AG20" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH20" t="n">
         <v>51</v>
       </c>
       <c r="AI20" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ20" t="n">
         <v>51</v>
@@ -2974,10 +2974,10 @@
         <v>1.73</v>
       </c>
       <c r="J21" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L21" t="n">
         <v>1.4</v>
@@ -2992,16 +2992,16 @@
         <v>1.57</v>
       </c>
       <c r="P21" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R21" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S21" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T21" t="n">
         <v>12</v>
@@ -3022,16 +3022,16 @@
         <v>51</v>
       </c>
       <c r="Z21" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA21" t="n">
         <v>6.5</v>
       </c>
       <c r="AB21" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC21" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD21" t="n">
         <v>501</v>
@@ -3052,7 +3052,7 @@
         <v>17</v>
       </c>
       <c r="AJ21" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22">
@@ -3340,10 +3340,10 @@
         <v>3.3</v>
       </c>
       <c r="J24" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="K24" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="L24" t="n">
         <v>1.73</v>
@@ -3465,7 +3465,7 @@
         <v>1.17</v>
       </c>
       <c r="K25" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="L25" t="n">
         <v>1.73</v>
@@ -3495,7 +3495,7 @@
         <v>5</v>
       </c>
       <c r="U25" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V25" t="n">
         <v>12</v>
@@ -3525,10 +3525,10 @@
         <v>101</v>
       </c>
       <c r="AE25" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AF25" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG25" t="n">
         <v>15</v>
@@ -3584,10 +3584,10 @@
         <v>5.25</v>
       </c>
       <c r="J26" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="K26" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="L26" t="n">
         <v>1.67</v>
@@ -3617,7 +3617,7 @@
         <v>4.5</v>
       </c>
       <c r="U26" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="V26" t="n">
         <v>11</v>
@@ -3626,7 +3626,7 @@
         <v>15</v>
       </c>
       <c r="X26" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y26" t="n">
         <v>51</v>
@@ -3638,7 +3638,7 @@
         <v>6.5</v>
       </c>
       <c r="AB26" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC26" t="n">
         <v>126</v>
@@ -3662,7 +3662,7 @@
         <v>51</v>
       </c>
       <c r="AJ26" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27">
@@ -3950,10 +3950,10 @@
         <v>4.5</v>
       </c>
       <c r="J29" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="K29" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="L29" t="n">
         <v>1.5</v>
@@ -3986,7 +3986,7 @@
         <v>8</v>
       </c>
       <c r="V29" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W29" t="n">
         <v>17</v>
@@ -4013,7 +4013,7 @@
         <v>101</v>
       </c>
       <c r="AE29" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF29" t="n">
         <v>21</v>
@@ -4063,13 +4063,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="H30" t="n">
         <v>3.4</v>
       </c>
       <c r="I30" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="J30" t="n">
         <v>1.04</v>
@@ -4084,16 +4084,16 @@
         <v>4</v>
       </c>
       <c r="N30" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="O30" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="P30" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q30" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R30" t="n">
         <v>1.62</v>
@@ -4102,16 +4102,16 @@
         <v>2.2</v>
       </c>
       <c r="T30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U30" t="n">
         <v>15</v>
       </c>
       <c r="V30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W30" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X30" t="n">
         <v>21</v>
@@ -4120,13 +4120,13 @@
         <v>26</v>
       </c>
       <c r="Z30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA30" t="n">
         <v>6.5</v>
       </c>
       <c r="AB30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC30" t="n">
         <v>41</v>
@@ -4141,7 +4141,7 @@
         <v>13</v>
       </c>
       <c r="AG30" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH30" t="n">
         <v>23</v>
@@ -4150,7 +4150,7 @@
         <v>19</v>
       </c>
       <c r="AJ30" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31">
@@ -4313,25 +4313,25 @@
         <v>3.7</v>
       </c>
       <c r="I32" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J32" t="n">
         <v>1.03</v>
       </c>
       <c r="K32" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L32" t="n">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="M32" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="N32" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="O32" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="P32" t="n">
         <v>1.29</v>
@@ -4340,34 +4340,34 @@
         <v>3.5</v>
       </c>
       <c r="R32" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S32" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="T32" t="n">
+        <v>10</v>
+      </c>
+      <c r="U32" t="n">
         <v>11</v>
-      </c>
-      <c r="U32" t="n">
-        <v>12</v>
       </c>
       <c r="V32" t="n">
         <v>9</v>
       </c>
       <c r="W32" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X32" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y32" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Z32" t="n">
         <v>17</v>
       </c>
       <c r="AA32" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB32" t="n">
         <v>12</v>
@@ -4376,7 +4376,7 @@
         <v>34</v>
       </c>
       <c r="AD32" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AE32" t="n">
         <v>15</v>
@@ -4391,7 +4391,7 @@
         <v>41</v>
       </c>
       <c r="AI32" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ32" t="n">
         <v>26</v>
@@ -4435,7 +4435,7 @@
         <v>3.7</v>
       </c>
       <c r="I33" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="J33" t="n">
         <v>1.05</v>
@@ -4551,13 +4551,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="H34" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="I34" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J34" t="n">
         <v>1.01</v>
@@ -4566,28 +4566,28 @@
         <v>26</v>
       </c>
       <c r="L34" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="M34" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N34" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="O34" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P34" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="Q34" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="R34" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S34" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T34" t="n">
         <v>13</v>
@@ -4596,25 +4596,25 @@
         <v>9.5</v>
       </c>
       <c r="V34" t="n">
+        <v>10</v>
+      </c>
+      <c r="W34" t="n">
         <v>9.5</v>
-      </c>
-      <c r="W34" t="n">
-        <v>10</v>
       </c>
       <c r="X34" t="n">
         <v>10</v>
       </c>
       <c r="Y34" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Z34" t="n">
         <v>26</v>
       </c>
       <c r="AA34" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB34" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC34" t="n">
         <v>41</v>
@@ -4623,22 +4623,22 @@
         <v>126</v>
       </c>
       <c r="AE34" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AF34" t="n">
         <v>51</v>
       </c>
       <c r="AG34" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AH34" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AI34" t="n">
         <v>51</v>
       </c>
       <c r="AJ34" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35">
@@ -4673,31 +4673,31 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="H35" t="n">
         <v>3.9</v>
       </c>
       <c r="I35" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="J35" t="n">
         <v>1.03</v>
       </c>
       <c r="K35" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L35" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M35" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N35" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O35" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="P35" t="n">
         <v>1.3</v>
@@ -4733,7 +4733,7 @@
         <v>15</v>
       </c>
       <c r="AA35" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB35" t="n">
         <v>13</v>
@@ -4742,13 +4742,13 @@
         <v>41</v>
       </c>
       <c r="AD35" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE35" t="n">
         <v>9.5</v>
       </c>
       <c r="AF35" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AG35" t="n">
         <v>8.5</v>
@@ -4795,13 +4795,13 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H36" t="n">
         <v>3.25</v>
       </c>
       <c r="I36" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J36" t="n">
         <v>1.08</v>
@@ -4846,13 +4846,13 @@
         <v>21</v>
       </c>
       <c r="X36" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y36" t="n">
         <v>34</v>
       </c>
       <c r="Z36" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA36" t="n">
         <v>6</v>
@@ -4867,7 +4867,7 @@
         <v>351</v>
       </c>
       <c r="AE36" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF36" t="n">
         <v>15</v>
@@ -5295,7 +5295,7 @@
         <v>1.08</v>
       </c>
       <c r="K40" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L40" t="n">
         <v>1.4</v>
@@ -5316,10 +5316,10 @@
         <v>2.5</v>
       </c>
       <c r="R40" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S40" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T40" t="n">
         <v>6</v>
@@ -5340,7 +5340,7 @@
         <v>34</v>
       </c>
       <c r="Z40" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA40" t="n">
         <v>6.5</v>
@@ -5527,13 +5527,13 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H42" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I42" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J42" t="n">
         <v>1.08</v>
@@ -5575,7 +5575,7 @@
         <v>9</v>
       </c>
       <c r="W42" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X42" t="n">
         <v>15</v>
@@ -5587,7 +5587,7 @@
         <v>8</v>
       </c>
       <c r="AA42" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB42" t="n">
         <v>19</v>
@@ -5605,7 +5605,7 @@
         <v>26</v>
       </c>
       <c r="AG42" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH42" t="n">
         <v>51</v>
@@ -5670,10 +5670,10 @@
         <v>4</v>
       </c>
       <c r="N43" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="O43" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="P43" t="n">
         <v>1.33</v>
@@ -5703,7 +5703,7 @@
         <v>67</v>
       </c>
       <c r="Y43" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="Z43" t="n">
         <v>12</v>
@@ -5712,7 +5712,7 @@
         <v>9.5</v>
       </c>
       <c r="AB43" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC43" t="n">
         <v>67</v>
@@ -5893,13 +5893,13 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>4.45</v>
+        <v>4.6</v>
       </c>
       <c r="H45" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I45" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -5925,22 +5925,22 @@
         <v>1.82</v>
       </c>
       <c r="S45" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="T45" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="U45" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="V45" t="n">
         <v>15</v>
       </c>
       <c r="W45" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="X45" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="Y45" t="n">
         <v>55</v>
@@ -5961,22 +5961,22 @@
         <v>700</v>
       </c>
       <c r="AE45" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AF45" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AG45" t="n">
         <v>8</v>
       </c>
-      <c r="AG45" t="n">
-        <v>8.25</v>
-      </c>
       <c r="AH45" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AI45" t="n">
         <v>14</v>
       </c>
       <c r="AJ45" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46">
@@ -6011,13 +6011,13 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.62</v>
+        <v>2.67</v>
       </c>
       <c r="H46" t="n">
         <v>3.05</v>
       </c>
       <c r="I46" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
@@ -6046,19 +6046,19 @@
         <v>1.75</v>
       </c>
       <c r="T46" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="U46" t="n">
         <v>12.5</v>
       </c>
       <c r="V46" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="W46" t="n">
         <v>30</v>
       </c>
       <c r="X46" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y46" t="n">
         <v>37</v>
@@ -6073,7 +6073,7 @@
         <v>15.5</v>
       </c>
       <c r="AC46" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AD46" t="n">
         <v>800</v>
@@ -6088,13 +6088,13 @@
         <v>10</v>
       </c>
       <c r="AH46" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI46" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ46" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47">
@@ -6247,13 +6247,13 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.85</v>
+        <v>1.72</v>
       </c>
       <c r="H48" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I48" t="n">
-        <v>4.25</v>
+        <v>4.9</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -6270,67 +6270,67 @@
         <v>1.57</v>
       </c>
       <c r="P48" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.27</v>
+        <v>2.4</v>
       </c>
       <c r="R48" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="S48" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="T48" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="U48" t="n">
-        <v>7.9</v>
+        <v>7.3</v>
       </c>
       <c r="V48" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="W48" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="X48" t="n">
         <v>15.5</v>
-      </c>
-      <c r="X48" t="n">
-        <v>16.5</v>
       </c>
       <c r="Y48" t="n">
         <v>35</v>
       </c>
       <c r="Z48" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AA48" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AB48" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AC48" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AD48" t="n">
         <v>101</v>
       </c>
       <c r="AE48" t="n">
-        <v>9.75</v>
+        <v>10.5</v>
       </c>
       <c r="AF48" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AG48" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH48" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="AI48" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="AJ48" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49">
@@ -6365,13 +6365,13 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="H49" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I49" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J49" t="n">
         <v>1.05</v>
@@ -6404,7 +6404,7 @@
         <v>1.67</v>
       </c>
       <c r="T49" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U49" t="n">
         <v>6.5</v>
@@ -6425,7 +6425,7 @@
         <v>11</v>
       </c>
       <c r="AA49" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB49" t="n">
         <v>21</v>
@@ -6452,7 +6452,7 @@
         <v>67</v>
       </c>
       <c r="AJ49" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50">
@@ -6609,13 +6609,13 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="H51" t="n">
         <v>3.1</v>
       </c>
       <c r="I51" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J51" t="n">
         <v>1.08</v>
@@ -6648,10 +6648,10 @@
         <v>1.73</v>
       </c>
       <c r="T51" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U51" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V51" t="n">
         <v>10</v>
@@ -6660,7 +6660,7 @@
         <v>23</v>
       </c>
       <c r="X51" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y51" t="n">
         <v>34</v>
@@ -6681,16 +6681,16 @@
         <v>301</v>
       </c>
       <c r="AE51" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF51" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG51" t="n">
         <v>12</v>
       </c>
       <c r="AH51" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI51" t="n">
         <v>29</v>
@@ -6862,10 +6862,10 @@
         <v>3.75</v>
       </c>
       <c r="J53" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K53" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L53" t="n">
         <v>1.33</v>
@@ -6874,10 +6874,10 @@
         <v>3.25</v>
       </c>
       <c r="N53" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="O53" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="P53" t="n">
         <v>1.44</v>
@@ -6987,7 +6987,7 @@
         <v>1.07</v>
       </c>
       <c r="K54" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L54" t="n">
         <v>1.33</v>
@@ -7118,28 +7118,28 @@
         <v>3.4</v>
       </c>
       <c r="N55" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="O55" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="P55" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R55" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="S55" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T55" t="n">
         <v>6.5</v>
       </c>
       <c r="U55" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V55" t="n">
         <v>8.5</v>
@@ -7166,7 +7166,7 @@
         <v>51</v>
       </c>
       <c r="AD55" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE55" t="n">
         <v>12</v>
@@ -7175,7 +7175,7 @@
         <v>23</v>
       </c>
       <c r="AG55" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH55" t="n">
         <v>51</v>
@@ -7231,7 +7231,7 @@
         <v>1.07</v>
       </c>
       <c r="K56" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L56" t="n">
         <v>1.36</v>
@@ -7362,10 +7362,10 @@
         <v>2.75</v>
       </c>
       <c r="N57" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O57" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="P57" t="n">
         <v>1.5</v>
@@ -7374,10 +7374,10 @@
         <v>2.5</v>
       </c>
       <c r="R57" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S57" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="T57" t="n">
         <v>7</v>
@@ -7404,7 +7404,7 @@
         <v>6.5</v>
       </c>
       <c r="AB57" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC57" t="n">
         <v>67</v>
@@ -7413,7 +7413,7 @@
         <v>301</v>
       </c>
       <c r="AE57" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF57" t="n">
         <v>12</v>
@@ -7428,7 +7428,7 @@
         <v>23</v>
       </c>
       <c r="AJ57" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="58">
@@ -7463,19 +7463,19 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="H58" t="n">
         <v>3.3</v>
       </c>
       <c r="I58" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="J58" t="n">
         <v>1.07</v>
       </c>
       <c r="K58" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L58" t="n">
         <v>1.36</v>
@@ -7505,13 +7505,13 @@
         <v>8</v>
       </c>
       <c r="U58" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V58" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W58" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X58" t="n">
         <v>23</v>
@@ -7526,7 +7526,7 @@
         <v>6.5</v>
       </c>
       <c r="AB58" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC58" t="n">
         <v>51</v>
@@ -7535,7 +7535,7 @@
         <v>301</v>
       </c>
       <c r="AE58" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF58" t="n">
         <v>12</v>
@@ -7547,7 +7547,7 @@
         <v>26</v>
       </c>
       <c r="AI58" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ58" t="n">
         <v>34</v>
@@ -7829,13 +7829,13 @@
         </is>
       </c>
       <c r="G61" t="n">
+        <v>3</v>
+      </c>
+      <c r="H61" t="n">
         <v>3.1</v>
       </c>
-      <c r="H61" t="n">
-        <v>3.2</v>
-      </c>
       <c r="I61" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="J61" t="n">
         <v>1.08</v>
@@ -7868,16 +7868,16 @@
         <v>1.8</v>
       </c>
       <c r="T61" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U61" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V61" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W61" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="X61" t="n">
         <v>26</v>
@@ -7892,7 +7892,7 @@
         <v>6</v>
       </c>
       <c r="AB61" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC61" t="n">
         <v>51</v>
@@ -7907,7 +7907,7 @@
         <v>11</v>
       </c>
       <c r="AG61" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH61" t="n">
         <v>23</v>
@@ -7951,13 +7951,13 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="H62" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I62" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="J62" t="n">
         <v>1.05</v>
@@ -7966,10 +7966,10 @@
         <v>11</v>
       </c>
       <c r="L62" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M62" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N62" t="n">
         <v>2</v>
@@ -7990,16 +7990,16 @@
         <v>1.73</v>
       </c>
       <c r="T62" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U62" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="V62" t="n">
         <v>17</v>
       </c>
       <c r="W62" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="X62" t="n">
         <v>41</v>
@@ -8011,7 +8011,7 @@
         <v>10</v>
       </c>
       <c r="AA62" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB62" t="n">
         <v>21</v>
@@ -8023,7 +8023,7 @@
         <v>451</v>
       </c>
       <c r="AE62" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AF62" t="n">
         <v>7</v>
@@ -8073,13 +8073,13 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H63" t="n">
         <v>3.25</v>
       </c>
       <c r="I63" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J63" t="n">
         <v>1.07</v>
@@ -8157,7 +8157,7 @@
         <v>29</v>
       </c>
       <c r="AI63" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ63" t="n">
         <v>34</v>
@@ -8210,16 +8210,16 @@
         <v>10</v>
       </c>
       <c r="L64" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M64" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N64" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="O64" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="P64" t="n">
         <v>1.4</v>
@@ -8317,13 +8317,13 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="H65" t="n">
         <v>3</v>
       </c>
       <c r="I65" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="J65" t="n">
         <v>1.11</v>
@@ -8359,13 +8359,13 @@
         <v>6</v>
       </c>
       <c r="U65" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V65" t="n">
         <v>10</v>
       </c>
       <c r="W65" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X65" t="n">
         <v>23</v>
@@ -8383,7 +8383,7 @@
         <v>19</v>
       </c>
       <c r="AC65" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD65" t="n">
         <v>351</v>
@@ -8398,7 +8398,7 @@
         <v>13</v>
       </c>
       <c r="AH65" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI65" t="n">
         <v>34</v>
@@ -8475,7 +8475,7 @@
         <v>2</v>
       </c>
       <c r="S66" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="T66" t="n">
         <v>10</v>
@@ -8561,13 +8561,13 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="H67" t="n">
         <v>3.6</v>
       </c>
       <c r="I67" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="J67" t="n">
         <v>1.05</v>
@@ -8594,13 +8594,13 @@
         <v>2.75</v>
       </c>
       <c r="R67" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="S67" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="T67" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U67" t="n">
         <v>23</v>
@@ -8633,7 +8633,7 @@
         <v>251</v>
       </c>
       <c r="AE67" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF67" t="n">
         <v>8.5</v>
@@ -8683,13 +8683,13 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H68" t="n">
         <v>3.25</v>
       </c>
       <c r="I68" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J68" t="n">
         <v>1.08</v>
@@ -8719,7 +8719,7 @@
         <v>2</v>
       </c>
       <c r="S68" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="T68" t="n">
         <v>6.5</v>
@@ -8728,10 +8728,10 @@
         <v>10</v>
       </c>
       <c r="V68" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W68" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X68" t="n">
         <v>21</v>
@@ -8752,22 +8752,22 @@
         <v>67</v>
       </c>
       <c r="AD68" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AE68" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF68" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG68" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH68" t="n">
         <v>34</v>
       </c>
       <c r="AI68" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ68" t="n">
         <v>41</v>
@@ -8805,13 +8805,13 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H69" t="n">
         <v>3.25</v>
       </c>
       <c r="I69" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="J69" t="n">
         <v>1.08</v>
@@ -8838,13 +8838,13 @@
         <v>2.5</v>
       </c>
       <c r="R69" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="S69" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="T69" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U69" t="n">
         <v>10</v>
@@ -8856,7 +8856,7 @@
         <v>21</v>
       </c>
       <c r="X69" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y69" t="n">
         <v>34</v>
@@ -8960,10 +8960,10 @@
         <v>2.63</v>
       </c>
       <c r="R70" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S70" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T70" t="n">
         <v>7</v>
@@ -9085,7 +9085,7 @@
         <v>2.1</v>
       </c>
       <c r="S71" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="T71" t="n">
         <v>6</v>
@@ -9180,10 +9180,10 @@
         <v>1.85</v>
       </c>
       <c r="J72" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K72" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L72" t="n">
         <v>1.29</v>
@@ -9192,10 +9192,10 @@
         <v>3.5</v>
       </c>
       <c r="N72" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="O72" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="P72" t="n">
         <v>1.4</v>
@@ -9314,10 +9314,10 @@
         <v>3.4</v>
       </c>
       <c r="N73" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="O73" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="P73" t="n">
         <v>1.4</v>
@@ -9415,7 +9415,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="H74" t="n">
         <v>5</v>
@@ -9427,7 +9427,7 @@
         <v>1.03</v>
       </c>
       <c r="K74" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L74" t="n">
         <v>1.18</v>
@@ -9469,7 +9469,7 @@
         <v>11</v>
       </c>
       <c r="Y74" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z74" t="n">
         <v>15</v>
@@ -9487,7 +9487,7 @@
         <v>301</v>
       </c>
       <c r="AE74" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF74" t="n">
         <v>41</v>
@@ -9552,16 +9552,16 @@
         <v>17</v>
       </c>
       <c r="L75" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M75" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N75" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O75" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="P75" t="n">
         <v>1.3</v>
@@ -9659,10 +9659,10 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H76" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I76" t="n">
         <v>4.75</v>
@@ -9781,13 +9781,13 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="H77" t="n">
         <v>3.3</v>
       </c>
       <c r="I77" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="J77" t="n">
         <v>1.08</v>
@@ -9796,22 +9796,22 @@
         <v>8</v>
       </c>
       <c r="L77" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M77" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="N77" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="O77" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="P77" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q77" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R77" t="n">
         <v>2.05</v>
@@ -9838,7 +9838,7 @@
         <v>41</v>
       </c>
       <c r="Z77" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA77" t="n">
         <v>6.5</v>
@@ -9850,7 +9850,7 @@
         <v>67</v>
       </c>
       <c r="AD77" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AE77" t="n">
         <v>6</v>
@@ -10037,7 +10037,7 @@
         <v>1.08</v>
       </c>
       <c r="K79" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L79" t="n">
         <v>1.4</v>
@@ -10046,10 +10046,10 @@
         <v>2.75</v>
       </c>
       <c r="N79" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="O79" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="P79" t="n">
         <v>1.5</v>
@@ -10147,49 +10147,49 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="H80" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I80" t="n">
         <v>3.8</v>
       </c>
       <c r="J80" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K80" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L80" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M80" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N80" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="O80" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="P80" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q80" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R80" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="S80" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="T80" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U80" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V80" t="n">
         <v>8.5</v>
@@ -10198,16 +10198,16 @@
         <v>15</v>
       </c>
       <c r="X80" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z80" t="n">
         <v>15</v>
       </c>
-      <c r="Y80" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z80" t="n">
-        <v>13</v>
-      </c>
       <c r="AA80" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB80" t="n">
         <v>13</v>
@@ -10278,10 +10278,10 @@
         <v>2.5</v>
       </c>
       <c r="J81" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K81" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L81" t="n">
         <v>1.22</v>
@@ -10290,10 +10290,10 @@
         <v>4</v>
       </c>
       <c r="N81" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O81" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="P81" t="n">
         <v>1.33</v>
@@ -10406,10 +10406,10 @@
         <v>7</v>
       </c>
       <c r="L82" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="M82" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="N82" t="n">
         <v>2.5</v>
@@ -10513,13 +10513,13 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H83" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I83" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="J83" t="n">
         <v>1.05</v>
@@ -10555,13 +10555,13 @@
         <v>7</v>
       </c>
       <c r="U83" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V83" t="n">
         <v>8.5</v>
       </c>
       <c r="W83" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X83" t="n">
         <v>15</v>
@@ -10576,7 +10576,7 @@
         <v>7</v>
       </c>
       <c r="AB83" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC83" t="n">
         <v>51</v>
@@ -10585,10 +10585,10 @@
         <v>301</v>
       </c>
       <c r="AE83" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF83" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG83" t="n">
         <v>15</v>
@@ -10597,7 +10597,7 @@
         <v>51</v>
       </c>
       <c r="AI83" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ83" t="n">
         <v>41</v>
@@ -10638,7 +10638,7 @@
         <v>4.75</v>
       </c>
       <c r="H84" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I84" t="n">
         <v>1.7</v>
@@ -10656,10 +10656,10 @@
         <v>3.5</v>
       </c>
       <c r="N84" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="O84" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="P84" t="n">
         <v>1.4</v>
@@ -10757,13 +10757,13 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H85" t="n">
         <v>3.1</v>
       </c>
       <c r="I85" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J85" t="n">
         <v>1.08</v>
@@ -10796,16 +10796,16 @@
         <v>1.73</v>
       </c>
       <c r="T85" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U85" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V85" t="n">
         <v>9.5</v>
       </c>
       <c r="W85" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X85" t="n">
         <v>21</v>
@@ -10832,7 +10832,7 @@
         <v>8.5</v>
       </c>
       <c r="AF85" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG85" t="n">
         <v>13</v>
@@ -11016,10 +11016,10 @@
         <v>8</v>
       </c>
       <c r="L87" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M87" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N87" t="n">
         <v>2.25</v>
@@ -11123,13 +11123,13 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H88" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I88" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J88" t="n">
         <v>1.08</v>
@@ -11171,7 +11171,7 @@
         <v>9</v>
       </c>
       <c r="W88" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X88" t="n">
         <v>17</v>
@@ -11180,34 +11180,34 @@
         <v>34</v>
       </c>
       <c r="Z88" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA88" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AB88" t="n">
         <v>21</v>
       </c>
       <c r="AC88" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD88" t="n">
         <v>501</v>
       </c>
       <c r="AE88" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AF88" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG88" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH88" t="n">
+        <v>67</v>
+      </c>
+      <c r="AI88" t="n">
         <v>51</v>
-      </c>
-      <c r="AI88" t="n">
-        <v>41</v>
       </c>
       <c r="AJ88" t="n">
         <v>51</v>
@@ -11388,10 +11388,10 @@
         <v>3.75</v>
       </c>
       <c r="N90" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="O90" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="P90" t="n">
         <v>1.36</v>
@@ -11501,7 +11501,7 @@
         <v>1.07</v>
       </c>
       <c r="K91" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L91" t="n">
         <v>1.36</v>
@@ -11611,13 +11611,13 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="H92" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I92" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="J92" t="n">
         <v>1.06</v>
@@ -11632,16 +11632,16 @@
         <v>3.4</v>
       </c>
       <c r="N92" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="O92" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="P92" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q92" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R92" t="n">
         <v>1.8</v>
@@ -11659,7 +11659,7 @@
         <v>9</v>
       </c>
       <c r="W92" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X92" t="n">
         <v>17</v>
@@ -11668,7 +11668,7 @@
         <v>29</v>
       </c>
       <c r="Z92" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA92" t="n">
         <v>6.5</v>
@@ -11683,7 +11683,7 @@
         <v>251</v>
       </c>
       <c r="AE92" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF92" t="n">
         <v>17</v>
@@ -11692,10 +11692,10 @@
         <v>12</v>
       </c>
       <c r="AH92" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI92" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ92" t="n">
         <v>34</v>
@@ -11736,7 +11736,7 @@
         <v>1.65</v>
       </c>
       <c r="H93" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I93" t="n">
         <v>5</v>
@@ -11754,10 +11754,10 @@
         <v>3.4</v>
       </c>
       <c r="N93" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="O93" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="P93" t="n">
         <v>1.4</v>
@@ -11793,7 +11793,7 @@
         <v>10</v>
       </c>
       <c r="AA93" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB93" t="n">
         <v>17</v>
@@ -11855,19 +11855,19 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.4</v>
+        <v>2.63</v>
       </c>
       <c r="H94" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I94" t="n">
-        <v>2.8</v>
+        <v>2.63</v>
       </c>
       <c r="J94" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K94" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L94" t="n">
         <v>1.33</v>
@@ -11894,28 +11894,28 @@
         <v>1.83</v>
       </c>
       <c r="T94" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U94" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V94" t="n">
         <v>10</v>
       </c>
       <c r="W94" t="n">
+        <v>26</v>
+      </c>
+      <c r="X94" t="n">
         <v>23</v>
       </c>
-      <c r="X94" t="n">
-        <v>21</v>
-      </c>
       <c r="Y94" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z94" t="n">
         <v>9</v>
       </c>
       <c r="AA94" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB94" t="n">
         <v>15</v>
@@ -11927,16 +11927,16 @@
         <v>301</v>
       </c>
       <c r="AE94" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF94" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG94" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH94" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI94" t="n">
         <v>23</v>
@@ -11998,10 +11998,10 @@
         <v>3</v>
       </c>
       <c r="N95" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O95" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="P95" t="n">
         <v>1.5</v>
@@ -12099,21 +12099,21 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="H96" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="I96" t="n">
-        <v>7.9</v>
+        <v>7.3</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M96" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="N96" t="n">
         <v>1.52</v>
@@ -12124,61 +12124,61 @@
       <c r="P96" t="inlineStr"/>
       <c r="Q96" t="inlineStr"/>
       <c r="R96" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="S96" t="n">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="T96" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="U96" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="V96" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="W96" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="X96" t="n">
         <v>9</v>
       </c>
       <c r="Y96" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z96" t="n">
         <v>14.5</v>
       </c>
       <c r="AA96" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AB96" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC96" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AD96" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AE96" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF96" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AG96" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AH96" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AI96" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AJ96" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="97">
@@ -12219,7 +12219,7 @@
         <v>3.5</v>
       </c>
       <c r="I97" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
@@ -12259,7 +12259,7 @@
         <v>15.5</v>
       </c>
       <c r="Y97" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Z97" t="n">
         <v>13</v>
@@ -12280,7 +12280,7 @@
         <v>8.75</v>
       </c>
       <c r="AF97" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AG97" t="n">
         <v>8</v>
@@ -12292,7 +12292,7 @@
         <v>14.5</v>
       </c>
       <c r="AJ97" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="98">
@@ -12382,7 +12382,7 @@
         <v>7</v>
       </c>
       <c r="AB98" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC98" t="n">
         <v>45</v>
@@ -12452,10 +12452,10 @@
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="M99" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="N99" t="n">
         <v>1.6</v>
@@ -12466,10 +12466,10 @@
       <c r="P99" t="inlineStr"/>
       <c r="Q99" t="inlineStr"/>
       <c r="R99" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="S99" t="n">
-        <v>2.16</v>
+        <v>2.23</v>
       </c>
       <c r="T99" t="n">
         <v>7.8</v>
@@ -12561,7 +12561,7 @@
         <v>3.25</v>
       </c>
       <c r="I100" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
@@ -12580,16 +12580,16 @@
       <c r="P100" t="inlineStr"/>
       <c r="Q100" t="inlineStr"/>
       <c r="R100" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="S100" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="T100" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="U100" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="V100" t="n">
         <v>8.75</v>
@@ -12598,16 +12598,16 @@
         <v>29</v>
       </c>
       <c r="X100" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Y100" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Z100" t="n">
         <v>12</v>
       </c>
       <c r="AA100" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AB100" t="n">
         <v>9.5</v>
@@ -12619,22 +12619,22 @@
         <v>175</v>
       </c>
       <c r="AE100" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF100" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="AG100" t="n">
         <v>7.5</v>
       </c>
       <c r="AH100" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI100" t="n">
         <v>13.5</v>
       </c>
       <c r="AJ100" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101">
@@ -12669,13 +12669,13 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="H101" t="n">
         <v>3.4</v>
       </c>
       <c r="I101" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="J101" t="n">
         <v>1.05</v>
@@ -12708,7 +12708,7 @@
         <v>2.1</v>
       </c>
       <c r="T101" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U101" t="n">
         <v>13</v>
@@ -12726,7 +12726,7 @@
         <v>26</v>
       </c>
       <c r="Z101" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA101" t="n">
         <v>6.5</v>
@@ -12753,7 +12753,7 @@
         <v>26</v>
       </c>
       <c r="AI101" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ101" t="n">
         <v>26</v>
@@ -12928,16 +12928,16 @@
         <v>15</v>
       </c>
       <c r="L103" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="M103" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N103" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="O103" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="P103" t="n">
         <v>1.3</v>
@@ -13169,7 +13169,7 @@
         <v>1.04</v>
       </c>
       <c r="K105" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L105" t="n">
         <v>1.25</v>
@@ -13279,13 +13279,13 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H106" t="n">
         <v>3.4</v>
       </c>
       <c r="I106" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="J106" t="n">
         <v>1.04</v>
@@ -13294,16 +13294,16 @@
         <v>13</v>
       </c>
       <c r="L106" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M106" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N106" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="O106" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="P106" t="n">
         <v>1.36</v>
@@ -13312,10 +13312,10 @@
         <v>3</v>
       </c>
       <c r="R106" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S106" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T106" t="n">
         <v>10</v>
@@ -13327,7 +13327,7 @@
         <v>10</v>
       </c>
       <c r="W106" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X106" t="n">
         <v>21</v>
@@ -13360,7 +13360,7 @@
         <v>10</v>
       </c>
       <c r="AH106" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI106" t="n">
         <v>19</v>
@@ -13401,13 +13401,13 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="H107" t="n">
         <v>3.7</v>
       </c>
       <c r="I107" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="J107" t="n">
         <v>1.06</v>
@@ -13440,19 +13440,19 @@
         <v>1.83</v>
       </c>
       <c r="T107" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U107" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="V107" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="W107" t="n">
+        <v>51</v>
+      </c>
+      <c r="X107" t="n">
         <v>41</v>
-      </c>
-      <c r="X107" t="n">
-        <v>34</v>
       </c>
       <c r="Y107" t="n">
         <v>41</v>
@@ -13482,7 +13482,7 @@
         <v>8.5</v>
       </c>
       <c r="AH107" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI107" t="n">
         <v>15</v>
@@ -13523,13 +13523,13 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="H108" t="n">
         <v>4.75</v>
       </c>
       <c r="I108" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J108" t="n">
         <v>1.03</v>
@@ -13538,16 +13538,16 @@
         <v>15</v>
       </c>
       <c r="L108" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="M108" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="N108" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="O108" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="P108" t="n">
         <v>1.3</v>
@@ -13556,13 +13556,13 @@
         <v>3.4</v>
       </c>
       <c r="R108" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="S108" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T108" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U108" t="n">
         <v>7</v>
@@ -13571,16 +13571,16 @@
         <v>8.5</v>
       </c>
       <c r="W108" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X108" t="n">
         <v>11</v>
       </c>
       <c r="Y108" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z108" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA108" t="n">
         <v>9</v>
@@ -13592,7 +13592,7 @@
         <v>51</v>
       </c>
       <c r="AD108" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE108" t="n">
         <v>21</v>
@@ -13601,7 +13601,7 @@
         <v>41</v>
       </c>
       <c r="AG108" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH108" t="n">
         <v>81</v>
@@ -13779,7 +13779,7 @@
         <v>1.04</v>
       </c>
       <c r="K110" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L110" t="n">
         <v>1.25</v>
@@ -13821,7 +13821,7 @@
         <v>17</v>
       </c>
       <c r="Y110" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z110" t="n">
         <v>12</v>
@@ -13836,7 +13836,7 @@
         <v>41</v>
       </c>
       <c r="AD110" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE110" t="n">
         <v>11</v>
@@ -13904,16 +13904,16 @@
         <v>13</v>
       </c>
       <c r="L111" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M111" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N111" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="O111" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="P111" t="n">
         <v>1.33</v>
@@ -14032,22 +14032,22 @@
         <v>3.75</v>
       </c>
       <c r="N112" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="O112" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="P112" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q112" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R112" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S112" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T112" t="n">
         <v>8.5</v>
@@ -14068,13 +14068,13 @@
         <v>26</v>
       </c>
       <c r="Z112" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA112" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB112" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC112" t="n">
         <v>41</v>
@@ -14083,7 +14083,7 @@
         <v>201</v>
       </c>
       <c r="AE112" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF112" t="n">
         <v>17</v>
@@ -14098,7 +14098,7 @@
         <v>23</v>
       </c>
       <c r="AJ112" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="113">
@@ -14142,10 +14142,10 @@
         <v>3.9</v>
       </c>
       <c r="J113" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K113" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L113" t="n">
         <v>1.25</v>
@@ -14154,10 +14154,10 @@
         <v>3.75</v>
       </c>
       <c r="N113" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="O113" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="P113" t="n">
         <v>1.36</v>
@@ -14267,7 +14267,7 @@
         <v>1.07</v>
       </c>
       <c r="K114" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L114" t="n">
         <v>1.36</v>
@@ -14288,22 +14288,22 @@
         <v>2.63</v>
       </c>
       <c r="R114" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S114" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="T114" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U114" t="n">
         <v>13</v>
       </c>
       <c r="V114" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W114" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X114" t="n">
         <v>23</v>
@@ -14312,7 +14312,7 @@
         <v>34</v>
       </c>
       <c r="Z114" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA114" t="n">
         <v>6.5</v>
@@ -14324,10 +14324,10 @@
         <v>51</v>
       </c>
       <c r="AD114" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE114" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF114" t="n">
         <v>12</v>
@@ -14386,10 +14386,10 @@
         <v>2.3</v>
       </c>
       <c r="J115" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K115" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L115" t="n">
         <v>1.36</v>
@@ -14617,13 +14617,13 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.3</v>
+        <v>1.23</v>
       </c>
       <c r="H117" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="I117" t="n">
-        <v>11.25</v>
+        <v>15</v>
       </c>
       <c r="J117" t="n">
         <v>1.08</v>
@@ -14650,59 +14650,59 @@
         <v>2.5</v>
       </c>
       <c r="R117" t="n">
-        <v>2.85</v>
+        <v>3.35</v>
       </c>
       <c r="S117" t="n">
-        <v>1.37</v>
+        <v>1.28</v>
       </c>
       <c r="T117" t="n">
-        <v>4.7</v>
+        <v>4.45</v>
       </c>
       <c r="U117" t="n">
-        <v>4.75</v>
+        <v>4.3</v>
       </c>
       <c r="V117" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="W117" t="n">
-        <v>6.9</v>
+        <v>6</v>
       </c>
       <c r="X117" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="Y117" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="Z117" t="n">
         <v>6.6</v>
       </c>
       <c r="AA117" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AB117" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AC117" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="AD117" t="inlineStr"/>
       <c r="AE117" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AF117" t="n">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="AG117" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AH117" t="n">
         <v>450</v>
       </c>
       <c r="AI117" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="AJ117" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
     </row>
     <row r="118">
@@ -14858,10 +14858,10 @@
         <v>2</v>
       </c>
       <c r="H119" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I119" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
@@ -14887,7 +14887,7 @@
         <v>1.9</v>
       </c>
       <c r="S119" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="T119" t="n">
         <v>6</v>
@@ -14902,7 +14902,7 @@
         <v>17.5</v>
       </c>
       <c r="X119" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Y119" t="n">
         <v>35</v>
@@ -14932,10 +14932,10 @@
         <v>13</v>
       </c>
       <c r="AH119" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AI119" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AJ119" t="n">
         <v>50</v>
@@ -14985,7 +14985,7 @@
         <v>1.06</v>
       </c>
       <c r="K120" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L120" t="n">
         <v>1.3</v>
@@ -15457,7 +15457,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="H124" t="n">
         <v>4.75</v>
@@ -15478,7 +15478,7 @@
         <v>5.5</v>
       </c>
       <c r="N124" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="O124" t="n">
         <v>2.6</v>
@@ -15579,7 +15579,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="H125" t="n">
         <v>3.4</v>
@@ -15591,7 +15591,7 @@
         <v>1.06</v>
       </c>
       <c r="K125" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L125" t="n">
         <v>1.3</v>
@@ -15618,10 +15618,10 @@
         <v>1.83</v>
       </c>
       <c r="T125" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U125" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V125" t="n">
         <v>8.5</v>
@@ -15701,13 +15701,13 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H126" t="n">
         <v>3</v>
       </c>
       <c r="I126" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="J126" t="n">
         <v>1.1</v>
@@ -15725,7 +15725,7 @@
         <v>2.4</v>
       </c>
       <c r="O126" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P126" t="n">
         <v>1.53</v>
@@ -15743,7 +15743,7 @@
         <v>6.5</v>
       </c>
       <c r="U126" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V126" t="n">
         <v>10</v>
@@ -15776,13 +15776,13 @@
         <v>7.5</v>
       </c>
       <c r="AF126" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG126" t="n">
         <v>12</v>
       </c>
       <c r="AH126" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI126" t="n">
         <v>29</v>
@@ -15823,31 +15823,31 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="H127" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I127" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J127" t="n">
         <v>1.06</v>
       </c>
       <c r="K127" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L127" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M127" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N127" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="O127" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="P127" t="n">
         <v>1.4</v>
@@ -15862,7 +15862,7 @@
         <v>1.95</v>
       </c>
       <c r="T127" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U127" t="n">
         <v>10</v>
@@ -15874,13 +15874,13 @@
         <v>19</v>
       </c>
       <c r="X127" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y127" t="n">
         <v>29</v>
       </c>
       <c r="Z127" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AA127" t="n">
         <v>6</v>
@@ -15910,7 +15910,7 @@
         <v>29</v>
       </c>
       <c r="AJ127" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="128">
@@ -15945,13 +15945,13 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="H128" t="n">
         <v>3.1</v>
       </c>
       <c r="I128" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="J128" t="n">
         <v>1.08</v>
@@ -15969,7 +15969,7 @@
         <v>2.35</v>
       </c>
       <c r="O128" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="P128" t="n">
         <v>1.53</v>
@@ -16067,19 +16067,19 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.8</v>
+        <v>1.71</v>
       </c>
       <c r="H129" t="n">
         <v>3.5</v>
       </c>
       <c r="I129" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J129" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K129" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L129" t="n">
         <v>1.4</v>
@@ -16091,7 +16091,7 @@
         <v>2.25</v>
       </c>
       <c r="O129" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="P129" t="n">
         <v>1.5</v>
@@ -16115,7 +16115,7 @@
         <v>9</v>
       </c>
       <c r="W129" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X129" t="n">
         <v>17</v>
@@ -16139,13 +16139,13 @@
         <v>501</v>
       </c>
       <c r="AE129" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF129" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG129" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH129" t="n">
         <v>51</v>
@@ -16189,19 +16189,19 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H130" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I130" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="J130" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="K130" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="L130" t="n">
         <v>1.44</v>
@@ -16213,7 +16213,7 @@
         <v>2.4</v>
       </c>
       <c r="O130" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P130" t="n">
         <v>1.53</v>
@@ -16222,19 +16222,19 @@
         <v>2.38</v>
       </c>
       <c r="R130" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S130" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="T130" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U130" t="n">
         <v>11</v>
       </c>
       <c r="V130" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W130" t="n">
         <v>26</v>
@@ -16246,34 +16246,34 @@
         <v>41</v>
       </c>
       <c r="Z130" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA130" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB130" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC130" t="n">
         <v>67</v>
       </c>
       <c r="AD130" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AE130" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF130" t="n">
         <v>13</v>
       </c>
       <c r="AG130" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH130" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI130" t="n">
         <v>29</v>
-      </c>
-      <c r="AI130" t="n">
-        <v>26</v>
       </c>
       <c r="AJ130" t="n">
         <v>41</v>
@@ -16311,7 +16311,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="H131" t="n">
         <v>3.4</v>
@@ -16323,7 +16323,7 @@
         <v>1.08</v>
       </c>
       <c r="K131" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L131" t="n">
         <v>1.44</v>
@@ -16332,10 +16332,10 @@
         <v>2.63</v>
       </c>
       <c r="N131" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="O131" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="P131" t="n">
         <v>1.53</v>
@@ -16433,10 +16433,10 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="H132" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="I132" t="n">
         <v>3.3</v>
@@ -16555,13 +16555,13 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2.27</v>
+        <v>2.37</v>
       </c>
       <c r="H133" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="I133" t="n">
         <v>2.95</v>
-      </c>
-      <c r="I133" t="n">
-        <v>3.15</v>
       </c>
       <c r="J133" t="n">
         <v>1.11</v>
@@ -16594,19 +16594,19 @@
         <v>1.7</v>
       </c>
       <c r="T133" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="U133" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="V133" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="W133" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="X133" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Y133" t="n">
         <v>40</v>
@@ -16627,22 +16627,22 @@
         <v>101</v>
       </c>
       <c r="AE133" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="AF133" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AG133" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH133" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AI133" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AJ133" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="134">
@@ -16954,16 +16954,16 @@
         <v>2.35</v>
       </c>
       <c r="R136" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S136" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="T136" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="U136" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="V136" t="n">
         <v>9.25</v>
@@ -16975,7 +16975,7 @@
         <v>21</v>
       </c>
       <c r="Y136" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Z136" t="n">
         <v>6</v>
@@ -16993,13 +16993,13 @@
         <v>900</v>
       </c>
       <c r="AE136" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AF136" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AG136" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AH136" t="n">
         <v>45</v>
@@ -17082,7 +17082,7 @@
         <v>1.75</v>
       </c>
       <c r="T137" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="U137" t="n">
         <v>13.5</v>
@@ -17118,10 +17118,10 @@
         <v>6.6</v>
       </c>
       <c r="AF137" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AG137" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AH137" t="n">
         <v>23</v>
@@ -17130,7 +17130,7 @@
         <v>22</v>
       </c>
       <c r="AJ137" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="138">
@@ -17409,13 +17409,13 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H140" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="I140" t="n">
-        <v>5.4</v>
+        <v>4.55</v>
       </c>
       <c r="J140" t="n">
         <v>1.05</v>
@@ -17442,61 +17442,61 @@
         <v>2.92</v>
       </c>
       <c r="R140" t="n">
-        <v>1.87</v>
+        <v>1.78</v>
       </c>
       <c r="S140" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="T140" t="n">
-        <v>7.1</v>
+        <v>7.4</v>
       </c>
       <c r="U140" t="n">
-        <v>7.1</v>
+        <v>7.8</v>
       </c>
       <c r="V140" t="n">
         <v>8.25</v>
       </c>
       <c r="W140" t="n">
-        <v>10.25</v>
+        <v>12</v>
       </c>
       <c r="X140" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y140" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z140" t="n">
         <v>8</v>
       </c>
       <c r="AA140" t="n">
-        <v>8.25</v>
+        <v>7.7</v>
       </c>
       <c r="AB140" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AC140" t="n">
+        <v>70</v>
+      </c>
+      <c r="AD140" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE140" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF140" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG140" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH140" t="n">
         <v>80</v>
       </c>
-      <c r="AD140" t="n">
-        <v>700</v>
-      </c>
-      <c r="AE140" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AF140" t="n">
-        <v>32</v>
-      </c>
-      <c r="AG140" t="n">
-        <v>18</v>
-      </c>
-      <c r="AH140" t="n">
-        <v>100</v>
-      </c>
       <c r="AI140" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AJ140" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="141">
@@ -17936,7 +17936,7 @@
         <v>1.82</v>
       </c>
       <c r="T144" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="U144" t="n">
         <v>18</v>
@@ -17966,13 +17966,13 @@
         <v>80</v>
       </c>
       <c r="AD144" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AE144" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AF144" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AG144" t="n">
         <v>8.75</v>
@@ -18400,16 +18400,16 @@
         <v>11</v>
       </c>
       <c r="L148" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M148" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N148" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="O148" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="P148" t="n">
         <v>1.4</v>
@@ -18629,19 +18629,19 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H150" t="n">
         <v>3.6</v>
       </c>
       <c r="I150" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="J150" t="n">
         <v>1.04</v>
       </c>
       <c r="K150" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L150" t="n">
         <v>1.25</v>
@@ -18650,10 +18650,10 @@
         <v>3.75</v>
       </c>
       <c r="N150" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="O150" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="P150" t="n">
         <v>1.36</v>
@@ -18671,7 +18671,7 @@
         <v>9.5</v>
       </c>
       <c r="U150" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V150" t="n">
         <v>9.5</v>
@@ -18686,7 +18686,7 @@
         <v>26</v>
       </c>
       <c r="Z150" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA150" t="n">
         <v>7</v>
@@ -18710,13 +18710,13 @@
         <v>10</v>
       </c>
       <c r="AH150" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI150" t="n">
         <v>21</v>
       </c>
       <c r="AJ150" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="151">
@@ -18751,7 +18751,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="H151" t="n">
         <v>3.4</v>
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="H152" t="n">
         <v>3.6</v>
@@ -18883,7 +18883,7 @@
         <v>1.07</v>
       </c>
       <c r="K152" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L152" t="n">
         <v>1.4</v>
@@ -18993,13 +18993,13 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="H153" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I153" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="J153" t="n">
         <v>1.06</v>
@@ -19014,10 +19014,10 @@
         <v>3.25</v>
       </c>
       <c r="N153" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="O153" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="P153" t="n">
         <v>1.44</v>
@@ -19035,13 +19035,13 @@
         <v>7</v>
       </c>
       <c r="U153" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V153" t="n">
         <v>9</v>
       </c>
       <c r="W153" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X153" t="n">
         <v>17</v>
@@ -19056,7 +19056,7 @@
         <v>6.5</v>
       </c>
       <c r="AB153" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC153" t="n">
         <v>51</v>
@@ -19068,7 +19068,7 @@
         <v>10</v>
       </c>
       <c r="AF153" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG153" t="n">
         <v>13</v>
@@ -19077,7 +19077,7 @@
         <v>41</v>
       </c>
       <c r="AI153" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ153" t="n">
         <v>41</v>
@@ -19129,7 +19129,7 @@
         <v>1.21</v>
       </c>
       <c r="M154" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="N154" t="n">
         <v>1.65</v>
@@ -19147,46 +19147,46 @@
         <v>1.58</v>
       </c>
       <c r="S154" t="n">
-        <v>2.23</v>
+        <v>2.24</v>
       </c>
       <c r="T154" t="n">
         <v>8.25</v>
       </c>
       <c r="U154" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="V154" t="n">
         <v>7.9</v>
       </c>
       <c r="W154" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="X154" t="n">
         <v>14.5</v>
       </c>
       <c r="Y154" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Z154" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AA154" t="n">
         <v>6.1</v>
       </c>
       <c r="AB154" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AC154" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AD154" t="n">
         <v>200</v>
       </c>
       <c r="AE154" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF154" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AG154" t="n">
         <v>8.25</v>
@@ -19195,10 +19195,10 @@
         <v>23</v>
       </c>
       <c r="AI154" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AJ154" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="155">
@@ -19244,10 +19244,10 @@
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="M155" t="n">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="N155" t="n">
         <v>2.07</v>
@@ -19262,10 +19262,10 @@
         <v>2.3</v>
       </c>
       <c r="R155" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="S155" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="T155" t="n">
         <v>6.8</v>
@@ -19350,36 +19350,88 @@
           <t>Terengganu</t>
         </is>
       </c>
-      <c r="G156" t="inlineStr"/>
-      <c r="H156" t="inlineStr"/>
-      <c r="I156" t="inlineStr"/>
+      <c r="G156" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H156" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I156" t="n">
+        <v>3.55</v>
+      </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="inlineStr"/>
-      <c r="N156" t="inlineStr"/>
-      <c r="O156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="M156" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="N156" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="O156" t="n">
+        <v>2.01</v>
+      </c>
       <c r="P156" t="inlineStr"/>
       <c r="Q156" t="inlineStr"/>
-      <c r="R156" t="inlineStr"/>
-      <c r="S156" t="inlineStr"/>
-      <c r="T156" t="inlineStr"/>
-      <c r="U156" t="inlineStr"/>
-      <c r="V156" t="inlineStr"/>
-      <c r="W156" t="inlineStr"/>
-      <c r="X156" t="inlineStr"/>
-      <c r="Y156" t="inlineStr"/>
-      <c r="Z156" t="inlineStr"/>
-      <c r="AA156" t="inlineStr"/>
-      <c r="AB156" t="inlineStr"/>
-      <c r="AC156" t="inlineStr"/>
-      <c r="AD156" t="inlineStr"/>
-      <c r="AE156" t="inlineStr"/>
-      <c r="AF156" t="inlineStr"/>
-      <c r="AG156" t="inlineStr"/>
-      <c r="AH156" t="inlineStr"/>
-      <c r="AI156" t="inlineStr"/>
-      <c r="AJ156" t="inlineStr"/>
+      <c r="R156" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="S156" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="T156" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="U156" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="V156" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="W156" t="n">
+        <v>13</v>
+      </c>
+      <c r="X156" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y156" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z156" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA156" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AB156" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC156" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD156" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE156" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AF156" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG156" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH156" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI156" t="n">
+        <v>25</v>
+      </c>
+      <c r="AJ156" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -19412,36 +19464,88 @@
           <t>Penang</t>
         </is>
       </c>
-      <c r="G157" t="inlineStr"/>
-      <c r="H157" t="inlineStr"/>
-      <c r="I157" t="inlineStr"/>
+      <c r="G157" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H157" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I157" t="n">
+        <v>2.11</v>
+      </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="inlineStr"/>
-      <c r="N157" t="inlineStr"/>
-      <c r="O157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="M157" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="N157" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="O157" t="n">
+        <v>2.36</v>
+      </c>
       <c r="P157" t="inlineStr"/>
       <c r="Q157" t="inlineStr"/>
-      <c r="R157" t="inlineStr"/>
-      <c r="S157" t="inlineStr"/>
-      <c r="T157" t="inlineStr"/>
-      <c r="U157" t="inlineStr"/>
-      <c r="V157" t="inlineStr"/>
-      <c r="W157" t="inlineStr"/>
-      <c r="X157" t="inlineStr"/>
-      <c r="Y157" t="inlineStr"/>
-      <c r="Z157" t="inlineStr"/>
-      <c r="AA157" t="inlineStr"/>
-      <c r="AB157" t="inlineStr"/>
-      <c r="AC157" t="inlineStr"/>
-      <c r="AD157" t="inlineStr"/>
-      <c r="AE157" t="inlineStr"/>
-      <c r="AF157" t="inlineStr"/>
-      <c r="AG157" t="inlineStr"/>
-      <c r="AH157" t="inlineStr"/>
-      <c r="AI157" t="inlineStr"/>
-      <c r="AJ157" t="inlineStr"/>
+      <c r="R157" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S157" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="T157" t="n">
+        <v>12</v>
+      </c>
+      <c r="U157" t="n">
+        <v>16</v>
+      </c>
+      <c r="V157" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="W157" t="n">
+        <v>35</v>
+      </c>
+      <c r="X157" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y157" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z157" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA157" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AB157" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC157" t="n">
+        <v>28</v>
+      </c>
+      <c r="AD157" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE157" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AF157" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG157" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AH157" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI157" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ157" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -19478,40 +19582,40 @@
         <v>2.4</v>
       </c>
       <c r="H158" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I158" t="n">
         <v>2.5</v>
       </c>
       <c r="J158" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K158" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L158" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="M158" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="N158" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="O158" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="P158" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Q158" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="R158" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="S158" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T158" t="n">
         <v>15</v>
@@ -19532,28 +19636,28 @@
         <v>19</v>
       </c>
       <c r="Z158" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA158" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB158" t="n">
         <v>11</v>
       </c>
       <c r="AC158" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AD158" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AE158" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF158" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG158" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH158" t="n">
         <v>29</v>
@@ -19562,7 +19666,7 @@
         <v>17</v>
       </c>
       <c r="AJ158" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="159">
@@ -19597,37 +19701,37 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="H159" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I159" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="J159" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K159" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L159" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M159" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N159" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="O159" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="P159" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="Q159" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="R159" t="n">
         <v>1.8</v>
@@ -19636,28 +19740,28 @@
         <v>1.95</v>
       </c>
       <c r="T159" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U159" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V159" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W159" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="X159" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y159" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z159" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA159" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB159" t="n">
         <v>15</v>
@@ -19672,16 +19776,16 @@
         <v>7.5</v>
       </c>
       <c r="AF159" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG159" t="n">
         <v>9.5</v>
       </c>
-      <c r="AG159" t="n">
-        <v>9</v>
-      </c>
       <c r="AH159" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI159" t="n">
         <v>19</v>
-      </c>
-      <c r="AI159" t="n">
-        <v>17</v>
       </c>
       <c r="AJ159" t="n">
         <v>29</v>
@@ -19719,7 +19823,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2.01</v>
+        <v>2.05</v>
       </c>
       <c r="H160" t="n">
         <v>3.5</v>
@@ -19746,7 +19850,7 @@
         <v>1.93</v>
       </c>
       <c r="P160" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="Q160" t="n">
         <v>2.75</v>
@@ -19841,13 +19945,13 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="H161" t="n">
         <v>3.5</v>
       </c>
       <c r="I161" t="n">
-        <v>2.35</v>
+        <v>2.55</v>
       </c>
       <c r="J161" t="n">
         <v>1.05</v>
@@ -19868,7 +19972,7 @@
         <v>1.98</v>
       </c>
       <c r="P161" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="Q161" t="n">
         <v>2.75</v>
@@ -19880,16 +19984,16 @@
         <v>2.05</v>
       </c>
       <c r="T161" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="U161" t="n">
+        <v>13</v>
+      </c>
+      <c r="V161" t="n">
         <v>10</v>
       </c>
-      <c r="U161" t="n">
-        <v>15</v>
-      </c>
-      <c r="V161" t="n">
-        <v>11</v>
-      </c>
       <c r="W161" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X161" t="n">
         <v>21</v>
@@ -19910,22 +20014,22 @@
         <v>41</v>
       </c>
       <c r="AD161" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE161" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF161" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG161" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH161" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI161" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ161" t="n">
         <v>26</v>
@@ -19972,10 +20076,10 @@
         <v>3.4</v>
       </c>
       <c r="J162" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K162" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L162" t="n">
         <v>1.3</v>
@@ -19990,7 +20094,7 @@
         <v>1.85</v>
       </c>
       <c r="P162" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="Q162" t="n">
         <v>2.75</v>
@@ -20112,7 +20216,7 @@
         <v>1.83</v>
       </c>
       <c r="P163" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="Q163" t="n">
         <v>2.75</v>
@@ -20207,13 +20311,13 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="H164" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I164" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
@@ -20232,61 +20336,61 @@
       <c r="P164" t="inlineStr"/>
       <c r="Q164" t="inlineStr"/>
       <c r="R164" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S164" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="T164" t="n">
         <v>7.8</v>
       </c>
       <c r="U164" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="V164" t="n">
         <v>8.25</v>
       </c>
       <c r="W164" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="X164" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Y164" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Z164" t="n">
         <v>11</v>
       </c>
       <c r="AA164" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="AB164" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AC164" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AD164" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AE164" t="n">
         <v>12</v>
       </c>
       <c r="AF164" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG164" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH164" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AI164" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AJ164" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="165">
@@ -20321,13 +20425,13 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="H165" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I165" t="n">
-        <v>5.4</v>
+        <v>4.9</v>
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
@@ -20346,61 +20450,61 @@
       <c r="P165" t="inlineStr"/>
       <c r="Q165" t="inlineStr"/>
       <c r="R165" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S165" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="T165" t="n">
         <v>7.1</v>
       </c>
       <c r="U165" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="V165" t="n">
         <v>7.9</v>
       </c>
       <c r="W165" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="X165" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y165" t="n">
         <v>24</v>
       </c>
       <c r="Z165" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AA165" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="AB165" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC165" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AD165" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AE165" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AF165" t="n">
         <v>32</v>
       </c>
       <c r="AG165" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH165" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AI165" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AJ165" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="166">
@@ -20435,13 +20539,13 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>4.35</v>
+        <v>3.95</v>
       </c>
       <c r="H166" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="I166" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
@@ -20460,58 +20564,58 @@
       <c r="P166" t="inlineStr"/>
       <c r="Q166" t="inlineStr"/>
       <c r="R166" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S166" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="T166" t="n">
         <v>13.5</v>
       </c>
       <c r="U166" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="V166" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="W166" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="X166" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Y166" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Z166" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AA166" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="AB166" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AC166" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AD166" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="AE166" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AF166" t="n">
-        <v>8.5</v>
+        <v>9.25</v>
       </c>
       <c r="AG166" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AH166" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI166" t="n">
         <v>13.5</v>
-      </c>
-      <c r="AI166" t="n">
-        <v>13</v>
       </c>
       <c r="AJ166" t="n">
         <v>23</v>
@@ -20552,10 +20656,10 @@
         <v>1.22</v>
       </c>
       <c r="H167" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="I167" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="J167" t="n">
         <v>1.02</v>
@@ -20570,16 +20674,16 @@
         <v>6</v>
       </c>
       <c r="N167" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="O167" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="P167" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="Q167" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="R167" t="n">
         <v>1.95</v>
@@ -20591,7 +20695,7 @@
         <v>9.5</v>
       </c>
       <c r="U167" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="V167" t="n">
         <v>9.5</v>
@@ -20621,7 +20725,7 @@
         <v>301</v>
       </c>
       <c r="AE167" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF167" t="n">
         <v>51</v>
@@ -20633,7 +20737,7 @@
         <v>126</v>
       </c>
       <c r="AI167" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AJ167" t="n">
         <v>51</v>
@@ -20671,7 +20775,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="H168" t="n">
         <v>3.7</v>
@@ -20692,10 +20796,10 @@
         <v>3.75</v>
       </c>
       <c r="N168" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="O168" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="P168" t="n">
         <v>1.36</v>
@@ -20814,7 +20918,7 @@
         <v>5</v>
       </c>
       <c r="N169" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="O169" t="n">
         <v>2.35</v>
@@ -20948,7 +21052,7 @@
         <v>3.25</v>
       </c>
       <c r="R170" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="S170" t="n">
         <v>2.25</v>
@@ -21070,7 +21174,7 @@
         <v>3.5</v>
       </c>
       <c r="R171" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="S171" t="n">
         <v>2.25</v>
@@ -21162,10 +21266,10 @@
         <v>2.5</v>
       </c>
       <c r="H172" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I172" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="J172" t="n">
         <v>1.05</v>
@@ -21192,10 +21296,10 @@
         <v>2.75</v>
       </c>
       <c r="R172" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="S172" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="T172" t="n">
         <v>8.5</v>
@@ -21234,7 +21338,7 @@
         <v>8.5</v>
       </c>
       <c r="AF172" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG172" t="n">
         <v>10</v>
@@ -21314,7 +21418,7 @@
         <v>3</v>
       </c>
       <c r="R173" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="S173" t="n">
         <v>2.1</v>
@@ -21436,7 +21540,7 @@
         <v>3.25</v>
       </c>
       <c r="R174" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="S174" t="n">
         <v>2.2</v>
@@ -21525,19 +21629,19 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H175" t="n">
         <v>3.6</v>
       </c>
       <c r="I175" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="J175" t="n">
         <v>1.04</v>
       </c>
       <c r="K175" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L175" t="n">
         <v>1.25</v>
@@ -21546,10 +21650,10 @@
         <v>3.75</v>
       </c>
       <c r="N175" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="O175" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="P175" t="n">
         <v>1.36</v>
@@ -21558,7 +21662,7 @@
         <v>3</v>
       </c>
       <c r="R175" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="S175" t="n">
         <v>2.1</v>
@@ -21570,13 +21674,13 @@
         <v>17</v>
       </c>
       <c r="V175" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W175" t="n">
         <v>34</v>
       </c>
       <c r="X175" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y175" t="n">
         <v>29</v>
@@ -21647,19 +21751,19 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H176" t="n">
         <v>3.4</v>
       </c>
       <c r="I176" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="J176" t="n">
         <v>1.11</v>
       </c>
       <c r="K176" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="L176" t="n">
         <v>1.45</v>
@@ -21677,25 +21781,25 @@
         <v>1.5</v>
       </c>
       <c r="Q176" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="R176" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S176" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="T176" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U176" t="n">
+        <v>9</v>
+      </c>
+      <c r="V176" t="n">
         <v>9.5</v>
       </c>
-      <c r="V176" t="n">
-        <v>10</v>
-      </c>
       <c r="W176" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X176" t="n">
         <v>21</v>
@@ -21704,7 +21808,7 @@
         <v>34</v>
       </c>
       <c r="Z176" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA176" t="n">
         <v>6.5</v>
@@ -21716,10 +21820,10 @@
         <v>67</v>
       </c>
       <c r="AD176" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AE176" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF176" t="n">
         <v>15</v>
@@ -21728,10 +21832,10 @@
         <v>12</v>
       </c>
       <c r="AH176" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI176" t="n">
         <v>34</v>
-      </c>
-      <c r="AI176" t="n">
-        <v>29</v>
       </c>
       <c r="AJ176" t="n">
         <v>41</v>
@@ -21912,10 +22016,10 @@
         <v>3.5</v>
       </c>
       <c r="N178" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="O178" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="P178" t="n">
         <v>1.4</v>
@@ -22513,31 +22617,31 @@
         <v>1.04</v>
       </c>
       <c r="K183" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L183" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M183" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N183" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="O183" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="P183" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q183" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R183" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S183" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="T183" t="n">
         <v>7</v>
@@ -22570,13 +22674,13 @@
         <v>51</v>
       </c>
       <c r="AD183" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE183" t="n">
         <v>15</v>
       </c>
       <c r="AF183" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG183" t="n">
         <v>19</v>
@@ -22998,13 +23102,13 @@
         <v>2.9</v>
       </c>
       <c r="J187" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K187" t="n">
         <v>8.5</v>
       </c>
       <c r="L187" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M187" t="n">
         <v>3</v>
@@ -23013,7 +23117,7 @@
         <v>2.1</v>
       </c>
       <c r="O187" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P187" t="n">
         <v>1.44</v>
@@ -23120,22 +23224,22 @@
         <v>4.33</v>
       </c>
       <c r="J188" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="K188" t="n">
         <v>6.5</v>
       </c>
       <c r="L188" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="M188" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="N188" t="n">
         <v>2.7</v>
       </c>
       <c r="O188" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P188" t="n">
         <v>1.62</v>
@@ -23300,7 +23404,7 @@
         <v>67</v>
       </c>
       <c r="AD189" t="n">
-        <v>1250</v>
+        <v>900</v>
       </c>
       <c r="AE189" t="n">
         <v>10</v>
@@ -23353,19 +23457,19 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H190" t="n">
         <v>3.5</v>
       </c>
       <c r="I190" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="J190" t="n">
         <v>1.06</v>
       </c>
       <c r="K190" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L190" t="n">
         <v>1.33</v>
@@ -23386,13 +23490,13 @@
         <v>2.63</v>
       </c>
       <c r="R190" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="S190" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T190" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U190" t="n">
         <v>8.5</v>
@@ -23401,7 +23505,7 @@
         <v>9</v>
       </c>
       <c r="W190" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X190" t="n">
         <v>17</v>
@@ -23410,7 +23514,7 @@
         <v>29</v>
       </c>
       <c r="Z190" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA190" t="n">
         <v>7</v>
@@ -23422,7 +23526,7 @@
         <v>51</v>
       </c>
       <c r="AD190" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE190" t="n">
         <v>10</v>
@@ -23752,10 +23856,10 @@
         <v>2.5</v>
       </c>
       <c r="R193" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="S193" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="T193" t="n">
         <v>8</v>
@@ -23877,7 +23981,7 @@
         <v>2.25</v>
       </c>
       <c r="S194" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="T194" t="n">
         <v>5</v>
@@ -23984,10 +24088,10 @@
         <v>4.33</v>
       </c>
       <c r="N195" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="O195" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="P195" t="n">
         <v>1.33</v>
@@ -24112,10 +24216,10 @@
         <v>1.75</v>
       </c>
       <c r="P196" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="Q196" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="R196" t="n">
         <v>1.83</v>
@@ -24234,7 +24338,7 @@
         <v>2.38</v>
       </c>
       <c r="P197" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Q197" t="n">
         <v>3.5</v>
@@ -24344,19 +24448,19 @@
         <v>11</v>
       </c>
       <c r="L198" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M198" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N198" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="O198" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="P198" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="Q198" t="n">
         <v>2.75</v>
@@ -24478,10 +24582,10 @@
         <v>1.8</v>
       </c>
       <c r="P199" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="Q199" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="R199" t="n">
         <v>1.95</v>
@@ -24573,13 +24677,13 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="H200" t="n">
         <v>5</v>
       </c>
       <c r="I200" t="n">
-        <v>5.75</v>
+        <v>6.25</v>
       </c>
       <c r="J200" t="n">
         <v>1.03</v>
@@ -24588,10 +24692,10 @@
         <v>17</v>
       </c>
       <c r="L200" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="M200" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N200" t="n">
         <v>1.57</v>
@@ -24600,7 +24704,7 @@
         <v>2.38</v>
       </c>
       <c r="P200" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Q200" t="n">
         <v>3.5</v>
@@ -24627,13 +24731,13 @@
         <v>11</v>
       </c>
       <c r="Y200" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z200" t="n">
         <v>17</v>
       </c>
       <c r="AA200" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB200" t="n">
         <v>19</v>
@@ -24645,13 +24749,13 @@
         <v>201</v>
       </c>
       <c r="AE200" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF200" t="n">
         <v>34</v>
       </c>
       <c r="AG200" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH200" t="n">
         <v>67</v>
@@ -24695,13 +24799,13 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H201" t="n">
         <v>3.25</v>
       </c>
       <c r="I201" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J201" t="n">
         <v>1.07</v>
@@ -24722,10 +24826,10 @@
         <v>1.73</v>
       </c>
       <c r="P201" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="Q201" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="R201" t="n">
         <v>1.91</v>
@@ -24734,10 +24838,10 @@
         <v>1.91</v>
       </c>
       <c r="T201" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U201" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V201" t="n">
         <v>12</v>
@@ -24773,7 +24877,7 @@
         <v>10</v>
       </c>
       <c r="AG201" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH201" t="n">
         <v>21</v>
@@ -24820,43 +24924,43 @@
         <v>3.1</v>
       </c>
       <c r="H202" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I202" t="n">
         <v>2.15</v>
       </c>
       <c r="J202" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="K202" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L202" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M202" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N202" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="O202" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="P202" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q202" t="n">
         <v>3</v>
       </c>
       <c r="R202" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S202" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T202" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U202" t="n">
         <v>17</v>
@@ -24874,7 +24978,7 @@
         <v>29</v>
       </c>
       <c r="Z202" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA202" t="n">
         <v>6.5</v>
@@ -24889,10 +24993,10 @@
         <v>151</v>
       </c>
       <c r="AE202" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF202" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG202" t="n">
         <v>9.5</v>
@@ -24904,7 +25008,7 @@
         <v>17</v>
       </c>
       <c r="AJ202" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="203">
@@ -24939,13 +25043,13 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="H203" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I203" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J203" t="n">
         <v>1.06</v>
@@ -24954,22 +25058,22 @@
         <v>8</v>
       </c>
       <c r="L203" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M203" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N203" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O203" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="P203" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q203" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R203" t="n">
         <v>2</v>
@@ -24987,10 +25091,10 @@
         <v>9.5</v>
       </c>
       <c r="W203" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X203" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y203" t="n">
         <v>34</v>
@@ -25008,10 +25112,10 @@
         <v>67</v>
       </c>
       <c r="AD203" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AE203" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF203" t="n">
         <v>17</v>
@@ -25061,7 +25165,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="H204" t="n">
         <v>4.75</v>
@@ -25183,94 +25287,94 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>1.42</v>
+        <v>1.22</v>
       </c>
       <c r="H205" t="n">
+        <v>5</v>
+      </c>
+      <c r="I205" t="n">
+        <v>10</v>
+      </c>
+      <c r="J205" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K205" t="n">
+        <v>11</v>
+      </c>
+      <c r="L205" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M205" t="n">
         <v>4</v>
       </c>
-      <c r="I205" t="n">
-        <v>7</v>
-      </c>
-      <c r="J205" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K205" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="L205" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M205" t="n">
-        <v>3.5</v>
-      </c>
       <c r="N205" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="O205" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="P205" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q205" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R205" t="n">
-        <v>2</v>
+        <v>2.38</v>
       </c>
       <c r="S205" t="n">
-        <v>1.73</v>
+        <v>1.53</v>
       </c>
       <c r="T205" t="n">
         <v>6.5</v>
       </c>
       <c r="U205" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="V205" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W205" t="n">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="X205" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y205" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z205" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA205" t="n">
         <v>10</v>
       </c>
-      <c r="AA205" t="n">
-        <v>8</v>
-      </c>
       <c r="AB205" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AC205" t="n">
+        <v>81</v>
+      </c>
+      <c r="AD205" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE205" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF205" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG205" t="n">
+        <v>34</v>
+      </c>
+      <c r="AH205" t="n">
+        <v>126</v>
+      </c>
+      <c r="AI205" t="n">
+        <v>81</v>
+      </c>
+      <c r="AJ205" t="n">
         <v>67</v>
-      </c>
-      <c r="AD205" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AE205" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF205" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG205" t="n">
-        <v>23</v>
-      </c>
-      <c r="AH205" t="n">
-        <v>81</v>
-      </c>
-      <c r="AI205" t="n">
-        <v>51</v>
-      </c>
-      <c r="AJ205" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="206">
@@ -25305,13 +25409,13 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H206" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="I206" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="J206" t="n">
         <v>1.11</v>
@@ -25320,10 +25424,10 @@
         <v>6</v>
       </c>
       <c r="L206" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="M206" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="N206" t="n">
         <v>2.63</v>
@@ -25353,10 +25457,10 @@
         <v>13</v>
       </c>
       <c r="W206" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="X206" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y206" t="n">
         <v>41</v>
@@ -25380,7 +25484,7 @@
         <v>6</v>
       </c>
       <c r="AF206" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG206" t="n">
         <v>11</v>
@@ -25427,37 +25531,37 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H207" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="I207" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="J207" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="K207" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="L207" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="M207" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="N207" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="O207" t="n">
         <v>1.57</v>
       </c>
       <c r="P207" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="Q207" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="R207" t="n">
         <v>1.93</v>
@@ -25466,28 +25570,28 @@
         <v>1.78</v>
       </c>
       <c r="T207" t="n">
-        <v>8.5</v>
+        <v>7.9</v>
       </c>
       <c r="U207" t="n">
         <v>16.5</v>
       </c>
       <c r="V207" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="W207" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="X207" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="Y207" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="Z207" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AA207" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AB207" t="n">
         <v>16</v>
@@ -25496,25 +25600,25 @@
         <v>90</v>
       </c>
       <c r="AD207" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AE207" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="AF207" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AG207" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AH207" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI207" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AJ207" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="208">
@@ -25549,25 +25653,25 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H208" t="n">
-        <v>3.05</v>
+        <v>2.92</v>
       </c>
       <c r="I208" t="n">
-        <v>3.35</v>
+        <v>3.65</v>
       </c>
       <c r="J208" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="K208" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="L208" t="n">
         <v>1.35</v>
       </c>
       <c r="M208" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="N208" t="n">
         <v>2.05</v>
@@ -25576,67 +25680,67 @@
         <v>1.72</v>
       </c>
       <c r="P208" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q208" t="n">
-        <v>2.65</v>
+        <v>2.8</v>
       </c>
       <c r="R208" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="S208" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T208" t="n">
-        <v>7.4</v>
+        <v>7.1</v>
       </c>
       <c r="U208" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="V208" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="W208" t="n">
         <v>25</v>
       </c>
       <c r="X208" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Y208" t="n">
         <v>30</v>
       </c>
       <c r="Z208" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="AA208" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="AB208" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC208" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AD208" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AE208" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF208" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="AG208" t="n">
         <v>12.5</v>
       </c>
       <c r="AH208" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AI208" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AJ208" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="209">
@@ -25674,10 +25778,10 @@
         <v>1.85</v>
       </c>
       <c r="H209" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I209" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="J209" t="n">
         <v>1.06</v>
@@ -25701,7 +25805,7 @@
         <v>1.42</v>
       </c>
       <c r="Q209" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="R209" t="n">
         <v>1.72</v>
@@ -25710,10 +25814,10 @@
         <v>2</v>
       </c>
       <c r="T209" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="U209" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="V209" t="n">
         <v>8.75</v>
@@ -25722,10 +25826,10 @@
         <v>17</v>
       </c>
       <c r="X209" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y209" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Z209" t="n">
         <v>8</v>
@@ -25734,7 +25838,7 @@
         <v>7.1</v>
       </c>
       <c r="AB209" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC209" t="n">
         <v>70</v>
@@ -25743,13 +25847,13 @@
         <v>600</v>
       </c>
       <c r="AE209" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AF209" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG209" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH209" t="n">
         <v>70</v>
@@ -26037,13 +26141,13 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="H212" t="n">
         <v>3.05</v>
       </c>
       <c r="I212" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="J212" t="n">
         <v>1.09</v>
@@ -26052,10 +26156,10 @@
         <v>6.3</v>
       </c>
       <c r="L212" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M212" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="N212" t="n">
         <v>2.15</v>
@@ -26067,19 +26171,19 @@
         <v>1.44</v>
       </c>
       <c r="Q212" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="R212" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="S212" t="n">
         <v>1.85</v>
       </c>
       <c r="T212" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="U212" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="V212" t="n">
         <v>10.25</v>
@@ -26091,7 +26195,7 @@
         <v>25</v>
       </c>
       <c r="Y212" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Z212" t="n">
         <v>6.3</v>
@@ -26100,19 +26204,19 @@
         <v>5.9</v>
       </c>
       <c r="AB212" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC212" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AD212" t="n">
         <v>700</v>
       </c>
       <c r="AE212" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="AF212" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AG212" t="n">
         <v>9.75</v>
@@ -26121,7 +26225,7 @@
         <v>28</v>
       </c>
       <c r="AI212" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ212" t="n">
         <v>37</v>
@@ -26159,19 +26263,19 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="H213" t="n">
         <v>3.65</v>
       </c>
       <c r="I213" t="n">
-        <v>4.55</v>
+        <v>4.65</v>
       </c>
       <c r="J213" t="n">
         <v>1.05</v>
       </c>
       <c r="K213" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="L213" t="n">
         <v>1.27</v>
@@ -26186,10 +26290,10 @@
         <v>1.91</v>
       </c>
       <c r="P213" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="Q213" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="R213" t="n">
         <v>1.75</v>
@@ -26198,7 +26302,7 @@
         <v>1.95</v>
       </c>
       <c r="T213" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="U213" t="n">
         <v>8.25</v>
@@ -26210,43 +26314,43 @@
         <v>13.5</v>
       </c>
       <c r="X213" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y213" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z213" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AA213" t="n">
         <v>7</v>
       </c>
       <c r="AB213" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC213" t="n">
         <v>65</v>
       </c>
       <c r="AD213" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AE213" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AF213" t="n">
         <v>27</v>
       </c>
       <c r="AG213" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AH213" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AI213" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ213" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="214">
@@ -26647,13 +26751,13 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H217" t="n">
         <v>3.1</v>
       </c>
       <c r="I217" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="J217" t="n">
         <v>1.06</v>
@@ -26686,7 +26790,7 @@
         <v>2</v>
       </c>
       <c r="T217" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U217" t="n">
         <v>15</v>
@@ -26725,13 +26829,13 @@
         <v>12</v>
       </c>
       <c r="AG217" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH217" t="n">
         <v>23</v>
       </c>
       <c r="AI217" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ217" t="n">
         <v>29</v>
@@ -26784,16 +26888,16 @@
         <v>11</v>
       </c>
       <c r="L218" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M218" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N218" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="O218" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="P218" t="n">
         <v>1.4</v>
@@ -26894,7 +26998,7 @@
         <v>1.62</v>
       </c>
       <c r="H219" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I219" t="n">
         <v>4.75</v>
@@ -26918,19 +27022,19 @@
         <v>2.05</v>
       </c>
       <c r="P219" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q219" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R219" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S219" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="T219" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U219" t="n">
         <v>8</v>
@@ -26945,13 +27049,13 @@
         <v>13</v>
       </c>
       <c r="Y219" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z219" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA219" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB219" t="n">
         <v>17</v>
@@ -27144,10 +27248,10 @@
         <v>3.25</v>
       </c>
       <c r="J221" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="K221" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="L221" t="n">
         <v>1.57</v>
@@ -27501,19 +27605,19 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="H224" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I224" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="J224" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K224" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L224" t="n">
         <v>1.44</v>
@@ -27522,10 +27626,10 @@
         <v>2.63</v>
       </c>
       <c r="N224" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="O224" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P224" t="n">
         <v>1.53</v>
@@ -27534,25 +27638,25 @@
         <v>2.38</v>
       </c>
       <c r="R224" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S224" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T224" t="n">
         <v>6</v>
       </c>
       <c r="U224" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V224" t="n">
         <v>9.5</v>
       </c>
       <c r="W224" t="n">
+        <v>17</v>
+      </c>
+      <c r="X224" t="n">
         <v>19</v>
-      </c>
-      <c r="X224" t="n">
-        <v>21</v>
       </c>
       <c r="Y224" t="n">
         <v>34</v>
@@ -27573,10 +27677,10 @@
         <v>101</v>
       </c>
       <c r="AE224" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF224" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG224" t="n">
         <v>15</v>
@@ -27585,7 +27689,7 @@
         <v>41</v>
       </c>
       <c r="AI224" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ224" t="n">
         <v>41</v>
@@ -27867,22 +27971,22 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H227" t="n">
         <v>3.2</v>
       </c>
       <c r="I227" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="J227" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K227" t="n">
         <v>7.5</v>
       </c>
       <c r="L227" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M227" t="n">
         <v>3</v>
@@ -27894,10 +27998,10 @@
         <v>1.67</v>
       </c>
       <c r="P227" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q227" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R227" t="n">
         <v>1.91</v>
@@ -27906,19 +28010,19 @@
         <v>1.8</v>
       </c>
       <c r="T227" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U227" t="n">
         <v>12</v>
       </c>
       <c r="V227" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W227" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X227" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y227" t="n">
         <v>34</v>
@@ -27942,7 +28046,7 @@
         <v>8</v>
       </c>
       <c r="AF227" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG227" t="n">
         <v>11</v>
@@ -27998,16 +28102,16 @@
         <v>3.4</v>
       </c>
       <c r="J228" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="K228" t="n">
         <v>5.5</v>
       </c>
       <c r="L228" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="M228" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="N228" t="n">
         <v>2.63</v>
@@ -28016,16 +28120,16 @@
         <v>1.44</v>
       </c>
       <c r="P228" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Q228" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R228" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S228" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T228" t="n">
         <v>6</v>
@@ -28046,22 +28150,22 @@
         <v>41</v>
       </c>
       <c r="Z228" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AA228" t="n">
         <v>6</v>
       </c>
-      <c r="AA228" t="n">
-        <v>5.5</v>
-      </c>
       <c r="AB228" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC228" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD228" t="n">
         <v>700</v>
       </c>
       <c r="AE228" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF228" t="n">
         <v>15</v>
@@ -28123,7 +28227,7 @@
         <v>1.04</v>
       </c>
       <c r="K229" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L229" t="n">
         <v>1.22</v>
@@ -28150,7 +28254,7 @@
         <v>1.91</v>
       </c>
       <c r="T229" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U229" t="n">
         <v>7</v>
@@ -28355,43 +28459,43 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="H231" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I231" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="J231" t="n">
         <v>1.03</v>
       </c>
       <c r="K231" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L231" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M231" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N231" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="O231" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="P231" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="Q231" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R231" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S231" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="T231" t="n">
         <v>15</v>
@@ -28409,13 +28513,13 @@
         <v>26</v>
       </c>
       <c r="Y231" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z231" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA231" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB231" t="n">
         <v>13</v>
@@ -28424,13 +28528,13 @@
         <v>41</v>
       </c>
       <c r="AD231" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE231" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF231" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG231" t="n">
         <v>8.5</v>
@@ -28442,7 +28546,7 @@
         <v>13</v>
       </c>
       <c r="AJ231" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="232">
@@ -28480,28 +28584,28 @@
         <v>1.9</v>
       </c>
       <c r="H232" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I232" t="n">
         <v>4</v>
       </c>
       <c r="J232" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K232" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L232" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M232" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N232" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="O232" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="P232" t="n">
         <v>1.36</v>
@@ -28516,7 +28620,7 @@
         <v>2.1</v>
       </c>
       <c r="T232" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U232" t="n">
         <v>9.5</v>
@@ -28534,10 +28638,10 @@
         <v>23</v>
       </c>
       <c r="Z232" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA232" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB232" t="n">
         <v>13</v>
@@ -28599,82 +28703,82 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="H233" t="n">
         <v>3.7</v>
       </c>
       <c r="I233" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="J233" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K233" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L233" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M233" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N233" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="O233" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="P233" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q233" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R233" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="S233" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="T233" t="n">
         <v>15</v>
       </c>
       <c r="U233" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="V233" t="n">
         <v>15</v>
       </c>
       <c r="W233" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="X233" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Y233" t="n">
         <v>34</v>
       </c>
       <c r="Z233" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA233" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB233" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC233" t="n">
         <v>41</v>
       </c>
       <c r="AD233" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE233" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AF233" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG233" t="n">
         <v>8.5</v>
@@ -28843,19 +28947,19 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="H235" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I235" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="J235" t="n">
         <v>1.07</v>
       </c>
       <c r="K235" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="L235" t="n">
         <v>1.33</v>
@@ -28870,7 +28974,7 @@
         <v>1.75</v>
       </c>
       <c r="P235" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="Q235" t="n">
         <v>2.8</v>
@@ -28882,55 +28986,55 @@
         <v>1.93</v>
       </c>
       <c r="T235" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="U235" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="V235" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="W235" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="X235" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Y235" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z235" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AA235" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AB235" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC235" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AD235" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AE235" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AF235" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AG235" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AH235" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI235" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ235" t="n">
         <v>37</v>
-      </c>
-      <c r="AI235" t="n">
-        <v>27</v>
-      </c>
-      <c r="AJ235" t="n">
-        <v>35</v>
       </c>
     </row>
     <row r="236">
@@ -29393,7 +29497,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H240" t="n">
         <v>3.4</v>
@@ -29402,10 +29506,10 @@
         <v>4.75</v>
       </c>
       <c r="J240" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K240" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L240" t="n">
         <v>1.3</v>
@@ -29432,7 +29536,7 @@
         <v>1.83</v>
       </c>
       <c r="T240" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U240" t="n">
         <v>8</v>
@@ -29637,90 +29741,90 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>2.65</v>
+        <v>2.3</v>
       </c>
       <c r="H242" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I242" t="n">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M242" t="n">
-        <v>2.52</v>
+        <v>2.42</v>
       </c>
       <c r="N242" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="O242" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="P242" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="Q242" t="n">
-        <v>2.27</v>
+        <v>2.2</v>
       </c>
       <c r="R242" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="S242" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="T242" t="n">
-        <v>7.2</v>
+        <v>6.3</v>
       </c>
       <c r="U242" t="n">
-        <v>12</v>
+        <v>10.25</v>
       </c>
       <c r="V242" t="n">
-        <v>10.25</v>
+        <v>9.5</v>
       </c>
       <c r="W242" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="X242" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Y242" t="n">
         <v>40</v>
       </c>
       <c r="Z242" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA242" t="n">
         <v>5.9</v>
       </c>
       <c r="AB242" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AC242" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AD242" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AE242" t="n">
-        <v>7.1</v>
+        <v>7.5</v>
       </c>
       <c r="AF242" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="AG242" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="AH242" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="AI242" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="AJ242" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="243">
@@ -29755,90 +29859,90 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="H243" t="n">
         <v>3.15</v>
       </c>
       <c r="I243" t="n">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="M243" t="n">
-        <v>2.65</v>
+        <v>2.77</v>
       </c>
       <c r="N243" t="n">
-        <v>2.07</v>
+        <v>1.98</v>
       </c>
       <c r="O243" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="P243" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="Q243" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R243" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="S243" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="T243" t="n">
-        <v>8.75</v>
+        <v>10.25</v>
       </c>
       <c r="U243" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="V243" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="W243" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="X243" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Y243" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Z243" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AA243" t="n">
         <v>6.1</v>
       </c>
       <c r="AB243" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AC243" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="AD243" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="AE243" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AF243" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AG243" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH243" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AI243" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AJ243" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="244">
@@ -29900,7 +30004,7 @@
         <v>1.65</v>
       </c>
       <c r="P244" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="Q244" t="n">
         <v>2.5</v>
@@ -30022,10 +30126,10 @@
         <v>1.53</v>
       </c>
       <c r="P245" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q245" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="R245" t="n">
         <v>2.2</v>
@@ -30260,10 +30364,10 @@
         <v>3.75</v>
       </c>
       <c r="N247" t="n">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
       <c r="O247" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="P247" t="n">
         <v>1.36</v>
@@ -30436,7 +30540,7 @@
         <v>13</v>
       </c>
       <c r="AF248" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG248" t="n">
         <v>12</v>
@@ -30445,7 +30549,7 @@
         <v>41</v>
       </c>
       <c r="AI248" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ248" t="n">
         <v>29</v>
@@ -30626,10 +30730,10 @@
         <v>4.33</v>
       </c>
       <c r="N250" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="O250" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="P250" t="n">
         <v>1.3</v>
@@ -30727,13 +30831,13 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="H251" t="n">
         <v>4.2</v>
       </c>
       <c r="I251" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J251" t="n">
         <v>1.03</v>
@@ -30742,10 +30846,10 @@
         <v>15</v>
       </c>
       <c r="L251" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M251" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N251" t="n">
         <v>1.7</v>
@@ -30760,10 +30864,10 @@
         <v>3.25</v>
       </c>
       <c r="R251" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S251" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T251" t="n">
         <v>8</v>
@@ -30775,7 +30879,7 @@
         <v>8.5</v>
       </c>
       <c r="W251" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X251" t="n">
         <v>12</v>
@@ -30790,7 +30894,7 @@
         <v>8</v>
       </c>
       <c r="AB251" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC251" t="n">
         <v>51</v>
@@ -30870,13 +30974,13 @@
         <v>3.75</v>
       </c>
       <c r="N252" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="O252" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="P252" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q252" t="n">
         <v>3</v>
@@ -30998,7 +31102,7 @@
         <v>2.3</v>
       </c>
       <c r="P253" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="Q253" t="n">
         <v>3.4</v>
@@ -31093,43 +31197,43 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H254" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I254" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J254" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K254" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L254" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M254" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N254" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="O254" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="P254" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q254" t="n">
         <v>3</v>
       </c>
       <c r="R254" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S254" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T254" t="n">
         <v>7.5</v>
@@ -31168,7 +31272,7 @@
         <v>13</v>
       </c>
       <c r="AF254" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG254" t="n">
         <v>15</v>
@@ -31224,10 +31328,10 @@
         <v>2.88</v>
       </c>
       <c r="J255" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K255" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L255" t="n">
         <v>1.29</v>
@@ -31236,13 +31340,13 @@
         <v>3.5</v>
       </c>
       <c r="N255" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="O255" t="n">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
       <c r="P255" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="Q255" t="n">
         <v>2.75</v>
@@ -31272,7 +31376,7 @@
         <v>29</v>
       </c>
       <c r="Z255" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA255" t="n">
         <v>6.5</v>
@@ -31299,7 +31403,7 @@
         <v>29</v>
       </c>
       <c r="AI255" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ255" t="n">
         <v>29</v>
@@ -31337,13 +31441,13 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="H256" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I256" t="n">
         <v>3.4</v>
-      </c>
-      <c r="I256" t="n">
-        <v>3.2</v>
       </c>
       <c r="J256" t="n">
         <v>1.04</v>
@@ -31364,10 +31468,10 @@
         <v>2.05</v>
       </c>
       <c r="P256" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="Q256" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R256" t="n">
         <v>1.62</v>
@@ -31376,19 +31480,19 @@
         <v>2.2</v>
       </c>
       <c r="T256" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U256" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V256" t="n">
         <v>9</v>
       </c>
       <c r="W256" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X256" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y256" t="n">
         <v>23</v>
@@ -31409,10 +31513,10 @@
         <v>151</v>
       </c>
       <c r="AE256" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF256" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG256" t="n">
         <v>12</v>
@@ -31421,7 +31525,7 @@
         <v>34</v>
       </c>
       <c r="AI256" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ256" t="n">
         <v>29</v>
@@ -31459,7 +31563,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H257" t="n">
         <v>3.8</v>
@@ -31468,25 +31572,25 @@
         <v>4.5</v>
       </c>
       <c r="J257" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K257" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L257" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M257" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N257" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O257" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P257" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q257" t="n">
         <v>3.25</v>
@@ -31501,7 +31605,7 @@
         <v>8.5</v>
       </c>
       <c r="U257" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V257" t="n">
         <v>8.5</v>
@@ -31519,7 +31623,7 @@
         <v>13</v>
       </c>
       <c r="AA257" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB257" t="n">
         <v>13</v>
@@ -31596,16 +31700,16 @@
         <v>10</v>
       </c>
       <c r="L258" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M258" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N258" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="O258" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="P258" t="n">
         <v>1.4</v>
@@ -31641,7 +31745,7 @@
         <v>10</v>
       </c>
       <c r="AA258" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB258" t="n">
         <v>13</v>
@@ -31656,7 +31760,7 @@
         <v>10</v>
       </c>
       <c r="AF258" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG258" t="n">
         <v>12</v>
@@ -31703,13 +31807,13 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="H259" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I259" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="J259" t="n">
         <v>1.05</v>
@@ -31742,16 +31846,16 @@
         <v>1.93</v>
       </c>
       <c r="T259" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="U259" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="V259" t="n">
         <v>8.25</v>
       </c>
       <c r="W259" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="X259" t="n">
         <v>14.5</v>
@@ -31763,10 +31867,10 @@
         <v>7.6</v>
       </c>
       <c r="AA259" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AB259" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC259" t="n">
         <v>70</v>
@@ -31778,10 +31882,10 @@
         <v>11.25</v>
       </c>
       <c r="AF259" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG259" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH259" t="n">
         <v>55</v>
@@ -31864,10 +31968,10 @@
         <v>2.1</v>
       </c>
       <c r="T260" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="U260" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="V260" t="n">
         <v>11</v>
@@ -31879,7 +31983,7 @@
         <v>25</v>
       </c>
       <c r="Y260" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z260" t="n">
         <v>8</v>
@@ -31906,7 +32010,7 @@
         <v>8.75</v>
       </c>
       <c r="AH260" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AI260" t="n">
         <v>15.5</v>
@@ -31947,70 +32051,70 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="H261" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="I261" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J261" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K261" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="L261" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="M261" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N261" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="O261" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="P261" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="Q261" t="n">
-        <v>2.85</v>
+        <v>2.95</v>
       </c>
       <c r="R261" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="S261" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T261" t="n">
         <v>8</v>
       </c>
       <c r="U261" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="V261" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="W261" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="X261" t="n">
         <v>13</v>
       </c>
       <c r="Y261" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z261" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="AA261" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="AB261" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC261" t="n">
         <v>55</v>
@@ -32019,10 +32123,10 @@
         <v>400</v>
       </c>
       <c r="AE261" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AF261" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG261" t="n">
         <v>13.5</v>
@@ -32031,10 +32135,10 @@
         <v>65</v>
       </c>
       <c r="AI261" t="n">
+        <v>35</v>
+      </c>
+      <c r="AJ261" t="n">
         <v>37</v>
-      </c>
-      <c r="AJ261" t="n">
-        <v>40</v>
       </c>
     </row>
     <row r="262">
@@ -32230,16 +32334,16 @@
         <v>2.05</v>
       </c>
       <c r="T263" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="U263" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="V263" t="n">
         <v>8.5</v>
       </c>
       <c r="W263" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="X263" t="n">
         <v>16</v>
@@ -32263,10 +32367,10 @@
         <v>400</v>
       </c>
       <c r="AE263" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AF263" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AG263" t="n">
         <v>11.25</v>
@@ -32313,13 +32417,13 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="H264" t="n">
         <v>3.45</v>
       </c>
       <c r="I264" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J264" t="n">
         <v>1.05</v>
@@ -32328,46 +32432,46 @@
         <v>8</v>
       </c>
       <c r="L264" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="M264" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="N264" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="O264" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="P264" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="Q264" t="n">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="R264" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S264" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="T264" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="U264" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="V264" t="n">
         <v>8.5</v>
       </c>
       <c r="W264" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="X264" t="n">
         <v>15</v>
       </c>
       <c r="Y264" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z264" t="n">
         <v>8</v>
@@ -32376,7 +32480,7 @@
         <v>6.9</v>
       </c>
       <c r="AB264" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC264" t="n">
         <v>50</v>
@@ -32385,22 +32489,22 @@
         <v>350</v>
       </c>
       <c r="AE264" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AF264" t="n">
         <v>18.5</v>
       </c>
       <c r="AG264" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AH264" t="n">
         <v>45</v>
       </c>
       <c r="AI264" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ264" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="265">
@@ -32563,7 +32667,7 @@
         <v>3.5</v>
       </c>
       <c r="I266" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="J266" t="n">
         <v>1.05</v>
@@ -32629,13 +32733,13 @@
         <v>400</v>
       </c>
       <c r="AE266" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AF266" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AG266" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AH266" t="n">
         <v>45</v>
@@ -32679,13 +32783,13 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="H267" t="n">
         <v>2.52</v>
       </c>
       <c r="I267" t="n">
-        <v>2.47</v>
+        <v>2.42</v>
       </c>
       <c r="J267" t="n">
         <v>1.14</v>
@@ -32718,10 +32822,10 @@
         <v>1.72</v>
       </c>
       <c r="T267" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="U267" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="V267" t="n">
         <v>12</v>
@@ -32736,13 +32840,13 @@
         <v>50</v>
       </c>
       <c r="Z267" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AA267" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="AB267" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC267" t="n">
         <v>90</v>
@@ -32751,19 +32855,19 @@
         <v>900</v>
       </c>
       <c r="AE267" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AF267" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AG267" t="n">
         <v>9.5</v>
       </c>
       <c r="AH267" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI267" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ267" t="n">
         <v>40</v>
@@ -32807,7 +32911,7 @@
         <v>3.15</v>
       </c>
       <c r="I268" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="J268" t="n">
         <v>1.11</v>
@@ -32840,7 +32944,7 @@
         <v>1.75</v>
       </c>
       <c r="T268" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="U268" t="n">
         <v>9</v>
@@ -32861,7 +32965,7 @@
         <v>7.8</v>
       </c>
       <c r="AA268" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AB268" t="n">
         <v>16</v>
@@ -32879,7 +32983,7 @@
         <v>18.5</v>
       </c>
       <c r="AG268" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH268" t="n">
         <v>55</v>
@@ -32926,7 +33030,7 @@
         <v>1.95</v>
       </c>
       <c r="H269" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I269" t="n">
         <v>3.6</v>
@@ -32985,7 +33089,7 @@
         <v>14</v>
       </c>
       <c r="AC269" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AD269" t="n">
         <v>500</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-05.xlsx
@@ -769,28 +769,28 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H3" t="n">
         <v>3.5</v>
       </c>
       <c r="I3" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J3" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K3" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L3" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M3" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N3" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="O3" t="n">
         <v>2</v>
@@ -802,10 +802,10 @@
         <v>3</v>
       </c>
       <c r="R3" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S3" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T3" t="n">
         <v>10</v>
@@ -826,10 +826,10 @@
         <v>29</v>
       </c>
       <c r="Z3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB3" t="n">
         <v>15</v>
@@ -856,7 +856,7 @@
         <v>23</v>
       </c>
       <c r="AJ3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
@@ -891,19 +891,19 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="H4" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I4" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="J4" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L4" t="n">
         <v>1.33</v>
@@ -912,10 +912,10 @@
         <v>3.4</v>
       </c>
       <c r="N4" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="O4" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="P4" t="n">
         <v>1.44</v>
@@ -945,25 +945,25 @@
         <v>26</v>
       </c>
       <c r="Y4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA4" t="n">
         <v>6.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC4" t="n">
         <v>51</v>
       </c>
       <c r="AD4" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF4" t="n">
         <v>13</v>
@@ -972,7 +972,7 @@
         <v>11</v>
       </c>
       <c r="AH4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI4" t="n">
         <v>23</v>
@@ -1013,13 +1013,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H5" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="J5" t="n">
         <v>1.05</v>
@@ -1028,28 +1028,28 @@
         <v>11</v>
       </c>
       <c r="L5" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M5" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N5" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="O5" t="n">
-        <v>2.03</v>
+        <v>1.99</v>
       </c>
       <c r="P5" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q5" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R5" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S5" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T5" t="n">
         <v>12</v>
@@ -1070,7 +1070,7 @@
         <v>34</v>
       </c>
       <c r="Z5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA5" t="n">
         <v>7</v>
@@ -1079,13 +1079,13 @@
         <v>15</v>
       </c>
       <c r="AC5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD5" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE5" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF5" t="n">
         <v>13</v>
@@ -1094,7 +1094,7 @@
         <v>10</v>
       </c>
       <c r="AH5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI5" t="n">
         <v>21</v>
@@ -1135,19 +1135,19 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
         <v>3.5</v>
       </c>
       <c r="I6" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="J6" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L6" t="n">
         <v>1.25</v>
@@ -1156,10 +1156,10 @@
         <v>4</v>
       </c>
       <c r="N6" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="O6" t="n">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="P6" t="n">
         <v>1.36</v>
@@ -1195,7 +1195,7 @@
         <v>12</v>
       </c>
       <c r="AA6" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB6" t="n">
         <v>15</v>
@@ -1219,7 +1219,7 @@
         <v>41</v>
       </c>
       <c r="AI6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ6" t="n">
         <v>41</v>
@@ -1260,7 +1260,7 @@
         <v>1.14</v>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="I7" t="n">
         <v>19</v>
@@ -1379,13 +1379,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="H8" t="n">
         <v>3.6</v>
       </c>
       <c r="I8" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="J8" t="n">
         <v>1.03</v>
@@ -1445,7 +1445,7 @@
         <v>12</v>
       </c>
       <c r="AC8" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AD8" t="n">
         <v>126</v>
@@ -1501,13 +1501,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H9" t="n">
         <v>3.6</v>
       </c>
       <c r="I9" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
         <v>1.04</v>
@@ -1623,19 +1623,19 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="H10" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I10" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="J10" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L10" t="n">
         <v>1.3</v>
@@ -1644,10 +1644,10 @@
         <v>3.5</v>
       </c>
       <c r="N10" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="O10" t="n">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="P10" t="n">
         <v>1.4</v>
@@ -1683,7 +1683,7 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB10" t="n">
         <v>17</v>
@@ -1692,7 +1692,7 @@
         <v>51</v>
       </c>
       <c r="AD10" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE10" t="n">
         <v>6.5</v>
@@ -1704,13 +1704,13 @@
         <v>8.5</v>
       </c>
       <c r="AH10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI10" t="n">
         <v>13</v>
       </c>
-      <c r="AI10" t="n">
-        <v>15</v>
-      </c>
       <c r="AJ10" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11">
@@ -1745,13 +1745,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="H11" t="n">
         <v>4.5</v>
       </c>
       <c r="I11" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="J11" t="n">
         <v>1.04</v>
@@ -1778,34 +1778,34 @@
         <v>3.25</v>
       </c>
       <c r="R11" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="S11" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="T11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="U11" t="n">
         <v>34</v>
       </c>
       <c r="V11" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="W11" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="X11" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Y11" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Z11" t="n">
         <v>13</v>
       </c>
       <c r="AA11" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB11" t="n">
         <v>17</v>
@@ -1820,13 +1820,13 @@
         <v>7.5</v>
       </c>
       <c r="AF11" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AG11" t="n">
         <v>8.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI11" t="n">
         <v>12</v>
@@ -1867,13 +1867,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="H12" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I12" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="J12" t="n">
         <v>1.04</v>
@@ -1909,25 +1909,25 @@
         <v>8.5</v>
       </c>
       <c r="U12" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V12" t="n">
         <v>8.5</v>
       </c>
       <c r="W12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y12" t="n">
         <v>23</v>
       </c>
       <c r="Z12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA12" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB12" t="n">
         <v>13</v>
@@ -1942,7 +1942,7 @@
         <v>13</v>
       </c>
       <c r="AF12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG12" t="n">
         <v>13</v>
@@ -2117,7 +2117,7 @@
         <v>5.75</v>
       </c>
       <c r="I14" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="J14" t="n">
         <v>1.03</v>
@@ -2132,10 +2132,10 @@
         <v>5</v>
       </c>
       <c r="N14" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="O14" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="P14" t="n">
         <v>1.25</v>
@@ -2156,7 +2156,7 @@
         <v>7</v>
       </c>
       <c r="V14" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W14" t="n">
         <v>8.5</v>
@@ -2239,7 +2239,7 @@
         <v>3.1</v>
       </c>
       <c r="I15" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J15" t="n">
         <v>1.1</v>
@@ -2260,10 +2260,10 @@
         <v>1.53</v>
       </c>
       <c r="P15" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="R15" t="n">
         <v>2.05</v>
@@ -2272,7 +2272,7 @@
         <v>1.7</v>
       </c>
       <c r="T15" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U15" t="n">
         <v>11</v>
@@ -2302,7 +2302,7 @@
         <v>67</v>
       </c>
       <c r="AD15" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AE15" t="n">
         <v>7</v>
@@ -2317,7 +2317,7 @@
         <v>29</v>
       </c>
       <c r="AI15" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ15" t="n">
         <v>41</v>
@@ -2599,10 +2599,10 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I18" t="n">
         <v>4.5</v>
@@ -2674,7 +2674,7 @@
         <v>8.5</v>
       </c>
       <c r="AF18" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG18" t="n">
         <v>17</v>
@@ -2965,19 +2965,19 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="H21" t="n">
         <v>3.25</v>
       </c>
       <c r="I21" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="J21" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L21" t="n">
         <v>1.4</v>
@@ -2992,16 +2992,16 @@
         <v>1.57</v>
       </c>
       <c r="P21" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R21" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S21" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T21" t="n">
         <v>12</v>
@@ -3209,13 +3209,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H23" t="n">
         <v>3</v>
       </c>
       <c r="I23" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J23" t="n">
         <v>1.14</v>
@@ -3251,7 +3251,7 @@
         <v>5</v>
       </c>
       <c r="U23" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V23" t="n">
         <v>10</v>
@@ -3269,7 +3269,7 @@
         <v>5.5</v>
       </c>
       <c r="AA23" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB23" t="n">
         <v>23</v>
@@ -3453,37 +3453,37 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="H25" t="n">
         <v>2.75</v>
       </c>
       <c r="I25" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="J25" t="n">
         <v>1.17</v>
       </c>
       <c r="K25" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="L25" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="M25" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="N25" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Q25" t="n">
         <v>2</v>
-      </c>
-      <c r="N25" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P25" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>2.03</v>
       </c>
       <c r="R25" t="n">
         <v>2.63</v>
@@ -3495,13 +3495,13 @@
         <v>5</v>
       </c>
       <c r="U25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V25" t="n">
         <v>12</v>
       </c>
       <c r="W25" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X25" t="n">
         <v>29</v>
@@ -3516,7 +3516,7 @@
         <v>6</v>
       </c>
       <c r="AB25" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC25" t="n">
         <v>126</v>
@@ -3525,10 +3525,10 @@
         <v>101</v>
       </c>
       <c r="AE25" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AF25" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG25" t="n">
         <v>15</v>
@@ -3540,7 +3540,7 @@
         <v>41</v>
       </c>
       <c r="AJ25" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26">
@@ -3950,10 +3950,10 @@
         <v>4.5</v>
       </c>
       <c r="J29" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="K29" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="L29" t="n">
         <v>1.5</v>
@@ -4078,16 +4078,16 @@
         <v>13</v>
       </c>
       <c r="L30" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M30" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N30" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O30" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P30" t="n">
         <v>1.33</v>
@@ -4200,16 +4200,16 @@
         <v>15</v>
       </c>
       <c r="L31" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M31" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N31" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="O31" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="P31" t="n">
         <v>1.3</v>
@@ -4328,10 +4328,10 @@
         <v>4.5</v>
       </c>
       <c r="N32" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="O32" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="P32" t="n">
         <v>1.29</v>
@@ -5527,19 +5527,19 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H42" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I42" t="n">
         <v>5.75</v>
       </c>
       <c r="J42" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K42" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L42" t="n">
         <v>1.36</v>
@@ -5548,10 +5548,10 @@
         <v>3</v>
       </c>
       <c r="N42" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O42" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P42" t="n">
         <v>1.44</v>
@@ -5587,7 +5587,7 @@
         <v>8</v>
       </c>
       <c r="AA42" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB42" t="n">
         <v>19</v>
@@ -5771,13 +5771,13 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="H44" t="n">
         <v>3.4</v>
       </c>
       <c r="I44" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="J44" t="n">
         <v>1.06</v>
@@ -5792,22 +5792,22 @@
         <v>3.4</v>
       </c>
       <c r="N44" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O44" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="P44" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R44" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S44" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T44" t="n">
         <v>8.5</v>
@@ -5846,7 +5846,7 @@
         <v>8.5</v>
       </c>
       <c r="AF44" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG44" t="n">
         <v>10</v>
@@ -6129,90 +6129,90 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="I47" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="M47" t="n">
-        <v>2.42</v>
+        <v>2.35</v>
       </c>
       <c r="N47" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="O47" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q47" t="n">
         <v>2.27</v>
       </c>
-      <c r="O47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P47" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>2.32</v>
-      </c>
       <c r="R47" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="S47" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="T47" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="U47" t="n">
         <v>21</v>
       </c>
       <c r="V47" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="W47" t="n">
         <v>70</v>
       </c>
       <c r="X47" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="Y47" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="Z47" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="AA47" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AB47" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AC47" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AD47" t="n">
         <v>101</v>
       </c>
       <c r="AE47" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AF47" t="n">
         <v>8</v>
       </c>
       <c r="AG47" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AH47" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AI47" t="n">
         <v>19</v>
       </c>
       <c r="AJ47" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48">
@@ -6247,13 +6247,13 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="H48" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I48" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -6276,22 +6276,22 @@
         <v>2.4</v>
       </c>
       <c r="R48" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="S48" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="T48" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="U48" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="V48" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="W48" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="X48" t="n">
         <v>15.5</v>
@@ -6300,25 +6300,25 @@
         <v>35</v>
       </c>
       <c r="Z48" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AA48" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AB48" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AC48" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AD48" t="n">
         <v>101</v>
       </c>
       <c r="AE48" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AF48" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AG48" t="n">
         <v>17</v>
@@ -6327,7 +6327,7 @@
         <v>100</v>
       </c>
       <c r="AI48" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ48" t="n">
         <v>70</v>
@@ -6371,7 +6371,7 @@
         <v>4.5</v>
       </c>
       <c r="I49" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="J49" t="n">
         <v>1.05</v>
@@ -6410,7 +6410,7 @@
         <v>6.5</v>
       </c>
       <c r="V49" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W49" t="n">
         <v>8.5</v>
@@ -6425,7 +6425,7 @@
         <v>11</v>
       </c>
       <c r="AA49" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB49" t="n">
         <v>21</v>
@@ -6434,7 +6434,7 @@
         <v>67</v>
       </c>
       <c r="AD49" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AE49" t="n">
         <v>21</v>
@@ -6443,7 +6443,7 @@
         <v>41</v>
       </c>
       <c r="AG49" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AH49" t="n">
         <v>101</v>
@@ -6487,19 +6487,19 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H50" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I50" t="n">
         <v>5.5</v>
       </c>
       <c r="J50" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K50" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L50" t="n">
         <v>1.44</v>
@@ -6609,25 +6609,25 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="H51" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I51" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="J51" t="n">
         <v>1.08</v>
       </c>
       <c r="K51" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L51" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M51" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="N51" t="n">
         <v>2.35</v>
@@ -6654,10 +6654,10 @@
         <v>10</v>
       </c>
       <c r="V51" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W51" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X51" t="n">
         <v>21</v>
@@ -6681,7 +6681,7 @@
         <v>301</v>
       </c>
       <c r="AE51" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF51" t="n">
         <v>15</v>
@@ -6853,13 +6853,13 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="H53" t="n">
         <v>3.4</v>
       </c>
       <c r="I53" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="J53" t="n">
         <v>1.06</v>
@@ -6874,10 +6874,10 @@
         <v>3.25</v>
       </c>
       <c r="N53" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="O53" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="P53" t="n">
         <v>1.44</v>
@@ -6892,16 +6892,16 @@
         <v>1.83</v>
       </c>
       <c r="T53" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U53" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V53" t="n">
         <v>9</v>
       </c>
       <c r="W53" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X53" t="n">
         <v>17</v>
@@ -6925,10 +6925,10 @@
         <v>301</v>
       </c>
       <c r="AE53" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF53" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG53" t="n">
         <v>13</v>
@@ -7109,7 +7109,7 @@
         <v>1.06</v>
       </c>
       <c r="K55" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L55" t="n">
         <v>1.3</v>
@@ -7344,16 +7344,16 @@
         <v>2.45</v>
       </c>
       <c r="H57" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="I57" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="J57" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K57" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="L57" t="n">
         <v>1.4</v>
@@ -7362,10 +7362,10 @@
         <v>2.75</v>
       </c>
       <c r="N57" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O57" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="P57" t="n">
         <v>1.5</v>
@@ -7374,16 +7374,16 @@
         <v>2.5</v>
       </c>
       <c r="R57" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S57" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="T57" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U57" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V57" t="n">
         <v>10</v>
@@ -7398,37 +7398,37 @@
         <v>34</v>
       </c>
       <c r="Z57" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA57" t="n">
         <v>6.5</v>
       </c>
       <c r="AB57" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC57" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD57" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE57" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF57" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG57" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH57" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI57" t="n">
         <v>23</v>
       </c>
       <c r="AJ57" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58">
@@ -7463,19 +7463,19 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="H58" t="n">
         <v>3.3</v>
       </c>
       <c r="I58" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="J58" t="n">
         <v>1.07</v>
       </c>
       <c r="K58" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L58" t="n">
         <v>1.36</v>
@@ -7526,16 +7526,16 @@
         <v>6.5</v>
       </c>
       <c r="AB58" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC58" t="n">
         <v>51</v>
       </c>
       <c r="AD58" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE58" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF58" t="n">
         <v>12</v>
@@ -7547,7 +7547,7 @@
         <v>26</v>
       </c>
       <c r="AI58" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ58" t="n">
         <v>34</v>
@@ -7829,13 +7829,13 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H61" t="n">
         <v>3.1</v>
       </c>
       <c r="I61" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="J61" t="n">
         <v>1.08</v>
@@ -7862,22 +7862,22 @@
         <v>2.5</v>
       </c>
       <c r="R61" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="S61" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T61" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U61" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V61" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W61" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="X61" t="n">
         <v>26</v>
@@ -7892,7 +7892,7 @@
         <v>6</v>
       </c>
       <c r="AB61" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC61" t="n">
         <v>51</v>
@@ -7951,19 +7951,19 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="H62" t="n">
         <v>4.2</v>
       </c>
       <c r="I62" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="J62" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K62" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L62" t="n">
         <v>1.33</v>
@@ -8023,7 +8023,7 @@
         <v>451</v>
       </c>
       <c r="AE62" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AF62" t="n">
         <v>7</v>
@@ -8332,10 +8332,10 @@
         <v>6.5</v>
       </c>
       <c r="L65" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="M65" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="N65" t="n">
         <v>2.63</v>
@@ -8359,7 +8359,7 @@
         <v>6</v>
       </c>
       <c r="U65" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V65" t="n">
         <v>10</v>
@@ -8368,7 +8368,7 @@
         <v>21</v>
       </c>
       <c r="X65" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y65" t="n">
         <v>41</v>
@@ -8389,7 +8389,7 @@
         <v>351</v>
       </c>
       <c r="AE65" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF65" t="n">
         <v>15</v>
@@ -8475,7 +8475,7 @@
         <v>2</v>
       </c>
       <c r="S66" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="T66" t="n">
         <v>10</v>
@@ -8564,7 +8564,7 @@
         <v>4.5</v>
       </c>
       <c r="H67" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I67" t="n">
         <v>1.75</v>
@@ -8582,10 +8582,10 @@
         <v>3.75</v>
       </c>
       <c r="N67" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="O67" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="P67" t="n">
         <v>1.4</v>
@@ -8594,10 +8594,10 @@
         <v>2.75</v>
       </c>
       <c r="R67" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="S67" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="T67" t="n">
         <v>13</v>
@@ -8633,7 +8633,7 @@
         <v>251</v>
       </c>
       <c r="AE67" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF67" t="n">
         <v>8.5</v>
@@ -8698,10 +8698,10 @@
         <v>8</v>
       </c>
       <c r="L68" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M68" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N68" t="n">
         <v>2.3</v>
@@ -8719,7 +8719,7 @@
         <v>2</v>
       </c>
       <c r="S68" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="T68" t="n">
         <v>6.5</v>
@@ -8838,10 +8838,10 @@
         <v>2.5</v>
       </c>
       <c r="R69" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="S69" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="T69" t="n">
         <v>7</v>
@@ -8927,13 +8927,13 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H70" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I70" t="n">
         <v>3.5</v>
-      </c>
-      <c r="I70" t="n">
-        <v>3.75</v>
       </c>
       <c r="J70" t="n">
         <v>1.07</v>
@@ -8960,25 +8960,25 @@
         <v>2.63</v>
       </c>
       <c r="R70" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S70" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T70" t="n">
         <v>7</v>
       </c>
       <c r="U70" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V70" t="n">
         <v>9</v>
       </c>
       <c r="W70" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X70" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y70" t="n">
         <v>29</v>
@@ -8990,7 +8990,7 @@
         <v>6.5</v>
       </c>
       <c r="AB70" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC70" t="n">
         <v>51</v>
@@ -8999,19 +8999,19 @@
         <v>301</v>
       </c>
       <c r="AE70" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF70" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG70" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH70" t="n">
         <v>41</v>
       </c>
       <c r="AI70" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ70" t="n">
         <v>41</v>
@@ -9052,43 +9052,43 @@
         <v>2.05</v>
       </c>
       <c r="H71" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I71" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="J71" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K71" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L71" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="M71" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="N71" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="O71" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P71" t="n">
         <v>1.57</v>
       </c>
-      <c r="P71" t="n">
-        <v>1.53</v>
-      </c>
       <c r="Q71" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="R71" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S71" t="n">
-        <v>1.63</v>
+        <v>1.58</v>
       </c>
       <c r="T71" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="U71" t="n">
         <v>8.5</v>
@@ -9097,46 +9097,46 @@
         <v>9.5</v>
       </c>
       <c r="W71" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X71" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y71" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z71" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AA71" t="n">
         <v>6.5</v>
       </c>
       <c r="AB71" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC71" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD71" t="n">
         <v>501</v>
       </c>
       <c r="AE71" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF71" t="n">
         <v>17</v>
       </c>
       <c r="AG71" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH71" t="n">
         <v>41</v>
       </c>
       <c r="AI71" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ71" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="72">
@@ -9186,16 +9186,16 @@
         <v>11</v>
       </c>
       <c r="L72" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M72" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N72" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="O72" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="P72" t="n">
         <v>1.4</v>
@@ -9204,10 +9204,10 @@
         <v>2.75</v>
       </c>
       <c r="R72" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="S72" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="T72" t="n">
         <v>11</v>
@@ -9302,10 +9302,10 @@
         <v>5.75</v>
       </c>
       <c r="J73" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K73" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L73" t="n">
         <v>1.3</v>
@@ -9314,10 +9314,10 @@
         <v>3.4</v>
       </c>
       <c r="N73" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="O73" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="P73" t="n">
         <v>1.4</v>
@@ -9329,7 +9329,7 @@
         <v>2</v>
       </c>
       <c r="S73" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="T73" t="n">
         <v>6.5</v>
@@ -9415,13 +9415,13 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="H74" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="I74" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="J74" t="n">
         <v>1.03</v>
@@ -9442,40 +9442,40 @@
         <v>2.3</v>
       </c>
       <c r="P74" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q74" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R74" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="S74" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="T74" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U74" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="V74" t="n">
         <v>8.5</v>
       </c>
       <c r="W74" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X74" t="n">
         <v>11</v>
       </c>
       <c r="Y74" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z74" t="n">
         <v>15</v>
       </c>
       <c r="AA74" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB74" t="n">
         <v>21</v>
@@ -9493,10 +9493,10 @@
         <v>41</v>
       </c>
       <c r="AG74" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH74" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AI74" t="n">
         <v>51</v>
@@ -9570,10 +9570,10 @@
         <v>3.4</v>
       </c>
       <c r="R75" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="S75" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="T75" t="n">
         <v>8</v>
@@ -9659,19 +9659,19 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H76" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I76" t="n">
         <v>4.75</v>
       </c>
       <c r="J76" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K76" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L76" t="n">
         <v>1.4</v>
@@ -9695,7 +9695,7 @@
         <v>2.05</v>
       </c>
       <c r="S76" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="T76" t="n">
         <v>6</v>
@@ -9704,13 +9704,13 @@
         <v>7.5</v>
       </c>
       <c r="V76" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W76" t="n">
         <v>13</v>
       </c>
       <c r="X76" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y76" t="n">
         <v>34</v>
@@ -9719,7 +9719,7 @@
         <v>8</v>
       </c>
       <c r="AA76" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB76" t="n">
         <v>19</v>
@@ -9728,7 +9728,7 @@
         <v>67</v>
       </c>
       <c r="AD76" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AE76" t="n">
         <v>11</v>
@@ -9912,10 +9912,10 @@
         <v>4.1</v>
       </c>
       <c r="J78" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K78" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L78" t="n">
         <v>1.25</v>
@@ -9924,10 +9924,10 @@
         <v>3.75</v>
       </c>
       <c r="N78" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="O78" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="P78" t="n">
         <v>1.36</v>
@@ -10147,13 +10147,13 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="H80" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I80" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="J80" t="n">
         <v>1.03</v>
@@ -10168,16 +10168,16 @@
         <v>4.33</v>
       </c>
       <c r="N80" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="O80" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="P80" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q80" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R80" t="n">
         <v>1.62</v>
@@ -10189,7 +10189,7 @@
         <v>9</v>
       </c>
       <c r="U80" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V80" t="n">
         <v>8.5</v>
@@ -10219,10 +10219,10 @@
         <v>151</v>
       </c>
       <c r="AE80" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF80" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG80" t="n">
         <v>13</v>
@@ -10269,19 +10269,19 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="H81" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I81" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="J81" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K81" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L81" t="n">
         <v>1.22</v>
@@ -10302,31 +10302,31 @@
         <v>3.25</v>
       </c>
       <c r="R81" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S81" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T81" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U81" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V81" t="n">
         <v>10</v>
       </c>
       <c r="W81" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X81" t="n">
         <v>19</v>
       </c>
       <c r="Y81" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z81" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA81" t="n">
         <v>7</v>
@@ -10347,16 +10347,16 @@
         <v>13</v>
       </c>
       <c r="AG81" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH81" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI81" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ81" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82">
@@ -10391,19 +10391,19 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="H82" t="n">
         <v>2.9</v>
       </c>
       <c r="I82" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J82" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K82" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L82" t="n">
         <v>1.44</v>
@@ -10412,28 +10412,28 @@
         <v>2.63</v>
       </c>
       <c r="N82" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="O82" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P82" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Q82" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="R82" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S82" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="T82" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U82" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V82" t="n">
         <v>11</v>
@@ -10451,7 +10451,7 @@
         <v>6.5</v>
       </c>
       <c r="AA82" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB82" t="n">
         <v>17</v>
@@ -10460,22 +10460,22 @@
         <v>67</v>
       </c>
       <c r="AD82" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AE82" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF82" t="n">
         <v>13</v>
       </c>
       <c r="AG82" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH82" t="n">
         <v>29</v>
       </c>
       <c r="AI82" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ82" t="n">
         <v>41</v>
@@ -10513,13 +10513,13 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="H83" t="n">
         <v>3.6</v>
       </c>
       <c r="I83" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J83" t="n">
         <v>1.05</v>
@@ -10534,10 +10534,10 @@
         <v>3.5</v>
       </c>
       <c r="N83" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="O83" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="P83" t="n">
         <v>1.4</v>
@@ -10546,16 +10546,16 @@
         <v>2.75</v>
       </c>
       <c r="R83" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="S83" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="T83" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U83" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V83" t="n">
         <v>8.5</v>
@@ -10570,10 +10570,10 @@
         <v>26</v>
       </c>
       <c r="Z83" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA83" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB83" t="n">
         <v>15</v>
@@ -10582,7 +10582,7 @@
         <v>51</v>
       </c>
       <c r="AD83" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE83" t="n">
         <v>12</v>
@@ -10594,7 +10594,7 @@
         <v>15</v>
       </c>
       <c r="AH83" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI83" t="n">
         <v>34</v>
@@ -10644,10 +10644,10 @@
         <v>1.7</v>
       </c>
       <c r="J84" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K84" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L84" t="n">
         <v>1.29</v>
@@ -10656,10 +10656,10 @@
         <v>3.5</v>
       </c>
       <c r="N84" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="O84" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="P84" t="n">
         <v>1.4</v>
@@ -10674,7 +10674,7 @@
         <v>1.83</v>
       </c>
       <c r="T84" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U84" t="n">
         <v>23</v>
@@ -10698,7 +10698,7 @@
         <v>7</v>
       </c>
       <c r="AB84" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC84" t="n">
         <v>51</v>
@@ -10757,13 +10757,13 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H85" t="n">
         <v>3.1</v>
       </c>
       <c r="I85" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="J85" t="n">
         <v>1.08</v>
@@ -10799,7 +10799,7 @@
         <v>6.5</v>
       </c>
       <c r="U85" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V85" t="n">
         <v>9.5</v>
@@ -10829,19 +10829,19 @@
         <v>451</v>
       </c>
       <c r="AE85" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF85" t="n">
         <v>15</v>
       </c>
       <c r="AG85" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH85" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI85" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ85" t="n">
         <v>41</v>
@@ -11123,13 +11123,13 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H88" t="n">
         <v>3.3</v>
       </c>
       <c r="I88" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J88" t="n">
         <v>1.08</v>
@@ -11144,10 +11144,10 @@
         <v>2.75</v>
       </c>
       <c r="N88" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O88" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="P88" t="n">
         <v>1.5</v>
@@ -11156,10 +11156,10 @@
         <v>2.5</v>
       </c>
       <c r="R88" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S88" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T88" t="n">
         <v>5.5</v>
@@ -11171,7 +11171,7 @@
         <v>9</v>
       </c>
       <c r="W88" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X88" t="n">
         <v>17</v>
@@ -11186,7 +11186,7 @@
         <v>6.5</v>
       </c>
       <c r="AB88" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC88" t="n">
         <v>67</v>
@@ -11204,10 +11204,10 @@
         <v>19</v>
       </c>
       <c r="AH88" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI88" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ88" t="n">
         <v>51</v>
@@ -11489,25 +11489,25 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="H91" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I91" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="J91" t="n">
         <v>1.07</v>
       </c>
       <c r="K91" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L91" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M91" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N91" t="n">
         <v>2.1</v>
@@ -11528,10 +11528,10 @@
         <v>1.83</v>
       </c>
       <c r="T91" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U91" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V91" t="n">
         <v>12</v>
@@ -11540,10 +11540,10 @@
         <v>34</v>
       </c>
       <c r="X91" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y91" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z91" t="n">
         <v>8.5</v>
@@ -11561,10 +11561,10 @@
         <v>301</v>
       </c>
       <c r="AE91" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF91" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG91" t="n">
         <v>9.5</v>
@@ -11573,7 +11573,7 @@
         <v>21</v>
       </c>
       <c r="AI91" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ91" t="n">
         <v>29</v>
@@ -11754,10 +11754,10 @@
         <v>3.4</v>
       </c>
       <c r="N93" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="O93" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="P93" t="n">
         <v>1.4</v>
@@ -11784,13 +11784,13 @@
         <v>12</v>
       </c>
       <c r="X93" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y93" t="n">
         <v>29</v>
       </c>
       <c r="Z93" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA93" t="n">
         <v>7</v>
@@ -11864,10 +11864,10 @@
         <v>2.63</v>
       </c>
       <c r="J94" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K94" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L94" t="n">
         <v>1.33</v>
@@ -11876,10 +11876,10 @@
         <v>3.25</v>
       </c>
       <c r="N94" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="O94" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="P94" t="n">
         <v>1.44</v>
@@ -12113,7 +12113,7 @@
         <v>1.17</v>
       </c>
       <c r="M96" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="N96" t="n">
         <v>1.52</v>
@@ -12124,10 +12124,10 @@
       <c r="P96" t="inlineStr"/>
       <c r="Q96" t="inlineStr"/>
       <c r="R96" t="n">
-        <v>1.96</v>
+        <v>1.91</v>
       </c>
       <c r="S96" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="T96" t="n">
         <v>6.9</v>
@@ -12219,7 +12219,7 @@
         <v>3.5</v>
       </c>
       <c r="I97" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
@@ -12227,27 +12227,27 @@
         <v>1.19</v>
       </c>
       <c r="M97" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="N97" t="n">
         <v>1.62</v>
       </c>
       <c r="O97" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="P97" t="inlineStr"/>
       <c r="Q97" t="inlineStr"/>
       <c r="R97" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="S97" t="n">
-        <v>2.33</v>
+        <v>2.3</v>
       </c>
       <c r="T97" t="n">
         <v>9</v>
       </c>
       <c r="U97" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="V97" t="n">
         <v>8.25</v>
@@ -12355,7 +12355,7 @@
         <v>1.73</v>
       </c>
       <c r="S98" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="T98" t="n">
         <v>13.5</v>
@@ -12394,7 +12394,7 @@
         <v>6.9</v>
       </c>
       <c r="AF98" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AG98" t="n">
         <v>6.9</v>
@@ -12669,13 +12669,13 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H101" t="n">
         <v>3.4</v>
       </c>
       <c r="I101" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="J101" t="n">
         <v>1.05</v>
@@ -12711,13 +12711,13 @@
         <v>10</v>
       </c>
       <c r="U101" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V101" t="n">
         <v>10</v>
       </c>
       <c r="W101" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X101" t="n">
         <v>21</v>
@@ -12726,13 +12726,13 @@
         <v>26</v>
       </c>
       <c r="Z101" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA101" t="n">
         <v>6.5</v>
       </c>
       <c r="AB101" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC101" t="n">
         <v>41</v>
@@ -12750,7 +12750,7 @@
         <v>10</v>
       </c>
       <c r="AH101" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI101" t="n">
         <v>19</v>
@@ -12913,13 +12913,13 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="H103" t="n">
         <v>3.6</v>
       </c>
       <c r="I103" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="J103" t="n">
         <v>1.03</v>
@@ -12979,7 +12979,7 @@
         <v>12</v>
       </c>
       <c r="AC103" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AD103" t="n">
         <v>126</v>
@@ -12997,7 +12997,7 @@
         <v>17</v>
       </c>
       <c r="AI103" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ103" t="n">
         <v>21</v>
@@ -13160,10 +13160,10 @@
         <v>1.85</v>
       </c>
       <c r="H105" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I105" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J105" t="n">
         <v>1.04</v>
@@ -13178,10 +13178,10 @@
         <v>3.75</v>
       </c>
       <c r="N105" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="O105" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="P105" t="n">
         <v>1.36</v>
@@ -13190,10 +13190,10 @@
         <v>3</v>
       </c>
       <c r="R105" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S105" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T105" t="n">
         <v>8</v>
@@ -13229,7 +13229,7 @@
         <v>201</v>
       </c>
       <c r="AE105" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF105" t="n">
         <v>21</v>
@@ -13401,31 +13401,31 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="H107" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I107" t="n">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="J107" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K107" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L107" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M107" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N107" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="O107" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="P107" t="n">
         <v>1.4</v>
@@ -13434,10 +13434,10 @@
         <v>2.75</v>
       </c>
       <c r="R107" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="S107" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T107" t="n">
         <v>12</v>
@@ -13461,7 +13461,7 @@
         <v>10</v>
       </c>
       <c r="AA107" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB107" t="n">
         <v>17</v>
@@ -13473,10 +13473,10 @@
         <v>301</v>
       </c>
       <c r="AE107" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF107" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AG107" t="n">
         <v>8.5</v>
@@ -13544,10 +13544,10 @@
         <v>4.33</v>
       </c>
       <c r="N108" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="O108" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="P108" t="n">
         <v>1.3</v>
@@ -13660,16 +13660,16 @@
         <v>9</v>
       </c>
       <c r="L109" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M109" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N109" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O109" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P109" t="n">
         <v>1.5</v>
@@ -13714,7 +13714,7 @@
         <v>51</v>
       </c>
       <c r="AD109" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="AE109" t="n">
         <v>9.5</v>
@@ -13776,22 +13776,22 @@
         <v>3.2</v>
       </c>
       <c r="J110" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K110" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L110" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M110" t="n">
         <v>3.75</v>
       </c>
       <c r="N110" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="O110" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="P110" t="n">
         <v>1.36</v>
@@ -13910,10 +13910,10 @@
         <v>4</v>
       </c>
       <c r="N111" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="O111" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="P111" t="n">
         <v>1.33</v>
@@ -13922,10 +13922,10 @@
         <v>3.25</v>
       </c>
       <c r="R111" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S111" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T111" t="n">
         <v>11</v>
@@ -13940,7 +13940,7 @@
         <v>26</v>
       </c>
       <c r="X111" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y111" t="n">
         <v>26</v>
@@ -13958,13 +13958,13 @@
         <v>41</v>
       </c>
       <c r="AD111" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AE111" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF111" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG111" t="n">
         <v>10</v>
@@ -13976,7 +13976,7 @@
         <v>19</v>
       </c>
       <c r="AJ111" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="112">
@@ -14011,13 +14011,13 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H112" t="n">
         <v>3.5</v>
       </c>
       <c r="I112" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J112" t="n">
         <v>1.05</v>
@@ -14038,10 +14038,10 @@
         <v>1.98</v>
       </c>
       <c r="P112" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q112" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R112" t="n">
         <v>1.73</v>
@@ -14059,7 +14059,7 @@
         <v>9</v>
       </c>
       <c r="W112" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X112" t="n">
         <v>17</v>
@@ -14071,10 +14071,10 @@
         <v>11</v>
       </c>
       <c r="AA112" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB112" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC112" t="n">
         <v>41</v>
@@ -14083,22 +14083,22 @@
         <v>201</v>
       </c>
       <c r="AE112" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF112" t="n">
         <v>17</v>
       </c>
       <c r="AG112" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH112" t="n">
         <v>34</v>
       </c>
       <c r="AI112" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ112" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="113">
@@ -14133,19 +14133,19 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="H113" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I113" t="n">
-        <v>3.9</v>
+        <v>4.33</v>
       </c>
       <c r="J113" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K113" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L113" t="n">
         <v>1.25</v>
@@ -14154,10 +14154,10 @@
         <v>3.75</v>
       </c>
       <c r="N113" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="O113" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="P113" t="n">
         <v>1.36</v>
@@ -14166,16 +14166,16 @@
         <v>3</v>
       </c>
       <c r="R113" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S113" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T113" t="n">
         <v>7.5</v>
       </c>
       <c r="U113" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V113" t="n">
         <v>8.5</v>
@@ -14202,16 +14202,16 @@
         <v>51</v>
       </c>
       <c r="AD113" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE113" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF113" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG113" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH113" t="n">
         <v>41</v>
@@ -14220,7 +14220,7 @@
         <v>34</v>
       </c>
       <c r="AJ113" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="114">
@@ -14377,19 +14377,19 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="H115" t="n">
         <v>3.25</v>
       </c>
       <c r="I115" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="J115" t="n">
         <v>1.07</v>
       </c>
       <c r="K115" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L115" t="n">
         <v>1.36</v>
@@ -14425,7 +14425,7 @@
         <v>11</v>
       </c>
       <c r="W115" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="X115" t="n">
         <v>26</v>
@@ -14434,7 +14434,7 @@
         <v>34</v>
       </c>
       <c r="Z115" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA115" t="n">
         <v>6.5</v>
@@ -14449,10 +14449,10 @@
         <v>301</v>
       </c>
       <c r="AE115" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF115" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG115" t="n">
         <v>9.5</v>
@@ -14502,48 +14502,48 @@
         <v>1.95</v>
       </c>
       <c r="H116" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="I116" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M116" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="N116" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="O116" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="P116" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="Q116" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="R116" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="S116" t="n">
         <v>1.94</v>
       </c>
       <c r="T116" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="U116" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="V116" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="W116" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="X116" t="n">
         <v>13</v>
@@ -14552,37 +14552,37 @@
         <v>21</v>
       </c>
       <c r="Z116" t="n">
-        <v>9.5</v>
+        <v>8.75</v>
       </c>
       <c r="AA116" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="AB116" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AC116" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AD116" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AE116" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF116" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AG116" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="AH116" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AI116" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AJ116" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="117">
@@ -14617,92 +14617,92 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="H117" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="I117" t="n">
-        <v>15</v>
+        <v>11.5</v>
       </c>
       <c r="J117" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K117" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="L117" t="n">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="M117" t="n">
-        <v>2.82</v>
+        <v>3</v>
       </c>
       <c r="N117" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="O117" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="P117" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="Q117" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R117" t="n">
-        <v>3.35</v>
+        <v>2.77</v>
       </c>
       <c r="S117" t="n">
-        <v>1.28</v>
+        <v>1.39</v>
       </c>
       <c r="T117" t="n">
-        <v>4.45</v>
+        <v>5</v>
       </c>
       <c r="U117" t="n">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="V117" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="W117" t="n">
-        <v>6</v>
+        <v>6.7</v>
       </c>
       <c r="X117" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Y117" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="Z117" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AA117" t="n">
-        <v>12</v>
+        <v>10.25</v>
       </c>
       <c r="AB117" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AC117" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="AD117" t="inlineStr"/>
       <c r="AE117" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AF117" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AG117" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AH117" t="n">
         <v>450</v>
       </c>
       <c r="AI117" t="n">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="AJ117" t="n">
-        <v>450</v>
+        <v>250</v>
       </c>
     </row>
     <row r="118">
@@ -14737,13 +14737,13 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="H118" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I118" t="n">
         <v>3</v>
-      </c>
-      <c r="I118" t="n">
-        <v>2.92</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
@@ -14751,73 +14751,73 @@
         <v>1.34</v>
       </c>
       <c r="M118" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="N118" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="O118" t="n">
         <v>1.65</v>
       </c>
       <c r="P118" t="n">
-        <v>1.45</v>
+        <v>1.39</v>
       </c>
       <c r="Q118" t="n">
-        <v>2.37</v>
+        <v>2.55</v>
       </c>
       <c r="R118" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="S118" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="T118" t="n">
-        <v>7.7</v>
+        <v>7.2</v>
       </c>
       <c r="U118" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="V118" t="n">
         <v>9.25</v>
       </c>
       <c r="W118" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X118" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Y118" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z118" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AA118" t="n">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="AB118" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC118" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AD118" t="n">
         <v>600</v>
       </c>
       <c r="AE118" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AF118" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AG118" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AH118" t="n">
         <v>37</v>
       </c>
       <c r="AI118" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ118" t="n">
         <v>37</v>
@@ -14855,90 +14855,90 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2</v>
+        <v>1.72</v>
       </c>
       <c r="H119" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="I119" t="n">
-        <v>3.7</v>
+        <v>4.8</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="M119" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="N119" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="O119" t="n">
         <v>1.57</v>
       </c>
       <c r="P119" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q119" t="n">
-        <v>2.27</v>
+        <v>2.42</v>
       </c>
       <c r="R119" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="S119" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="T119" t="n">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="U119" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="V119" t="n">
         <v>8.5</v>
       </c>
-      <c r="V119" t="n">
-        <v>8.75</v>
-      </c>
       <c r="W119" t="n">
-        <v>17.5</v>
+        <v>13.5</v>
       </c>
       <c r="X119" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y119" t="n">
         <v>35</v>
       </c>
       <c r="Z119" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AA119" t="n">
-        <v>6.1</v>
+        <v>6.6</v>
       </c>
       <c r="AB119" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="AC119" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AD119" t="n">
         <v>900</v>
       </c>
       <c r="AE119" t="n">
-        <v>9.25</v>
+        <v>10.75</v>
       </c>
       <c r="AF119" t="n">
-        <v>19.5</v>
+        <v>26</v>
       </c>
       <c r="AG119" t="n">
-        <v>13</v>
+        <v>16.5</v>
       </c>
       <c r="AH119" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="AI119" t="n">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="AJ119" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="120">
@@ -14985,7 +14985,7 @@
         <v>1.06</v>
       </c>
       <c r="K120" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L120" t="n">
         <v>1.3</v>
@@ -15095,13 +15095,13 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="H121" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I121" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J121" t="n">
         <v>1.03</v>
@@ -15134,7 +15134,7 @@
         <v>2.2</v>
       </c>
       <c r="T121" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U121" t="n">
         <v>9</v>
@@ -15143,7 +15143,7 @@
         <v>8.5</v>
       </c>
       <c r="W121" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X121" t="n">
         <v>12</v>
@@ -15173,7 +15173,7 @@
         <v>29</v>
       </c>
       <c r="AG121" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH121" t="n">
         <v>51</v>
@@ -15217,7 +15217,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H122" t="n">
         <v>3.6</v>
@@ -15229,19 +15229,19 @@
         <v>1.04</v>
       </c>
       <c r="K122" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L122" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M122" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N122" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="O122" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="P122" t="n">
         <v>1.36</v>
@@ -15250,10 +15250,10 @@
         <v>3</v>
       </c>
       <c r="R122" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S122" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T122" t="n">
         <v>8</v>
@@ -15342,7 +15342,7 @@
         <v>1.24</v>
       </c>
       <c r="H123" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="I123" t="n">
         <v>9.25</v>
@@ -15362,10 +15362,10 @@
         <v>3.15</v>
       </c>
       <c r="P123" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="Q123" t="n">
-        <v>4.15</v>
+        <v>4.3</v>
       </c>
       <c r="R123" t="n">
         <v>1.65</v>
@@ -15374,7 +15374,7 @@
         <v>2.1</v>
       </c>
       <c r="T123" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="U123" t="n">
         <v>8.75</v>
@@ -15398,7 +15398,7 @@
         <v>13.5</v>
       </c>
       <c r="AB123" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AC123" t="n">
         <v>60</v>
@@ -15407,7 +15407,7 @@
         <v>300</v>
       </c>
       <c r="AE123" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AF123" t="n">
         <v>80</v>
@@ -15457,13 +15457,13 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="H124" t="n">
         <v>4.75</v>
       </c>
       <c r="I124" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="J124" t="n">
         <v>1.02</v>
@@ -15478,7 +15478,7 @@
         <v>5.5</v>
       </c>
       <c r="N124" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="O124" t="n">
         <v>2.6</v>
@@ -15529,7 +15529,7 @@
         <v>151</v>
       </c>
       <c r="AE124" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF124" t="n">
         <v>41</v>
@@ -15579,7 +15579,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="H125" t="n">
         <v>3.4</v>
@@ -15725,7 +15725,7 @@
         <v>2.4</v>
       </c>
       <c r="O126" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P126" t="n">
         <v>1.53</v>
@@ -15823,7 +15823,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H127" t="n">
         <v>3.25</v>
@@ -15945,13 +15945,13 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2.65</v>
+        <v>2.63</v>
       </c>
       <c r="H128" t="n">
         <v>3.1</v>
       </c>
       <c r="I128" t="n">
-        <v>2.65</v>
+        <v>2.75</v>
       </c>
       <c r="J128" t="n">
         <v>1.08</v>
@@ -15969,7 +15969,7 @@
         <v>2.35</v>
       </c>
       <c r="O128" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="P128" t="n">
         <v>1.53</v>
@@ -15993,7 +15993,7 @@
         <v>11</v>
       </c>
       <c r="W128" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X128" t="n">
         <v>26</v>
@@ -16067,13 +16067,13 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="H129" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I129" t="n">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="J129" t="n">
         <v>1.07</v>
@@ -16082,16 +16082,16 @@
         <v>9</v>
       </c>
       <c r="L129" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M129" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N129" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O129" t="n">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="P129" t="n">
         <v>1.5</v>
@@ -16100,16 +16100,16 @@
         <v>2.5</v>
       </c>
       <c r="R129" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S129" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="T129" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="U129" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="V129" t="n">
         <v>9</v>
@@ -16118,7 +16118,7 @@
         <v>13</v>
       </c>
       <c r="X129" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y129" t="n">
         <v>34</v>
@@ -16130,7 +16130,7 @@
         <v>7</v>
       </c>
       <c r="AB129" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC129" t="n">
         <v>67</v>
@@ -16142,7 +16142,7 @@
         <v>11</v>
       </c>
       <c r="AF129" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG129" t="n">
         <v>17</v>
@@ -16189,7 +16189,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H130" t="n">
         <v>3</v>
@@ -16213,7 +16213,7 @@
         <v>2.4</v>
       </c>
       <c r="O130" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P130" t="n">
         <v>1.53</v>
@@ -16311,7 +16311,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="H131" t="n">
         <v>3.4</v>
@@ -16332,10 +16332,10 @@
         <v>2.63</v>
       </c>
       <c r="N131" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="O131" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="P131" t="n">
         <v>1.53</v>
@@ -16433,13 +16433,13 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2.32</v>
+        <v>2.2</v>
       </c>
       <c r="H132" t="n">
-        <v>2.85</v>
+        <v>3</v>
       </c>
       <c r="I132" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="J132" t="n">
         <v>1.1</v>
@@ -16472,22 +16472,22 @@
         <v>1.75</v>
       </c>
       <c r="T132" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U132" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V132" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W132" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X132" t="n">
         <v>21</v>
       </c>
       <c r="Y132" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z132" t="n">
         <v>7</v>
@@ -16505,19 +16505,19 @@
         <v>451</v>
       </c>
       <c r="AE132" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF132" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG132" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH132" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI132" t="n">
         <v>34</v>
-      </c>
-      <c r="AI132" t="n">
-        <v>29</v>
       </c>
       <c r="AJ132" t="n">
         <v>41</v>
@@ -16555,10 +16555,10 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="H133" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="I133" t="n">
         <v>2.95</v>
@@ -16588,25 +16588,25 @@
         <v>2.25</v>
       </c>
       <c r="R133" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="S133" t="n">
         <v>1.7</v>
       </c>
       <c r="T133" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="U133" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="V133" t="n">
         <v>9.75</v>
       </c>
       <c r="W133" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="X133" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y133" t="n">
         <v>40</v>
@@ -16615,10 +16615,10 @@
         <v>5.6</v>
       </c>
       <c r="AA133" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AB133" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AC133" t="n">
         <v>110</v>
@@ -16627,16 +16627,16 @@
         <v>101</v>
       </c>
       <c r="AE133" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AF133" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AG133" t="n">
         <v>11.5</v>
       </c>
       <c r="AH133" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AI133" t="n">
         <v>32</v>
@@ -16954,16 +16954,16 @@
         <v>2.35</v>
       </c>
       <c r="R136" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S136" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="T136" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="U136" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="V136" t="n">
         <v>9.25</v>
@@ -16972,10 +16972,10 @@
         <v>22</v>
       </c>
       <c r="X136" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y136" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Z136" t="n">
         <v>6</v>
@@ -16984,7 +16984,7 @@
         <v>5.9</v>
       </c>
       <c r="AB136" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AC136" t="n">
         <v>90</v>
@@ -16993,22 +16993,22 @@
         <v>900</v>
       </c>
       <c r="AE136" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="AF136" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AG136" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AH136" t="n">
         <v>45</v>
       </c>
       <c r="AI136" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AJ136" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="137">
@@ -17082,7 +17082,7 @@
         <v>1.75</v>
       </c>
       <c r="T137" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="U137" t="n">
         <v>13.5</v>
@@ -17118,19 +17118,19 @@
         <v>6.6</v>
       </c>
       <c r="AF137" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AG137" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AH137" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI137" t="n">
         <v>22</v>
       </c>
       <c r="AJ137" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="138">
@@ -17180,13 +17180,13 @@
         <v>5.8</v>
       </c>
       <c r="L138" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="M138" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="N138" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="O138" t="n">
         <v>1.5</v>
@@ -17195,7 +17195,7 @@
         <v>1.53</v>
       </c>
       <c r="Q138" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="R138" t="n">
         <v>2.35</v>
@@ -17225,7 +17225,7 @@
         <v>5.8</v>
       </c>
       <c r="AA138" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AB138" t="n">
         <v>24</v>
@@ -17240,7 +17240,7 @@
         <v>10</v>
       </c>
       <c r="AF138" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG138" t="n">
         <v>18.5</v>
@@ -17326,10 +17326,10 @@
         <v>1.6</v>
       </c>
       <c r="T139" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="U139" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="V139" t="n">
         <v>10.25</v>
@@ -17338,7 +17338,7 @@
         <v>25</v>
       </c>
       <c r="X139" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y139" t="n">
         <v>50</v>
@@ -17359,19 +17359,19 @@
         <v>101</v>
       </c>
       <c r="AE139" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="AF139" t="n">
         <v>14</v>
       </c>
       <c r="AG139" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH139" t="n">
         <v>40</v>
       </c>
       <c r="AI139" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AJ139" t="n">
         <v>60</v>
@@ -17692,22 +17692,22 @@
         <v>1.82</v>
       </c>
       <c r="T142" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="U142" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="V142" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="W142" t="n">
         <v>29</v>
       </c>
       <c r="X142" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y142" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Z142" t="n">
         <v>6.1</v>
@@ -17725,7 +17725,7 @@
         <v>800</v>
       </c>
       <c r="AE142" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AF142" t="n">
         <v>12.5</v>
@@ -17897,13 +17897,13 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="H144" t="n">
         <v>3.25</v>
       </c>
       <c r="I144" t="n">
-        <v>1.98</v>
+        <v>2.07</v>
       </c>
       <c r="J144" t="n">
         <v>1.08</v>
@@ -17930,37 +17930,37 @@
         <v>2.5</v>
       </c>
       <c r="R144" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="S144" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="T144" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U144" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="V144" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="W144" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="X144" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Y144" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Z144" t="n">
         <v>6.7</v>
       </c>
       <c r="AA144" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AB144" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC144" t="n">
         <v>80</v>
@@ -17969,19 +17969,19 @@
         <v>700</v>
       </c>
       <c r="AE144" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="AF144" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="AG144" t="n">
         <v>8.75</v>
       </c>
       <c r="AH144" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AI144" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ144" t="n">
         <v>32</v>
@@ -18019,13 +18019,13 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H145" t="n">
         <v>3.4</v>
       </c>
       <c r="I145" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J145" t="n">
         <v>1.05</v>
@@ -18040,10 +18040,10 @@
         <v>3.5</v>
       </c>
       <c r="N145" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="O145" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="P145" t="n">
         <v>1.4</v>
@@ -18141,10 +18141,10 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H146" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I146" t="n">
         <v>3.6</v>
@@ -18174,16 +18174,16 @@
         <v>2.5</v>
       </c>
       <c r="R146" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S146" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="T146" t="n">
         <v>6.5</v>
       </c>
       <c r="U146" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V146" t="n">
         <v>9.5</v>
@@ -18400,16 +18400,16 @@
         <v>11</v>
       </c>
       <c r="L148" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M148" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N148" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="O148" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="P148" t="n">
         <v>1.4</v>
@@ -18629,13 +18629,13 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="H150" t="n">
         <v>3.6</v>
       </c>
       <c r="I150" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J150" t="n">
         <v>1.04</v>
@@ -18650,10 +18650,10 @@
         <v>3.75</v>
       </c>
       <c r="N150" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="O150" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="P150" t="n">
         <v>1.36</v>
@@ -18716,7 +18716,7 @@
         <v>21</v>
       </c>
       <c r="AJ150" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="151">
@@ -18751,7 +18751,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="H151" t="n">
         <v>3.4</v>
@@ -18871,13 +18871,13 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.81</v>
+        <v>1.9</v>
       </c>
       <c r="H152" t="n">
         <v>3.6</v>
       </c>
       <c r="I152" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J152" t="n">
         <v>1.07</v>
@@ -18892,10 +18892,10 @@
         <v>2.75</v>
       </c>
       <c r="N152" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O152" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P152" t="n">
         <v>1.5</v>
@@ -18904,10 +18904,10 @@
         <v>2.5</v>
       </c>
       <c r="R152" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S152" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="T152" t="n">
         <v>6</v>
@@ -18943,19 +18943,19 @@
         <v>101</v>
       </c>
       <c r="AE152" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF152" t="n">
         <v>19</v>
       </c>
       <c r="AG152" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH152" t="n">
         <v>41</v>
       </c>
       <c r="AI152" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ152" t="n">
         <v>41</v>
@@ -18993,7 +18993,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H153" t="n">
         <v>3.4</v>
@@ -19014,10 +19014,10 @@
         <v>3.25</v>
       </c>
       <c r="N153" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="O153" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="P153" t="n">
         <v>1.44</v>
@@ -19126,10 +19126,10 @@
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="M154" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="N154" t="n">
         <v>1.65</v>
@@ -19144,10 +19144,10 @@
         <v>2.47</v>
       </c>
       <c r="R154" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="S154" t="n">
-        <v>2.24</v>
+        <v>2.21</v>
       </c>
       <c r="T154" t="n">
         <v>8.25</v>
@@ -19233,7 +19233,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="H155" t="n">
         <v>3.2</v>
@@ -19268,7 +19268,7 @@
         <v>1.8</v>
       </c>
       <c r="T155" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="U155" t="n">
         <v>11.5</v>
@@ -19283,19 +19283,19 @@
         <v>22</v>
       </c>
       <c r="Y155" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Z155" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AA155" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AB155" t="n">
         <v>13</v>
       </c>
       <c r="AC155" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AD155" t="n">
         <v>500</v>
@@ -19365,21 +19365,21 @@
         <v>1.24</v>
       </c>
       <c r="M156" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="N156" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="O156" t="n">
-        <v>2.01</v>
+        <v>2.04</v>
       </c>
       <c r="P156" t="inlineStr"/>
       <c r="Q156" t="inlineStr"/>
       <c r="R156" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="S156" t="n">
-        <v>2.05</v>
+        <v>2.09</v>
       </c>
       <c r="T156" t="n">
         <v>6.4</v>
@@ -19397,10 +19397,10 @@
         <v>11</v>
       </c>
       <c r="Y156" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z156" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA156" t="n">
         <v>5.8</v>
@@ -19415,7 +19415,7 @@
         <v>101</v>
       </c>
       <c r="AE156" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AF156" t="n">
         <v>16</v>
@@ -19430,7 +19430,7 @@
         <v>25</v>
       </c>
       <c r="AJ156" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="157">
@@ -19582,7 +19582,7 @@
         <v>2.4</v>
       </c>
       <c r="H158" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I158" t="n">
         <v>2.5</v>
@@ -19591,40 +19591,40 @@
         <v>1.01</v>
       </c>
       <c r="K158" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L158" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="M158" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="N158" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="O158" t="n">
-        <v>2.88</v>
+        <v>3.4</v>
       </c>
       <c r="P158" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="Q158" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="R158" t="n">
         <v>1.33</v>
       </c>
       <c r="S158" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T158" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="U158" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="V158" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W158" t="n">
         <v>26</v>
@@ -19633,25 +19633,25 @@
         <v>17</v>
       </c>
       <c r="Y158" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Z158" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA158" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB158" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC158" t="n">
         <v>23</v>
-      </c>
-      <c r="AA158" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AB158" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC158" t="n">
-        <v>26</v>
       </c>
       <c r="AD158" t="n">
         <v>67</v>
       </c>
       <c r="AE158" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF158" t="n">
         <v>19</v>
@@ -19704,10 +19704,10 @@
         <v>3.3</v>
       </c>
       <c r="H159" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I159" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J159" t="n">
         <v>1.07</v>
@@ -19722,25 +19722,25 @@
         <v>3</v>
       </c>
       <c r="N159" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="O159" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="P159" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="Q159" t="n">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="R159" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S159" t="n">
         <v>1.8</v>
       </c>
-      <c r="S159" t="n">
-        <v>1.95</v>
-      </c>
       <c r="T159" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U159" t="n">
         <v>15</v>
@@ -19752,13 +19752,13 @@
         <v>34</v>
       </c>
       <c r="X159" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y159" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z159" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AA159" t="n">
         <v>6</v>
@@ -19770,10 +19770,10 @@
         <v>51</v>
       </c>
       <c r="AD159" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AE159" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF159" t="n">
         <v>10</v>
@@ -19785,10 +19785,10 @@
         <v>21</v>
       </c>
       <c r="AI159" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ159" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="160">
@@ -19829,7 +19829,7 @@
         <v>3.5</v>
       </c>
       <c r="I160" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J160" t="n">
         <v>1.05</v>
@@ -19850,7 +19850,7 @@
         <v>1.93</v>
       </c>
       <c r="P160" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="Q160" t="n">
         <v>2.75</v>
@@ -19972,7 +19972,7 @@
         <v>1.98</v>
       </c>
       <c r="P161" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="Q161" t="n">
         <v>2.75</v>
@@ -20094,7 +20094,7 @@
         <v>1.85</v>
       </c>
       <c r="P162" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="Q162" t="n">
         <v>2.75</v>
@@ -20216,7 +20216,7 @@
         <v>1.83</v>
       </c>
       <c r="P163" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="Q163" t="n">
         <v>2.75</v>
@@ -20311,13 +20311,13 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="H164" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I164" t="n">
-        <v>3.9</v>
+        <v>4.35</v>
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
@@ -20336,61 +20336,61 @@
       <c r="P164" t="inlineStr"/>
       <c r="Q164" t="inlineStr"/>
       <c r="R164" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="S164" t="n">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="T164" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="U164" t="n">
-        <v>9.25</v>
+        <v>8.5</v>
       </c>
       <c r="V164" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="W164" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="X164" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y164" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z164" t="n">
         <v>11</v>
       </c>
       <c r="AA164" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="AB164" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC164" t="n">
+        <v>65</v>
+      </c>
+      <c r="AD164" t="n">
+        <v>450</v>
+      </c>
+      <c r="AE164" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF164" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG164" t="n">
         <v>14</v>
       </c>
-      <c r="AC164" t="n">
-        <v>60</v>
-      </c>
-      <c r="AD164" t="n">
-        <v>400</v>
-      </c>
-      <c r="AE164" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF164" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG164" t="n">
-        <v>13</v>
-      </c>
       <c r="AH164" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AI164" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AJ164" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="165">
@@ -20570,22 +20570,22 @@
         <v>2.02</v>
       </c>
       <c r="T166" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="U166" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V166" t="n">
         <v>13</v>
       </c>
       <c r="W166" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="X166" t="n">
         <v>35</v>
       </c>
       <c r="Y166" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Z166" t="n">
         <v>11.5</v>
@@ -20594,22 +20594,22 @@
         <v>7</v>
       </c>
       <c r="AB166" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC166" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AD166" t="n">
         <v>350</v>
       </c>
       <c r="AE166" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="AF166" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AG166" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AH166" t="n">
         <v>15.5</v>
@@ -20618,7 +20618,7 @@
         <v>13.5</v>
       </c>
       <c r="AJ166" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="167">
@@ -20656,10 +20656,10 @@
         <v>1.22</v>
       </c>
       <c r="H167" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="I167" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J167" t="n">
         <v>1.02</v>
@@ -20674,16 +20674,16 @@
         <v>6</v>
       </c>
       <c r="N167" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="O167" t="n">
         <v>2.7</v>
       </c>
       <c r="P167" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Q167" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="R167" t="n">
         <v>1.95</v>
@@ -20692,7 +20692,7 @@
         <v>1.8</v>
       </c>
       <c r="T167" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U167" t="n">
         <v>7</v>
@@ -20701,13 +20701,13 @@
         <v>9.5</v>
       </c>
       <c r="W167" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X167" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y167" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z167" t="n">
         <v>21</v>
@@ -20716,13 +20716,13 @@
         <v>13</v>
       </c>
       <c r="AB167" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC167" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD167" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE167" t="n">
         <v>26</v>
@@ -20737,7 +20737,7 @@
         <v>126</v>
       </c>
       <c r="AI167" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AJ167" t="n">
         <v>51</v>
@@ -20775,13 +20775,13 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="H168" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I168" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J168" t="n">
         <v>1.05</v>
@@ -20790,16 +20790,16 @@
         <v>11</v>
       </c>
       <c r="L168" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M168" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N168" t="n">
-        <v>1.82</v>
+        <v>1.93</v>
       </c>
       <c r="O168" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="P168" t="n">
         <v>1.36</v>
@@ -20814,7 +20814,7 @@
         <v>1.95</v>
       </c>
       <c r="T168" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U168" t="n">
         <v>8</v>
@@ -20850,7 +20850,7 @@
         <v>13</v>
       </c>
       <c r="AF168" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG168" t="n">
         <v>15</v>
@@ -20918,10 +20918,10 @@
         <v>5</v>
       </c>
       <c r="N169" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="O169" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="P169" t="n">
         <v>1.29</v>
@@ -21040,10 +21040,10 @@
         <v>4</v>
       </c>
       <c r="N170" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="O170" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="P170" t="n">
         <v>1.33</v>
@@ -21052,7 +21052,7 @@
         <v>3.25</v>
       </c>
       <c r="R170" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="S170" t="n">
         <v>2.25</v>
@@ -21174,7 +21174,7 @@
         <v>3.5</v>
       </c>
       <c r="R171" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="S171" t="n">
         <v>2.25</v>
@@ -21266,43 +21266,43 @@
         <v>2.5</v>
       </c>
       <c r="H172" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I172" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="J172" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K172" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L172" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="M172" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="N172" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="O172" t="n">
-        <v>1.85</v>
+        <v>2.03</v>
       </c>
       <c r="P172" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q172" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R172" t="n">
-        <v>1.77</v>
+        <v>1.67</v>
       </c>
       <c r="S172" t="n">
-        <v>1.87</v>
+        <v>2.1</v>
       </c>
       <c r="T172" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="U172" t="n">
         <v>13</v>
@@ -21317,40 +21317,40 @@
         <v>21</v>
       </c>
       <c r="Y172" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z172" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AA172" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB172" t="n">
         <v>15</v>
       </c>
       <c r="AC172" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD172" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE172" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF172" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG172" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH172" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI172" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ172" t="n">
         <v>26</v>
-      </c>
-      <c r="AI172" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ172" t="n">
-        <v>29</v>
       </c>
     </row>
     <row r="173">
@@ -21385,13 +21385,13 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H173" t="n">
         <v>3.6</v>
       </c>
       <c r="I173" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="J173" t="n">
         <v>1.04</v>
@@ -21406,31 +21406,31 @@
         <v>4</v>
       </c>
       <c r="N173" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O173" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="P173" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q173" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R173" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="S173" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T173" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U173" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V173" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W173" t="n">
         <v>17</v>
@@ -21442,7 +21442,7 @@
         <v>23</v>
       </c>
       <c r="Z173" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA173" t="n">
         <v>7</v>
@@ -21457,22 +21457,22 @@
         <v>151</v>
       </c>
       <c r="AE173" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF173" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG173" t="n">
         <v>12</v>
-      </c>
-      <c r="AF173" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG173" t="n">
-        <v>13</v>
       </c>
       <c r="AH173" t="n">
         <v>41</v>
       </c>
       <c r="AI173" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ173" t="n">
         <v>29</v>
-      </c>
-      <c r="AJ173" t="n">
-        <v>34</v>
       </c>
     </row>
     <row r="174">
@@ -21528,10 +21528,10 @@
         <v>4</v>
       </c>
       <c r="N174" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="O174" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="P174" t="n">
         <v>1.33</v>
@@ -21540,7 +21540,7 @@
         <v>3.25</v>
       </c>
       <c r="R174" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="S174" t="n">
         <v>2.2</v>
@@ -21638,22 +21638,22 @@
         <v>2.05</v>
       </c>
       <c r="J175" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K175" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L175" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M175" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N175" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="O175" t="n">
-        <v>2.03</v>
+        <v>1.93</v>
       </c>
       <c r="P175" t="n">
         <v>1.36</v>
@@ -21662,7 +21662,7 @@
         <v>3</v>
       </c>
       <c r="R175" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="S175" t="n">
         <v>2.1</v>
@@ -21751,31 +21751,31 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H176" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I176" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J176" t="n">
         <v>1.11</v>
       </c>
       <c r="K176" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="L176" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="M176" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="N176" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="O176" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P176" t="n">
         <v>1.5</v>
@@ -21784,28 +21784,28 @@
         <v>2.5</v>
       </c>
       <c r="R176" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="S176" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="T176" t="n">
         <v>6</v>
       </c>
       <c r="U176" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V176" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W176" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X176" t="n">
         <v>21</v>
       </c>
       <c r="Y176" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z176" t="n">
         <v>7.5</v>
@@ -21820,10 +21820,10 @@
         <v>67</v>
       </c>
       <c r="AD176" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AE176" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF176" t="n">
         <v>15</v>
@@ -21832,7 +21832,7 @@
         <v>12</v>
       </c>
       <c r="AH176" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI176" t="n">
         <v>34</v>
@@ -22016,10 +22016,10 @@
         <v>3.5</v>
       </c>
       <c r="N178" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="O178" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="P178" t="n">
         <v>1.4</v>
@@ -22239,13 +22239,13 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="H180" t="n">
         <v>3.5</v>
       </c>
       <c r="I180" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="J180" t="n">
         <v>1.07</v>
@@ -22254,16 +22254,16 @@
         <v>9</v>
       </c>
       <c r="L180" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M180" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="N180" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="O180" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="P180" t="n">
         <v>1.5</v>
@@ -22272,22 +22272,22 @@
         <v>2.5</v>
       </c>
       <c r="R180" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S180" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="T180" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U180" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V180" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W180" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X180" t="n">
         <v>19</v>
@@ -22299,7 +22299,7 @@
         <v>8</v>
       </c>
       <c r="AA180" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB180" t="n">
         <v>19</v>
@@ -22311,10 +22311,10 @@
         <v>1000</v>
       </c>
       <c r="AE180" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF180" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG180" t="n">
         <v>13</v>
@@ -22361,13 +22361,13 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H181" t="n">
         <v>3.5</v>
       </c>
       <c r="I181" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J181" t="n">
         <v>1.05</v>
@@ -22400,19 +22400,19 @@
         <v>2</v>
       </c>
       <c r="T181" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U181" t="n">
         <v>11</v>
       </c>
       <c r="V181" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W181" t="n">
         <v>21</v>
       </c>
       <c r="X181" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y181" t="n">
         <v>26</v>
@@ -22433,7 +22433,7 @@
         <v>201</v>
       </c>
       <c r="AE181" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF181" t="n">
         <v>15</v>
@@ -22442,13 +22442,13 @@
         <v>11</v>
       </c>
       <c r="AH181" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI181" t="n">
         <v>23</v>
       </c>
       <c r="AJ181" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="182">
@@ -22483,13 +22483,13 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H182" t="n">
         <v>3.4</v>
       </c>
       <c r="I182" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J182" t="n">
         <v>1.04</v>
@@ -22525,7 +22525,7 @@
         <v>8.5</v>
       </c>
       <c r="U182" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V182" t="n">
         <v>9</v>
@@ -22739,7 +22739,7 @@
         <v>1.04</v>
       </c>
       <c r="K184" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L184" t="n">
         <v>1.22</v>
@@ -23102,13 +23102,13 @@
         <v>2.9</v>
       </c>
       <c r="J187" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K187" t="n">
         <v>8.5</v>
       </c>
       <c r="L187" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M187" t="n">
         <v>3</v>
@@ -23117,7 +23117,7 @@
         <v>2.1</v>
       </c>
       <c r="O187" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P187" t="n">
         <v>1.44</v>
@@ -23224,22 +23224,22 @@
         <v>4.33</v>
       </c>
       <c r="J188" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="K188" t="n">
         <v>6.5</v>
       </c>
       <c r="L188" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="M188" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="N188" t="n">
         <v>2.7</v>
       </c>
       <c r="O188" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P188" t="n">
         <v>1.62</v>
@@ -23335,19 +23335,19 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H189" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I189" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J189" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K189" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L189" t="n">
         <v>1.4</v>
@@ -23368,10 +23368,10 @@
         <v>2.5</v>
       </c>
       <c r="R189" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S189" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T189" t="n">
         <v>6</v>
@@ -23383,7 +23383,7 @@
         <v>9</v>
       </c>
       <c r="W189" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X189" t="n">
         <v>17</v>
@@ -23395,7 +23395,7 @@
         <v>8</v>
       </c>
       <c r="AA189" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB189" t="n">
         <v>19</v>
@@ -23404,13 +23404,13 @@
         <v>67</v>
       </c>
       <c r="AD189" t="n">
-        <v>900</v>
+        <v>1250</v>
       </c>
       <c r="AE189" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF189" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG189" t="n">
         <v>15</v>
@@ -23716,10 +23716,10 @@
         <v>9</v>
       </c>
       <c r="L192" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M192" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N192" t="n">
         <v>2.1</v>
@@ -23844,10 +23844,10 @@
         <v>2.75</v>
       </c>
       <c r="N193" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O193" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="P193" t="n">
         <v>1.5</v>
@@ -23856,16 +23856,16 @@
         <v>2.5</v>
       </c>
       <c r="R193" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="S193" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="T193" t="n">
         <v>8</v>
       </c>
       <c r="U193" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V193" t="n">
         <v>12</v>
@@ -23945,13 +23945,13 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="H194" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I194" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J194" t="n">
         <v>1.08</v>
@@ -23981,34 +23981,34 @@
         <v>2.25</v>
       </c>
       <c r="S194" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="T194" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="U194" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="V194" t="n">
         <v>9</v>
       </c>
       <c r="W194" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X194" t="n">
         <v>17</v>
       </c>
       <c r="Y194" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z194" t="n">
         <v>7.5</v>
       </c>
       <c r="AA194" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB194" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC194" t="n">
         <v>81</v>
@@ -24017,19 +24017,19 @@
         <v>900</v>
       </c>
       <c r="AE194" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF194" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG194" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH194" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI194" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ194" t="n">
         <v>51</v>
@@ -24088,10 +24088,10 @@
         <v>4.33</v>
       </c>
       <c r="N195" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="O195" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="P195" t="n">
         <v>1.33</v>
@@ -24189,13 +24189,13 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>2.38</v>
+        <v>2.55</v>
       </c>
       <c r="H196" t="n">
         <v>3.2</v>
       </c>
       <c r="I196" t="n">
-        <v>2.88</v>
+        <v>2.63</v>
       </c>
       <c r="J196" t="n">
         <v>1.06</v>
@@ -24216,10 +24216,10 @@
         <v>1.75</v>
       </c>
       <c r="P196" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="Q196" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="R196" t="n">
         <v>1.83</v>
@@ -24228,13 +24228,13 @@
         <v>1.83</v>
       </c>
       <c r="T196" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U196" t="n">
+        <v>12</v>
+      </c>
+      <c r="V196" t="n">
         <v>11</v>
-      </c>
-      <c r="V196" t="n">
-        <v>10</v>
       </c>
       <c r="W196" t="n">
         <v>23</v>
@@ -24243,13 +24243,13 @@
         <v>21</v>
       </c>
       <c r="Y196" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z196" t="n">
         <v>9</v>
       </c>
       <c r="AA196" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB196" t="n">
         <v>15</v>
@@ -24261,16 +24261,16 @@
         <v>600</v>
       </c>
       <c r="AE196" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF196" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG196" t="n">
         <v>11</v>
       </c>
       <c r="AH196" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI196" t="n">
         <v>23</v>
@@ -24311,34 +24311,34 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H197" t="n">
         <v>3.3</v>
       </c>
       <c r="I197" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J197" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="K197" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L197" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="M197" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N197" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="O197" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="P197" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="Q197" t="n">
         <v>3.5</v>
@@ -24356,13 +24356,13 @@
         <v>13</v>
       </c>
       <c r="V197" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W197" t="n">
         <v>21</v>
       </c>
       <c r="X197" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y197" t="n">
         <v>21</v>
@@ -24386,16 +24386,16 @@
         <v>15</v>
       </c>
       <c r="AF197" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG197" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH197" t="n">
         <v>34</v>
       </c>
       <c r="AI197" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ197" t="n">
         <v>26</v>
@@ -24442,10 +24442,10 @@
         <v>2.5</v>
       </c>
       <c r="J198" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K198" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L198" t="n">
         <v>1.25</v>
@@ -24454,40 +24454,40 @@
         <v>4</v>
       </c>
       <c r="N198" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O198" t="n">
         <v>2</v>
       </c>
       <c r="P198" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="Q198" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R198" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="S198" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="T198" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U198" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V198" t="n">
         <v>10</v>
       </c>
       <c r="W198" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X198" t="n">
         <v>21</v>
       </c>
       <c r="Y198" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z198" t="n">
         <v>12</v>
@@ -24502,10 +24502,10 @@
         <v>41</v>
       </c>
       <c r="AD198" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE198" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF198" t="n">
         <v>13</v>
@@ -24567,7 +24567,7 @@
         <v>1.06</v>
       </c>
       <c r="K199" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L199" t="n">
         <v>1.33</v>
@@ -24576,16 +24576,16 @@
         <v>3.4</v>
       </c>
       <c r="N199" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O199" t="n">
         <v>1.8</v>
       </c>
       <c r="P199" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="Q199" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="R199" t="n">
         <v>1.95</v>
@@ -24612,7 +24612,7 @@
         <v>29</v>
       </c>
       <c r="Z199" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA199" t="n">
         <v>6.5</v>
@@ -24624,7 +24624,7 @@
         <v>51</v>
       </c>
       <c r="AD199" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE199" t="n">
         <v>12</v>
@@ -24704,7 +24704,7 @@
         <v>2.38</v>
       </c>
       <c r="P200" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="Q200" t="n">
         <v>3.5</v>
@@ -24826,10 +24826,10 @@
         <v>1.73</v>
       </c>
       <c r="P201" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="Q201" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="R201" t="n">
         <v>1.91</v>
@@ -24948,7 +24948,7 @@
         <v>2.05</v>
       </c>
       <c r="P202" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q202" t="n">
         <v>3</v>
@@ -25043,19 +25043,19 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="H203" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I203" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J203" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K203" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L203" t="n">
         <v>1.4</v>
@@ -25064,10 +25064,10 @@
         <v>2.75</v>
       </c>
       <c r="N203" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O203" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="P203" t="n">
         <v>1.5</v>
@@ -25076,25 +25076,25 @@
         <v>2.5</v>
       </c>
       <c r="R203" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S203" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T203" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U203" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V203" t="n">
         <v>9.5</v>
       </c>
       <c r="W203" t="n">
+        <v>15</v>
+      </c>
+      <c r="X203" t="n">
         <v>17</v>
-      </c>
-      <c r="X203" t="n">
-        <v>19</v>
       </c>
       <c r="Y203" t="n">
         <v>34</v>
@@ -25106,7 +25106,7 @@
         <v>7.5</v>
       </c>
       <c r="AB203" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC203" t="n">
         <v>67</v>
@@ -25165,7 +25165,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="H204" t="n">
         <v>4.75</v>
@@ -25287,10 +25287,10 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="H205" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I205" t="n">
         <v>10</v>
@@ -25320,13 +25320,13 @@
         <v>3.25</v>
       </c>
       <c r="R205" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="S205" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T205" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U205" t="n">
         <v>6</v>
@@ -25335,7 +25335,7 @@
         <v>10</v>
       </c>
       <c r="W205" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X205" t="n">
         <v>12</v>
@@ -25365,7 +25365,7 @@
         <v>51</v>
       </c>
       <c r="AG205" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AH205" t="n">
         <v>126</v>
@@ -25409,31 +25409,31 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="H206" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="I206" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="J206" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="K206" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="L206" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="M206" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="N206" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="O206" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P206" t="n">
         <v>1.62</v>
@@ -25451,7 +25451,7 @@
         <v>7</v>
       </c>
       <c r="U206" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V206" t="n">
         <v>13</v>
@@ -25463,10 +25463,10 @@
         <v>34</v>
       </c>
       <c r="Y206" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Z206" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AA206" t="n">
         <v>6</v>
@@ -25531,19 +25531,19 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="H207" t="n">
         <v>2.92</v>
       </c>
       <c r="I207" t="n">
-        <v>2.2</v>
+        <v>2.02</v>
       </c>
       <c r="J207" t="n">
         <v>1.1</v>
       </c>
       <c r="K207" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="L207" t="n">
         <v>1.44</v>
@@ -25552,10 +25552,10 @@
         <v>2.6</v>
       </c>
       <c r="N207" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="O207" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="P207" t="n">
         <v>1.55</v>
@@ -25564,31 +25564,31 @@
         <v>2.3</v>
       </c>
       <c r="R207" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S207" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="T207" t="n">
-        <v>7.9</v>
+        <v>9.25</v>
       </c>
       <c r="U207" t="n">
-        <v>16.5</v>
+        <v>20</v>
       </c>
       <c r="V207" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W207" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="X207" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Y207" t="n">
         <v>50</v>
       </c>
       <c r="Z207" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AA207" t="n">
         <v>5.8</v>
@@ -25603,19 +25603,19 @@
         <v>900</v>
       </c>
       <c r="AE207" t="n">
-        <v>6.5</v>
+        <v>5.9</v>
       </c>
       <c r="AF207" t="n">
-        <v>10</v>
+        <v>8.75</v>
       </c>
       <c r="AG207" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AH207" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AI207" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AJ207" t="n">
         <v>35</v>
@@ -25903,7 +25903,7 @@
         <v>3.8</v>
       </c>
       <c r="I210" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="J210" t="n">
         <v>1.05</v>
@@ -25912,43 +25912,43 @@
         <v>8.25</v>
       </c>
       <c r="L210" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="M210" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="N210" t="n">
         <v>1.8</v>
       </c>
       <c r="O210" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="P210" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="Q210" t="n">
         <v>2.87</v>
       </c>
       <c r="R210" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="S210" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="T210" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="U210" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="V210" t="n">
         <v>8.5</v>
       </c>
       <c r="W210" t="n">
+        <v>13</v>
+      </c>
+      <c r="X210" t="n">
         <v>13.5</v>
-      </c>
-      <c r="X210" t="n">
-        <v>14</v>
       </c>
       <c r="Y210" t="n">
         <v>27</v>
@@ -25960,31 +25960,31 @@
         <v>7.7</v>
       </c>
       <c r="AB210" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AC210" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AD210" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AE210" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AF210" t="n">
         <v>32</v>
       </c>
       <c r="AG210" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AH210" t="n">
         <v>100</v>
       </c>
       <c r="AI210" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ210" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="211">
@@ -26141,22 +26141,22 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="H212" t="n">
         <v>3.05</v>
       </c>
       <c r="I212" t="n">
-        <v>2.57</v>
+        <v>2.67</v>
       </c>
       <c r="J212" t="n">
         <v>1.09</v>
       </c>
       <c r="K212" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="L212" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="M212" t="n">
         <v>2.75</v>
@@ -26168,67 +26168,67 @@
         <v>1.62</v>
       </c>
       <c r="P212" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="Q212" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="R212" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="S212" t="n">
         <v>1.85</v>
       </c>
       <c r="T212" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="U212" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="V212" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="W212" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="X212" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y212" t="n">
         <v>37</v>
       </c>
       <c r="Z212" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AA212" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AB212" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC212" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AD212" t="n">
         <v>700</v>
       </c>
       <c r="AE212" t="n">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
       <c r="AF212" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG212" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AH212" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AI212" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ212" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="213">
@@ -26263,19 +26263,19 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="H213" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I213" t="n">
-        <v>4.65</v>
+        <v>4.8</v>
       </c>
       <c r="J213" t="n">
         <v>1.05</v>
       </c>
       <c r="K213" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="L213" t="n">
         <v>1.27</v>
@@ -26284,34 +26284,34 @@
         <v>3.45</v>
       </c>
       <c r="N213" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="O213" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="P213" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="Q213" t="n">
-        <v>2.72</v>
+        <v>2.77</v>
       </c>
       <c r="R213" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="S213" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="T213" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="U213" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="V213" t="n">
         <v>8</v>
       </c>
       <c r="W213" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="X213" t="n">
         <v>13</v>
@@ -26320,10 +26320,10 @@
         <v>24</v>
       </c>
       <c r="Z213" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AA213" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AB213" t="n">
         <v>15</v>
@@ -26335,10 +26335,10 @@
         <v>500</v>
       </c>
       <c r="AE213" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AF213" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG213" t="n">
         <v>15</v>
@@ -26507,19 +26507,19 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="H215" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I215" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="J215" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K215" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L215" t="n">
         <v>1.3</v>
@@ -26528,10 +26528,10 @@
         <v>3.4</v>
       </c>
       <c r="N215" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O215" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="P215" t="n">
         <v>1.4</v>
@@ -26555,7 +26555,7 @@
         <v>10</v>
       </c>
       <c r="W215" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X215" t="n">
         <v>21</v>
@@ -26564,22 +26564,22 @@
         <v>29</v>
       </c>
       <c r="Z215" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA215" t="n">
         <v>6.5</v>
       </c>
       <c r="AB215" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC215" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD215" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE215" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF215" t="n">
         <v>13</v>
@@ -26638,19 +26638,19 @@
         <v>3.9</v>
       </c>
       <c r="J216" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K216" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L216" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M216" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N216" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O216" t="n">
         <v>2</v>
@@ -26662,10 +26662,10 @@
         <v>3</v>
       </c>
       <c r="R216" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S216" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T216" t="n">
         <v>8</v>
@@ -26692,7 +26692,7 @@
         <v>7</v>
       </c>
       <c r="AB216" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC216" t="n">
         <v>41</v>
@@ -26751,13 +26751,13 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="H217" t="n">
         <v>3.1</v>
       </c>
       <c r="I217" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="J217" t="n">
         <v>1.06</v>
@@ -26772,10 +26772,10 @@
         <v>3.5</v>
       </c>
       <c r="N217" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="O217" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="P217" t="n">
         <v>1.4</v>
@@ -26790,7 +26790,7 @@
         <v>2</v>
       </c>
       <c r="T217" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U217" t="n">
         <v>15</v>
@@ -26805,7 +26805,7 @@
         <v>23</v>
       </c>
       <c r="Y217" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z217" t="n">
         <v>9.5</v>
@@ -26823,19 +26823,19 @@
         <v>201</v>
       </c>
       <c r="AE217" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF217" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG217" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH217" t="n">
         <v>23</v>
       </c>
       <c r="AI217" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ217" t="n">
         <v>29</v>
@@ -26873,10 +26873,10 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="H218" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I218" t="n">
         <v>1.73</v>
@@ -26894,10 +26894,10 @@
         <v>3.4</v>
       </c>
       <c r="N218" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="O218" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="P218" t="n">
         <v>1.4</v>
@@ -26906,10 +26906,10 @@
         <v>2.75</v>
       </c>
       <c r="R218" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="S218" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T218" t="n">
         <v>11</v>
@@ -26924,13 +26924,13 @@
         <v>51</v>
       </c>
       <c r="X218" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Y218" t="n">
         <v>41</v>
       </c>
       <c r="Z218" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA218" t="n">
         <v>7.5</v>
@@ -26942,10 +26942,10 @@
         <v>51</v>
       </c>
       <c r="AD218" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE218" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AF218" t="n">
         <v>8</v>
@@ -27504,16 +27504,16 @@
         <v>3.75</v>
       </c>
       <c r="N223" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="O223" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="P223" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q223" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R223" t="n">
         <v>1.67</v>
@@ -27522,10 +27522,10 @@
         <v>2.1</v>
       </c>
       <c r="T223" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U223" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V223" t="n">
         <v>9.5</v>
@@ -27727,19 +27727,19 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H225" t="n">
         <v>3.6</v>
       </c>
       <c r="I225" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J225" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K225" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="L225" t="n">
         <v>1.36</v>
@@ -27760,10 +27760,10 @@
         <v>2.63</v>
       </c>
       <c r="R225" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S225" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T225" t="n">
         <v>6</v>
@@ -27971,19 +27971,19 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="H227" t="n">
         <v>3.2</v>
       </c>
       <c r="I227" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="J227" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K227" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="L227" t="n">
         <v>1.36</v>
@@ -28013,7 +28013,7 @@
         <v>7.5</v>
       </c>
       <c r="U227" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V227" t="n">
         <v>10</v>
@@ -28052,7 +28052,7 @@
         <v>11</v>
       </c>
       <c r="AH227" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI227" t="n">
         <v>23</v>
@@ -28227,7 +28227,7 @@
         <v>1.04</v>
       </c>
       <c r="K229" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L229" t="n">
         <v>1.22</v>
@@ -28486,7 +28486,7 @@
         <v>2.35</v>
       </c>
       <c r="P231" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="Q231" t="n">
         <v>3.5</v>
@@ -28718,16 +28718,16 @@
         <v>15</v>
       </c>
       <c r="L233" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M233" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N233" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="O233" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="P233" t="n">
         <v>1.3</v>
@@ -28825,13 +28825,13 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="H234" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I234" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="J234" t="n">
         <v>1.03</v>
@@ -28846,16 +28846,16 @@
         <v>5.5</v>
       </c>
       <c r="N234" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="O234" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="P234" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Q234" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="R234" t="n">
         <v>1.8</v>
@@ -28873,7 +28873,7 @@
         <v>8.5</v>
       </c>
       <c r="W234" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X234" t="n">
         <v>11</v>
@@ -28885,10 +28885,10 @@
         <v>17</v>
       </c>
       <c r="AA234" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB234" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC234" t="n">
         <v>51</v>
@@ -28897,7 +28897,7 @@
         <v>201</v>
       </c>
       <c r="AE234" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF234" t="n">
         <v>41</v>
@@ -28906,13 +28906,13 @@
         <v>23</v>
       </c>
       <c r="AH234" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AI234" t="n">
         <v>51</v>
       </c>
       <c r="AJ234" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="235">
@@ -28947,13 +28947,13 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="H235" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I235" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="J235" t="n">
         <v>1.07</v>
@@ -28968,37 +28968,37 @@
         <v>3.05</v>
       </c>
       <c r="N235" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="O235" t="n">
         <v>1.75</v>
       </c>
       <c r="P235" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="Q235" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="R235" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="S235" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="T235" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="U235" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V235" t="n">
         <v>8.75</v>
       </c>
       <c r="W235" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="X235" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y235" t="n">
         <v>29</v>
@@ -29007,7 +29007,7 @@
         <v>7</v>
       </c>
       <c r="AA235" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="AB235" t="n">
         <v>14.5</v>
@@ -29019,19 +29019,19 @@
         <v>600</v>
       </c>
       <c r="AE235" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AF235" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AG235" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AH235" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AI235" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AJ235" t="n">
         <v>37</v>
@@ -29408,7 +29408,7 @@
         <v>3</v>
       </c>
       <c r="R239" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="S239" t="n">
         <v>2</v>
@@ -29530,10 +29530,10 @@
         <v>2.63</v>
       </c>
       <c r="R240" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S240" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T240" t="n">
         <v>6.5</v>
@@ -29634,16 +29634,16 @@
         <v>9</v>
       </c>
       <c r="L241" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M241" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N241" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O241" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P241" t="n">
         <v>1.44</v>
@@ -29652,10 +29652,10 @@
         <v>2.63</v>
       </c>
       <c r="R241" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S241" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T241" t="n">
         <v>8</v>
@@ -29741,13 +29741,13 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H242" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I242" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
@@ -29767,25 +29767,25 @@
         <v>1.52</v>
       </c>
       <c r="Q242" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R242" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="S242" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="T242" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="U242" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="V242" t="n">
         <v>9.5</v>
       </c>
       <c r="W242" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X242" t="n">
         <v>22</v>
@@ -29794,28 +29794,28 @@
         <v>40</v>
       </c>
       <c r="Z242" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AA242" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AB242" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AC242" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AD242" t="n">
         <v>1000</v>
       </c>
       <c r="AE242" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AF242" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AG242" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AH242" t="n">
         <v>40</v>
@@ -29859,18 +29859,18 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="H243" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="I243" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M243" t="n">
         <v>2.77</v>
@@ -29882,49 +29882,49 @@
         <v>1.65</v>
       </c>
       <c r="P243" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="Q243" t="n">
         <v>2.4</v>
       </c>
       <c r="R243" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="S243" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="T243" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="U243" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="V243" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="W243" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="X243" t="n">
         <v>35</v>
       </c>
       <c r="Y243" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Z243" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AA243" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="AB243" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC243" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AD243" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AE243" t="n">
         <v>6.6</v>
@@ -29933,13 +29933,13 @@
         <v>9</v>
       </c>
       <c r="AG243" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AH243" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI243" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AJ243" t="n">
         <v>30</v>
@@ -29989,7 +29989,7 @@
         <v>1.07</v>
       </c>
       <c r="K244" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L244" t="n">
         <v>1.4</v>
@@ -30004,7 +30004,7 @@
         <v>1.65</v>
       </c>
       <c r="P244" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Q244" t="n">
         <v>2.5</v>
@@ -30108,16 +30108,16 @@
         <v>1.9</v>
       </c>
       <c r="J245" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="K245" t="n">
         <v>8</v>
       </c>
       <c r="L245" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="M245" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="N245" t="n">
         <v>2.4</v>
@@ -30126,10 +30126,10 @@
         <v>1.53</v>
       </c>
       <c r="P245" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q245" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="R245" t="n">
         <v>2.2</v>
@@ -30230,13 +30230,13 @@
         <v>2.8</v>
       </c>
       <c r="J246" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K246" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L246" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="M246" t="n">
         <v>2.25</v>
@@ -30343,43 +30343,43 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H247" t="n">
         <v>3.5</v>
       </c>
       <c r="I247" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J247" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K247" t="n">
         <v>11</v>
       </c>
       <c r="L247" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M247" t="n">
         <v>3.75</v>
       </c>
       <c r="N247" t="n">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="O247" t="n">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="P247" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q247" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R247" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S247" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T247" t="n">
         <v>8</v>
@@ -30388,16 +30388,16 @@
         <v>10</v>
       </c>
       <c r="V247" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W247" t="n">
+        <v>19</v>
+      </c>
+      <c r="X247" t="n">
         <v>17</v>
       </c>
-      <c r="X247" t="n">
-        <v>15</v>
-      </c>
       <c r="Y247" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z247" t="n">
         <v>11</v>
@@ -30415,13 +30415,13 @@
         <v>201</v>
       </c>
       <c r="AE247" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF247" t="n">
         <v>19</v>
       </c>
       <c r="AG247" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH247" t="n">
         <v>41</v>
@@ -30465,22 +30465,22 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H248" t="n">
         <v>3.4</v>
       </c>
       <c r="I248" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J248" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K248" t="n">
         <v>13</v>
       </c>
       <c r="L248" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="M248" t="n">
         <v>4.33</v>
@@ -30507,7 +30507,7 @@
         <v>10</v>
       </c>
       <c r="U248" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V248" t="n">
         <v>9</v>
@@ -30537,13 +30537,13 @@
         <v>126</v>
       </c>
       <c r="AE248" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF248" t="n">
         <v>21</v>
       </c>
       <c r="AG248" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH248" t="n">
         <v>41</v>
@@ -30596,13 +30596,13 @@
         <v>4.75</v>
       </c>
       <c r="J249" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K249" t="n">
         <v>17</v>
       </c>
       <c r="L249" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="M249" t="n">
         <v>5</v>
@@ -30980,7 +30980,7 @@
         <v>1.98</v>
       </c>
       <c r="P252" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q252" t="n">
         <v>3</v>
@@ -31075,19 +31075,19 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H253" t="n">
         <v>3.6</v>
       </c>
       <c r="I253" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J253" t="n">
         <v>1.03</v>
       </c>
       <c r="K253" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L253" t="n">
         <v>1.17</v>
@@ -31096,16 +31096,16 @@
         <v>5</v>
       </c>
       <c r="N253" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O253" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="P253" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="Q253" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R253" t="n">
         <v>1.5</v>
@@ -31224,7 +31224,7 @@
         <v>2</v>
       </c>
       <c r="P254" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q254" t="n">
         <v>3</v>
@@ -31346,7 +31346,7 @@
         <v>1.9</v>
       </c>
       <c r="P255" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="Q255" t="n">
         <v>2.75</v>
@@ -31453,7 +31453,7 @@
         <v>1.04</v>
       </c>
       <c r="K256" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L256" t="n">
         <v>1.22</v>
@@ -31468,7 +31468,7 @@
         <v>2.05</v>
       </c>
       <c r="P256" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q256" t="n">
         <v>3.25</v>
@@ -31563,19 +31563,19 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="H257" t="n">
         <v>3.8</v>
       </c>
       <c r="I257" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="J257" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K257" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L257" t="n">
         <v>1.2</v>
@@ -31590,19 +31590,19 @@
         <v>2.15</v>
       </c>
       <c r="P257" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q257" t="n">
         <v>3.25</v>
       </c>
       <c r="R257" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S257" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T257" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U257" t="n">
         <v>9.5</v>
@@ -31641,13 +31641,13 @@
         <v>23</v>
       </c>
       <c r="AG257" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH257" t="n">
         <v>41</v>
       </c>
       <c r="AI257" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ257" t="n">
         <v>34</v>
@@ -31810,64 +31810,64 @@
         <v>1.83</v>
       </c>
       <c r="H259" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I259" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="J259" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K259" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="L259" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="M259" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="N259" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="O259" t="n">
         <v>1.83</v>
       </c>
-      <c r="O259" t="n">
-        <v>1.87</v>
-      </c>
       <c r="P259" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="Q259" t="n">
-        <v>2.77</v>
+        <v>2.7</v>
       </c>
       <c r="R259" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="S259" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="T259" t="n">
-        <v>7.4</v>
+        <v>7.1</v>
       </c>
       <c r="U259" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="V259" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="W259" t="n">
         <v>15</v>
       </c>
       <c r="X259" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Y259" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Z259" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AA259" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AB259" t="n">
         <v>15</v>
@@ -31876,16 +31876,16 @@
         <v>70</v>
       </c>
       <c r="AD259" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AE259" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AF259" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG259" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH259" t="n">
         <v>55</v>
@@ -31980,7 +31980,7 @@
         <v>40</v>
       </c>
       <c r="X260" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Y260" t="n">
         <v>32</v>
@@ -32185,19 +32185,19 @@
         <v>1.05</v>
       </c>
       <c r="K262" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="L262" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="M262" t="n">
         <v>3.45</v>
       </c>
       <c r="N262" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="O262" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="P262" t="n">
         <v>1.39</v>
@@ -32209,58 +32209,58 @@
         <v>1.7</v>
       </c>
       <c r="S262" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="T262" t="n">
-        <v>7.9</v>
+        <v>7.6</v>
       </c>
       <c r="U262" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V262" t="n">
         <v>8.25</v>
       </c>
       <c r="W262" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="X262" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y262" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z262" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AA262" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AB262" t="n">
         <v>13.5</v>
       </c>
       <c r="AC262" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AD262" t="n">
         <v>400</v>
       </c>
       <c r="AE262" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AF262" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG262" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH262" t="n">
         <v>60</v>
       </c>
       <c r="AI262" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ262" t="n">
         <v>35</v>
-      </c>
-      <c r="AJ262" t="n">
-        <v>40</v>
       </c>
     </row>
     <row r="263">
@@ -32304,16 +32304,16 @@
         <v>3.15</v>
       </c>
       <c r="J263" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K263" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="L263" t="n">
         <v>1.28</v>
       </c>
       <c r="M263" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="N263" t="n">
         <v>1.82</v>
@@ -32322,7 +32322,7 @@
         <v>1.88</v>
       </c>
       <c r="P263" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="Q263" t="n">
         <v>2.75</v>
@@ -32334,25 +32334,25 @@
         <v>2.05</v>
       </c>
       <c r="T263" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="U263" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="V263" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="W263" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="X263" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Y263" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Z263" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AA263" t="n">
         <v>6.6</v>
@@ -32367,19 +32367,19 @@
         <v>400</v>
       </c>
       <c r="AE263" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="AF263" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AG263" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AH263" t="n">
         <v>40</v>
       </c>
       <c r="AI263" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ263" t="n">
         <v>32</v>
@@ -32435,25 +32435,25 @@
         <v>1.24</v>
       </c>
       <c r="M264" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="N264" t="n">
         <v>1.72</v>
       </c>
       <c r="O264" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="P264" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="Q264" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="R264" t="n">
         <v>1.62</v>
       </c>
       <c r="S264" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="T264" t="n">
         <v>8.75</v>
@@ -32471,7 +32471,7 @@
         <v>15</v>
       </c>
       <c r="Y264" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z264" t="n">
         <v>8</v>
@@ -32480,7 +32480,7 @@
         <v>6.9</v>
       </c>
       <c r="AB264" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC264" t="n">
         <v>50</v>
@@ -32489,10 +32489,10 @@
         <v>350</v>
       </c>
       <c r="AE264" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AF264" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AG264" t="n">
         <v>11.25</v>
@@ -32712,10 +32712,10 @@
         <v>17.5</v>
       </c>
       <c r="X266" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y266" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Z266" t="n">
         <v>7.9</v>
@@ -32733,19 +32733,19 @@
         <v>400</v>
       </c>
       <c r="AE266" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AF266" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AG266" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AH266" t="n">
         <v>45</v>
       </c>
       <c r="AI266" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AJ266" t="n">
         <v>32</v>
@@ -32783,19 +32783,19 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="H267" t="n">
         <v>2.52</v>
       </c>
       <c r="I267" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="J267" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="K267" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="L267" t="n">
         <v>1.5</v>
@@ -32804,7 +32804,7 @@
         <v>2.27</v>
       </c>
       <c r="N267" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="O267" t="n">
         <v>1.44</v>
@@ -32822,10 +32822,10 @@
         <v>1.72</v>
       </c>
       <c r="T267" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="U267" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="V267" t="n">
         <v>12</v>
@@ -32846,7 +32846,7 @@
         <v>5.1</v>
       </c>
       <c r="AB267" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC267" t="n">
         <v>90</v>
@@ -32855,22 +32855,22 @@
         <v>900</v>
       </c>
       <c r="AE267" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AF267" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AG267" t="n">
         <v>9.5</v>
       </c>
       <c r="AH267" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI267" t="n">
         <v>24</v>
       </c>
       <c r="AJ267" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="268">
@@ -32911,7 +32911,7 @@
         <v>3.15</v>
       </c>
       <c r="I268" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="J268" t="n">
         <v>1.11</v>
@@ -32977,10 +32977,10 @@
         <v>800</v>
       </c>
       <c r="AE268" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AF268" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AG268" t="n">
         <v>13</v>
@@ -32989,7 +32989,7 @@
         <v>55</v>
       </c>
       <c r="AI268" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AJ268" t="n">
         <v>50</v>
@@ -33030,7 +33030,7 @@
         <v>1.95</v>
       </c>
       <c r="H269" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I269" t="n">
         <v>3.6</v>
@@ -33041,7 +33041,7 @@
         <v>1.28</v>
       </c>
       <c r="M269" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="N269" t="n">
         <v>1.83</v>
@@ -33053,7 +33053,7 @@
         <v>1.4</v>
       </c>
       <c r="Q269" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="R269" t="n">
         <v>1.7</v>
@@ -33062,28 +33062,28 @@
         <v>1.91</v>
       </c>
       <c r="T269" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="U269" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="V269" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="W269" t="n">
         <v>17.5</v>
       </c>
       <c r="X269" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y269" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Z269" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AA269" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AB269" t="n">
         <v>14</v>
@@ -33095,10 +33095,10 @@
         <v>500</v>
       </c>
       <c r="AE269" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AF269" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AG269" t="n">
         <v>12</v>
@@ -33110,7 +33110,7 @@
         <v>32</v>
       </c>
       <c r="AJ269" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="270">

--- a/Jogos_da_Semana_FlashScore_2025-04-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-05.xlsx
@@ -1135,13 +1135,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="H6" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I6" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="J6" t="n">
         <v>1.05</v>
@@ -1156,22 +1156,22 @@
         <v>3.75</v>
       </c>
       <c r="N6" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="O6" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S6" t="n">
         <v>2</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>3</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S6" t="n">
-        <v>2.05</v>
       </c>
       <c r="T6" t="n">
         <v>8.5</v>
@@ -1180,19 +1180,19 @@
         <v>11</v>
       </c>
       <c r="V6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W6" t="n">
+        <v>21</v>
+      </c>
+      <c r="X6" t="n">
         <v>19</v>
-      </c>
-      <c r="X6" t="n">
-        <v>17</v>
       </c>
       <c r="Y6" t="n">
         <v>29</v>
       </c>
       <c r="Z6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA6" t="n">
         <v>7</v>
@@ -1207,19 +1207,19 @@
         <v>251</v>
       </c>
       <c r="AE6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF6" t="n">
         <v>21</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH6" t="n">
         <v>41</v>
       </c>
       <c r="AI6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ6" t="n">
         <v>41</v>
@@ -1257,10 +1257,10 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="I7" t="n">
         <v>19</v>
@@ -1284,34 +1284,34 @@
         <v>4</v>
       </c>
       <c r="P7" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="Q7" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="R7" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="S7" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="T7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="U7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V7" t="n">
+        <v>12</v>
+      </c>
+      <c r="W7" t="n">
+        <v>8</v>
+      </c>
+      <c r="X7" t="n">
         <v>11</v>
       </c>
-      <c r="W7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X7" t="n">
-        <v>10</v>
-      </c>
       <c r="Y7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z7" t="n">
         <v>29</v>
@@ -1320,7 +1320,7 @@
         <v>17</v>
       </c>
       <c r="AB7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC7" t="n">
         <v>51</v>
@@ -1329,7 +1329,7 @@
         <v>201</v>
       </c>
       <c r="AE7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AF7" t="n">
         <v>81</v>
@@ -1379,7 +1379,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="H8" t="n">
         <v>3.75</v>
@@ -1391,7 +1391,7 @@
         <v>1.03</v>
       </c>
       <c r="K8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L8" t="n">
         <v>1.17</v>
@@ -1400,10 +1400,10 @@
         <v>5</v>
       </c>
       <c r="N8" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="O8" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="P8" t="n">
         <v>1.29</v>
@@ -1412,10 +1412,10 @@
         <v>3.5</v>
       </c>
       <c r="R8" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S8" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="T8" t="n">
         <v>17</v>
@@ -1534,7 +1534,7 @@
         <v>3.25</v>
       </c>
       <c r="R9" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="S9" t="n">
         <v>2.2</v>
@@ -1745,13 +1745,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="H11" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I11" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="J11" t="n">
         <v>1.04</v>
@@ -1760,10 +1760,10 @@
         <v>13</v>
       </c>
       <c r="L11" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M11" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N11" t="n">
         <v>1.73</v>
@@ -1778,34 +1778,34 @@
         <v>3.25</v>
       </c>
       <c r="R11" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="S11" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="T11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="U11" t="n">
         <v>34</v>
       </c>
       <c r="V11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="W11" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="X11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="Y11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="Z11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA11" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB11" t="n">
         <v>17</v>
@@ -1814,7 +1814,7 @@
         <v>51</v>
       </c>
       <c r="AD11" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE11" t="n">
         <v>7.5</v>
@@ -1832,7 +1832,7 @@
         <v>12</v>
       </c>
       <c r="AJ11" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12">
@@ -1873,7 +1873,7 @@
         <v>3.6</v>
       </c>
       <c r="I12" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J12" t="n">
         <v>1.05</v>
@@ -2233,13 +2233,13 @@
         </is>
       </c>
       <c r="G15" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I15" t="n">
         <v>2.63</v>
-      </c>
-      <c r="H15" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2.8</v>
       </c>
       <c r="J15" t="n">
         <v>1.08</v>
@@ -2266,22 +2266,22 @@
         <v>2.5</v>
       </c>
       <c r="R15" t="n">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="S15" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="T15" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W15" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X15" t="n">
         <v>23</v>
@@ -2302,19 +2302,19 @@
         <v>51</v>
       </c>
       <c r="AD15" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE15" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH15" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI15" t="n">
         <v>23</v>
@@ -2364,13 +2364,13 @@
         <v>6</v>
       </c>
       <c r="J16" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K16" t="n">
         <v>21</v>
       </c>
       <c r="L16" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="M16" t="n">
         <v>6.5</v>
@@ -2388,10 +2388,10 @@
         <v>4</v>
       </c>
       <c r="R16" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S16" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="T16" t="n">
         <v>12</v>
@@ -2477,31 +2477,31 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H17" t="n">
         <v>2.63</v>
       </c>
       <c r="I17" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J17" t="n">
         <v>1.17</v>
       </c>
       <c r="K17" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="L17" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="M17" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="N17" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="O17" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P17" t="n">
         <v>1.67</v>
@@ -2513,7 +2513,7 @@
         <v>2.25</v>
       </c>
       <c r="S17" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="T17" t="n">
         <v>6.5</v>
@@ -2534,13 +2534,13 @@
         <v>51</v>
       </c>
       <c r="Z17" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AA17" t="n">
         <v>5.5</v>
       </c>
       <c r="AB17" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC17" t="n">
         <v>81</v>
@@ -2599,13 +2599,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H18" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I18" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J18" t="n">
         <v>1.13</v>
@@ -2635,13 +2635,13 @@
         <v>2.25</v>
       </c>
       <c r="S18" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="T18" t="n">
         <v>5.5</v>
       </c>
       <c r="U18" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V18" t="n">
         <v>10</v>
@@ -2721,19 +2721,19 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="H19" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I19" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J19" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K19" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L19" t="n">
         <v>1.53</v>
@@ -2742,10 +2742,10 @@
         <v>2.38</v>
       </c>
       <c r="N19" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="O19" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="P19" t="n">
         <v>1.57</v>
@@ -2754,10 +2754,10 @@
         <v>2.25</v>
       </c>
       <c r="R19" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="S19" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T19" t="n">
         <v>5</v>
@@ -2781,7 +2781,7 @@
         <v>6.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB19" t="n">
         <v>23</v>
@@ -2843,19 +2843,19 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I20" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J20" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K20" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L20" t="n">
         <v>1.44</v>
@@ -2870,22 +2870,22 @@
         <v>1.5</v>
       </c>
       <c r="P20" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="R20" t="n">
         <v>2.2</v>
       </c>
       <c r="S20" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="T20" t="n">
         <v>5.5</v>
       </c>
       <c r="U20" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="V20" t="n">
         <v>9.5</v>
@@ -2900,13 +2900,13 @@
         <v>41</v>
       </c>
       <c r="Z20" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AA20" t="n">
         <v>6</v>
       </c>
       <c r="AB20" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC20" t="n">
         <v>81</v>
@@ -2915,19 +2915,19 @@
         <v>501</v>
       </c>
       <c r="AE20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF20" t="n">
         <v>23</v>
       </c>
       <c r="AG20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH20" t="n">
         <v>51</v>
       </c>
       <c r="AI20" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ20" t="n">
         <v>51</v>
@@ -2965,13 +2965,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="H21" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I21" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="J21" t="n">
         <v>1.08</v>
@@ -2986,22 +2986,22 @@
         <v>3</v>
       </c>
       <c r="N21" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="O21" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="P21" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R21" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S21" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="T21" t="n">
         <v>12</v>
@@ -3022,7 +3022,7 @@
         <v>51</v>
       </c>
       <c r="Z21" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA21" t="n">
         <v>6.5</v>
@@ -3034,7 +3034,7 @@
         <v>67</v>
       </c>
       <c r="AD21" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AE21" t="n">
         <v>6</v>
@@ -3043,13 +3043,13 @@
         <v>7.5</v>
       </c>
       <c r="AG21" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH21" t="n">
         <v>13</v>
       </c>
       <c r="AI21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ21" t="n">
         <v>34</v>
@@ -3087,19 +3087,19 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="H22" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="I22" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="J22" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="K22" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="L22" t="n">
         <v>1.53</v>
@@ -3108,34 +3108,34 @@
         <v>2.38</v>
       </c>
       <c r="N22" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="O22" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="P22" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R22" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="S22" t="n">
-        <v>1.37</v>
+        <v>1.5</v>
       </c>
       <c r="T22" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="U22" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="V22" t="n">
         <v>10</v>
       </c>
       <c r="W22" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="X22" t="n">
         <v>19</v>
@@ -3144,37 +3144,37 @@
         <v>41</v>
       </c>
       <c r="Z22" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AA22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AB22" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AC22" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AD22" t="n">
         <v>101</v>
       </c>
       <c r="AE22" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AF22" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AG22" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AH22" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AI22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ22" t="n">
         <v>67</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="23">
@@ -3215,7 +3215,7 @@
         <v>3</v>
       </c>
       <c r="I23" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J23" t="n">
         <v>1.14</v>
@@ -3224,10 +3224,10 @@
         <v>5.5</v>
       </c>
       <c r="L23" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="M23" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="N23" t="n">
         <v>2.88</v>
@@ -3245,7 +3245,7 @@
         <v>2.5</v>
       </c>
       <c r="S23" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="T23" t="n">
         <v>5</v>
@@ -3257,10 +3257,10 @@
         <v>10</v>
       </c>
       <c r="W23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X23" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y23" t="n">
         <v>41</v>
@@ -3269,7 +3269,7 @@
         <v>5.5</v>
       </c>
       <c r="AA23" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB23" t="n">
         <v>23</v>
@@ -3364,10 +3364,10 @@
         <v>2.05</v>
       </c>
       <c r="R24" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="S24" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="T24" t="n">
         <v>5</v>
@@ -3453,13 +3453,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="H25" t="n">
         <v>2.75</v>
       </c>
       <c r="I25" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J25" t="n">
         <v>1.17</v>
@@ -3486,10 +3486,10 @@
         <v>2</v>
       </c>
       <c r="R25" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="S25" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="T25" t="n">
         <v>5</v>
@@ -3605,13 +3605,13 @@
         <v>1.73</v>
       </c>
       <c r="Q26" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="R26" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="S26" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="T26" t="n">
         <v>4.5</v>
@@ -3697,13 +3697,13 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H27" t="n">
         <v>2.8</v>
       </c>
       <c r="I27" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="J27" t="n">
         <v>1.13</v>
@@ -3733,7 +3733,7 @@
         <v>2.2</v>
       </c>
       <c r="S27" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="T27" t="n">
         <v>7</v>
@@ -3745,7 +3745,7 @@
         <v>12</v>
       </c>
       <c r="W27" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="X27" t="n">
         <v>29</v>
@@ -3772,16 +3772,16 @@
         <v>6.5</v>
       </c>
       <c r="AF27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG27" t="n">
         <v>11</v>
       </c>
       <c r="AH27" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI27" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ27" t="n">
         <v>41</v>
@@ -3855,7 +3855,7 @@
         <v>2.5</v>
       </c>
       <c r="S28" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="T28" t="n">
         <v>5</v>
@@ -3977,7 +3977,7 @@
         <v>2.2</v>
       </c>
       <c r="S29" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="T29" t="n">
         <v>5.5</v>
@@ -4185,13 +4185,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H31" t="n">
         <v>3.5</v>
       </c>
       <c r="I31" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="J31" t="n">
         <v>1.03</v>
@@ -4206,10 +4206,10 @@
         <v>5</v>
       </c>
       <c r="N31" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="O31" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="P31" t="n">
         <v>1.29</v>
@@ -4218,13 +4218,13 @@
         <v>3.5</v>
       </c>
       <c r="R31" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="S31" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="T31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U31" t="n">
         <v>15</v>
@@ -4260,7 +4260,7 @@
         <v>13</v>
       </c>
       <c r="AF31" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG31" t="n">
         <v>10</v>
@@ -4272,7 +4272,7 @@
         <v>19</v>
       </c>
       <c r="AJ31" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32">
@@ -4340,10 +4340,10 @@
         <v>3.5</v>
       </c>
       <c r="R32" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S32" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="T32" t="n">
         <v>10</v>
@@ -4462,10 +4462,10 @@
         <v>2.75</v>
       </c>
       <c r="R33" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="S33" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="T33" t="n">
         <v>9.5</v>
@@ -4480,7 +4480,7 @@
         <v>34</v>
       </c>
       <c r="X33" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y33" t="n">
         <v>34</v>
@@ -4501,19 +4501,19 @@
         <v>251</v>
       </c>
       <c r="AE33" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF33" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG33" t="n">
         <v>9</v>
       </c>
       <c r="AH33" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI33" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ33" t="n">
         <v>29</v>
@@ -4584,7 +4584,7 @@
         <v>4.33</v>
       </c>
       <c r="R34" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="S34" t="n">
         <v>2</v>
@@ -4706,7 +4706,7 @@
         <v>3.4</v>
       </c>
       <c r="R35" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="S35" t="n">
         <v>2.25</v>
@@ -4828,10 +4828,10 @@
         <v>2.63</v>
       </c>
       <c r="R36" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="S36" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="T36" t="n">
         <v>6.5</v>
@@ -4938,10 +4938,10 @@
         <v>3.4</v>
       </c>
       <c r="N37" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="O37" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="P37" t="n">
         <v>1.44</v>
@@ -4953,7 +4953,7 @@
         <v>2</v>
       </c>
       <c r="S37" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="T37" t="n">
         <v>6</v>
@@ -5039,19 +5039,19 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="H38" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I38" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="J38" t="n">
         <v>1.04</v>
       </c>
       <c r="K38" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L38" t="n">
         <v>1.25</v>
@@ -5060,10 +5060,10 @@
         <v>4</v>
       </c>
       <c r="N38" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O38" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="P38" t="n">
         <v>1.36</v>
@@ -5072,10 +5072,10 @@
         <v>3</v>
       </c>
       <c r="R38" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="S38" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="T38" t="n">
         <v>7</v>
@@ -5093,7 +5093,7 @@
         <v>12</v>
       </c>
       <c r="Y38" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z38" t="n">
         <v>12</v>
@@ -5105,7 +5105,7 @@
         <v>21</v>
       </c>
       <c r="AC38" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD38" t="n">
         <v>351</v>
@@ -5170,10 +5170,10 @@
         <v>4.75</v>
       </c>
       <c r="J39" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K39" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L39" t="n">
         <v>1.36</v>
@@ -5197,7 +5197,7 @@
         <v>2</v>
       </c>
       <c r="S39" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="T39" t="n">
         <v>6</v>
@@ -5283,13 +5283,13 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H40" t="n">
         <v>3.4</v>
       </c>
       <c r="I40" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="J40" t="n">
         <v>1.07</v>
@@ -5316,10 +5316,10 @@
         <v>2.5</v>
       </c>
       <c r="R40" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S40" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="T40" t="n">
         <v>6</v>
@@ -5355,16 +5355,16 @@
         <v>351</v>
       </c>
       <c r="AE40" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF40" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG40" t="n">
         <v>15</v>
       </c>
       <c r="AH40" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI40" t="n">
         <v>41</v>
@@ -5405,7 +5405,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="H41" t="n">
         <v>3.7</v>
@@ -5414,10 +5414,10 @@
         <v>6</v>
       </c>
       <c r="J41" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K41" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L41" t="n">
         <v>1.3</v>
@@ -5426,10 +5426,10 @@
         <v>3.4</v>
       </c>
       <c r="N41" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O41" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="P41" t="n">
         <v>1.44</v>
@@ -5441,7 +5441,7 @@
         <v>2</v>
       </c>
       <c r="S41" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="T41" t="n">
         <v>6.5</v>
@@ -5468,7 +5468,7 @@
         <v>7</v>
       </c>
       <c r="AB41" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC41" t="n">
         <v>51</v>
@@ -5486,7 +5486,7 @@
         <v>19</v>
       </c>
       <c r="AH41" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI41" t="n">
         <v>41</v>
@@ -5652,10 +5652,10 @@
         <v>10</v>
       </c>
       <c r="H43" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I43" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="J43" t="n">
         <v>1.04</v>
@@ -5664,43 +5664,43 @@
         <v>13</v>
       </c>
       <c r="L43" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M43" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N43" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="O43" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="P43" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q43" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R43" t="n">
         <v>2.2</v>
       </c>
       <c r="S43" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="T43" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="U43" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="V43" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="W43" t="n">
         <v>126</v>
       </c>
       <c r="X43" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="Y43" t="n">
         <v>67</v>
@@ -5709,7 +5709,7 @@
         <v>11</v>
       </c>
       <c r="AA43" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB43" t="n">
         <v>23</v>
@@ -5721,13 +5721,13 @@
         <v>1250</v>
       </c>
       <c r="AE43" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF43" t="n">
         <v>6</v>
       </c>
       <c r="AG43" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH43" t="n">
         <v>8</v>
@@ -5736,7 +5736,7 @@
         <v>12</v>
       </c>
       <c r="AJ43" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44">
@@ -5893,13 +5893,13 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="H45" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I45" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="J45" t="n">
         <v>1.04</v>
@@ -5914,10 +5914,10 @@
         <v>4</v>
       </c>
       <c r="N45" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="O45" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="P45" t="n">
         <v>1.33</v>
@@ -5929,7 +5929,7 @@
         <v>2</v>
       </c>
       <c r="S45" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="T45" t="n">
         <v>7</v>
@@ -5962,7 +5962,7 @@
         <v>67</v>
       </c>
       <c r="AD45" t="n">
-        <v>1250</v>
+        <v>351</v>
       </c>
       <c r="AE45" t="n">
         <v>21</v>
@@ -5980,7 +5980,7 @@
         <v>67</v>
       </c>
       <c r="AJ45" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46">
@@ -6051,7 +6051,7 @@
         <v>2.25</v>
       </c>
       <c r="S46" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="T46" t="n">
         <v>5</v>
@@ -6137,13 +6137,13 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H47" t="n">
         <v>3.3</v>
       </c>
       <c r="I47" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="J47" t="n">
         <v>1.08</v>
@@ -6170,10 +6170,10 @@
         <v>2.5</v>
       </c>
       <c r="R47" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S47" t="n">
-        <v>1.69</v>
+        <v>1.8</v>
       </c>
       <c r="T47" t="n">
         <v>6.5</v>
@@ -6182,10 +6182,10 @@
         <v>9</v>
       </c>
       <c r="V47" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W47" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X47" t="n">
         <v>19</v>
@@ -6203,7 +6203,7 @@
         <v>17</v>
       </c>
       <c r="AC47" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD47" t="n">
         <v>301</v>
@@ -6259,13 +6259,13 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="H48" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I48" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="J48" t="n">
         <v>1.1</v>
@@ -6301,13 +6301,13 @@
         <v>5</v>
       </c>
       <c r="U48" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="V48" t="n">
         <v>9.5</v>
       </c>
       <c r="W48" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X48" t="n">
         <v>19</v>
@@ -6325,16 +6325,16 @@
         <v>23</v>
       </c>
       <c r="AC48" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AD48" t="n">
         <v>101</v>
       </c>
       <c r="AE48" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF48" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG48" t="n">
         <v>17</v>
@@ -6381,37 +6381,37 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="H49" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I49" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J49" t="n">
         <v>1.06</v>
       </c>
       <c r="K49" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L49" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M49" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N49" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O49" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="P49" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R49" t="n">
         <v>1.87</v>
@@ -6438,7 +6438,7 @@
         <v>29</v>
       </c>
       <c r="Z49" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA49" t="n">
         <v>7</v>
@@ -6453,7 +6453,7 @@
         <v>351</v>
       </c>
       <c r="AE49" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF49" t="n">
         <v>23</v>
@@ -6509,13 +6509,13 @@
         <v>3.5</v>
       </c>
       <c r="I50" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="J50" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K50" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L50" t="n">
         <v>1.33</v>
@@ -6524,10 +6524,10 @@
         <v>3.25</v>
       </c>
       <c r="N50" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="O50" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="P50" t="n">
         <v>1.44</v>
@@ -6625,7 +6625,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="H51" t="n">
         <v>3.4</v>
@@ -6634,16 +6634,16 @@
         <v>4.75</v>
       </c>
       <c r="J51" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K51" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L51" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M51" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N51" t="n">
         <v>2.05</v>
@@ -6991,13 +6991,13 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H54" t="n">
         <v>3.3</v>
       </c>
       <c r="I54" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="J54" t="n">
         <v>1.07</v>
@@ -7024,10 +7024,10 @@
         <v>2.5</v>
       </c>
       <c r="R54" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="S54" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="T54" t="n">
         <v>8</v>
@@ -7042,7 +7042,7 @@
         <v>29</v>
       </c>
       <c r="X54" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y54" t="n">
         <v>34</v>
@@ -7063,7 +7063,7 @@
         <v>351</v>
       </c>
       <c r="AE54" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF54" t="n">
         <v>11</v>
@@ -7125,7 +7125,7 @@
         <v>1.07</v>
       </c>
       <c r="K55" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L55" t="n">
         <v>1.36</v>
@@ -7146,10 +7146,10 @@
         <v>2.63</v>
       </c>
       <c r="R55" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="S55" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="T55" t="n">
         <v>6.5</v>
@@ -7247,7 +7247,7 @@
         <v>1.06</v>
       </c>
       <c r="K56" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L56" t="n">
         <v>1.33</v>
@@ -12083,13 +12083,13 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.9</v>
+        <v>2.67</v>
       </c>
       <c r="H96" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I96" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
@@ -12100,69 +12100,69 @@
         <v>4.2</v>
       </c>
       <c r="N96" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="O96" t="n">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="P96" t="inlineStr"/>
       <c r="Q96" t="inlineStr"/>
       <c r="R96" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="S96" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="T96" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U96" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="V96" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="W96" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="X96" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y96" t="n">
         <v>18.5</v>
       </c>
-      <c r="Y96" t="n">
-        <v>20</v>
-      </c>
       <c r="Z96" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA96" t="n">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="AB96" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AC96" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AD96" t="n">
         <v>175</v>
       </c>
       <c r="AE96" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AF96" t="n">
         <v>10.75</v>
       </c>
       <c r="AG96" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AH96" t="n">
         <v>19</v>
       </c>
       <c r="AI96" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AJ96" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="97">
@@ -12807,64 +12807,64 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H102" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I102" t="n">
         <v>2.25</v>
       </c>
       <c r="J102" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K102" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L102" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M102" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N102" t="n">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="O102" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="P102" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R102" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S102" t="n">
         <v>2</v>
       </c>
-      <c r="P102" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q102" t="n">
-        <v>3</v>
-      </c>
-      <c r="R102" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="S102" t="n">
-        <v>2.1</v>
-      </c>
       <c r="T102" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U102" t="n">
         <v>17</v>
       </c>
       <c r="V102" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W102" t="n">
         <v>34</v>
       </c>
       <c r="X102" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y102" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z102" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA102" t="n">
         <v>6.5</v>
@@ -12876,13 +12876,13 @@
         <v>41</v>
       </c>
       <c r="AD102" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE102" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF102" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG102" t="n">
         <v>9</v>
@@ -12891,7 +12891,7 @@
         <v>21</v>
       </c>
       <c r="AI102" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ102" t="n">
         <v>26</v>
@@ -13087,7 +13087,7 @@
         <v>2</v>
       </c>
       <c r="S104" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="T104" t="n">
         <v>8</v>
@@ -13209,7 +13209,7 @@
         <v>2.1</v>
       </c>
       <c r="S105" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="T105" t="n">
         <v>6</v>
@@ -14656,7 +14656,7 @@
         <v>3.5</v>
       </c>
       <c r="R117" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="S117" t="n">
         <v>2.2</v>
@@ -14745,40 +14745,40 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="H118" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="I118" t="n">
-        <v>3.9</v>
+        <v>4.33</v>
       </c>
       <c r="J118" t="n">
         <v>1.03</v>
       </c>
       <c r="K118" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L118" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M118" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N118" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="O118" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="P118" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q118" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R118" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="S118" t="n">
         <v>2.25</v>
@@ -14787,7 +14787,7 @@
         <v>9.5</v>
       </c>
       <c r="U118" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V118" t="n">
         <v>8.5</v>
@@ -14796,16 +14796,16 @@
         <v>15</v>
       </c>
       <c r="X118" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y118" t="n">
         <v>21</v>
       </c>
       <c r="Z118" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA118" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB118" t="n">
         <v>13</v>
@@ -14814,25 +14814,25 @@
         <v>41</v>
       </c>
       <c r="AD118" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE118" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF118" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG118" t="n">
         <v>15</v>
       </c>
-      <c r="AF118" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG118" t="n">
-        <v>13</v>
-      </c>
       <c r="AH118" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI118" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ118" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="119">
@@ -14997,7 +14997,7 @@
         <v>1.02</v>
       </c>
       <c r="K120" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L120" t="n">
         <v>1.13</v>
@@ -15018,10 +15018,10 @@
         <v>3.75</v>
       </c>
       <c r="R120" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S120" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T120" t="n">
         <v>9.5</v>
@@ -15122,16 +15122,16 @@
         <v>11</v>
       </c>
       <c r="L121" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M121" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N121" t="n">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="O121" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="P121" t="n">
         <v>1.44</v>
@@ -15140,10 +15140,10 @@
         <v>2.63</v>
       </c>
       <c r="R121" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S121" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T121" t="n">
         <v>6.5</v>
@@ -15229,19 +15229,19 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="H122" t="n">
         <v>3</v>
       </c>
       <c r="I122" t="n">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="J122" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K122" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L122" t="n">
         <v>1.44</v>
@@ -15265,28 +15265,28 @@
         <v>2</v>
       </c>
       <c r="S122" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="T122" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="U122" t="n">
+        <v>13</v>
+      </c>
+      <c r="V122" t="n">
         <v>11</v>
       </c>
-      <c r="V122" t="n">
-        <v>10</v>
-      </c>
       <c r="W122" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="X122" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y122" t="n">
         <v>41</v>
       </c>
       <c r="Z122" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA122" t="n">
         <v>6</v>
@@ -15298,22 +15298,22 @@
         <v>67</v>
       </c>
       <c r="AD122" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="AE122" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF122" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AG122" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH122" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AI122" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AJ122" t="n">
         <v>41</v>
@@ -15839,7 +15839,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="H127" t="n">
         <v>3.5</v>
@@ -15860,10 +15860,10 @@
         <v>3.25</v>
       </c>
       <c r="N127" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="O127" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="P127" t="n">
         <v>1.44</v>
@@ -15884,10 +15884,10 @@
         <v>8.5</v>
       </c>
       <c r="V127" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W127" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X127" t="n">
         <v>17</v>
@@ -15896,7 +15896,7 @@
         <v>29</v>
       </c>
       <c r="Z127" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA127" t="n">
         <v>6.5</v>
@@ -15908,7 +15908,7 @@
         <v>51</v>
       </c>
       <c r="AD127" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE127" t="n">
         <v>10</v>
@@ -15961,13 +15961,13 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="H128" t="n">
         <v>3</v>
       </c>
       <c r="I128" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="J128" t="n">
         <v>1.1</v>
@@ -16000,19 +16000,19 @@
         <v>1.75</v>
       </c>
       <c r="T128" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U128" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V128" t="n">
         <v>9.5</v>
       </c>
       <c r="W128" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X128" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y128" t="n">
         <v>34</v>
@@ -16021,25 +16021,25 @@
         <v>7</v>
       </c>
       <c r="AA128" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB128" t="n">
         <v>17</v>
       </c>
       <c r="AC128" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD128" t="n">
         <v>451</v>
       </c>
       <c r="AE128" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF128" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG128" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH128" t="n">
         <v>41</v>
@@ -16205,37 +16205,37 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="H130" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="I130" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="J130" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K130" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="L130" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M130" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="N130" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O130" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="P130" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="Q130" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="R130" t="n">
         <v>2.3</v>
@@ -16247,49 +16247,49 @@
         <v>5.3</v>
       </c>
       <c r="U130" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="V130" t="n">
         <v>8.75</v>
       </c>
       <c r="W130" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X130" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Y130" t="n">
         <v>40</v>
       </c>
       <c r="Z130" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AA130" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AB130" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC130" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AD130" t="n">
         <v>101</v>
       </c>
       <c r="AE130" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AF130" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AG130" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH130" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AI130" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AJ130" t="n">
         <v>100</v>
@@ -16327,13 +16327,13 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>2.2</v>
+        <v>2.32</v>
       </c>
       <c r="H131" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="I131" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="J131" t="n">
         <v>1.14</v>
@@ -16345,19 +16345,19 @@
         <v>1.62</v>
       </c>
       <c r="M131" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="N131" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="O131" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="P131" t="n">
         <v>1.62</v>
       </c>
       <c r="Q131" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="R131" t="n">
         <v>2.27</v>
@@ -16366,22 +16366,22 @@
         <v>1.57</v>
       </c>
       <c r="T131" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="U131" t="n">
-        <v>9</v>
+        <v>9.75</v>
       </c>
       <c r="V131" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="W131" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="X131" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Y131" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="Z131" t="n">
         <v>4.9</v>
@@ -16399,22 +16399,22 @@
         <v>1000</v>
       </c>
       <c r="AE131" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="AF131" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG131" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH131" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AI131" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ131" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="132">
@@ -16488,10 +16488,10 @@
         <v>1.78</v>
       </c>
       <c r="T132" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="U132" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="V132" t="n">
         <v>9.75</v>
@@ -16500,10 +16500,10 @@
         <v>27</v>
       </c>
       <c r="X132" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y132" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Z132" t="n">
         <v>5.9</v>
@@ -16521,22 +16521,22 @@
         <v>900</v>
       </c>
       <c r="AE132" t="n">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="AF132" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AG132" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AH132" t="n">
         <v>35</v>
       </c>
       <c r="AI132" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AJ132" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="133">
@@ -16815,91 +16815,91 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="H135" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="I135" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="J135" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K135" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="L135" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="M135" t="n">
-        <v>2.42</v>
+        <v>2.55</v>
       </c>
       <c r="N135" t="n">
-        <v>2.42</v>
+        <v>2.32</v>
       </c>
       <c r="O135" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="P135" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="Q135" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="R135" t="n">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="S135" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="T135" t="n">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="U135" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="V135" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="W135" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="X135" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Y135" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="Z135" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="AA135" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AB135" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AC135" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AD135" t="n">
-        <v>101</v>
+        <v>900</v>
       </c>
       <c r="AE135" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AF135" t="n">
         <v>14</v>
       </c>
       <c r="AG135" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AH135" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AI135" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ135" t="n">
         <v>45</v>
@@ -16937,94 +16937,94 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.6</v>
+        <v>1.93</v>
       </c>
       <c r="H136" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="I136" t="n">
-        <v>4.55</v>
+        <v>3.35</v>
       </c>
       <c r="J136" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K136" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L136" t="n">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="M136" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="N136" t="n">
-        <v>1.72</v>
+        <v>1.85</v>
       </c>
       <c r="O136" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="P136" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="Q136" t="n">
-        <v>2.92</v>
+        <v>2.77</v>
       </c>
       <c r="R136" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="S136" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="T136" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="U136" t="n">
-        <v>7.8</v>
+        <v>9.25</v>
       </c>
       <c r="V136" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="W136" t="n">
-        <v>12</v>
+        <v>16.5</v>
       </c>
       <c r="X136" t="n">
-        <v>12.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y136" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Z136" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA136" t="n">
-        <v>7.7</v>
+        <v>6.9</v>
       </c>
       <c r="AB136" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AC136" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AD136" t="n">
         <v>500</v>
       </c>
       <c r="AE136" t="n">
-        <v>14</v>
+        <v>10.5</v>
       </c>
       <c r="AF136" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="AG136" t="n">
-        <v>15.5</v>
+        <v>12</v>
       </c>
       <c r="AH136" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="AI136" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="AJ136" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="137">
@@ -19355,31 +19355,31 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H156" t="n">
         <v>3.3</v>
       </c>
       <c r="I156" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J156" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K156" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L156" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M156" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N156" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="O156" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="P156" t="n">
         <v>1.4</v>
@@ -19388,10 +19388,10 @@
         <v>2.75</v>
       </c>
       <c r="R156" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="S156" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T156" t="n">
         <v>8</v>
@@ -19400,7 +19400,7 @@
         <v>11</v>
       </c>
       <c r="V156" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W156" t="n">
         <v>21</v>
@@ -19412,7 +19412,7 @@
         <v>29</v>
       </c>
       <c r="Z156" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA156" t="n">
         <v>6.5</v>
@@ -19424,16 +19424,16 @@
         <v>51</v>
       </c>
       <c r="AD156" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE156" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF156" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG156" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH156" t="n">
         <v>34</v>
@@ -19477,13 +19477,13 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>2.63</v>
+        <v>2.45</v>
       </c>
       <c r="H157" t="n">
         <v>3.5</v>
       </c>
       <c r="I157" t="n">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="J157" t="n">
         <v>1.04</v>
@@ -19498,10 +19498,10 @@
         <v>3.75</v>
       </c>
       <c r="N157" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="O157" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="P157" t="n">
         <v>1.36</v>
@@ -19510,25 +19510,25 @@
         <v>3</v>
       </c>
       <c r="R157" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="S157" t="n">
         <v>2.1</v>
       </c>
       <c r="T157" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U157" t="n">
         <v>13</v>
       </c>
       <c r="V157" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W157" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X157" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y157" t="n">
         <v>26</v>
@@ -19549,22 +19549,22 @@
         <v>151</v>
       </c>
       <c r="AE157" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF157" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG157" t="n">
         <v>10</v>
       </c>
       <c r="AH157" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI157" t="n">
         <v>21</v>
       </c>
       <c r="AJ157" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="158">
@@ -19632,7 +19632,7 @@
         <v>3</v>
       </c>
       <c r="R158" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S158" t="n">
         <v>2.05</v>
@@ -19754,10 +19754,10 @@
         <v>2.75</v>
       </c>
       <c r="R159" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="S159" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="T159" t="n">
         <v>7.5</v>
@@ -19843,77 +19843,77 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="H160" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="I160" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="M160" t="n">
         <v>3.25</v>
       </c>
       <c r="N160" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="O160" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="P160" t="inlineStr"/>
       <c r="Q160" t="inlineStr"/>
       <c r="R160" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="S160" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="T160" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="U160" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="V160" t="n">
         <v>8</v>
       </c>
       <c r="W160" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="X160" t="n">
         <v>13.5</v>
       </c>
-      <c r="X160" t="n">
+      <c r="Y160" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z160" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AA160" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AB160" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC160" t="n">
+        <v>60</v>
+      </c>
+      <c r="AD160" t="n">
+        <v>400</v>
+      </c>
+      <c r="AE160" t="n">
         <v>13</v>
-      </c>
-      <c r="Y160" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z160" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AA160" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AB160" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC160" t="n">
-        <v>65</v>
-      </c>
-      <c r="AD160" t="n">
-        <v>450</v>
-      </c>
-      <c r="AE160" t="n">
-        <v>13.5</v>
       </c>
       <c r="AF160" t="n">
         <v>26</v>
       </c>
       <c r="AG160" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH160" t="n">
         <v>75</v>
@@ -19960,53 +19960,57 @@
         <v>1.65</v>
       </c>
       <c r="H161" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I161" t="n">
-        <v>4.9</v>
+        <v>4.85</v>
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="M161" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="N161" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="O161" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="P161" t="inlineStr"/>
-      <c r="Q161" t="inlineStr"/>
+        <v>1.93</v>
+      </c>
+      <c r="P161" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Q161" t="n">
+        <v>2.57</v>
+      </c>
       <c r="R161" t="n">
         <v>1.7</v>
       </c>
       <c r="S161" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="T161" t="n">
-        <v>7.1</v>
+        <v>7.5</v>
       </c>
       <c r="U161" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="V161" t="n">
         <v>7.9</v>
       </c>
-      <c r="V161" t="n">
-        <v>8</v>
-      </c>
       <c r="W161" t="n">
+        <v>13</v>
+      </c>
+      <c r="X161" t="n">
         <v>12.5</v>
       </c>
-      <c r="X161" t="n">
-        <v>13</v>
-      </c>
       <c r="Y161" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Z161" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AA161" t="n">
         <v>7.2</v>
@@ -20024,7 +20028,7 @@
         <v>15</v>
       </c>
       <c r="AF161" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AG161" t="n">
         <v>15.5</v>
@@ -20307,13 +20311,13 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="H164" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I164" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J164" t="n">
         <v>1.05</v>
@@ -20340,10 +20344,10 @@
         <v>2.75</v>
       </c>
       <c r="R164" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="S164" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="T164" t="n">
         <v>6.5</v>
@@ -20355,10 +20359,10 @@
         <v>8.5</v>
       </c>
       <c r="W164" t="n">
+        <v>12</v>
+      </c>
+      <c r="X164" t="n">
         <v>13</v>
-      </c>
-      <c r="X164" t="n">
-        <v>15</v>
       </c>
       <c r="Y164" t="n">
         <v>29</v>
@@ -20376,13 +20380,13 @@
         <v>51</v>
       </c>
       <c r="AD164" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE164" t="n">
         <v>13</v>
       </c>
       <c r="AF164" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG164" t="n">
         <v>17</v>
@@ -21264,7 +21268,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>18:15</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -21304,10 +21308,10 @@
         <v>2.57</v>
       </c>
       <c r="N172" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="O172" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P172" t="n">
         <v>1.5</v>
@@ -21441,7 +21445,7 @@
         <v>2</v>
       </c>
       <c r="S173" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="T173" t="n">
         <v>6.5</v>
@@ -21527,13 +21531,13 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="H174" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I174" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J174" t="n">
         <v>1.05</v>
@@ -21569,19 +21573,19 @@
         <v>6.5</v>
       </c>
       <c r="U174" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="V174" t="n">
         <v>8.5</v>
       </c>
       <c r="W174" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X174" t="n">
         <v>13</v>
       </c>
       <c r="Y174" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z174" t="n">
         <v>10</v>
@@ -21608,13 +21612,13 @@
         <v>19</v>
       </c>
       <c r="AH174" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI174" t="n">
         <v>41</v>
       </c>
       <c r="AJ174" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="175">
@@ -21682,7 +21686,7 @@
         <v>3.25</v>
       </c>
       <c r="R175" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="S175" t="n">
         <v>2</v>
@@ -21771,13 +21775,13 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="H176" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I176" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="J176" t="n">
         <v>1.08</v>
@@ -21807,25 +21811,25 @@
         <v>2</v>
       </c>
       <c r="S176" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="T176" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U176" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V176" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W176" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="X176" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y176" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z176" t="n">
         <v>7.5</v>
@@ -21834,28 +21838,28 @@
         <v>6.5</v>
       </c>
       <c r="AB176" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC176" t="n">
         <v>67</v>
       </c>
       <c r="AD176" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="AE176" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF176" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG176" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH176" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI176" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ176" t="n">
         <v>41</v>
@@ -22015,13 +22019,13 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H178" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I178" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J178" t="n">
         <v>1.03</v>
@@ -22078,7 +22082,7 @@
         <v>7.5</v>
       </c>
       <c r="AB178" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC178" t="n">
         <v>41</v>
@@ -22137,13 +22141,13 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="H179" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I179" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J179" t="n">
         <v>1.06</v>
@@ -22152,79 +22156,79 @@
         <v>10</v>
       </c>
       <c r="L179" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="M179" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N179" t="n">
-        <v>2.1</v>
+        <v>2.03</v>
       </c>
       <c r="O179" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="P179" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q179" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R179" t="n">
-        <v>2.1</v>
+        <v>1.92</v>
       </c>
       <c r="S179" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="T179" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U179" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="V179" t="n">
         <v>8.5</v>
       </c>
       <c r="W179" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X179" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y179" t="n">
         <v>29</v>
       </c>
       <c r="Z179" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA179" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB179" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC179" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD179" t="n">
-        <v>501</v>
+        <v>401</v>
       </c>
       <c r="AE179" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF179" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG179" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH179" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI179" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ179" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="180">
@@ -22396,16 +22400,16 @@
         <v>9</v>
       </c>
       <c r="L181" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M181" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N181" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O181" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P181" t="n">
         <v>1.44</v>
@@ -22503,13 +22507,13 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="H182" t="n">
         <v>3.6</v>
       </c>
       <c r="I182" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="J182" t="n">
         <v>1.05</v>
@@ -22524,10 +22528,10 @@
         <v>3.5</v>
       </c>
       <c r="N182" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="O182" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="P182" t="n">
         <v>1.4</v>
@@ -22542,22 +22546,22 @@
         <v>1.8</v>
       </c>
       <c r="T182" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="U182" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="V182" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="W182" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="X182" t="n">
         <v>41</v>
       </c>
       <c r="Y182" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Z182" t="n">
         <v>10</v>
@@ -22572,19 +22576,19 @@
         <v>51</v>
       </c>
       <c r="AD182" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE182" t="n">
         <v>6.5</v>
       </c>
       <c r="AF182" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AG182" t="n">
         <v>8.5</v>
       </c>
       <c r="AH182" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI182" t="n">
         <v>13</v>
@@ -22625,13 +22629,13 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H183" t="n">
         <v>3.1</v>
       </c>
       <c r="I183" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="J183" t="n">
         <v>1.07</v>
@@ -22646,10 +22650,10 @@
         <v>3</v>
       </c>
       <c r="N183" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O183" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P183" t="n">
         <v>1.44</v>
@@ -22664,7 +22668,7 @@
         <v>1.91</v>
       </c>
       <c r="T183" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U183" t="n">
         <v>13</v>
@@ -22673,7 +22677,7 @@
         <v>11</v>
       </c>
       <c r="W183" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X183" t="n">
         <v>23</v>
@@ -22682,7 +22686,7 @@
         <v>34</v>
       </c>
       <c r="Z183" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA183" t="n">
         <v>6</v>
@@ -22700,16 +22704,16 @@
         <v>8</v>
       </c>
       <c r="AF183" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG183" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH183" t="n">
         <v>26</v>
       </c>
       <c r="AI183" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ183" t="n">
         <v>34</v>
@@ -22747,7 +22751,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H184" t="n">
         <v>3.1</v>
@@ -22771,7 +22775,7 @@
         <v>2.7</v>
       </c>
       <c r="O184" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P184" t="n">
         <v>1.62</v>
@@ -22780,10 +22784,10 @@
         <v>2.2</v>
       </c>
       <c r="R184" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="S184" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T184" t="n">
         <v>5</v>
@@ -22795,7 +22799,7 @@
         <v>9.5</v>
       </c>
       <c r="W184" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X184" t="n">
         <v>21</v>
@@ -22807,7 +22811,7 @@
         <v>6</v>
       </c>
       <c r="AA184" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB184" t="n">
         <v>21</v>
@@ -22817,7 +22821,7 @@
       </c>
       <c r="AD184" t="inlineStr"/>
       <c r="AE184" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF184" t="n">
         <v>21</v>
@@ -23245,13 +23249,13 @@
         <v>1.07</v>
       </c>
       <c r="K188" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L188" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M188" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N188" t="n">
         <v>2.1</v>
@@ -23477,13 +23481,13 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="H190" t="n">
         <v>3.6</v>
       </c>
       <c r="I190" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J190" t="n">
         <v>1.07</v>
@@ -23510,37 +23514,37 @@
         <v>2.5</v>
       </c>
       <c r="R190" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S190" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T190" t="n">
         <v>5.5</v>
       </c>
       <c r="U190" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="V190" t="n">
         <v>9</v>
       </c>
       <c r="W190" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X190" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y190" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z190" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA190" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB190" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC190" t="n">
         <v>81</v>
@@ -23555,13 +23559,13 @@
         <v>26</v>
       </c>
       <c r="AG190" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH190" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI190" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ190" t="n">
         <v>51</v>
@@ -23843,13 +23847,13 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="H193" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I193" t="n">
         <v>3.7</v>
-      </c>
-      <c r="I193" t="n">
-        <v>3.75</v>
       </c>
       <c r="J193" t="n">
         <v>1.02</v>
@@ -23864,10 +23868,10 @@
         <v>6</v>
       </c>
       <c r="N193" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="O193" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="P193" t="n">
         <v>1.22</v>
@@ -23891,7 +23895,7 @@
         <v>9.5</v>
       </c>
       <c r="W193" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X193" t="n">
         <v>13</v>
@@ -23906,13 +23910,13 @@
         <v>8</v>
       </c>
       <c r="AB193" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC193" t="n">
         <v>26</v>
       </c>
       <c r="AD193" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AE193" t="n">
         <v>21</v>
@@ -25087,7 +25091,7 @@
         <v>2.32</v>
       </c>
       <c r="O203" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="P203" t="n">
         <v>1.53</v>
@@ -25551,94 +25555,94 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>3</v>
+        <v>3.35</v>
       </c>
       <c r="H207" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="I207" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="J207" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K207" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="L207" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="M207" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="N207" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="O207" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="P207" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="Q207" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="R207" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S207" t="n">
-        <v>2.27</v>
+        <v>2.22</v>
       </c>
       <c r="T207" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="U207" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="V207" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W207" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="X207" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="Y207" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Z207" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AA207" t="n">
-        <v>7.1</v>
+        <v>7.6</v>
       </c>
       <c r="AB207" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC207" t="n">
         <v>50</v>
       </c>
       <c r="AD207" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AE207" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AF207" t="n">
-        <v>13</v>
+        <v>11.75</v>
       </c>
       <c r="AG207" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AH207" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AI207" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AJ207" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="208">
@@ -25673,94 +25677,94 @@
         </is>
       </c>
       <c r="G208" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H208" t="n">
+        <v>3</v>
+      </c>
+      <c r="I208" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="J208" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="K208" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="L208" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M208" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="N208" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="O208" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P208" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Q208" t="n">
         <v>2.55</v>
       </c>
-      <c r="H208" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I208" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="J208" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="K208" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="L208" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M208" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="N208" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="O208" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="P208" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="Q208" t="n">
-        <v>2.67</v>
-      </c>
       <c r="R208" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S208" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="T208" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="U208" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="V208" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="W208" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="X208" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y208" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Z208" t="n">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="AA208" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="AB208" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC208" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AD208" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AE208" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF208" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG208" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AH208" t="n">
         <v>32</v>
       </c>
       <c r="AI208" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AJ208" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="209">
@@ -25795,13 +25799,13 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="H209" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I209" t="n">
-        <v>4.55</v>
+        <v>4.75</v>
       </c>
       <c r="J209" t="n">
         <v>1.06</v>
@@ -25819,22 +25823,22 @@
         <v>1.8</v>
       </c>
       <c r="O209" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="P209" t="n">
         <v>1.4</v>
       </c>
       <c r="Q209" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="R209" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="S209" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="T209" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="U209" t="n">
         <v>8.25</v>
@@ -25843,7 +25847,7 @@
         <v>8</v>
       </c>
       <c r="W209" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="X209" t="n">
         <v>13</v>
@@ -25855,13 +25859,13 @@
         <v>7.5</v>
       </c>
       <c r="AA209" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AB209" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC209" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AD209" t="n">
         <v>500</v>
@@ -25870,10 +25874,10 @@
         <v>13</v>
       </c>
       <c r="AF209" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG209" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AH209" t="n">
         <v>80</v>
@@ -25882,7 +25886,7 @@
         <v>45</v>
       </c>
       <c r="AJ209" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="210">
@@ -26893,49 +26897,49 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H218" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I218" t="n">
         <v>1.95</v>
       </c>
       <c r="J218" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K218" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L218" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M218" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="N218" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="O218" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="P218" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="Q218" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="R218" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="S218" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="T218" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U218" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="V218" t="n">
         <v>15</v>
@@ -26947,16 +26951,16 @@
         <v>41</v>
       </c>
       <c r="Y218" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="Z218" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA218" t="n">
         <v>6.5</v>
       </c>
-      <c r="AA218" t="n">
-        <v>6</v>
-      </c>
       <c r="AB218" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC218" t="n">
         <v>67</v>
@@ -26965,22 +26969,22 @@
         <v>101</v>
       </c>
       <c r="AE218" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AF218" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AG218" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH218" t="n">
         <v>17</v>
       </c>
       <c r="AI218" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ218" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="219">
@@ -27015,13 +27019,13 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>2.35</v>
+        <v>2.55</v>
       </c>
       <c r="H219" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I219" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="J219" t="n">
         <v>1.05</v>
@@ -27036,10 +27040,10 @@
         <v>3.5</v>
       </c>
       <c r="N219" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="O219" t="n">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
       <c r="P219" t="n">
         <v>1.4</v>
@@ -27054,28 +27058,28 @@
         <v>2</v>
       </c>
       <c r="T219" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U219" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V219" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W219" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X219" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y219" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z219" t="n">
         <v>10</v>
       </c>
       <c r="AA219" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB219" t="n">
         <v>13</v>
@@ -27087,10 +27091,10 @@
         <v>201</v>
       </c>
       <c r="AE219" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF219" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG219" t="n">
         <v>11</v>
@@ -27099,7 +27103,7 @@
         <v>29</v>
       </c>
       <c r="AI219" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ219" t="n">
         <v>29</v>
@@ -27137,82 +27141,82 @@
         </is>
       </c>
       <c r="G220" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H220" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I220" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J220" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K220" t="n">
+        <v>8</v>
+      </c>
+      <c r="L220" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M220" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="N220" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="O220" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P220" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q220" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R220" t="n">
         <v>2</v>
       </c>
-      <c r="H220" t="n">
-        <v>3</v>
-      </c>
-      <c r="I220" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J220" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="K220" t="n">
-        <v>7</v>
-      </c>
-      <c r="L220" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M220" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="N220" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="O220" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="P220" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Q220" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R220" t="n">
-        <v>2.2</v>
-      </c>
       <c r="S220" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="T220" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="U220" t="n">
         <v>8</v>
       </c>
       <c r="V220" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W220" t="n">
+        <v>15</v>
+      </c>
+      <c r="X220" t="n">
         <v>17</v>
       </c>
-      <c r="X220" t="n">
+      <c r="Y220" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z220" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA220" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB220" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC220" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD220" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AE220" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF220" t="n">
         <v>21</v>
-      </c>
-      <c r="Y220" t="n">
-        <v>41</v>
-      </c>
-      <c r="Z220" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA220" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB220" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC220" t="n">
-        <v>81</v>
-      </c>
-      <c r="AD220" t="n">
-        <v>101</v>
-      </c>
-      <c r="AE220" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF220" t="n">
-        <v>19</v>
       </c>
       <c r="AG220" t="n">
         <v>15</v>
@@ -27224,7 +27228,7 @@
         <v>41</v>
       </c>
       <c r="AJ220" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="221">
@@ -27381,13 +27385,13 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="H222" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="I222" t="n">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="J222" t="n">
         <v>1.11</v>
@@ -27414,25 +27418,25 @@
         <v>2.25</v>
       </c>
       <c r="R222" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S222" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T222" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U222" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="V222" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="W222" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="X222" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="Y222" t="n">
         <v>41</v>
@@ -27441,10 +27445,10 @@
         <v>6</v>
       </c>
       <c r="AA222" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AB222" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC222" t="n">
         <v>67</v>
@@ -27453,22 +27457,22 @@
         <v>800</v>
       </c>
       <c r="AE222" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AF222" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AG222" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AH222" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AI222" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ222" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="223">
@@ -27518,10 +27522,10 @@
         <v>7.5</v>
       </c>
       <c r="L223" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M223" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N223" t="n">
         <v>2.2</v>
@@ -27994,43 +27998,43 @@
         <v>3.5</v>
       </c>
       <c r="H227" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I227" t="n">
         <v>2</v>
       </c>
       <c r="J227" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K227" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L227" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M227" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N227" t="n">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="O227" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="P227" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q227" t="n">
+        <v>3</v>
+      </c>
+      <c r="R227" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S227" t="n">
         <v>2.05</v>
       </c>
-      <c r="P227" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q227" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R227" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S227" t="n">
-        <v>2.1</v>
-      </c>
       <c r="T227" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U227" t="n">
         <v>19</v>
@@ -28045,10 +28049,10 @@
         <v>26</v>
       </c>
       <c r="Y227" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z227" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA227" t="n">
         <v>7</v>
@@ -28060,19 +28064,19 @@
         <v>41</v>
       </c>
       <c r="AD227" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE227" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF227" t="n">
         <v>10</v>
       </c>
       <c r="AG227" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH227" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI227" t="n">
         <v>15</v>
@@ -28113,13 +28117,13 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H228" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I228" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="J228" t="n">
         <v>1.06</v>
@@ -28134,10 +28138,10 @@
         <v>3.5</v>
       </c>
       <c r="N228" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="O228" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="P228" t="n">
         <v>1.4</v>
@@ -28146,22 +28150,22 @@
         <v>2.75</v>
       </c>
       <c r="R228" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="S228" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="T228" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U228" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V228" t="n">
         <v>8.5</v>
       </c>
       <c r="W228" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X228" t="n">
         <v>15</v>
@@ -28173,7 +28177,7 @@
         <v>10</v>
       </c>
       <c r="AA228" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB228" t="n">
         <v>15</v>
@@ -28182,7 +28186,7 @@
         <v>51</v>
       </c>
       <c r="AD228" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE228" t="n">
         <v>12</v>
@@ -28235,19 +28239,19 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="H229" t="n">
         <v>3.75</v>
       </c>
       <c r="I229" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="J229" t="n">
         <v>1.03</v>
       </c>
       <c r="K229" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L229" t="n">
         <v>1.17</v>
@@ -28256,10 +28260,10 @@
         <v>5</v>
       </c>
       <c r="N229" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="O229" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="P229" t="n">
         <v>1.29</v>
@@ -28268,16 +28272,16 @@
         <v>3.5</v>
       </c>
       <c r="R229" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="S229" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T229" t="n">
         <v>17</v>
       </c>
       <c r="U229" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="V229" t="n">
         <v>15</v>
@@ -28289,10 +28293,10 @@
         <v>29</v>
       </c>
       <c r="Y229" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z229" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA229" t="n">
         <v>7.5</v>
@@ -28301,28 +28305,28 @@
         <v>12</v>
       </c>
       <c r="AC229" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD229" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AE229" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF229" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG229" t="n">
         <v>8.5</v>
       </c>
       <c r="AH229" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI229" t="n">
         <v>13</v>
       </c>
       <c r="AJ229" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="230">
@@ -28357,7 +28361,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="H230" t="n">
         <v>4.75</v>
@@ -28369,19 +28373,19 @@
         <v>1.03</v>
       </c>
       <c r="K230" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L230" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M230" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N230" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O230" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="P230" t="n">
         <v>1.29</v>
@@ -28396,7 +28400,7 @@
         <v>1.83</v>
       </c>
       <c r="T230" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U230" t="n">
         <v>7</v>
@@ -28429,16 +28433,16 @@
         <v>251</v>
       </c>
       <c r="AE230" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF230" t="n">
         <v>41</v>
       </c>
       <c r="AG230" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH230" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AI230" t="n">
         <v>51</v>
@@ -28479,94 +28483,94 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="H231" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I231" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="J231" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K231" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="L231" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M231" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="N231" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O231" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="P231" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="Q231" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="R231" t="n">
         <v>1.75</v>
       </c>
       <c r="S231" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="T231" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="U231" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="V231" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="W231" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="X231" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Y231" t="n">
         <v>28</v>
       </c>
       <c r="Z231" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="AA231" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="AB231" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AC231" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AD231" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AE231" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AF231" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG231" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AH231" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AI231" t="n">
         <v>30</v>
       </c>
       <c r="AJ231" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="232">
@@ -29211,28 +29215,28 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="H237" t="n">
         <v>3.1</v>
       </c>
       <c r="I237" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="J237" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K237" t="n">
         <v>9</v>
       </c>
       <c r="L237" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="M237" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N237" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O237" t="n">
         <v>1.67</v>
@@ -29250,16 +29254,16 @@
         <v>1.83</v>
       </c>
       <c r="T237" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U237" t="n">
         <v>13</v>
       </c>
       <c r="V237" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W237" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X237" t="n">
         <v>23</v>
@@ -29268,7 +29272,7 @@
         <v>34</v>
       </c>
       <c r="Z237" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA237" t="n">
         <v>6</v>
@@ -29280,22 +29284,22 @@
         <v>51</v>
       </c>
       <c r="AD237" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE237" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF237" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG237" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH237" t="n">
         <v>26</v>
       </c>
       <c r="AI237" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ237" t="n">
         <v>34</v>
@@ -29569,37 +29573,37 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="H240" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="I240" t="n">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="J240" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K240" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L240" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M240" t="n">
         <v>3</v>
       </c>
       <c r="N240" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O240" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="P240" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q240" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R240" t="n">
         <v>2</v>
@@ -29608,28 +29612,28 @@
         <v>1.73</v>
       </c>
       <c r="T240" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U240" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="V240" t="n">
         <v>9</v>
       </c>
-      <c r="V240" t="n">
-        <v>9.5</v>
-      </c>
       <c r="W240" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="X240" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y240" t="n">
         <v>34</v>
       </c>
       <c r="Z240" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA240" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB240" t="n">
         <v>19</v>
@@ -29638,22 +29642,22 @@
         <v>67</v>
       </c>
       <c r="AD240" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="AE240" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AF240" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AG240" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AH240" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI240" t="n">
         <v>41</v>
-      </c>
-      <c r="AI240" t="n">
-        <v>34</v>
       </c>
       <c r="AJ240" t="n">
         <v>41</v>
@@ -29700,16 +29704,16 @@
         <v>2.25</v>
       </c>
       <c r="J241" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="K241" t="n">
         <v>7</v>
       </c>
       <c r="L241" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="M241" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="N241" t="n">
         <v>2.4</v>
@@ -29813,25 +29817,25 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H242" t="n">
         <v>3.4</v>
       </c>
       <c r="I242" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J242" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="K242" t="n">
         <v>7</v>
       </c>
       <c r="L242" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="M242" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="N242" t="n">
         <v>2.7</v>
@@ -29846,16 +29850,16 @@
         <v>2.2</v>
       </c>
       <c r="R242" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="S242" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T242" t="n">
         <v>5.5</v>
       </c>
       <c r="U242" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V242" t="n">
         <v>10</v>
@@ -29879,7 +29883,7 @@
         <v>23</v>
       </c>
       <c r="AC242" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AD242" t="n">
         <v>101</v>
@@ -29935,28 +29939,28 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H243" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I243" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J243" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K243" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L243" t="n">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="M243" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N243" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O243" t="n">
         <v>2</v>
@@ -29968,13 +29972,13 @@
         <v>3</v>
       </c>
       <c r="R243" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S243" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T243" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U243" t="n">
         <v>11</v>
@@ -29989,10 +29993,10 @@
         <v>17</v>
       </c>
       <c r="Y243" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z243" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA243" t="n">
         <v>6.5</v>
@@ -30004,7 +30008,7 @@
         <v>41</v>
       </c>
       <c r="AD243" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE243" t="n">
         <v>11</v>
@@ -30013,16 +30017,16 @@
         <v>17</v>
       </c>
       <c r="AG243" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH243" t="n">
         <v>34</v>
       </c>
       <c r="AI243" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ243" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="244">
@@ -30185,7 +30189,7 @@
         <v>4.2</v>
       </c>
       <c r="I245" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J245" t="n">
         <v>1.03</v>
@@ -30200,10 +30204,10 @@
         <v>5</v>
       </c>
       <c r="N245" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="O245" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="P245" t="n">
         <v>1.29</v>
@@ -30212,13 +30216,13 @@
         <v>3.5</v>
       </c>
       <c r="R245" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S245" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T245" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U245" t="n">
         <v>9.5</v>
@@ -30233,13 +30237,13 @@
         <v>12</v>
       </c>
       <c r="Y245" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Z245" t="n">
         <v>17</v>
       </c>
       <c r="AA245" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB245" t="n">
         <v>13</v>
@@ -30248,10 +30252,10 @@
         <v>41</v>
       </c>
       <c r="AD245" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE245" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF245" t="n">
         <v>29</v>
@@ -30566,10 +30570,10 @@
         <v>3.75</v>
       </c>
       <c r="N248" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="O248" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="P248" t="n">
         <v>1.36</v>
@@ -30667,13 +30671,13 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H249" t="n">
         <v>3.3</v>
       </c>
       <c r="I249" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J249" t="n">
         <v>1.05</v>
@@ -30706,13 +30710,13 @@
         <v>2.1</v>
       </c>
       <c r="T249" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U249" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V249" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W249" t="n">
         <v>21</v>
@@ -30730,7 +30734,7 @@
         <v>6.5</v>
       </c>
       <c r="AB249" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC249" t="n">
         <v>41</v>
@@ -30789,13 +30793,13 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="H250" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I250" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="J250" t="n">
         <v>1.03</v>
@@ -30804,16 +30808,16 @@
         <v>15</v>
       </c>
       <c r="L250" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="M250" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="N250" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="O250" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="P250" t="n">
         <v>1.33</v>
@@ -30831,7 +30835,7 @@
         <v>9</v>
       </c>
       <c r="U250" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V250" t="n">
         <v>8.5</v>
@@ -30849,7 +30853,7 @@
         <v>13</v>
       </c>
       <c r="AA250" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB250" t="n">
         <v>13</v>
@@ -30867,13 +30871,13 @@
         <v>23</v>
       </c>
       <c r="AG250" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH250" t="n">
         <v>41</v>
       </c>
       <c r="AI250" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ250" t="n">
         <v>34</v>
@@ -30911,13 +30915,13 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H251" t="n">
         <v>3.5</v>
       </c>
       <c r="I251" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J251" t="n">
         <v>1.05</v>
@@ -30953,7 +30957,7 @@
         <v>8.5</v>
       </c>
       <c r="U251" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V251" t="n">
         <v>9.5</v>
@@ -30992,7 +30996,7 @@
         <v>11</v>
       </c>
       <c r="AH251" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI251" t="n">
         <v>23</v>
@@ -31048,16 +31052,16 @@
         <v>13</v>
       </c>
       <c r="L252" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M252" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N252" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="O252" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="P252" t="n">
         <v>1.36</v>
@@ -31277,19 +31281,19 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="H254" t="n">
         <v>3</v>
       </c>
       <c r="I254" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="J254" t="n">
         <v>1.08</v>
       </c>
       <c r="K254" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L254" t="n">
         <v>1.4</v>
@@ -31304,10 +31308,10 @@
         <v>1.57</v>
       </c>
       <c r="P254" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q254" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R254" t="n">
         <v>1.95</v>
@@ -31322,10 +31326,10 @@
         <v>10</v>
       </c>
       <c r="V254" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W254" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X254" t="n">
         <v>21</v>
@@ -31355,10 +31359,10 @@
         <v>15</v>
       </c>
       <c r="AG254" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH254" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI254" t="n">
         <v>29</v>
@@ -31402,49 +31406,49 @@
         <v>1.75</v>
       </c>
       <c r="H255" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I255" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="J255" t="n">
         <v>1.07</v>
       </c>
       <c r="K255" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="L255" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M255" t="n">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="N255" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="O255" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="P255" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Q255" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="R255" t="n">
         <v>1.98</v>
       </c>
-      <c r="O255" t="n">
+      <c r="S255" t="n">
         <v>1.75</v>
       </c>
-      <c r="P255" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q255" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R255" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="S255" t="n">
-        <v>1.8</v>
-      </c>
       <c r="T255" t="n">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="U255" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="V255" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="W255" t="n">
         <v>13.5</v>
@@ -31453,25 +31457,25 @@
         <v>15</v>
       </c>
       <c r="Y255" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z255" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AA255" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AB255" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AC255" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AD255" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AE255" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AF255" t="n">
         <v>23</v>
@@ -31480,13 +31484,13 @@
         <v>14.5</v>
       </c>
       <c r="AH255" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AI255" t="n">
         <v>45</v>
       </c>
       <c r="AJ255" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="256">
@@ -31521,13 +31525,13 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="H256" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I256" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="J256" t="n">
         <v>1.05</v>
@@ -31554,55 +31558,55 @@
         <v>2.9</v>
       </c>
       <c r="R256" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="S256" t="n">
         <v>2.02</v>
       </c>
       <c r="T256" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="U256" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="V256" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="W256" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="X256" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Y256" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Z256" t="n">
         <v>8</v>
       </c>
       <c r="AA256" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AB256" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC256" t="n">
         <v>60</v>
       </c>
       <c r="AD256" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AE256" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AF256" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AG256" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AH256" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI256" t="n">
         <v>14</v>
@@ -31646,10 +31650,10 @@
         <v>1.7</v>
       </c>
       <c r="H257" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I257" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="J257" t="n">
         <v>1.04</v>
@@ -31667,7 +31671,7 @@
         <v>1.7</v>
       </c>
       <c r="O257" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="P257" t="n">
         <v>1.35</v>
@@ -31682,10 +31686,10 @@
         <v>2.05</v>
       </c>
       <c r="T257" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="U257" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="V257" t="n">
         <v>8</v>
@@ -31715,10 +31719,10 @@
         <v>400</v>
       </c>
       <c r="AE257" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AF257" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG257" t="n">
         <v>14</v>
@@ -31893,7 +31897,7 @@
         <v>3.35</v>
       </c>
       <c r="I259" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="J259" t="n">
         <v>1.06</v>
@@ -31935,13 +31939,13 @@
         <v>8.75</v>
       </c>
       <c r="W259" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="X259" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Y259" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Z259" t="n">
         <v>7.5</v>
@@ -31965,7 +31969,7 @@
         <v>17</v>
       </c>
       <c r="AG259" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AH259" t="n">
         <v>40</v>
@@ -31974,7 +31978,7 @@
         <v>27</v>
       </c>
       <c r="AJ259" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="260">
@@ -32009,13 +32013,13 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>2.05</v>
+        <v>2.12</v>
       </c>
       <c r="H260" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I260" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J260" t="n">
         <v>1.05</v>
@@ -32024,40 +32028,40 @@
         <v>8</v>
       </c>
       <c r="L260" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="M260" t="n">
         <v>3.6</v>
       </c>
       <c r="N260" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="O260" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="P260" t="n">
         <v>1.36</v>
       </c>
       <c r="Q260" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="R260" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S260" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="T260" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="U260" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="V260" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="W260" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="X260" t="n">
         <v>16</v>
@@ -32072,7 +32076,7 @@
         <v>6.8</v>
       </c>
       <c r="AB260" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC260" t="n">
         <v>50</v>
@@ -32084,19 +32088,19 @@
         <v>11.25</v>
       </c>
       <c r="AF260" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AG260" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AH260" t="n">
         <v>40</v>
       </c>
       <c r="AI260" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ260" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="261">
@@ -32253,19 +32257,19 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="H262" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I262" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="J262" t="n">
         <v>1.06</v>
       </c>
       <c r="K262" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="L262" t="n">
         <v>1.31</v>
@@ -32295,7 +32299,7 @@
         <v>7.8</v>
       </c>
       <c r="U262" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="V262" t="n">
         <v>9</v>
@@ -32310,10 +32314,10 @@
         <v>29</v>
       </c>
       <c r="Z262" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AA262" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AB262" t="n">
         <v>14.5</v>
@@ -32340,7 +32344,7 @@
         <v>25</v>
       </c>
       <c r="AJ262" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="263">
@@ -32375,94 +32379,94 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>3.4</v>
+        <v>4.9</v>
       </c>
       <c r="H263" t="n">
-        <v>2.52</v>
+        <v>2.72</v>
       </c>
       <c r="I263" t="n">
-        <v>2.5</v>
+        <v>1.93</v>
       </c>
       <c r="J263" t="n">
         <v>1.12</v>
       </c>
       <c r="K263" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="L263" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M263" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="N263" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="O263" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P263" t="n">
         <v>1.5</v>
       </c>
-      <c r="M263" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="N263" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="O263" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P263" t="n">
-        <v>1.53</v>
-      </c>
       <c r="Q263" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="R263" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S263" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="T263" t="n">
-        <v>7.8</v>
+        <v>10.5</v>
       </c>
       <c r="U263" t="n">
-        <v>17.5</v>
+        <v>29</v>
       </c>
       <c r="V263" t="n">
-        <v>11.75</v>
+        <v>16</v>
       </c>
       <c r="W263" t="n">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="X263" t="n">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="Y263" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="Z263" t="n">
-        <v>5.7</v>
+        <v>6.1</v>
       </c>
       <c r="AA263" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AB263" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AC263" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AD263" t="n">
         <v>900</v>
       </c>
       <c r="AE263" t="n">
-        <v>6.2</v>
+        <v>5.4</v>
       </c>
       <c r="AF263" t="n">
-        <v>11.5</v>
+        <v>8.25</v>
       </c>
       <c r="AG263" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AH263" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="AI263" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AJ263" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="264">
@@ -32503,7 +32507,7 @@
         <v>3.1</v>
       </c>
       <c r="I264" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="J264" t="n">
         <v>1.11</v>
@@ -32539,7 +32543,7 @@
         <v>6.2</v>
       </c>
       <c r="U264" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="V264" t="n">
         <v>8.75</v>
@@ -32548,16 +32552,16 @@
         <v>18.5</v>
       </c>
       <c r="X264" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Y264" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Z264" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AA264" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AB264" t="n">
         <v>15.5</v>
@@ -32654,22 +32658,22 @@
         <v>1.98</v>
       </c>
       <c r="T265" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="U265" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="V265" t="n">
         <v>8.75</v>
       </c>
       <c r="W265" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="X265" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Y265" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Z265" t="n">
         <v>9.5</v>
@@ -32678,7 +32682,7 @@
         <v>6.1</v>
       </c>
       <c r="AB265" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC265" t="n">
         <v>55</v>
@@ -32687,19 +32691,19 @@
         <v>400</v>
       </c>
       <c r="AE265" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AF265" t="n">
         <v>16.5</v>
       </c>
       <c r="AG265" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AH265" t="n">
         <v>40</v>
       </c>
       <c r="AI265" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ265" t="n">
         <v>32</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-05.xlsx
@@ -1501,10 +1501,10 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H9" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I9" t="n">
         <v>3</v>
@@ -1516,16 +1516,16 @@
         <v>13</v>
       </c>
       <c r="L9" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M9" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N9" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="O9" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="P9" t="n">
         <v>1.33</v>
@@ -1540,13 +1540,13 @@
         <v>2.2</v>
       </c>
       <c r="T9" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U9" t="n">
         <v>12</v>
       </c>
       <c r="V9" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W9" t="n">
         <v>21</v>
@@ -1564,7 +1564,7 @@
         <v>7</v>
       </c>
       <c r="AB9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC9" t="n">
         <v>41</v>
@@ -1582,13 +1582,13 @@
         <v>11</v>
       </c>
       <c r="AH9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ9" t="n">
         <v>29</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>26</v>
       </c>
     </row>
     <row r="10">
@@ -1867,13 +1867,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="H12" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I12" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="J12" t="n">
         <v>1.05</v>
@@ -1882,34 +1882,34 @@
         <v>11</v>
       </c>
       <c r="L12" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M12" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N12" t="n">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="O12" t="n">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="P12" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R12" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="S12" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U12" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="V12" t="n">
         <v>8.5</v>
@@ -1921,40 +1921,40 @@
         <v>15</v>
       </c>
       <c r="Y12" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z12" t="n">
         <v>11</v>
       </c>
       <c r="AA12" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC12" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD12" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE12" t="n">
         <v>13</v>
       </c>
       <c r="AF12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH12" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI12" t="n">
         <v>34</v>
       </c>
       <c r="AJ12" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13">
@@ -2355,25 +2355,25 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="H16" t="n">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="I16" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="J16" t="n">
         <v>1.01</v>
       </c>
       <c r="K16" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L16" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="M16" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="N16" t="n">
         <v>1.36</v>
@@ -2382,16 +2382,16 @@
         <v>3.2</v>
       </c>
       <c r="P16" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="Q16" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="R16" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S16" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="T16" t="n">
         <v>12</v>
@@ -2403,7 +2403,7 @@
         <v>9</v>
       </c>
       <c r="W16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X16" t="n">
         <v>10</v>
@@ -2412,13 +2412,13 @@
         <v>19</v>
       </c>
       <c r="Z16" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC16" t="n">
         <v>41</v>
@@ -2427,13 +2427,13 @@
         <v>126</v>
       </c>
       <c r="AE16" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF16" t="n">
         <v>41</v>
       </c>
       <c r="AG16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH16" t="n">
         <v>67</v>
@@ -2477,19 +2477,19 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="H17" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="I17" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="J17" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="K17" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="L17" t="n">
         <v>1.62</v>
@@ -2516,19 +2516,19 @@
         <v>1.57</v>
       </c>
       <c r="T17" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="W17" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="X17" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Y17" t="n">
         <v>51</v>
@@ -2540,7 +2540,7 @@
         <v>5.5</v>
       </c>
       <c r="AB17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC17" t="n">
         <v>81</v>
@@ -2549,22 +2549,22 @@
         <v>101</v>
       </c>
       <c r="AE17" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AF17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG17" t="n">
         <v>11</v>
       </c>
-      <c r="AG17" t="n">
-        <v>12</v>
-      </c>
       <c r="AH17" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AI17" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ17" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18">
@@ -2599,79 +2599,79 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="H18" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="I18" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J18" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="K18" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="L18" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="M18" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="N18" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="O18" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P18" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="R18" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="S18" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T18" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="U18" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W18" t="n">
         <v>21</v>
       </c>
       <c r="X18" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y18" t="n">
         <v>41</v>
       </c>
       <c r="Z18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA18" t="n">
         <v>5.5</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>6</v>
       </c>
       <c r="AB18" t="n">
         <v>21</v>
       </c>
       <c r="AC18" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AD18" t="n">
         <v>101</v>
       </c>
       <c r="AE18" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF18" t="n">
         <v>17</v>
@@ -2721,13 +2721,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="H19" t="n">
         <v>3.3</v>
       </c>
       <c r="I19" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J19" t="n">
         <v>1.1</v>
@@ -2736,16 +2736,16 @@
         <v>7</v>
       </c>
       <c r="L19" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="M19" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="N19" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="O19" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P19" t="n">
         <v>1.57</v>
@@ -2754,16 +2754,16 @@
         <v>2.25</v>
       </c>
       <c r="R19" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="S19" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T19" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="U19" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="V19" t="n">
         <v>9.5</v>
@@ -2784,10 +2784,10 @@
         <v>6.5</v>
       </c>
       <c r="AB19" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC19" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AD19" t="n">
         <v>101</v>
@@ -2799,7 +2799,7 @@
         <v>21</v>
       </c>
       <c r="AG19" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH19" t="n">
         <v>51</v>
@@ -2843,13 +2843,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="H20" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="I20" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="J20" t="n">
         <v>1.11</v>
@@ -2870,28 +2870,28 @@
         <v>1.5</v>
       </c>
       <c r="P20" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="R20" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S20" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T20" t="n">
         <v>5.5</v>
       </c>
       <c r="U20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V20" t="n">
         <v>9.5</v>
       </c>
       <c r="W20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X20" t="n">
         <v>19</v>
@@ -2909,25 +2909,25 @@
         <v>19</v>
       </c>
       <c r="AC20" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD20" t="n">
         <v>501</v>
       </c>
       <c r="AE20" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AF20" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG20" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AH20" t="n">
         <v>51</v>
       </c>
       <c r="AI20" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ20" t="n">
         <v>51</v>
@@ -2965,19 +2965,19 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="H21" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="I21" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="J21" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L21" t="n">
         <v>1.36</v>
@@ -2986,22 +2986,22 @@
         <v>3</v>
       </c>
       <c r="N21" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="O21" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P21" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R21" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S21" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="T21" t="n">
         <v>12</v>
@@ -3010,7 +3010,7 @@
         <v>26</v>
       </c>
       <c r="V21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="W21" t="n">
         <v>51</v>
@@ -3022,7 +3022,7 @@
         <v>51</v>
       </c>
       <c r="Z21" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA21" t="n">
         <v>6.5</v>
@@ -3043,13 +3043,13 @@
         <v>7.5</v>
       </c>
       <c r="AG21" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH21" t="n">
         <v>13</v>
       </c>
       <c r="AI21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ21" t="n">
         <v>34</v>
@@ -3209,19 +3209,19 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="H23" t="n">
         <v>3</v>
       </c>
       <c r="I23" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="J23" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="K23" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="L23" t="n">
         <v>1.62</v>
@@ -3248,19 +3248,19 @@
         <v>1.5</v>
       </c>
       <c r="T23" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="U23" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V23" t="n">
         <v>10</v>
       </c>
       <c r="W23" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X23" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y23" t="n">
         <v>41</v>
@@ -3269,7 +3269,7 @@
         <v>5.5</v>
       </c>
       <c r="AA23" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB23" t="n">
         <v>23</v>
@@ -3281,10 +3281,10 @@
         <v>101</v>
       </c>
       <c r="AE23" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG23" t="n">
         <v>17</v>
@@ -3293,7 +3293,7 @@
         <v>51</v>
       </c>
       <c r="AI23" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ23" t="n">
         <v>51</v>
@@ -3346,10 +3346,10 @@
         <v>5.5</v>
       </c>
       <c r="L24" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="M24" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="N24" t="n">
         <v>3.4</v>
@@ -3465,7 +3465,7 @@
         <v>1.17</v>
       </c>
       <c r="K25" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="L25" t="n">
         <v>1.8</v>
@@ -3575,25 +3575,25 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H26" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I26" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="K26" t="n">
         <v>5</v>
       </c>
-      <c r="J26" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="K26" t="n">
-        <v>5.5</v>
-      </c>
       <c r="L26" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="M26" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="N26" t="n">
         <v>3.4</v>
@@ -3602,10 +3602,10 @@
         <v>1.33</v>
       </c>
       <c r="P26" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R26" t="n">
         <v>2.63</v>
@@ -3617,13 +3617,13 @@
         <v>4.5</v>
       </c>
       <c r="U26" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="V26" t="n">
         <v>11</v>
       </c>
       <c r="W26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X26" t="n">
         <v>23</v>
@@ -3632,7 +3632,7 @@
         <v>51</v>
       </c>
       <c r="Z26" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AA26" t="n">
         <v>6.5</v>
@@ -3650,7 +3650,7 @@
         <v>8.5</v>
       </c>
       <c r="AF26" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG26" t="n">
         <v>19</v>
@@ -3706,10 +3706,10 @@
         <v>2.6</v>
       </c>
       <c r="J27" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="K27" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="L27" t="n">
         <v>1.53</v>
@@ -4185,13 +4185,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H31" t="n">
         <v>3.5</v>
       </c>
       <c r="I31" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="J31" t="n">
         <v>1.03</v>
@@ -4206,10 +4206,10 @@
         <v>5</v>
       </c>
       <c r="N31" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="O31" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="P31" t="n">
         <v>1.29</v>
@@ -4236,7 +4236,7 @@
         <v>26</v>
       </c>
       <c r="X31" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y31" t="n">
         <v>21</v>
@@ -4269,7 +4269,7 @@
         <v>26</v>
       </c>
       <c r="AI31" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ31" t="n">
         <v>21</v>
@@ -4307,13 +4307,13 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H32" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I32" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J32" t="n">
         <v>1.03</v>
@@ -4334,16 +4334,16 @@
         <v>2.25</v>
       </c>
       <c r="P32" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="Q32" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="R32" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S32" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="T32" t="n">
         <v>10</v>
@@ -4355,7 +4355,7 @@
         <v>9</v>
       </c>
       <c r="W32" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X32" t="n">
         <v>15</v>
@@ -4364,7 +4364,7 @@
         <v>21</v>
       </c>
       <c r="Z32" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA32" t="n">
         <v>7.5</v>
@@ -4373,16 +4373,16 @@
         <v>12</v>
       </c>
       <c r="AC32" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AD32" t="n">
         <v>126</v>
       </c>
       <c r="AE32" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF32" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG32" t="n">
         <v>12</v>
@@ -4391,10 +4391,10 @@
         <v>41</v>
       </c>
       <c r="AI32" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ32" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33">
@@ -4429,13 +4429,13 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="H33" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I33" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="J33" t="n">
         <v>1.05</v>
@@ -4444,16 +4444,16 @@
         <v>11</v>
       </c>
       <c r="L33" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M33" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N33" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="O33" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="P33" t="n">
         <v>1.4</v>
@@ -4468,13 +4468,13 @@
         <v>1.91</v>
       </c>
       <c r="T33" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U33" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V33" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W33" t="n">
         <v>34</v>
@@ -4516,7 +4516,7 @@
         <v>17</v>
       </c>
       <c r="AJ33" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34">
@@ -4554,10 +4554,10 @@
         <v>1.25</v>
       </c>
       <c r="H34" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="I34" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J34" t="n">
         <v>1.02</v>
@@ -4590,22 +4590,22 @@
         <v>2</v>
       </c>
       <c r="T34" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U34" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V34" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W34" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X34" t="n">
         <v>10</v>
       </c>
       <c r="Y34" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z34" t="n">
         <v>21</v>
@@ -4617,7 +4617,7 @@
         <v>19</v>
       </c>
       <c r="AC34" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD34" t="n">
         <v>151</v>
@@ -4798,76 +4798,76 @@
         <v>2.05</v>
       </c>
       <c r="H36" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I36" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="J36" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="K36" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L36" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="M36" t="n">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="N36" t="n">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="O36" t="n">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="P36" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="R36" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S36" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="T36" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U36" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V36" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W36" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X36" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y36" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z36" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AA36" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB36" t="n">
         <v>17</v>
       </c>
       <c r="AC36" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD36" t="n">
-        <v>351</v>
+        <v>451</v>
       </c>
       <c r="AE36" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF36" t="n">
         <v>17</v>
@@ -4917,31 +4917,31 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H37" t="n">
         <v>3.9</v>
       </c>
       <c r="I37" t="n">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="J37" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K37" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L37" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M37" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="N37" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="O37" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="P37" t="n">
         <v>1.44</v>
@@ -4950,61 +4950,61 @@
         <v>2.63</v>
       </c>
       <c r="R37" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S37" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="T37" t="n">
         <v>6</v>
       </c>
       <c r="U37" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="V37" t="n">
         <v>8.5</v>
       </c>
       <c r="W37" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X37" t="n">
         <v>15</v>
       </c>
       <c r="Y37" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z37" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AA37" t="n">
         <v>7.5</v>
       </c>
       <c r="AB37" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC37" t="n">
         <v>67</v>
       </c>
       <c r="AD37" t="n">
-        <v>401</v>
+        <v>501</v>
       </c>
       <c r="AE37" t="n">
         <v>12</v>
       </c>
       <c r="AF37" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG37" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH37" t="n">
+        <v>67</v>
+      </c>
+      <c r="AI37" t="n">
         <v>51</v>
       </c>
-      <c r="AI37" t="n">
-        <v>41</v>
-      </c>
       <c r="AJ37" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38">
@@ -5039,64 +5039,64 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="H38" t="n">
         <v>4.5</v>
       </c>
       <c r="I38" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="J38" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K38" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L38" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="M38" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="N38" t="n">
-        <v>1.8</v>
+        <v>2.02</v>
       </c>
       <c r="O38" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="P38" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q38" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R38" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S38" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="T38" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U38" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="V38" t="n">
         <v>8.5</v>
       </c>
       <c r="W38" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X38" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y38" t="n">
         <v>29</v>
       </c>
       <c r="Z38" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AA38" t="n">
         <v>8.5</v>
@@ -5108,7 +5108,7 @@
         <v>67</v>
       </c>
       <c r="AD38" t="n">
-        <v>351</v>
+        <v>501</v>
       </c>
       <c r="AE38" t="n">
         <v>15</v>
@@ -5117,10 +5117,10 @@
         <v>34</v>
       </c>
       <c r="AG38" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH38" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AI38" t="n">
         <v>51</v>
@@ -5161,43 +5161,43 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="H39" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="I39" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="J39" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="K39" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L39" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M39" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N39" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R39" t="n">
         <v>2.1</v>
       </c>
-      <c r="O39" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="P39" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R39" t="n">
-        <v>2</v>
-      </c>
       <c r="S39" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T39" t="n">
         <v>6</v>
@@ -5206,22 +5206,22 @@
         <v>7.5</v>
       </c>
       <c r="V39" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W39" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X39" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y39" t="n">
         <v>34</v>
       </c>
       <c r="Z39" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AA39" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB39" t="n">
         <v>19</v>
@@ -5233,10 +5233,10 @@
         <v>251</v>
       </c>
       <c r="AE39" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF39" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG39" t="n">
         <v>15</v>
@@ -5292,10 +5292,10 @@
         <v>4.33</v>
       </c>
       <c r="J40" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K40" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L40" t="n">
         <v>1.4</v>
@@ -5414,10 +5414,10 @@
         <v>6</v>
       </c>
       <c r="J41" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K41" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L41" t="n">
         <v>1.3</v>
@@ -5426,7 +5426,7 @@
         <v>3.4</v>
       </c>
       <c r="N41" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O41" t="n">
         <v>1.8</v>
@@ -5893,10 +5893,10 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="H45" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="I45" t="n">
         <v>9</v>
@@ -5905,61 +5905,61 @@
         <v>1.04</v>
       </c>
       <c r="K45" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L45" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="M45" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N45" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="O45" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="P45" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q45" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R45" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="S45" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="T45" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="U45" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="V45" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="W45" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="X45" t="n">
         <v>12</v>
       </c>
       <c r="Y45" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="Z45" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA45" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AB45" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC45" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD45" t="n">
         <v>351</v>
@@ -5974,13 +5974,13 @@
         <v>26</v>
       </c>
       <c r="AH45" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AI45" t="n">
         <v>67</v>
       </c>
       <c r="AJ45" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46">
@@ -6015,13 +6015,13 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="H46" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I46" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="J46" t="n">
         <v>1.1</v>
@@ -6030,10 +6030,10 @@
         <v>7</v>
       </c>
       <c r="L46" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M46" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="N46" t="n">
         <v>2.5</v>
@@ -6042,31 +6042,31 @@
         <v>1.5</v>
       </c>
       <c r="P46" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="R46" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S46" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T46" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="U46" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="V46" t="n">
         <v>9.5</v>
       </c>
       <c r="W46" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X46" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y46" t="n">
         <v>41</v>
@@ -6087,19 +6087,19 @@
         <v>101</v>
       </c>
       <c r="AE46" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF46" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AG46" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH46" t="n">
         <v>51</v>
       </c>
       <c r="AI46" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ46" t="n">
         <v>51</v>
@@ -6137,19 +6137,19 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="H47" t="n">
         <v>3.3</v>
       </c>
       <c r="I47" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="J47" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K47" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L47" t="n">
         <v>1.4</v>
@@ -6170,25 +6170,25 @@
         <v>2.5</v>
       </c>
       <c r="R47" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S47" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="T47" t="n">
         <v>6.5</v>
       </c>
       <c r="U47" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="V47" t="n">
         <v>9</v>
       </c>
-      <c r="V47" t="n">
-        <v>9.5</v>
-      </c>
       <c r="W47" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X47" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y47" t="n">
         <v>34</v>
@@ -6203,16 +6203,16 @@
         <v>17</v>
       </c>
       <c r="AC47" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD47" t="n">
         <v>301</v>
       </c>
       <c r="AE47" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF47" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG47" t="n">
         <v>13</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="H49" t="n">
         <v>3.7</v>
@@ -6390,10 +6390,10 @@
         <v>4.75</v>
       </c>
       <c r="J49" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K49" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="L49" t="n">
         <v>1.3</v>
@@ -6414,10 +6414,10 @@
         <v>2.75</v>
       </c>
       <c r="R49" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="S49" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="T49" t="n">
         <v>6.5</v>
@@ -6429,7 +6429,7 @@
         <v>8.5</v>
       </c>
       <c r="W49" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X49" t="n">
         <v>15</v>
@@ -6456,10 +6456,10 @@
         <v>12</v>
       </c>
       <c r="AF49" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG49" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH49" t="n">
         <v>51</v>
@@ -6506,28 +6506,28 @@
         <v>5.25</v>
       </c>
       <c r="H50" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I50" t="n">
         <v>1.67</v>
       </c>
       <c r="J50" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K50" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L50" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="M50" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="N50" t="n">
-        <v>2.08</v>
+        <v>1.98</v>
       </c>
       <c r="O50" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="P50" t="n">
         <v>1.44</v>
@@ -6536,13 +6536,13 @@
         <v>2.63</v>
       </c>
       <c r="R50" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S50" t="n">
-        <v>1.69</v>
+        <v>1.8</v>
       </c>
       <c r="T50" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U50" t="n">
         <v>26</v>
@@ -6557,25 +6557,25 @@
         <v>41</v>
       </c>
       <c r="Y50" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="Z50" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA50" t="n">
         <v>7</v>
       </c>
       <c r="AB50" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC50" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD50" t="n">
         <v>351</v>
       </c>
       <c r="AE50" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AF50" t="n">
         <v>7.5</v>
@@ -6625,19 +6625,19 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="H51" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I51" t="n">
         <v>4.75</v>
       </c>
       <c r="J51" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K51" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L51" t="n">
         <v>1.3</v>
@@ -6652,22 +6652,22 @@
         <v>1.75</v>
       </c>
       <c r="P51" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R51" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="S51" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="T51" t="n">
         <v>6.5</v>
       </c>
       <c r="U51" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V51" t="n">
         <v>8.5</v>
@@ -6685,7 +6685,7 @@
         <v>9</v>
       </c>
       <c r="AA51" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB51" t="n">
         <v>17</v>
@@ -6703,7 +6703,7 @@
         <v>23</v>
       </c>
       <c r="AG51" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH51" t="n">
         <v>51</v>
@@ -6991,19 +6991,19 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="H54" t="n">
         <v>3.3</v>
       </c>
       <c r="I54" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="J54" t="n">
         <v>1.07</v>
       </c>
       <c r="K54" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L54" t="n">
         <v>1.36</v>
@@ -7030,22 +7030,22 @@
         <v>1.8</v>
       </c>
       <c r="T54" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U54" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V54" t="n">
         <v>11</v>
       </c>
       <c r="W54" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="X54" t="n">
         <v>26</v>
       </c>
       <c r="Y54" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z54" t="n">
         <v>8.5</v>
@@ -7069,10 +7069,10 @@
         <v>11</v>
       </c>
       <c r="AG54" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH54" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI54" t="n">
         <v>21</v>
@@ -7116,10 +7116,10 @@
         <v>1.95</v>
       </c>
       <c r="H55" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I55" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="J55" t="n">
         <v>1.07</v>
@@ -7140,10 +7140,10 @@
         <v>1.67</v>
       </c>
       <c r="P55" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R55" t="n">
         <v>1.91</v>
@@ -7167,7 +7167,7 @@
         <v>17</v>
       </c>
       <c r="Y55" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z55" t="n">
         <v>8.5</v>
@@ -14867,72 +14867,72 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="H119" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="I119" t="n">
-        <v>7.9</v>
+        <v>7.6</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="M119" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="N119" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="O119" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="P119" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="Q119" t="n">
-        <v>4</v>
+        <v>4.15</v>
       </c>
       <c r="R119" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="S119" t="n">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="T119" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="U119" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="V119" t="n">
         <v>9</v>
       </c>
       <c r="W119" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X119" t="n">
         <v>9.75</v>
       </c>
       <c r="Y119" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="Z119" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AA119" t="n">
         <v>12</v>
       </c>
       <c r="AB119" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AC119" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AD119" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AE119" t="n">
         <v>32</v>
@@ -14941,16 +14941,16 @@
         <v>65</v>
       </c>
       <c r="AG119" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH119" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AI119" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ119" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="120">
@@ -19355,13 +19355,13 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H156" t="n">
         <v>3.3</v>
       </c>
       <c r="I156" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="J156" t="n">
         <v>1.05</v>
@@ -19388,10 +19388,10 @@
         <v>2.75</v>
       </c>
       <c r="R156" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="S156" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T156" t="n">
         <v>8</v>
@@ -19400,7 +19400,7 @@
         <v>11</v>
       </c>
       <c r="V156" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W156" t="n">
         <v>21</v>
@@ -19412,7 +19412,7 @@
         <v>29</v>
       </c>
       <c r="Z156" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA156" t="n">
         <v>6.5</v>
@@ -19421,25 +19421,25 @@
         <v>13</v>
       </c>
       <c r="AC156" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD156" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE156" t="n">
         <v>10</v>
       </c>
       <c r="AF156" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG156" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH156" t="n">
         <v>34</v>
       </c>
       <c r="AI156" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ156" t="n">
         <v>34</v>
@@ -19477,19 +19477,19 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H157" t="n">
         <v>3.5</v>
       </c>
       <c r="I157" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J157" t="n">
         <v>1.04</v>
       </c>
       <c r="K157" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L157" t="n">
         <v>1.25</v>
@@ -19510,13 +19510,13 @@
         <v>3</v>
       </c>
       <c r="R157" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="S157" t="n">
         <v>2.1</v>
       </c>
       <c r="T157" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U157" t="n">
         <v>13</v>
@@ -19558,13 +19558,13 @@
         <v>10</v>
       </c>
       <c r="AH157" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI157" t="n">
         <v>21</v>
       </c>
       <c r="AJ157" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="158">
@@ -19620,10 +19620,10 @@
         <v>3.75</v>
       </c>
       <c r="N158" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="O158" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="P158" t="n">
         <v>1.36</v>
@@ -19632,7 +19632,7 @@
         <v>3</v>
       </c>
       <c r="R158" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S158" t="n">
         <v>2.05</v>
@@ -19957,13 +19957,13 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H161" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I161" t="n">
-        <v>4.85</v>
+        <v>4.9</v>
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
@@ -19992,7 +19992,7 @@
         <v>1.93</v>
       </c>
       <c r="T161" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="U161" t="n">
         <v>8.25</v>
@@ -20001,7 +20001,7 @@
         <v>7.9</v>
       </c>
       <c r="W161" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="X161" t="n">
         <v>12.5</v>
@@ -20010,22 +20010,22 @@
         <v>23</v>
       </c>
       <c r="Z161" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AA161" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AB161" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC161" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AD161" t="n">
         <v>450</v>
       </c>
       <c r="AE161" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AF161" t="n">
         <v>30</v>
@@ -20037,7 +20037,7 @@
         <v>90</v>
       </c>
       <c r="AI161" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AJ161" t="n">
         <v>45</v>
@@ -20106,55 +20106,55 @@
         <v>2.02</v>
       </c>
       <c r="T162" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="U162" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="V162" t="n">
         <v>13</v>
       </c>
       <c r="W162" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="X162" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y162" t="n">
         <v>35</v>
       </c>
-      <c r="Y162" t="n">
-        <v>37</v>
-      </c>
       <c r="Z162" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AA162" t="n">
         <v>6.9</v>
       </c>
       <c r="AB162" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC162" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AD162" t="n">
         <v>350</v>
       </c>
       <c r="AE162" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AF162" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AG162" t="n">
         <v>8.25</v>
       </c>
-      <c r="AF162" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AG162" t="n">
-        <v>8</v>
-      </c>
       <c r="AH162" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI162" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AJ162" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="163">
@@ -21287,94 +21287,94 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="H172" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="I172" t="n">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="J172" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K172" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="L172" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M172" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="N172" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="O172" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P172" t="n">
         <v>1.47</v>
       </c>
-      <c r="M172" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="N172" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="O172" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P172" t="n">
-        <v>1.5</v>
-      </c>
       <c r="Q172" t="n">
-        <v>2.47</v>
+        <v>2.55</v>
       </c>
       <c r="R172" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="S172" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="T172" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="U172" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="V172" t="n">
         <v>9</v>
       </c>
-      <c r="V172" t="n">
-        <v>9.5</v>
-      </c>
       <c r="W172" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="X172" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Y172" t="n">
         <v>34</v>
       </c>
       <c r="Z172" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA172" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB172" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC172" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD172" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AE172" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AF172" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG172" t="n">
         <v>15</v>
       </c>
-      <c r="AG172" t="n">
-        <v>12</v>
-      </c>
       <c r="AH172" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI172" t="n">
         <v>41</v>
       </c>
-      <c r="AI172" t="n">
-        <v>34</v>
-      </c>
       <c r="AJ172" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="173">
@@ -21445,7 +21445,7 @@
         <v>2</v>
       </c>
       <c r="S173" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="T173" t="n">
         <v>6.5</v>
@@ -21653,55 +21653,55 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1.56</v>
+        <v>1.48</v>
       </c>
       <c r="H175" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="I175" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="J175" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K175" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L175" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M175" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N175" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="O175" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="P175" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q175" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R175" t="n">
-        <v>1.69</v>
+        <v>1.8</v>
       </c>
       <c r="S175" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T175" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U175" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="V175" t="n">
         <v>8.5</v>
       </c>
       <c r="W175" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="X175" t="n">
         <v>12</v>
@@ -21713,31 +21713,31 @@
         <v>13</v>
       </c>
       <c r="AA175" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB175" t="n">
         <v>15</v>
       </c>
       <c r="AC175" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD175" t="n">
+        <v>201</v>
+      </c>
+      <c r="AE175" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF175" t="n">
         <v>41</v>
       </c>
-      <c r="AD175" t="n">
-        <v>151</v>
-      </c>
-      <c r="AE175" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF175" t="n">
-        <v>29</v>
-      </c>
       <c r="AG175" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AH175" t="n">
+        <v>67</v>
+      </c>
+      <c r="AI175" t="n">
         <v>51</v>
-      </c>
-      <c r="AI175" t="n">
-        <v>41</v>
       </c>
       <c r="AJ175" t="n">
         <v>41</v>
@@ -21775,19 +21775,19 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H176" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I176" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="J176" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K176" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L176" t="n">
         <v>1.44</v>
@@ -21796,34 +21796,34 @@
         <v>2.63</v>
       </c>
       <c r="N176" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="O176" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P176" t="n">
         <v>1.57</v>
       </c>
-      <c r="P176" t="n">
-        <v>1.53</v>
-      </c>
       <c r="Q176" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="R176" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S176" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="T176" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U176" t="n">
         <v>11</v>
       </c>
       <c r="V176" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W176" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X176" t="n">
         <v>23</v>
@@ -21832,13 +21832,13 @@
         <v>41</v>
       </c>
       <c r="Z176" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA176" t="n">
         <v>6.5</v>
       </c>
       <c r="AB176" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC176" t="n">
         <v>67</v>
@@ -21850,7 +21850,7 @@
         <v>7</v>
       </c>
       <c r="AF176" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG176" t="n">
         <v>11</v>
@@ -21859,7 +21859,7 @@
         <v>29</v>
       </c>
       <c r="AI176" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ176" t="n">
         <v>41</v>
@@ -22150,22 +22150,22 @@
         <v>5</v>
       </c>
       <c r="J179" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K179" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L179" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M179" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N179" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="O179" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="P179" t="n">
         <v>1.4</v>
@@ -22174,10 +22174,10 @@
         <v>2.75</v>
       </c>
       <c r="R179" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="S179" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="T179" t="n">
         <v>6.5</v>
@@ -22751,13 +22751,13 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H184" t="n">
         <v>3.1</v>
       </c>
       <c r="I184" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J184" t="n">
         <v>1.11</v>
@@ -22775,7 +22775,7 @@
         <v>2.7</v>
       </c>
       <c r="O184" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P184" t="n">
         <v>1.62</v>
@@ -22784,10 +22784,10 @@
         <v>2.2</v>
       </c>
       <c r="R184" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="S184" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T184" t="n">
         <v>5</v>
@@ -22799,7 +22799,7 @@
         <v>9.5</v>
       </c>
       <c r="W184" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X184" t="n">
         <v>21</v>
@@ -22811,7 +22811,7 @@
         <v>6</v>
       </c>
       <c r="AA184" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB184" t="n">
         <v>21</v>
@@ -22821,7 +22821,7 @@
       </c>
       <c r="AD184" t="inlineStr"/>
       <c r="AE184" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF184" t="n">
         <v>21</v>
@@ -27141,13 +27141,13 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="H220" t="n">
         <v>3.2</v>
       </c>
       <c r="I220" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="J220" t="n">
         <v>1.08</v>
@@ -27183,16 +27183,16 @@
         <v>6</v>
       </c>
       <c r="U220" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V220" t="n">
         <v>9</v>
       </c>
       <c r="W220" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X220" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y220" t="n">
         <v>34</v>
@@ -27201,7 +27201,7 @@
         <v>7.5</v>
       </c>
       <c r="AA220" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB220" t="n">
         <v>17</v>
@@ -27216,7 +27216,7 @@
         <v>10</v>
       </c>
       <c r="AF220" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG220" t="n">
         <v>15</v>
@@ -27225,7 +27225,7 @@
         <v>41</v>
       </c>
       <c r="AI220" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ220" t="n">
         <v>41</v>
@@ -28361,31 +28361,31 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="H230" t="n">
         <v>4.75</v>
       </c>
       <c r="I230" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="J230" t="n">
         <v>1.03</v>
       </c>
       <c r="K230" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L230" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="M230" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N230" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="O230" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="P230" t="n">
         <v>1.29</v>
@@ -28400,16 +28400,16 @@
         <v>1.83</v>
       </c>
       <c r="T230" t="n">
+        <v>8</v>
+      </c>
+      <c r="U230" t="n">
         <v>7.5</v>
-      </c>
-      <c r="U230" t="n">
-        <v>7</v>
       </c>
       <c r="V230" t="n">
         <v>8.5</v>
       </c>
       <c r="W230" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X230" t="n">
         <v>11</v>
@@ -28421,10 +28421,10 @@
         <v>15</v>
       </c>
       <c r="AA230" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB230" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC230" t="n">
         <v>51</v>
@@ -28433,16 +28433,16 @@
         <v>251</v>
       </c>
       <c r="AE230" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF230" t="n">
         <v>41</v>
       </c>
       <c r="AG230" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH230" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AI230" t="n">
         <v>51</v>
@@ -29710,16 +29710,16 @@
         <v>7</v>
       </c>
       <c r="L241" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M241" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="N241" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O241" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P241" t="n">
         <v>1.57</v>
@@ -29770,7 +29770,7 @@
         <v>6</v>
       </c>
       <c r="AF241" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AG241" t="n">
         <v>10</v>
@@ -29779,7 +29779,7 @@
         <v>21</v>
       </c>
       <c r="AI241" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ241" t="n">
         <v>41</v>
@@ -29817,13 +29817,13 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H242" t="n">
         <v>3.4</v>
       </c>
       <c r="I242" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="J242" t="n">
         <v>1.1</v>
@@ -29850,22 +29850,22 @@
         <v>2.2</v>
       </c>
       <c r="R242" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="S242" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T242" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="U242" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V242" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W242" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X242" t="n">
         <v>23</v>
@@ -29883,7 +29883,7 @@
         <v>23</v>
       </c>
       <c r="AC242" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AD242" t="n">
         <v>101</v>
@@ -29901,7 +29901,7 @@
         <v>34</v>
       </c>
       <c r="AI242" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ242" t="n">
         <v>41</v>
@@ -30061,94 +30061,94 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>1.91</v>
+        <v>1.62</v>
       </c>
       <c r="H244" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="I244" t="n">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="J244" t="n">
         <v>1.03</v>
       </c>
       <c r="K244" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L244" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M244" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N244" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="O244" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="P244" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Q244" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R244" t="n">
         <v>1.62</v>
       </c>
-      <c r="O244" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="P244" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Q244" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="R244" t="n">
-        <v>1.53</v>
-      </c>
       <c r="S244" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="T244" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U244" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="V244" t="n">
         <v>8.5</v>
       </c>
       <c r="W244" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="X244" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y244" t="n">
         <v>21</v>
       </c>
       <c r="Z244" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA244" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB244" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC244" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AD244" t="n">
         <v>126</v>
       </c>
       <c r="AE244" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AF244" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AG244" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AH244" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI244" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ244" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="245">
@@ -30326,10 +30326,10 @@
         <v>4</v>
       </c>
       <c r="N246" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O246" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P246" t="n">
         <v>1.33</v>
@@ -30338,16 +30338,16 @@
         <v>3.25</v>
       </c>
       <c r="R246" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S246" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T246" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U246" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V246" t="n">
         <v>8.5</v>
@@ -30368,7 +30368,7 @@
         <v>8</v>
       </c>
       <c r="AB246" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC246" t="n">
         <v>51</v>
@@ -30692,10 +30692,10 @@
         <v>3.75</v>
       </c>
       <c r="N249" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="O249" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="P249" t="n">
         <v>1.36</v>
@@ -30710,13 +30710,13 @@
         <v>2.1</v>
       </c>
       <c r="T249" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="U249" t="n">
+        <v>11</v>
+      </c>
+      <c r="V249" t="n">
         <v>9</v>
-      </c>
-      <c r="U249" t="n">
-        <v>12</v>
-      </c>
-      <c r="V249" t="n">
-        <v>9.5</v>
       </c>
       <c r="W249" t="n">
         <v>21</v>
@@ -30734,7 +30734,7 @@
         <v>6.5</v>
       </c>
       <c r="AB249" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC249" t="n">
         <v>41</v>
@@ -30915,13 +30915,13 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H251" t="n">
         <v>3.5</v>
       </c>
       <c r="I251" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J251" t="n">
         <v>1.05</v>
@@ -30957,7 +30957,7 @@
         <v>8.5</v>
       </c>
       <c r="U251" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V251" t="n">
         <v>9.5</v>
@@ -30996,7 +30996,7 @@
         <v>11</v>
       </c>
       <c r="AH251" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI251" t="n">
         <v>23</v>
@@ -31198,7 +31198,7 @@
         <v>2.1</v>
       </c>
       <c r="T253" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U253" t="n">
         <v>9.5</v>
@@ -31237,10 +31237,10 @@
         <v>23</v>
       </c>
       <c r="AG253" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH253" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI253" t="n">
         <v>34</v>
@@ -31293,7 +31293,7 @@
         <v>1.08</v>
       </c>
       <c r="K254" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L254" t="n">
         <v>1.4</v>
@@ -31302,10 +31302,10 @@
         <v>2.75</v>
       </c>
       <c r="N254" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="O254" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="P254" t="n">
         <v>1.5</v>
@@ -31409,7 +31409,7 @@
         <v>3.45</v>
       </c>
       <c r="I255" t="n">
-        <v>4.2</v>
+        <v>4.35</v>
       </c>
       <c r="J255" t="n">
         <v>1.07</v>
@@ -31445,7 +31445,7 @@
         <v>6.1</v>
       </c>
       <c r="U255" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="V255" t="n">
         <v>8.5</v>
@@ -31475,16 +31475,16 @@
         <v>900</v>
       </c>
       <c r="AE255" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AF255" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG255" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AH255" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AI255" t="n">
         <v>45</v>
@@ -31525,67 +31525,67 @@
         </is>
       </c>
       <c r="G256" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="H256" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I256" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="J256" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K256" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="L256" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="M256" t="n">
         <v>3.65</v>
       </c>
-      <c r="H256" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I256" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="J256" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K256" t="n">
-        <v>8</v>
-      </c>
-      <c r="L256" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M256" t="n">
-        <v>3.55</v>
-      </c>
       <c r="N256" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="O256" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="P256" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="Q256" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="R256" t="n">
         <v>1.72</v>
       </c>
       <c r="S256" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="T256" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U256" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="V256" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="W256" t="n">
         <v>55</v>
       </c>
       <c r="X256" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Y256" t="n">
         <v>37</v>
       </c>
       <c r="Z256" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AA256" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AB256" t="n">
         <v>14.5</v>
@@ -31600,16 +31600,16 @@
         <v>7.9</v>
       </c>
       <c r="AF256" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AG256" t="n">
         <v>8.25</v>
       </c>
       <c r="AH256" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AI256" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ256" t="n">
         <v>24</v>
@@ -31647,91 +31647,91 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="H257" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I257" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="J257" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K257" t="n">
+        <v>8</v>
+      </c>
+      <c r="L257" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="M257" t="n">
         <v>3.7</v>
-      </c>
-      <c r="I257" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J257" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="K257" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="L257" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="M257" t="n">
-        <v>3.75</v>
       </c>
       <c r="N257" t="n">
         <v>1.7</v>
       </c>
       <c r="O257" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="P257" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="Q257" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="R257" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="S257" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T257" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="U257" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="V257" t="n">
         <v>8</v>
       </c>
       <c r="W257" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="X257" t="n">
         <v>13</v>
       </c>
       <c r="Y257" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z257" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AA257" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AB257" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC257" t="n">
         <v>55</v>
       </c>
       <c r="AD257" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AE257" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AF257" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG257" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH257" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AI257" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AJ257" t="n">
         <v>37</v>
@@ -31769,13 +31769,13 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="H258" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I258" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="J258" t="n">
         <v>1.05</v>
@@ -31799,7 +31799,7 @@
         <v>1.39</v>
       </c>
       <c r="Q258" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="R258" t="n">
         <v>1.7</v>
@@ -31808,19 +31808,19 @@
         <v>2.05</v>
       </c>
       <c r="T258" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="U258" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="V258" t="n">
         <v>8.25</v>
       </c>
       <c r="W258" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="X258" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y258" t="n">
         <v>23</v>
@@ -31829,34 +31829,34 @@
         <v>7.6</v>
       </c>
       <c r="AA258" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AB258" t="n">
         <v>13.5</v>
       </c>
       <c r="AC258" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AD258" t="n">
         <v>400</v>
       </c>
       <c r="AE258" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AF258" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG258" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH258" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AI258" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AJ258" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="259">
@@ -32257,28 +32257,28 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H262" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I262" t="n">
-        <v>2.9</v>
+        <v>2.77</v>
       </c>
       <c r="J262" t="n">
         <v>1.06</v>
       </c>
       <c r="K262" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="L262" t="n">
         <v>1.31</v>
       </c>
       <c r="M262" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="N262" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="O262" t="n">
         <v>1.8</v>
@@ -32296,31 +32296,31 @@
         <v>1.95</v>
       </c>
       <c r="T262" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="U262" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="V262" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="W262" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X262" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y262" t="n">
         <v>29</v>
       </c>
       <c r="Z262" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AA262" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AB262" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC262" t="n">
         <v>65</v>
@@ -32329,19 +32329,19 @@
         <v>500</v>
       </c>
       <c r="AE262" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AF262" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG262" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="AH262" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AI262" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ262" t="n">
         <v>32</v>
@@ -32379,16 +32379,16 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="H263" t="n">
         <v>2.72</v>
       </c>
       <c r="I263" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="J263" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="K263" t="n">
         <v>5.8</v>
@@ -32397,19 +32397,19 @@
         <v>1.45</v>
       </c>
       <c r="M263" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="N263" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="O263" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P263" t="n">
         <v>1.5</v>
       </c>
       <c r="Q263" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="R263" t="n">
         <v>1.93</v>
@@ -32418,19 +32418,19 @@
         <v>1.7</v>
       </c>
       <c r="T263" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="U263" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="V263" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="W263" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="X263" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="Y263" t="n">
         <v>65</v>
@@ -32445,7 +32445,7 @@
         <v>16</v>
       </c>
       <c r="AC263" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AD263" t="n">
         <v>900</v>
@@ -32457,13 +32457,13 @@
         <v>8.25</v>
       </c>
       <c r="AG263" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AH263" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI263" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AJ263" t="n">
         <v>35</v>
@@ -32501,13 +32501,13 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>2.02</v>
+        <v>1.85</v>
       </c>
       <c r="H264" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="I264" t="n">
-        <v>3.65</v>
+        <v>4.15</v>
       </c>
       <c r="J264" t="n">
         <v>1.11</v>
@@ -32516,16 +32516,16 @@
         <v>6</v>
       </c>
       <c r="L264" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="M264" t="n">
-        <v>2.62</v>
+        <v>2.55</v>
       </c>
       <c r="N264" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O264" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="P264" t="n">
         <v>1.47</v>
@@ -32534,61 +32534,61 @@
         <v>2.32</v>
       </c>
       <c r="R264" t="n">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="S264" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="T264" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="U264" t="n">
-        <v>8.75</v>
+        <v>7.8</v>
       </c>
       <c r="V264" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="W264" t="n">
-        <v>18.5</v>
+        <v>15</v>
       </c>
       <c r="X264" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y264" t="n">
         <v>35</v>
       </c>
       <c r="Z264" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AA264" t="n">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="AB264" t="n">
-        <v>15.5</v>
+        <v>18.5</v>
       </c>
       <c r="AC264" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="AD264" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="AE264" t="n">
         <v>9.5</v>
       </c>
       <c r="AF264" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AG264" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH264" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AI264" t="n">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="AJ264" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="265">
@@ -32623,27 +32623,27 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="H265" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I265" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="M265" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="N265" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="O265" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="P265" t="n">
         <v>1.42</v>
@@ -32652,61 +32652,61 @@
         <v>2.47</v>
       </c>
       <c r="R265" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S265" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="T265" t="n">
         <v>7.9</v>
       </c>
       <c r="U265" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="V265" t="n">
         <v>8.75</v>
       </c>
       <c r="W265" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="X265" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Y265" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z265" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AA265" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AB265" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC265" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD265" t="n">
+        <v>350</v>
+      </c>
+      <c r="AE265" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AF265" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG265" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AH265" t="n">
+        <v>45</v>
+      </c>
+      <c r="AI265" t="n">
         <v>27</v>
       </c>
-      <c r="Z265" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AA265" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AB265" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC265" t="n">
-        <v>55</v>
-      </c>
-      <c r="AD265" t="n">
-        <v>400</v>
-      </c>
-      <c r="AE265" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AF265" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AG265" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH265" t="n">
-        <v>40</v>
-      </c>
-      <c r="AI265" t="n">
-        <v>26</v>
-      </c>
       <c r="AJ265" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="266">
@@ -32741,13 +32741,13 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="H266" t="n">
         <v>3.05</v>
       </c>
       <c r="I266" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="J266" t="n">
         <v>1.11</v>
@@ -32762,10 +32762,10 @@
         <v>2.52</v>
       </c>
       <c r="N266" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="O266" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="P266" t="n">
         <v>1.45</v>
@@ -32780,7 +32780,7 @@
         <v>1.7</v>
       </c>
       <c r="T266" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="U266" t="n">
         <v>8.5</v>
@@ -32798,7 +32798,7 @@
         <v>35</v>
       </c>
       <c r="Z266" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AA266" t="n">
         <v>6</v>
@@ -32816,7 +32816,7 @@
         <v>9.25</v>
       </c>
       <c r="AF266" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AG266" t="n">
         <v>13</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-05.xlsx
@@ -2721,13 +2721,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="H19" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I19" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J19" t="n">
         <v>1.1</v>
@@ -2742,10 +2742,10 @@
         <v>2.5</v>
       </c>
       <c r="N19" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O19" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="P19" t="n">
         <v>1.57</v>
@@ -2760,7 +2760,7 @@
         <v>1.57</v>
       </c>
       <c r="T19" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="U19" t="n">
         <v>7.5</v>
@@ -2843,19 +2843,19 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H20" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I20" t="n">
         <v>4.5</v>
       </c>
       <c r="J20" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L20" t="n">
         <v>1.44</v>
@@ -2870,22 +2870,22 @@
         <v>1.5</v>
       </c>
       <c r="P20" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="R20" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S20" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="T20" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="U20" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V20" t="n">
         <v>9.5</v>
@@ -2897,7 +2897,7 @@
         <v>19</v>
       </c>
       <c r="Y20" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z20" t="n">
         <v>6.5</v>
@@ -2906,7 +2906,7 @@
         <v>6</v>
       </c>
       <c r="AB20" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC20" t="n">
         <v>67</v>
@@ -2924,7 +2924,7 @@
         <v>15</v>
       </c>
       <c r="AH20" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI20" t="n">
         <v>41</v>
@@ -2998,19 +2998,19 @@
         <v>2.63</v>
       </c>
       <c r="R21" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S21" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="T21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U21" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="V21" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="W21" t="n">
         <v>51</v>
@@ -3022,13 +3022,13 @@
         <v>51</v>
       </c>
       <c r="Z21" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC21" t="n">
         <v>67</v>
@@ -3819,7 +3819,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H28" t="n">
         <v>2.8</v>
@@ -3828,10 +3828,10 @@
         <v>4.75</v>
       </c>
       <c r="J28" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="K28" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="L28" t="n">
         <v>1.67</v>
@@ -3864,7 +3864,7 @@
         <v>7.5</v>
       </c>
       <c r="V28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W28" t="n">
         <v>17</v>
@@ -4560,10 +4560,10 @@
         <v>11</v>
       </c>
       <c r="J34" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K34" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L34" t="n">
         <v>1.1</v>
@@ -4599,16 +4599,16 @@
         <v>10</v>
       </c>
       <c r="W34" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X34" t="n">
         <v>10</v>
       </c>
       <c r="Y34" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z34" t="n">
         <v>23</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>21</v>
       </c>
       <c r="AA34" t="n">
         <v>12</v>
@@ -4617,7 +4617,7 @@
         <v>19</v>
       </c>
       <c r="AC34" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD34" t="n">
         <v>151</v>
@@ -4795,19 +4795,19 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H36" t="n">
         <v>3.25</v>
       </c>
       <c r="I36" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="J36" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K36" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="L36" t="n">
         <v>1.44</v>
@@ -4816,10 +4816,10 @@
         <v>2.75</v>
       </c>
       <c r="N36" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="O36" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P36" t="n">
         <v>1.53</v>
@@ -4828,16 +4828,16 @@
         <v>2.38</v>
       </c>
       <c r="R36" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S36" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="T36" t="n">
         <v>6</v>
       </c>
       <c r="U36" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V36" t="n">
         <v>9.5</v>
@@ -4917,49 +4917,49 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="H37" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="I37" t="n">
         <v>5.75</v>
       </c>
       <c r="J37" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K37" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L37" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="M37" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="N37" t="n">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="O37" t="n">
-        <v>1.7</v>
+        <v>1.92</v>
       </c>
       <c r="P37" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R37" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S37" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="T37" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U37" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="V37" t="n">
         <v>8.5</v>
@@ -4968,43 +4968,43 @@
         <v>11</v>
       </c>
       <c r="X37" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y37" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z37" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AA37" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB37" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC37" t="n">
         <v>67</v>
       </c>
       <c r="AD37" t="n">
-        <v>501</v>
+        <v>401</v>
       </c>
       <c r="AE37" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF37" t="n">
         <v>29</v>
       </c>
       <c r="AG37" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH37" t="n">
         <v>67</v>
       </c>
       <c r="AI37" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ37" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38">
@@ -5039,19 +5039,19 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="H38" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I38" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="J38" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K38" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L38" t="n">
         <v>1.3</v>
@@ -5060,10 +5060,10 @@
         <v>3.5</v>
       </c>
       <c r="N38" t="n">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="O38" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="P38" t="n">
         <v>1.4</v>
@@ -5072,40 +5072,40 @@
         <v>2.75</v>
       </c>
       <c r="R38" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S38" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T38" t="n">
         <v>6</v>
       </c>
       <c r="U38" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="V38" t="n">
+        <v>9</v>
+      </c>
+      <c r="W38" t="n">
         <v>8.5</v>
-      </c>
-      <c r="W38" t="n">
-        <v>9.5</v>
       </c>
       <c r="X38" t="n">
         <v>13</v>
       </c>
       <c r="Y38" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z38" t="n">
         <v>10</v>
       </c>
       <c r="AA38" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB38" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC38" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD38" t="n">
         <v>501</v>
@@ -5114,13 +5114,13 @@
         <v>15</v>
       </c>
       <c r="AF38" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG38" t="n">
         <v>21</v>
       </c>
       <c r="AH38" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AI38" t="n">
         <v>51</v>
@@ -5405,31 +5405,31 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="H41" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I41" t="n">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="J41" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K41" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L41" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M41" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N41" t="n">
         <v>2.05</v>
       </c>
       <c r="O41" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="P41" t="n">
         <v>1.44</v>
@@ -5444,10 +5444,10 @@
         <v>1.73</v>
       </c>
       <c r="T41" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U41" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="V41" t="n">
         <v>8.5</v>
@@ -5471,22 +5471,22 @@
         <v>19</v>
       </c>
       <c r="AC41" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD41" t="n">
         <v>351</v>
       </c>
       <c r="AE41" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF41" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG41" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH41" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI41" t="n">
         <v>41</v>
@@ -6015,7 +6015,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="H46" t="n">
         <v>3.1</v>
@@ -6075,7 +6075,7 @@
         <v>6.5</v>
       </c>
       <c r="AA46" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB46" t="n">
         <v>21</v>
@@ -6137,13 +6137,13 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="H47" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I47" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="J47" t="n">
         <v>1.07</v>
@@ -6152,16 +6152,16 @@
         <v>9</v>
       </c>
       <c r="L47" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M47" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N47" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O47" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P47" t="n">
         <v>1.5</v>
@@ -6176,16 +6176,16 @@
         <v>1.73</v>
       </c>
       <c r="T47" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U47" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V47" t="n">
         <v>9</v>
       </c>
       <c r="W47" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X47" t="n">
         <v>17</v>
@@ -6200,7 +6200,7 @@
         <v>6.5</v>
       </c>
       <c r="AB47" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC47" t="n">
         <v>67</v>
@@ -6209,19 +6209,19 @@
         <v>301</v>
       </c>
       <c r="AE47" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF47" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG47" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH47" t="n">
         <v>41</v>
       </c>
       <c r="AI47" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ47" t="n">
         <v>41</v>
@@ -6259,13 +6259,13 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H48" t="n">
         <v>3.5</v>
       </c>
       <c r="I48" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J48" t="n">
         <v>1.1</v>
@@ -6280,10 +6280,10 @@
         <v>2.5</v>
       </c>
       <c r="N48" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="O48" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="P48" t="n">
         <v>1.57</v>
@@ -6292,16 +6292,16 @@
         <v>2.25</v>
       </c>
       <c r="R48" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="S48" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T48" t="n">
         <v>5</v>
       </c>
       <c r="U48" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="V48" t="n">
         <v>9.5</v>
@@ -6331,7 +6331,7 @@
         <v>101</v>
       </c>
       <c r="AE48" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF48" t="n">
         <v>23</v>
@@ -6343,7 +6343,7 @@
         <v>51</v>
       </c>
       <c r="AI48" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ48" t="n">
         <v>51</v>
@@ -6384,40 +6384,40 @@
         <v>1.65</v>
       </c>
       <c r="H49" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I49" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="J49" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K49" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L49" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M49" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N49" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R49" t="n">
         <v>2</v>
       </c>
-      <c r="O49" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="P49" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R49" t="n">
-        <v>1.91</v>
-      </c>
       <c r="S49" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="T49" t="n">
         <v>6.5</v>
@@ -6438,28 +6438,28 @@
         <v>29</v>
       </c>
       <c r="Z49" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA49" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB49" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC49" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD49" t="n">
         <v>351</v>
       </c>
       <c r="AE49" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF49" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG49" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH49" t="n">
         <v>51</v>
@@ -6625,13 +6625,13 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H51" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I51" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J51" t="n">
         <v>1.07</v>
@@ -6640,10 +6640,10 @@
         <v>9</v>
       </c>
       <c r="L51" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M51" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N51" t="n">
         <v>2.05</v>
@@ -6673,7 +6673,7 @@
         <v>8.5</v>
       </c>
       <c r="W51" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X51" t="n">
         <v>15</v>
@@ -6685,7 +6685,7 @@
         <v>9</v>
       </c>
       <c r="AA51" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB51" t="n">
         <v>17</v>
@@ -7134,10 +7134,10 @@
         <v>3</v>
       </c>
       <c r="N55" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O55" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P55" t="n">
         <v>1.5</v>
@@ -7235,19 +7235,19 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="H56" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I56" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J56" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K56" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L56" t="n">
         <v>1.33</v>
@@ -7280,7 +7280,7 @@
         <v>6</v>
       </c>
       <c r="V56" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W56" t="n">
         <v>9.5</v>
@@ -7292,7 +7292,7 @@
         <v>34</v>
       </c>
       <c r="Z56" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA56" t="n">
         <v>8.5</v>
@@ -7307,7 +7307,7 @@
         <v>1250</v>
       </c>
       <c r="AE56" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF56" t="n">
         <v>34</v>
@@ -19355,13 +19355,13 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H156" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I156" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="J156" t="n">
         <v>1.05</v>
@@ -19376,10 +19376,10 @@
         <v>3.5</v>
       </c>
       <c r="N156" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="O156" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="P156" t="n">
         <v>1.4</v>
@@ -19388,10 +19388,10 @@
         <v>2.75</v>
       </c>
       <c r="R156" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="S156" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T156" t="n">
         <v>8</v>
@@ -19400,19 +19400,19 @@
         <v>11</v>
       </c>
       <c r="V156" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W156" t="n">
         <v>21</v>
       </c>
       <c r="X156" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y156" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z156" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA156" t="n">
         <v>6.5</v>
@@ -19427,19 +19427,19 @@
         <v>201</v>
       </c>
       <c r="AE156" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF156" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG156" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH156" t="n">
         <v>34</v>
       </c>
       <c r="AI156" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ156" t="n">
         <v>34</v>
@@ -19477,31 +19477,31 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="H157" t="n">
         <v>3.5</v>
       </c>
       <c r="I157" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="J157" t="n">
         <v>1.04</v>
       </c>
       <c r="K157" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L157" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M157" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N157" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="O157" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="P157" t="n">
         <v>1.36</v>
@@ -19510,22 +19510,22 @@
         <v>3</v>
       </c>
       <c r="R157" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="S157" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T157" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U157" t="n">
         <v>13</v>
       </c>
       <c r="V157" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W157" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X157" t="n">
         <v>19</v>
@@ -19552,7 +19552,7 @@
         <v>10</v>
       </c>
       <c r="AF157" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG157" t="n">
         <v>10</v>
@@ -19561,7 +19561,7 @@
         <v>26</v>
       </c>
       <c r="AI157" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ157" t="n">
         <v>26</v>
@@ -19599,49 +19599,49 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H158" t="n">
         <v>3.7</v>
       </c>
       <c r="I158" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J158" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K158" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L158" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M158" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N158" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="O158" t="n">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="P158" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q158" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R158" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="S158" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T158" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U158" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V158" t="n">
         <v>9</v>
@@ -19653,19 +19653,19 @@
         <v>17</v>
       </c>
       <c r="Y158" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z158" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA158" t="n">
         <v>7</v>
       </c>
       <c r="AB158" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC158" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD158" t="n">
         <v>201</v>
@@ -19677,16 +19677,16 @@
         <v>17</v>
       </c>
       <c r="AG158" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH158" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI158" t="n">
         <v>26</v>
       </c>
       <c r="AJ158" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="159">
@@ -19742,10 +19742,10 @@
         <v>3.5</v>
       </c>
       <c r="N159" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="O159" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="P159" t="n">
         <v>1.4</v>
@@ -19846,10 +19846,10 @@
         <v>1.75</v>
       </c>
       <c r="H160" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="I160" t="n">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
@@ -19860,21 +19860,21 @@
         <v>3.25</v>
       </c>
       <c r="N160" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="O160" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="P160" t="inlineStr"/>
       <c r="Q160" t="inlineStr"/>
       <c r="R160" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="S160" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="T160" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="U160" t="n">
         <v>8.75</v>
@@ -19886,43 +19886,43 @@
         <v>14.5</v>
       </c>
       <c r="X160" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y160" t="n">
         <v>23</v>
       </c>
       <c r="Z160" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AA160" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AB160" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC160" t="n">
         <v>60</v>
       </c>
       <c r="AD160" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AE160" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AF160" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AG160" t="n">
         <v>14</v>
       </c>
       <c r="AH160" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AI160" t="n">
         <v>40</v>
       </c>
       <c r="AJ160" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="161">
@@ -19957,13 +19957,13 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H161" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="I161" t="n">
-        <v>4.9</v>
+        <v>4.85</v>
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
@@ -19986,10 +19986,10 @@
         <v>2.57</v>
       </c>
       <c r="R161" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="S161" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="T161" t="n">
         <v>7.6</v>
@@ -20001,25 +20001,25 @@
         <v>7.9</v>
       </c>
       <c r="W161" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="X161" t="n">
         <v>12.5</v>
       </c>
       <c r="Y161" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z161" t="n">
         <v>11.25</v>
       </c>
       <c r="AA161" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AB161" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC161" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AD161" t="n">
         <v>450</v>
@@ -20037,7 +20037,7 @@
         <v>90</v>
       </c>
       <c r="AI161" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AJ161" t="n">
         <v>45</v>
@@ -20075,27 +20075,27 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>3.95</v>
+        <v>3.25</v>
       </c>
       <c r="H162" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I162" t="n">
-        <v>1.82</v>
+        <v>2.05</v>
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="M162" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="N162" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="O162" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="P162" t="inlineStr"/>
       <c r="Q162" t="inlineStr"/>
@@ -20103,31 +20103,31 @@
         <v>1.62</v>
       </c>
       <c r="S162" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="T162" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="U162" t="n">
-        <v>25</v>
+        <v>18.5</v>
       </c>
       <c r="V162" t="n">
-        <v>13</v>
+        <v>11.25</v>
       </c>
       <c r="W162" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="X162" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y162" t="n">
         <v>32</v>
       </c>
-      <c r="Y162" t="n">
-        <v>35</v>
-      </c>
       <c r="Z162" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AA162" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="AB162" t="n">
         <v>13</v>
@@ -20139,19 +20139,19 @@
         <v>350</v>
       </c>
       <c r="AE162" t="n">
-        <v>7.9</v>
+        <v>8.5</v>
       </c>
       <c r="AF162" t="n">
-        <v>9.25</v>
+        <v>10.5</v>
       </c>
       <c r="AG162" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AH162" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI162" t="n">
         <v>15.5</v>
-      </c>
-      <c r="AI162" t="n">
-        <v>14</v>
       </c>
       <c r="AJ162" t="n">
         <v>23</v>
@@ -21409,13 +21409,13 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H173" t="n">
         <v>3.2</v>
       </c>
       <c r="I173" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J173" t="n">
         <v>1.08</v>
@@ -21430,10 +21430,10 @@
         <v>2.63</v>
       </c>
       <c r="N173" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="O173" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P173" t="n">
         <v>1.53</v>
@@ -21454,7 +21454,7 @@
         <v>9.5</v>
       </c>
       <c r="V173" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W173" t="n">
         <v>21</v>
@@ -21478,7 +21478,7 @@
         <v>67</v>
       </c>
       <c r="AD173" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AE173" t="n">
         <v>8</v>
@@ -21775,31 +21775,31 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="H176" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I176" t="n">
         <v>3.2</v>
       </c>
-      <c r="I176" t="n">
-        <v>2.88</v>
-      </c>
       <c r="J176" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K176" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L176" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M176" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="N176" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O176" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P176" t="n">
         <v>1.57</v>
@@ -21814,19 +21814,19 @@
         <v>1.67</v>
       </c>
       <c r="T176" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U176" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="V176" t="n">
         <v>10</v>
       </c>
       <c r="W176" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X176" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y176" t="n">
         <v>41</v>
@@ -21844,22 +21844,22 @@
         <v>67</v>
       </c>
       <c r="AD176" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AE176" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF176" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG176" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH176" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI176" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ176" t="n">
         <v>41</v>
@@ -29817,31 +29817,31 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="H242" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I242" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="J242" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K242" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L242" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="M242" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="N242" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="O242" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P242" t="n">
         <v>1.62</v>
@@ -29856,7 +29856,7 @@
         <v>1.57</v>
       </c>
       <c r="T242" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="U242" t="n">
         <v>9.5</v>
@@ -29868,19 +29868,19 @@
         <v>23</v>
       </c>
       <c r="X242" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y242" t="n">
         <v>41</v>
       </c>
       <c r="Z242" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA242" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB242" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC242" t="n">
         <v>81</v>
@@ -29901,7 +29901,7 @@
         <v>34</v>
       </c>
       <c r="AI242" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ242" t="n">
         <v>41</v>
@@ -30183,13 +30183,13 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="H245" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I245" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="J245" t="n">
         <v>1.03</v>
@@ -30198,10 +30198,10 @@
         <v>17</v>
       </c>
       <c r="L245" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="M245" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N245" t="n">
         <v>1.53</v>
@@ -30210,28 +30210,28 @@
         <v>2.4</v>
       </c>
       <c r="P245" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Q245" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="R245" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S245" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="T245" t="n">
         <v>10</v>
       </c>
       <c r="U245" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V245" t="n">
         <v>8.5</v>
       </c>
       <c r="W245" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X245" t="n">
         <v>12</v>
@@ -30240,7 +30240,7 @@
         <v>19</v>
       </c>
       <c r="Z245" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA245" t="n">
         <v>8.5</v>
@@ -30255,22 +30255,22 @@
         <v>126</v>
       </c>
       <c r="AE245" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF245" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG245" t="n">
         <v>15</v>
       </c>
       <c r="AH245" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI245" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ245" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="246">
@@ -30305,37 +30305,37 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="H246" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="I246" t="n">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="J246" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K246" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L246" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M246" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N246" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="O246" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="P246" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q246" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R246" t="n">
         <v>1.75</v>
@@ -30347,28 +30347,28 @@
         <v>8</v>
       </c>
       <c r="U246" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V246" t="n">
         <v>8.5</v>
       </c>
       <c r="W246" t="n">
+        <v>11</v>
+      </c>
+      <c r="X246" t="n">
         <v>12</v>
-      </c>
-      <c r="X246" t="n">
-        <v>13</v>
       </c>
       <c r="Y246" t="n">
         <v>23</v>
       </c>
       <c r="Z246" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA246" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB246" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC246" t="n">
         <v>51</v>
@@ -30377,16 +30377,16 @@
         <v>201</v>
       </c>
       <c r="AE246" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF246" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG246" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH246" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI246" t="n">
         <v>41</v>
@@ -30427,31 +30427,31 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="H247" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="I247" t="n">
-        <v>5.25</v>
+        <v>4.33</v>
       </c>
       <c r="J247" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K247" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L247" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M247" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N247" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O247" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="P247" t="n">
         <v>1.33</v>
@@ -30460,22 +30460,22 @@
         <v>3.25</v>
       </c>
       <c r="R247" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="S247" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T247" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="U247" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V247" t="n">
         <v>8.5</v>
       </c>
       <c r="W247" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="X247" t="n">
         <v>13</v>
@@ -30484,7 +30484,7 @@
         <v>23</v>
       </c>
       <c r="Z247" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA247" t="n">
         <v>7.5</v>
@@ -30493,28 +30493,28 @@
         <v>15</v>
       </c>
       <c r="AC247" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD247" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="AE247" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF247" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG247" t="n">
         <v>15</v>
       </c>
-      <c r="AF247" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG247" t="n">
-        <v>17</v>
-      </c>
       <c r="AH247" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI247" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ247" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="248">
@@ -30549,13 +30549,13 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="H248" t="n">
         <v>3.7</v>
       </c>
       <c r="I248" t="n">
-        <v>4.33</v>
+        <v>3.9</v>
       </c>
       <c r="J248" t="n">
         <v>1.04</v>
@@ -30564,40 +30564,40 @@
         <v>13</v>
       </c>
       <c r="L248" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M248" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N248" t="n">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="O248" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="P248" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q248" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R248" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="S248" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T248" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="U248" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V248" t="n">
         <v>8.5</v>
       </c>
       <c r="W248" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X248" t="n">
         <v>15</v>
@@ -30606,37 +30606,37 @@
         <v>23</v>
       </c>
       <c r="Z248" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AA248" t="n">
         <v>7</v>
       </c>
       <c r="AB248" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC248" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD248" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE248" t="n">
         <v>13</v>
       </c>
       <c r="AF248" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG248" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH248" t="n">
         <v>41</v>
       </c>
       <c r="AI248" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ248" t="n">
         <v>34</v>
-      </c>
-      <c r="AJ248" t="n">
-        <v>41</v>
       </c>
     </row>
     <row r="249">
@@ -30671,49 +30671,49 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="H249" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I249" t="n">
         <v>3.3</v>
       </c>
-      <c r="I249" t="n">
-        <v>3.1</v>
-      </c>
       <c r="J249" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K249" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L249" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="M249" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="N249" t="n">
-        <v>1.9</v>
+        <v>1.67</v>
       </c>
       <c r="O249" t="n">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="P249" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q249" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R249" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="S249" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="T249" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="U249" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V249" t="n">
         <v>9</v>
@@ -30722,34 +30722,34 @@
         <v>21</v>
       </c>
       <c r="X249" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y249" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="Z249" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AA249" t="n">
         <v>6.5</v>
       </c>
       <c r="AB249" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC249" t="n">
         <v>41</v>
       </c>
       <c r="AD249" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE249" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AF249" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG249" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH249" t="n">
         <v>34</v>
@@ -30915,67 +30915,67 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>2.35</v>
+        <v>2.15</v>
       </c>
       <c r="H251" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I251" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J251" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K251" t="n">
+        <v>13</v>
+      </c>
+      <c r="L251" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M251" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="N251" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="O251" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="P251" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q251" t="n">
         <v>3</v>
       </c>
-      <c r="J251" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K251" t="n">
-        <v>11</v>
-      </c>
-      <c r="L251" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M251" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="N251" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="O251" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="P251" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q251" t="n">
-        <v>2.75</v>
-      </c>
       <c r="R251" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S251" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T251" t="n">
         <v>8.5</v>
       </c>
       <c r="U251" t="n">
+        <v>11</v>
+      </c>
+      <c r="V251" t="n">
+        <v>9</v>
+      </c>
+      <c r="W251" t="n">
+        <v>19</v>
+      </c>
+      <c r="X251" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y251" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z251" t="n">
         <v>12</v>
       </c>
-      <c r="V251" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="W251" t="n">
-        <v>21</v>
-      </c>
-      <c r="X251" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y251" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z251" t="n">
-        <v>11</v>
-      </c>
       <c r="AA251" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB251" t="n">
         <v>13</v>
@@ -30984,22 +30984,22 @@
         <v>41</v>
       </c>
       <c r="AD251" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE251" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF251" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG251" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH251" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI251" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ251" t="n">
         <v>29</v>
@@ -31037,19 +31037,19 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="H252" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I252" t="n">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="J252" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K252" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L252" t="n">
         <v>1.25</v>
@@ -31058,10 +31058,10 @@
         <v>3.75</v>
       </c>
       <c r="N252" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="O252" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="P252" t="n">
         <v>1.36</v>
@@ -31070,25 +31070,25 @@
         <v>3</v>
       </c>
       <c r="R252" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S252" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T252" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U252" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V252" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W252" t="n">
+        <v>21</v>
+      </c>
+      <c r="X252" t="n">
         <v>17</v>
-      </c>
-      <c r="X252" t="n">
-        <v>15</v>
       </c>
       <c r="Y252" t="n">
         <v>23</v>
@@ -31100,7 +31100,7 @@
         <v>6.5</v>
       </c>
       <c r="AB252" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC252" t="n">
         <v>41</v>
@@ -31109,22 +31109,22 @@
         <v>151</v>
       </c>
       <c r="AE252" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF252" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG252" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH252" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI252" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ252" t="n">
         <v>29</v>
-      </c>
-      <c r="AJ252" t="n">
-        <v>34</v>
       </c>
     </row>
     <row r="253">
@@ -31284,7 +31284,7 @@
         <v>2.25</v>
       </c>
       <c r="H254" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I254" t="n">
         <v>3.4</v>
@@ -31344,16 +31344,16 @@
         <v>6</v>
       </c>
       <c r="AB254" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC254" t="n">
         <v>51</v>
       </c>
       <c r="AD254" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AE254" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF254" t="n">
         <v>15</v>
@@ -31769,13 +31769,13 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H258" t="n">
         <v>3.35</v>
       </c>
       <c r="I258" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="J258" t="n">
         <v>1.05</v>
@@ -31796,7 +31796,7 @@
         <v>1.91</v>
       </c>
       <c r="P258" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="Q258" t="n">
         <v>2.75</v>
@@ -31808,7 +31808,7 @@
         <v>2.05</v>
       </c>
       <c r="T258" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="U258" t="n">
         <v>9.75</v>
@@ -31817,7 +31817,7 @@
         <v>8.25</v>
       </c>
       <c r="W258" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="X258" t="n">
         <v>14.5</v>
@@ -31832,7 +31832,7 @@
         <v>6.6</v>
       </c>
       <c r="AB258" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC258" t="n">
         <v>55</v>
@@ -31841,7 +31841,7 @@
         <v>400</v>
       </c>
       <c r="AE258" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AF258" t="n">
         <v>21</v>
@@ -31856,7 +31856,7 @@
         <v>32</v>
       </c>
       <c r="AJ258" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="259">
@@ -31891,13 +31891,13 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>2.07</v>
+        <v>2.18</v>
       </c>
       <c r="H259" t="n">
         <v>3.35</v>
       </c>
       <c r="I259" t="n">
-        <v>3.1</v>
+        <v>2.92</v>
       </c>
       <c r="J259" t="n">
         <v>1.06</v>
@@ -31921,7 +31921,7 @@
         <v>1.4</v>
       </c>
       <c r="Q259" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="R259" t="n">
         <v>1.7</v>
@@ -31930,22 +31930,22 @@
         <v>2.02</v>
       </c>
       <c r="T259" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="U259" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="V259" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="W259" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X259" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y259" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Z259" t="n">
         <v>7.5</v>
@@ -31963,19 +31963,19 @@
         <v>450</v>
       </c>
       <c r="AE259" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AF259" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AG259" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH259" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AI259" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AJ259" t="n">
         <v>32</v>
@@ -32013,70 +32013,70 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="H260" t="n">
         <v>3.4</v>
       </c>
       <c r="I260" t="n">
-        <v>3</v>
+        <v>2.82</v>
       </c>
       <c r="J260" t="n">
         <v>1.05</v>
       </c>
       <c r="K260" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="L260" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="M260" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="N260" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="O260" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="P260" t="n">
         <v>1.36</v>
       </c>
       <c r="Q260" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="R260" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S260" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="T260" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="U260" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="V260" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="W260" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="X260" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Y260" t="n">
         <v>24</v>
       </c>
       <c r="Z260" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AA260" t="n">
         <v>6.8</v>
       </c>
       <c r="AB260" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC260" t="n">
         <v>50</v>
@@ -32085,22 +32085,22 @@
         <v>350</v>
       </c>
       <c r="AE260" t="n">
-        <v>11.25</v>
+        <v>10.25</v>
       </c>
       <c r="AF260" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG260" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AH260" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AI260" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ260" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="261">
@@ -32269,34 +32269,34 @@
         <v>1.06</v>
       </c>
       <c r="K262" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="L262" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M262" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="N262" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="O262" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="P262" t="n">
         <v>1.42</v>
       </c>
       <c r="Q262" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="R262" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="S262" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="T262" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="U262" t="n">
         <v>11.25</v>
@@ -32311,31 +32311,31 @@
         <v>19</v>
       </c>
       <c r="Y262" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Z262" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AA262" t="n">
         <v>6.5</v>
       </c>
       <c r="AB262" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC262" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AD262" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AE262" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AF262" t="n">
         <v>14</v>
       </c>
       <c r="AG262" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AH262" t="n">
         <v>32</v>
@@ -32344,7 +32344,7 @@
         <v>24</v>
       </c>
       <c r="AJ262" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="263">
@@ -32623,13 +32623,13 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="H265" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="I265" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
@@ -32646,22 +32646,22 @@
         <v>1.78</v>
       </c>
       <c r="P265" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="Q265" t="n">
-        <v>2.47</v>
+        <v>2.52</v>
       </c>
       <c r="R265" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S265" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="T265" t="n">
-        <v>7.9</v>
+        <v>8.5</v>
       </c>
       <c r="U265" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="V265" t="n">
         <v>8.75</v>
@@ -32670,43 +32670,43 @@
         <v>24</v>
       </c>
       <c r="X265" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Y265" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z265" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AA265" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AB265" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC265" t="n">
+        <v>55</v>
+      </c>
+      <c r="AD265" t="n">
+        <v>400</v>
+      </c>
+      <c r="AE265" t="n">
         <v>9.25</v>
       </c>
-      <c r="AA265" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AB265" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC265" t="n">
-        <v>50</v>
-      </c>
-      <c r="AD265" t="n">
-        <v>350</v>
-      </c>
-      <c r="AE265" t="n">
-        <v>10.25</v>
-      </c>
       <c r="AF265" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AG265" t="n">
         <v>10.75</v>
       </c>
       <c r="AH265" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AI265" t="n">
         <v>27</v>
       </c>
       <c r="AJ265" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="266">
@@ -32741,13 +32741,13 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>2.02</v>
+        <v>1.65</v>
       </c>
       <c r="H266" t="n">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="I266" t="n">
-        <v>3.75</v>
+        <v>5.4</v>
       </c>
       <c r="J266" t="n">
         <v>1.11</v>
@@ -32756,79 +32756,79 @@
         <v>6</v>
       </c>
       <c r="L266" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="M266" t="n">
-        <v>2.52</v>
+        <v>2.65</v>
       </c>
       <c r="N266" t="n">
-        <v>2.18</v>
+        <v>2.05</v>
       </c>
       <c r="O266" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="P266" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="Q266" t="n">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
       <c r="R266" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S266" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="T266" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="U266" t="n">
-        <v>8.5</v>
+        <v>6.8</v>
       </c>
       <c r="V266" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="W266" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="X266" t="n">
-        <v>18.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y266" t="n">
         <v>35</v>
       </c>
       <c r="Z266" t="n">
-        <v>7.3</v>
+        <v>7.9</v>
       </c>
       <c r="AA266" t="n">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="AB266" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="AC266" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AD266" t="n">
         <v>900</v>
       </c>
       <c r="AE266" t="n">
-        <v>9.25</v>
+        <v>11.75</v>
       </c>
       <c r="AF266" t="n">
-        <v>19.5</v>
+        <v>30</v>
       </c>
       <c r="AG266" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AH266" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="AI266" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="AJ266" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
